--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="706" uniqueCount="640">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="642">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -417,6 +412,9 @@
     <t>内伤别怕，用后可将人轻易举起</t>
   </si>
   <si>
+    <t>人参</t>
+  </si>
+  <si>
     <t>人</t>
   </si>
   <si>
@@ -613,6 +611,9 @@
   </si>
   <si>
     <t>珍贵异果，可提高内力最大值</t>
+  </si>
+  <si>
+    <t>千年人参</t>
   </si>
   <si>
     <t>千年物，提高生命及内力最大值</t>
@@ -1583,7 +1584,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1601,7 +1602,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t></t>
     </r>
@@ -1979,19 +1980,23 @@
     <t>最后</t>
   </si>
   <si>
-    <t>人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>千年人参</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <t>测试道具</t>
+  </si>
+  <si>
+    <t>测试</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2002,7 +2007,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2012,39 +2017,369 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2052,25 +2387,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2082,25 +2659,70 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2429,30 +3051,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX203"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2598,7 +3221,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -2746,11 +3369,11 @@
       <c r="AW3" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="AX3" s="5" t="s">
+      <c r="AX3" s="6" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2898,9 +3521,9 @@
       <c r="AW4" s="3">
         <v>-1</v>
       </c>
-      <c r="AX4" s="6"/>
+      <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3048,9 +3671,9 @@
       <c r="AW5" s="3">
         <v>-1</v>
       </c>
-      <c r="AX5" s="6"/>
+      <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3198,9 +3821,9 @@
       <c r="AW6" s="3">
         <v>-1</v>
       </c>
-      <c r="AX6" s="6"/>
+      <c r="AX6" s="7"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3348,9 +3971,9 @@
       <c r="AW7" s="3">
         <v>-1</v>
       </c>
-      <c r="AX7" s="6"/>
+      <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -3498,9 +4121,9 @@
       <c r="AW8" s="3">
         <v>-1</v>
       </c>
-      <c r="AX8" s="6"/>
+      <c r="AX8" s="7"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -3648,9 +4271,9 @@
       <c r="AW9" s="3">
         <v>-1</v>
       </c>
-      <c r="AX9" s="6"/>
+      <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -3798,9 +4421,9 @@
       <c r="AW10" s="3">
         <v>-1</v>
       </c>
-      <c r="AX10" s="6"/>
+      <c r="AX10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -3948,9 +4571,9 @@
       <c r="AW11" s="3">
         <v>-1</v>
       </c>
-      <c r="AX11" s="6"/>
+      <c r="AX11" s="7"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4098,9 +4721,9 @@
       <c r="AW12" s="3">
         <v>-1</v>
       </c>
-      <c r="AX12" s="6"/>
+      <c r="AX12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4248,9 +4871,9 @@
       <c r="AW13" s="3">
         <v>-1</v>
       </c>
-      <c r="AX13" s="6"/>
+      <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -4398,20 +5021,20 @@
       <c r="AW14" s="3">
         <v>-1</v>
       </c>
-      <c r="AX14" s="6"/>
+      <c r="AX14" s="7"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15" s="3">
         <v>11</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>638</v>
+      <c r="B15" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -4548,20 +5171,20 @@
       <c r="AW15" s="3">
         <v>-1</v>
       </c>
-      <c r="AX15" s="6"/>
+      <c r="AX15" s="7"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16" s="3">
         <v>12</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -4698,20 +5321,20 @@
       <c r="AW16" s="3">
         <v>-1</v>
       </c>
-      <c r="AX16" s="6"/>
+      <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17" s="3">
         <v>13</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -4848,20 +5471,20 @@
       <c r="AW17" s="3">
         <v>-1</v>
       </c>
-      <c r="AX17" s="6"/>
+      <c r="AX17" s="7"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18" s="3">
         <v>14</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -4998,20 +5621,20 @@
       <c r="AW18" s="3">
         <v>-1</v>
       </c>
-      <c r="AX18" s="6"/>
+      <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19" s="3">
         <v>15</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -5148,20 +5771,20 @@
       <c r="AW19" s="3">
         <v>-1</v>
       </c>
-      <c r="AX19" s="6"/>
+      <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20" s="3">
         <v>16</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -5298,20 +5921,20 @@
       <c r="AW20" s="3">
         <v>-1</v>
       </c>
-      <c r="AX20" s="6"/>
+      <c r="AX20" s="7"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21" s="3">
         <v>17</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -5448,20 +6071,20 @@
       <c r="AW21" s="3">
         <v>-1</v>
       </c>
-      <c r="AX21" s="6"/>
+      <c r="AX21" s="7"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22" s="3">
         <v>18</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -5598,20 +6221,20 @@
       <c r="AW22" s="3">
         <v>-1</v>
       </c>
-      <c r="AX22" s="6"/>
+      <c r="AX22" s="7"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23" s="3">
         <v>19</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -5748,20 +6371,20 @@
       <c r="AW23" s="3">
         <v>-1</v>
       </c>
-      <c r="AX23" s="6"/>
+      <c r="AX23" s="7"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24" s="3">
         <v>20</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -5898,20 +6521,20 @@
       <c r="AW24" s="3">
         <v>-1</v>
       </c>
-      <c r="AX24" s="6"/>
+      <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25" s="3">
         <v>21</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -6048,20 +6671,20 @@
       <c r="AW25" s="3">
         <v>-1</v>
       </c>
-      <c r="AX25" s="6"/>
+      <c r="AX25" s="7"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26" s="3">
         <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -6198,20 +6821,20 @@
       <c r="AW26" s="3">
         <v>-1</v>
       </c>
-      <c r="AX26" s="6"/>
+      <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27" s="3">
         <v>23</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -6348,20 +6971,20 @@
       <c r="AW27" s="3">
         <v>-1</v>
       </c>
-      <c r="AX27" s="6"/>
+      <c r="AX27" s="7"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28" s="3">
         <v>24</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -6498,20 +7121,20 @@
       <c r="AW28" s="3">
         <v>-1</v>
       </c>
-      <c r="AX28" s="6"/>
+      <c r="AX28" s="7"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" s="3">
         <v>25</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -6648,20 +7271,20 @@
       <c r="AW29" s="3">
         <v>-1</v>
       </c>
-      <c r="AX29" s="6"/>
+      <c r="AX29" s="7"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" s="3">
         <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -6798,20 +7421,20 @@
       <c r="AW30" s="3">
         <v>-1</v>
       </c>
-      <c r="AX30" s="6"/>
+      <c r="AX30" s="7"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31" s="3">
         <v>27</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -6948,20 +7571,20 @@
       <c r="AW31" s="3">
         <v>-1</v>
       </c>
-      <c r="AX31" s="6"/>
+      <c r="AX31" s="7"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32" s="3">
         <v>28</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -7098,20 +7721,20 @@
       <c r="AW32" s="3">
         <v>-1</v>
       </c>
-      <c r="AX32" s="6"/>
+      <c r="AX32" s="7"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33" s="3">
         <v>29</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -7248,20 +7871,20 @@
       <c r="AW33" s="3">
         <v>-1</v>
       </c>
-      <c r="AX33" s="6"/>
+      <c r="AX33" s="7"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34" s="3">
         <v>30</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -7398,20 +8021,20 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="6"/>
+      <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35" s="3">
         <v>31</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -7548,20 +8171,20 @@
       <c r="AW35" s="3">
         <v>-1</v>
       </c>
-      <c r="AX35" s="6"/>
+      <c r="AX35" s="7"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36" s="3">
         <v>32</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -7698,20 +8321,20 @@
       <c r="AW36" s="3">
         <v>-1</v>
       </c>
-      <c r="AX36" s="6"/>
+      <c r="AX36" s="7"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37" s="3">
         <v>33</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -7848,20 +8471,20 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="6"/>
+      <c r="AX37" s="7"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38" s="3">
         <v>34</v>
       </c>
-      <c r="B38" s="7" t="s">
-        <v>639</v>
+      <c r="B38" s="5" t="s">
+        <v>199</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -7998,20 +8621,20 @@
       <c r="AW38" s="3">
         <v>-1</v>
       </c>
-      <c r="AX38" s="6"/>
+      <c r="AX38" s="7"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39" s="3">
         <v>35</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -8148,20 +8771,20 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="6"/>
+      <c r="AX39" s="7"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40" s="3">
         <v>36</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -8298,20 +8921,20 @@
       <c r="AW40" s="3">
         <v>-1</v>
       </c>
-      <c r="AX40" s="6"/>
+      <c r="AX40" s="7"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41" s="3">
         <v>37</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -8448,20 +9071,20 @@
       <c r="AW41" s="3">
         <v>-1</v>
       </c>
-      <c r="AX41" s="6"/>
+      <c r="AX41" s="7"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42" s="3">
         <v>38</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -8598,20 +9221,20 @@
       <c r="AW42" s="3">
         <v>-1</v>
       </c>
-      <c r="AX42" s="6"/>
+      <c r="AX42" s="7"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43" s="3">
         <v>39</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -8748,20 +9371,20 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="6"/>
+      <c r="AX43" s="7"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44" s="3">
         <v>40</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -8898,20 +9521,20 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="6"/>
+      <c r="AX44" s="7"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45" s="3">
         <v>41</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -9048,20 +9671,20 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="6"/>
+      <c r="AX45" s="7"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46" s="3">
         <v>42</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -9198,20 +9821,20 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="6"/>
+      <c r="AX46" s="7"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47" s="3">
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -9348,20 +9971,20 @@
       <c r="AW47" s="3">
         <v>-1</v>
       </c>
-      <c r="AX47" s="6"/>
+      <c r="AX47" s="7"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48" s="3">
         <v>44</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -9498,20 +10121,20 @@
       <c r="AW48" s="3">
         <v>-1</v>
       </c>
-      <c r="AX48" s="6"/>
+      <c r="AX48" s="7"/>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49" s="3">
         <v>45</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -9648,20 +10271,20 @@
       <c r="AW49" s="3">
         <v>-1</v>
       </c>
-      <c r="AX49" s="6"/>
+      <c r="AX49" s="7"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50" s="3">
         <v>46</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -9798,20 +10421,20 @@
       <c r="AW50" s="3">
         <v>-1</v>
       </c>
-      <c r="AX50" s="6"/>
+      <c r="AX50" s="7"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50">
       <c r="A51" s="3">
         <v>47</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -9948,20 +10571,20 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="6"/>
+      <c r="AX51" s="7"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50">
       <c r="A52" s="3">
         <v>48</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D52" s="3" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -10098,22 +10721,22 @@
       <c r="AW52" s="3">
         <v>171</v>
       </c>
-      <c r="AX52" s="6" t="s">
-        <v>239</v>
+      <c r="AX52" s="7" t="s">
+        <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50">
       <c r="A53" s="3">
         <v>49</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -10250,22 +10873,22 @@
       <c r="AW53" s="3">
         <v>171</v>
       </c>
-      <c r="AX53" s="6" t="s">
-        <v>243</v>
+      <c r="AX53" s="7" t="s">
+        <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:50">
       <c r="A54" s="3">
         <v>50</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D54" s="3" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -10402,22 +11025,22 @@
       <c r="AW54" s="3">
         <v>171</v>
       </c>
-      <c r="AX54" s="6" t="s">
-        <v>247</v>
+      <c r="AX54" s="7" t="s">
+        <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:50">
       <c r="A55" s="3">
         <v>51</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D55" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -10554,22 +11177,22 @@
       <c r="AW55" s="3">
         <v>171</v>
       </c>
-      <c r="AX55" s="6" t="s">
-        <v>251</v>
+      <c r="AX55" s="7" t="s">
+        <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:50">
       <c r="A56" s="3">
         <v>52</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D56" s="3" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -10706,22 +11329,22 @@
       <c r="AW56" s="3">
         <v>171</v>
       </c>
-      <c r="AX56" s="6" t="s">
-        <v>255</v>
+      <c r="AX56" s="7" t="s">
+        <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:50">
       <c r="A57" s="3">
         <v>53</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -10858,22 +11481,22 @@
       <c r="AW57" s="3">
         <v>171</v>
       </c>
-      <c r="AX57" s="6" t="s">
-        <v>259</v>
+      <c r="AX57" s="7" t="s">
+        <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:50">
       <c r="A58" s="3">
         <v>54</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D58" s="3" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E58" s="3">
         <v>11</v>
@@ -11010,20 +11633,20 @@
       <c r="AW58" s="3">
         <v>-1</v>
       </c>
-      <c r="AX58" s="6"/>
+      <c r="AX58" s="7"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50">
       <c r="A59" s="3">
         <v>55</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E59" s="3">
         <v>6</v>
@@ -11160,20 +11783,20 @@
       <c r="AW59" s="3">
         <v>-1</v>
       </c>
-      <c r="AX59" s="6"/>
+      <c r="AX59" s="7"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:50">
       <c r="A60" s="3">
         <v>56</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D60" s="3" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E60" s="3">
         <v>15</v>
@@ -11310,20 +11933,20 @@
       <c r="AW60" s="3">
         <v>-1</v>
       </c>
-      <c r="AX60" s="6"/>
+      <c r="AX60" s="7"/>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:50">
       <c r="A61" s="3">
         <v>57</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D61" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E61" s="3">
         <v>16</v>
@@ -11460,20 +12083,20 @@
       <c r="AW61" s="3">
         <v>-1</v>
       </c>
-      <c r="AX61" s="6"/>
+      <c r="AX61" s="7"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:50">
       <c r="A62" s="3">
         <v>58</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D62" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E62" s="3">
         <v>20</v>
@@ -11610,20 +12233,20 @@
       <c r="AW62" s="3">
         <v>-1</v>
       </c>
-      <c r="AX62" s="6"/>
+      <c r="AX62" s="7"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50">
       <c r="A63" s="3">
         <v>59</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D63" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E63" s="3">
         <v>18</v>
@@ -11760,20 +12383,20 @@
       <c r="AW63" s="3">
         <v>-1</v>
       </c>
-      <c r="AX63" s="6"/>
+      <c r="AX63" s="7"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50">
       <c r="A64" s="3">
         <v>60</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D64" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E64" s="3">
         <v>23</v>
@@ -11910,20 +12533,20 @@
       <c r="AW64" s="3">
         <v>-1</v>
       </c>
-      <c r="AX64" s="6"/>
+      <c r="AX64" s="7"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50">
       <c r="A65" s="3">
         <v>61</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D65" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E65" s="3">
         <v>24</v>
@@ -12060,20 +12683,20 @@
       <c r="AW65" s="3">
         <v>-1</v>
       </c>
-      <c r="AX65" s="6"/>
+      <c r="AX65" s="7"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50">
       <c r="A66" s="3">
         <v>62</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E66" s="3">
         <v>25</v>
@@ -12210,20 +12833,20 @@
       <c r="AW66" s="3">
         <v>-1</v>
       </c>
-      <c r="AX66" s="6"/>
+      <c r="AX66" s="7"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50">
       <c r="A67" s="3">
         <v>63</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E67" s="3">
         <v>29</v>
@@ -12360,20 +12983,20 @@
       <c r="AW67" s="3">
         <v>-1</v>
       </c>
-      <c r="AX67" s="6"/>
+      <c r="AX67" s="7"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50">
       <c r="A68" s="3">
         <v>64</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E68" s="3">
         <v>28</v>
@@ -12510,20 +13133,20 @@
       <c r="AW68" s="3">
         <v>-1</v>
       </c>
-      <c r="AX68" s="6"/>
+      <c r="AX68" s="7"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50">
       <c r="A69" s="3">
         <v>65</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E69" s="3">
         <v>27</v>
@@ -12660,20 +13283,20 @@
       <c r="AW69" s="3">
         <v>-1</v>
       </c>
-      <c r="AX69" s="6"/>
+      <c r="AX69" s="7"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50">
       <c r="A70" s="3">
         <v>66</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E70" s="3">
         <v>30</v>
@@ -12810,20 +13433,20 @@
       <c r="AW70" s="3">
         <v>-1</v>
       </c>
-      <c r="AX70" s="6"/>
+      <c r="AX70" s="7"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50">
       <c r="A71" s="3">
         <v>67</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D71" s="3" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E71" s="3">
         <v>89</v>
@@ -12960,20 +13583,20 @@
       <c r="AW71" s="3">
         <v>-1</v>
       </c>
-      <c r="AX71" s="6"/>
+      <c r="AX71" s="7"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50">
       <c r="A72" s="3">
         <v>68</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D72" s="3" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E72" s="3">
         <v>45</v>
@@ -13110,20 +13733,20 @@
       <c r="AW72" s="3">
         <v>-1</v>
       </c>
-      <c r="AX72" s="6"/>
+      <c r="AX72" s="7"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50">
       <c r="A73" s="3">
         <v>69</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="E73" s="3">
         <v>46</v>
@@ -13260,20 +13883,20 @@
       <c r="AW73" s="3">
         <v>-1</v>
       </c>
-      <c r="AX73" s="6"/>
+      <c r="AX73" s="7"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="E74" s="3">
         <v>53</v>
@@ -13410,20 +14033,20 @@
       <c r="AW74" s="3">
         <v>-1</v>
       </c>
-      <c r="AX74" s="6"/>
+      <c r="AX74" s="7"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="D75" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E75" s="3">
         <v>47</v>
@@ -13560,20 +14183,20 @@
       <c r="AW75" s="3">
         <v>-1</v>
       </c>
-      <c r="AX75" s="6"/>
+      <c r="AX75" s="7"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D76" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="E76" s="3">
         <v>54</v>
@@ -13710,20 +14333,20 @@
       <c r="AW76" s="3">
         <v>-1</v>
       </c>
-      <c r="AX76" s="6"/>
+      <c r="AX76" s="7"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="D77" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="E77" s="3">
         <v>49</v>
@@ -13860,20 +14483,20 @@
       <c r="AW77" s="3">
         <v>-1</v>
       </c>
-      <c r="AX77" s="6"/>
+      <c r="AX77" s="7"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="E78" s="3">
         <v>55</v>
@@ -14010,20 +14633,20 @@
       <c r="AW78" s="3">
         <v>-1</v>
       </c>
-      <c r="AX78" s="6"/>
+      <c r="AX78" s="7"/>
     </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:50">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="D79" s="3" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="E79" s="3">
         <v>58</v>
@@ -14160,20 +14783,20 @@
       <c r="AW79" s="3">
         <v>-1</v>
       </c>
-      <c r="AX79" s="6"/>
+      <c r="AX79" s="7"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="E80" s="3">
         <v>59</v>
@@ -14310,20 +14933,20 @@
       <c r="AW80" s="3">
         <v>-1</v>
       </c>
-      <c r="AX80" s="6"/>
+      <c r="AX80" s="7"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D81" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="E81" s="3">
         <v>57</v>
@@ -14460,20 +15083,20 @@
       <c r="AW81" s="3">
         <v>-1</v>
       </c>
-      <c r="AX81" s="6"/>
+      <c r="AX81" s="7"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D82" s="3" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -14610,20 +15233,20 @@
       <c r="AW82" s="3">
         <v>-1</v>
       </c>
-      <c r="AX82" s="6"/>
+      <c r="AX82" s="7"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:50">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="D83" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="E83" s="3">
         <v>61</v>
@@ -14760,20 +15383,20 @@
       <c r="AW83" s="3">
         <v>-1</v>
       </c>
-      <c r="AX83" s="6"/>
+      <c r="AX83" s="7"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:50">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D84" s="3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="E84" s="3">
         <v>63</v>
@@ -14910,20 +15533,20 @@
       <c r="AW84" s="3">
         <v>-1</v>
       </c>
-      <c r="AX84" s="6"/>
+      <c r="AX84" s="7"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:50">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="D85" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="E85" s="3">
         <v>66</v>
@@ -15060,20 +15683,20 @@
       <c r="AW85" s="3">
         <v>-1</v>
       </c>
-      <c r="AX85" s="6"/>
+      <c r="AX85" s="7"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D86" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="E86" s="3">
         <v>65</v>
@@ -15210,20 +15833,20 @@
       <c r="AW86" s="3">
         <v>-1</v>
       </c>
-      <c r="AX86" s="6"/>
+      <c r="AX86" s="7"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D87" s="3" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="E87" s="3">
         <v>64</v>
@@ -15360,20 +15983,20 @@
       <c r="AW87" s="3">
         <v>-1</v>
       </c>
-      <c r="AX87" s="6"/>
+      <c r="AX87" s="7"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50">
       <c r="A88" s="3">
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E88" s="3">
         <v>67</v>
@@ -15510,20 +16133,20 @@
       <c r="AW88" s="3">
         <v>-1</v>
       </c>
-      <c r="AX88" s="6"/>
+      <c r="AX88" s="7"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D89" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E89" s="3">
         <v>68</v>
@@ -15660,20 +16283,20 @@
       <c r="AW89" s="3">
         <v>-1</v>
       </c>
-      <c r="AX89" s="6"/>
+      <c r="AX89" s="7"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50">
       <c r="A90" s="3">
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E90" s="3">
         <v>77</v>
@@ -15810,20 +16433,20 @@
       <c r="AW90" s="3">
         <v>-1</v>
       </c>
-      <c r="AX90" s="6"/>
+      <c r="AX90" s="7"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:50">
       <c r="A91" s="3">
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="E91" s="3">
         <v>78</v>
@@ -15960,20 +16583,20 @@
       <c r="AW91" s="3">
         <v>-1</v>
       </c>
-      <c r="AX91" s="6"/>
+      <c r="AX91" s="7"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50">
       <c r="A92" s="3">
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D92" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="E92" s="3">
         <v>-1</v>
@@ -16110,20 +16733,20 @@
       <c r="AW92" s="3">
         <v>-1</v>
       </c>
-      <c r="AX92" s="6"/>
+      <c r="AX92" s="7"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:50">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D93" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E93" s="3">
         <v>-1</v>
@@ -16260,22 +16883,22 @@
       <c r="AW93" s="3">
         <v>172</v>
       </c>
-      <c r="AX93" s="6" t="s">
-        <v>362</v>
+      <c r="AX93" s="7" t="s">
+        <v>364</v>
       </c>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="D94" s="3" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E94" s="3">
         <v>-1</v>
@@ -16412,20 +17035,20 @@
       <c r="AW94" s="3">
         <v>-1</v>
       </c>
-      <c r="AX94" s="6"/>
+      <c r="AX94" s="7"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50">
       <c r="A95" s="3">
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D95" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="E95" s="3">
         <v>-1</v>
@@ -16562,20 +17185,20 @@
       <c r="AW95" s="3">
         <v>-1</v>
       </c>
-      <c r="AX95" s="6"/>
+      <c r="AX95" s="7"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:50">
       <c r="A96" s="3">
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E96" s="3">
         <v>-1</v>
@@ -16712,20 +17335,20 @@
       <c r="AW96" s="3">
         <v>-1</v>
       </c>
-      <c r="AX96" s="6"/>
+      <c r="AX96" s="7"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:50">
       <c r="A97" s="3">
         <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="E97" s="3">
         <v>-1</v>
@@ -16862,20 +17485,20 @@
       <c r="AW97" s="3">
         <v>-1</v>
       </c>
-      <c r="AX97" s="6"/>
+      <c r="AX97" s="7"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:50">
       <c r="A98" s="3">
         <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E98" s="3">
         <v>-1</v>
@@ -17012,20 +17635,20 @@
       <c r="AW98" s="3">
         <v>-1</v>
       </c>
-      <c r="AX98" s="6"/>
+      <c r="AX98" s="7"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:50">
       <c r="A99" s="3">
         <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="E99" s="3">
         <v>92</v>
@@ -17162,20 +17785,20 @@
       <c r="AW99" s="3">
         <v>-1</v>
       </c>
-      <c r="AX99" s="6"/>
+      <c r="AX99" s="7"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:50">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="D100" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E100" s="3">
         <v>-1</v>
@@ -17312,20 +17935,20 @@
       <c r="AW100" s="3">
         <v>-1</v>
       </c>
-      <c r="AX100" s="6"/>
+      <c r="AX100" s="7"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:50">
       <c r="A101" s="3">
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C101" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="D101" s="3" t="s">
         <v>382</v>
-      </c>
-      <c r="D101" s="3" t="s">
-        <v>380</v>
       </c>
       <c r="E101" s="3">
         <v>-1</v>
@@ -17462,20 +18085,20 @@
       <c r="AW101" s="3">
         <v>-1</v>
       </c>
-      <c r="AX101" s="6"/>
+      <c r="AX101" s="7"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:50">
       <c r="A102" s="3">
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E102" s="3">
         <v>-1</v>
@@ -17612,20 +18235,20 @@
       <c r="AW102" s="3">
         <v>-1</v>
       </c>
-      <c r="AX102" s="6"/>
+      <c r="AX102" s="7"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:50">
       <c r="A103" s="3">
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="E103" s="3">
         <v>-1</v>
@@ -17762,20 +18385,20 @@
       <c r="AW103" s="3">
         <v>-1</v>
       </c>
-      <c r="AX103" s="6"/>
+      <c r="AX103" s="7"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:50">
       <c r="A104" s="3">
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E104" s="3">
         <v>-1</v>
@@ -17912,20 +18535,20 @@
       <c r="AW104" s="3">
         <v>-1</v>
       </c>
-      <c r="AX104" s="6"/>
+      <c r="AX104" s="7"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:50">
       <c r="A105" s="3">
         <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E105" s="3">
         <v>-1</v>
@@ -18062,20 +18685,20 @@
       <c r="AW105" s="3">
         <v>-1</v>
       </c>
-      <c r="AX105" s="6"/>
+      <c r="AX105" s="7"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:50">
       <c r="A106" s="3">
         <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="E106" s="3">
         <v>-1</v>
@@ -18212,20 +18835,20 @@
       <c r="AW106" s="3">
         <v>-1</v>
       </c>
-      <c r="AX106" s="6"/>
+      <c r="AX106" s="7"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:50">
       <c r="A107" s="3">
         <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="E107" s="3">
         <v>-1</v>
@@ -18362,20 +18985,20 @@
       <c r="AW107" s="3">
         <v>-1</v>
       </c>
-      <c r="AX107" s="6"/>
+      <c r="AX107" s="7"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:50">
       <c r="A108" s="3">
         <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E108" s="3">
         <v>-1</v>
@@ -18512,20 +19135,20 @@
       <c r="AW108" s="3">
         <v>-1</v>
       </c>
-      <c r="AX108" s="6"/>
+      <c r="AX108" s="7"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:50">
       <c r="A109" s="3">
         <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="D109" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E109" s="3">
         <v>-1</v>
@@ -18662,20 +19285,20 @@
       <c r="AW109" s="3">
         <v>-1</v>
       </c>
-      <c r="AX109" s="6"/>
+      <c r="AX109" s="7"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:50">
       <c r="A110" s="3">
         <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="D110" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="E110" s="3">
         <v>-1</v>
@@ -18812,20 +19435,20 @@
       <c r="AW110" s="3">
         <v>-1</v>
       </c>
-      <c r="AX110" s="6"/>
+      <c r="AX110" s="7"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:50">
       <c r="A111" s="3">
         <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="D111" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="E111" s="3">
         <v>-1</v>
@@ -18962,20 +19585,20 @@
       <c r="AW111" s="3">
         <v>-1</v>
       </c>
-      <c r="AX111" s="6"/>
+      <c r="AX111" s="7"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:50">
       <c r="A112" s="3">
         <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C112" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="D112" s="3" t="s">
         <v>408</v>
-      </c>
-      <c r="D112" s="3" t="s">
-        <v>406</v>
       </c>
       <c r="E112" s="3">
         <v>-1</v>
@@ -19112,20 +19735,20 @@
       <c r="AW112" s="3">
         <v>-1</v>
       </c>
-      <c r="AX112" s="6"/>
+      <c r="AX112" s="7"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:50">
       <c r="A113" s="3">
         <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E113" s="3">
         <v>-1</v>
@@ -19262,20 +19885,20 @@
       <c r="AW113" s="3">
         <v>-1</v>
       </c>
-      <c r="AX113" s="6"/>
+      <c r="AX113" s="7"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:50">
       <c r="A114" s="3">
         <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E114" s="3">
         <v>-1</v>
@@ -19412,20 +20035,20 @@
       <c r="AW114" s="3">
         <v>-1</v>
       </c>
-      <c r="AX114" s="6"/>
+      <c r="AX114" s="7"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:50">
       <c r="A115" s="3">
         <v>111</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="D115" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E115" s="3">
         <v>-1</v>
@@ -19562,20 +20185,20 @@
       <c r="AW115" s="3">
         <v>-1</v>
       </c>
-      <c r="AX115" s="6"/>
+      <c r="AX115" s="7"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:50">
       <c r="A116" s="3">
         <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C116" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="D116" s="3" t="s">
         <v>418</v>
-      </c>
-      <c r="D116" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="E116" s="3">
         <v>-1</v>
@@ -19712,20 +20335,20 @@
       <c r="AW116" s="3">
         <v>-1</v>
       </c>
-      <c r="AX116" s="6"/>
+      <c r="AX116" s="7"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:50">
       <c r="A117" s="3">
         <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E117" s="3">
         <v>-1</v>
@@ -19862,20 +20485,20 @@
       <c r="AW117" s="3">
         <v>-1</v>
       </c>
-      <c r="AX117" s="6"/>
+      <c r="AX117" s="7"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:50">
       <c r="A118" s="3">
         <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E118" s="3">
         <v>-1</v>
@@ -20012,20 +20635,20 @@
       <c r="AW118" s="3">
         <v>-1</v>
       </c>
-      <c r="AX118" s="6"/>
+      <c r="AX118" s="7"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:50">
       <c r="A119" s="3">
         <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="E119" s="3">
         <v>-1</v>
@@ -20162,20 +20785,20 @@
       <c r="AW119" s="3">
         <v>-1</v>
       </c>
-      <c r="AX119" s="6"/>
+      <c r="AX119" s="7"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:50">
       <c r="A120" s="3">
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E120" s="3">
         <v>-1</v>
@@ -20312,20 +20935,20 @@
       <c r="AW120" s="3">
         <v>-1</v>
       </c>
-      <c r="AX120" s="6"/>
+      <c r="AX120" s="7"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:50">
       <c r="A121" s="3">
         <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="E121" s="3">
         <v>-1</v>
@@ -20462,20 +21085,20 @@
       <c r="AW121" s="3">
         <v>-1</v>
       </c>
-      <c r="AX121" s="6"/>
+      <c r="AX121" s="7"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:50">
       <c r="A122" s="3">
         <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="E122" s="3">
         <v>-1</v>
@@ -20612,20 +21235,20 @@
       <c r="AW122" s="3">
         <v>-1</v>
       </c>
-      <c r="AX122" s="6"/>
+      <c r="AX122" s="7"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:50">
       <c r="A123" s="3">
         <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E123" s="3">
         <v>-1</v>
@@ -20762,20 +21385,20 @@
       <c r="AW123" s="3">
         <v>-1</v>
       </c>
-      <c r="AX123" s="6"/>
+      <c r="AX123" s="7"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:50">
       <c r="A124" s="3">
         <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="E124" s="3">
         <v>-1</v>
@@ -20912,20 +21535,20 @@
       <c r="AW124" s="3">
         <v>-1</v>
       </c>
-      <c r="AX124" s="6"/>
+      <c r="AX124" s="7"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:50">
       <c r="A125" s="3">
         <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="D125" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="E125" s="3">
         <v>-1</v>
@@ -21062,20 +21685,20 @@
       <c r="AW125" s="3">
         <v>-1</v>
       </c>
-      <c r="AX125" s="6"/>
+      <c r="AX125" s="7"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:50">
       <c r="A126" s="3">
         <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C126" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="D126" s="3" t="s">
         <v>442</v>
-      </c>
-      <c r="D126" s="3" t="s">
-        <v>440</v>
       </c>
       <c r="E126" s="3">
         <v>-1</v>
@@ -21212,20 +21835,20 @@
       <c r="AW126" s="3">
         <v>-1</v>
       </c>
-      <c r="AX126" s="6"/>
+      <c r="AX126" s="7"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:50">
       <c r="A127" s="3">
         <v>123</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="E127" s="3">
         <v>-1</v>
@@ -21362,20 +21985,20 @@
       <c r="AW127" s="3">
         <v>-1</v>
       </c>
-      <c r="AX127" s="6"/>
+      <c r="AX127" s="7"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:50">
       <c r="A128" s="3">
         <v>124</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="E128" s="3">
         <v>-1</v>
@@ -21512,20 +22135,20 @@
       <c r="AW128" s="3">
         <v>-1</v>
       </c>
-      <c r="AX128" s="6"/>
+      <c r="AX128" s="7"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:50">
       <c r="A129" s="3">
         <v>125</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D129" s="3" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="E129" s="3">
         <v>-1</v>
@@ -21662,20 +22285,20 @@
       <c r="AW129" s="3">
         <v>-1</v>
       </c>
-      <c r="AX129" s="6"/>
+      <c r="AX129" s="7"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:50">
       <c r="A130" s="3">
         <v>126</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
@@ -21812,20 +22435,20 @@
       <c r="AW130" s="3">
         <v>-1</v>
       </c>
-      <c r="AX130" s="6"/>
+      <c r="AX130" s="7"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:50">
       <c r="A131" s="3">
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -21962,20 +22585,20 @@
       <c r="AW131" s="3">
         <v>-1</v>
       </c>
-      <c r="AX131" s="6"/>
+      <c r="AX131" s="7"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:50">
       <c r="A132" s="3">
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22112,20 +22735,20 @@
       <c r="AW132" s="3">
         <v>-1</v>
       </c>
-      <c r="AX132" s="6"/>
+      <c r="AX132" s="7"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:50">
       <c r="A133" s="3">
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22262,20 +22885,20 @@
       <c r="AW133" s="3">
         <v>-1</v>
       </c>
-      <c r="AX133" s="6"/>
+      <c r="AX133" s="7"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:50">
       <c r="A134" s="3">
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -22412,20 +23035,20 @@
       <c r="AW134" s="3">
         <v>-1</v>
       </c>
-      <c r="AX134" s="6"/>
+      <c r="AX134" s="7"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:50">
       <c r="A135" s="3">
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -22562,20 +23185,20 @@
       <c r="AW135" s="3">
         <v>-1</v>
       </c>
-      <c r="AX135" s="6"/>
+      <c r="AX135" s="7"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:50">
       <c r="A136" s="3">
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -22712,20 +23335,20 @@
       <c r="AW136" s="3">
         <v>-1</v>
       </c>
-      <c r="AX136" s="6"/>
+      <c r="AX136" s="7"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:50">
       <c r="A137" s="3">
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -22862,20 +23485,20 @@
       <c r="AW137" s="3">
         <v>-1</v>
       </c>
-      <c r="AX137" s="6"/>
+      <c r="AX137" s="7"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:50">
       <c r="A138" s="3">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23012,20 +23635,20 @@
       <c r="AW138" s="3">
         <v>-1</v>
       </c>
-      <c r="AX138" s="6"/>
+      <c r="AX138" s="7"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:50">
       <c r="A139" s="3">
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23162,20 +23785,20 @@
       <c r="AW139" s="3">
         <v>-1</v>
       </c>
-      <c r="AX139" s="6"/>
+      <c r="AX139" s="7"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:50">
       <c r="A140" s="3">
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23312,20 +23935,20 @@
       <c r="AW140" s="3">
         <v>-1</v>
       </c>
-      <c r="AX140" s="6"/>
+      <c r="AX140" s="7"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:50">
       <c r="A141" s="3">
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -23462,20 +24085,20 @@
       <c r="AW141" s="3">
         <v>-1</v>
       </c>
-      <c r="AX141" s="6"/>
+      <c r="AX141" s="7"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:50">
       <c r="A142" s="3">
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -23612,20 +24235,20 @@
       <c r="AW142" s="3">
         <v>-1</v>
       </c>
-      <c r="AX142" s="6"/>
+      <c r="AX142" s="7"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:50">
       <c r="A143" s="3">
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -23762,20 +24385,20 @@
       <c r="AW143" s="3">
         <v>-1</v>
       </c>
-      <c r="AX143" s="6"/>
+      <c r="AX143" s="7"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:50">
       <c r="A144" s="3">
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -23912,20 +24535,20 @@
       <c r="AW144" s="3">
         <v>-1</v>
       </c>
-      <c r="AX144" s="6"/>
+      <c r="AX144" s="7"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:50">
       <c r="A145" s="3">
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24062,20 +24685,20 @@
       <c r="AW145" s="3">
         <v>-1</v>
       </c>
-      <c r="AX145" s="6"/>
+      <c r="AX145" s="7"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:50">
       <c r="A146" s="3">
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24212,20 +24835,20 @@
       <c r="AW146" s="3">
         <v>-1</v>
       </c>
-      <c r="AX146" s="6"/>
+      <c r="AX146" s="7"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:50">
       <c r="A147" s="3">
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24362,20 +24985,20 @@
       <c r="AW147" s="3">
         <v>-1</v>
       </c>
-      <c r="AX147" s="6"/>
+      <c r="AX147" s="7"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:50">
       <c r="A148" s="3">
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -24512,21 +25135,21 @@
       <c r="AW148" s="3">
         <v>-1</v>
       </c>
-      <c r="AX148" s="6"/>
+      <c r="AX148" s="7"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:50">
       <c r="A149" s="3">
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="C149" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="D149" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="D149" s="3" t="s">
-        <v>498</v>
-      </c>
       <c r="E149" s="3">
         <v>-1</v>
       </c>
@@ -24662,20 +25285,20 @@
       <c r="AW149" s="3">
         <v>-1</v>
       </c>
-      <c r="AX149" s="6"/>
+      <c r="AX149" s="7"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:50">
       <c r="A150" s="3">
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -24812,20 +25435,20 @@
       <c r="AW150" s="3">
         <v>-1</v>
       </c>
-      <c r="AX150" s="6"/>
+      <c r="AX150" s="7"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:50">
       <c r="A151" s="3">
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -24962,20 +25585,20 @@
       <c r="AW151" s="3">
         <v>-1</v>
       </c>
-      <c r="AX151" s="6"/>
+      <c r="AX151" s="7"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:50">
       <c r="A152" s="3">
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25112,20 +25735,20 @@
       <c r="AW152" s="3">
         <v>-1</v>
       </c>
-      <c r="AX152" s="6"/>
+      <c r="AX152" s="7"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:50">
       <c r="A153" s="3">
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25262,20 +25885,20 @@
       <c r="AW153" s="3">
         <v>-1</v>
       </c>
-      <c r="AX153" s="6"/>
+      <c r="AX153" s="7"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:50">
       <c r="A154" s="3">
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -25412,20 +26035,20 @@
       <c r="AW154" s="3">
         <v>-1</v>
       </c>
-      <c r="AX154" s="6"/>
+      <c r="AX154" s="7"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:50">
       <c r="A155" s="3">
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -25562,20 +26185,20 @@
       <c r="AW155" s="3">
         <v>-1</v>
       </c>
-      <c r="AX155" s="6"/>
+      <c r="AX155" s="7"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:50">
       <c r="A156" s="3">
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -25712,20 +26335,20 @@
       <c r="AW156" s="3">
         <v>-1</v>
       </c>
-      <c r="AX156" s="6"/>
+      <c r="AX156" s="7"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:50">
       <c r="A157" s="3">
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -25862,20 +26485,20 @@
       <c r="AW157" s="3">
         <v>-1</v>
       </c>
-      <c r="AX157" s="6"/>
+      <c r="AX157" s="7"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:50">
       <c r="A158" s="3">
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26012,20 +26635,20 @@
       <c r="AW158" s="3">
         <v>-1</v>
       </c>
-      <c r="AX158" s="6"/>
+      <c r="AX158" s="7"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:50">
       <c r="A159" s="3">
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26162,20 +26785,20 @@
       <c r="AW159" s="3">
         <v>-1</v>
       </c>
-      <c r="AX159" s="6"/>
+      <c r="AX159" s="7"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:50">
       <c r="A160" s="3">
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26312,20 +26935,20 @@
       <c r="AW160" s="3">
         <v>-1</v>
       </c>
-      <c r="AX160" s="6"/>
+      <c r="AX160" s="7"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:50">
       <c r="A161" s="3">
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -26462,20 +27085,20 @@
       <c r="AW161" s="3">
         <v>-1</v>
       </c>
-      <c r="AX161" s="6"/>
+      <c r="AX161" s="7"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:50">
       <c r="A162" s="3">
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -26612,20 +27235,20 @@
       <c r="AW162" s="3">
         <v>-1</v>
       </c>
-      <c r="AX162" s="6"/>
+      <c r="AX162" s="7"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:50">
       <c r="A163" s="3">
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="D163" s="3" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -26762,20 +27385,20 @@
       <c r="AW163" s="3">
         <v>-1</v>
       </c>
-      <c r="AX163" s="6"/>
+      <c r="AX163" s="7"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:50">
       <c r="A164" s="3">
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="D164" s="3" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -26912,20 +27535,20 @@
       <c r="AW164" s="3">
         <v>-1</v>
       </c>
-      <c r="AX164" s="6"/>
+      <c r="AX164" s="7"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:50">
       <c r="A165" s="3">
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="D165" s="3" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27062,20 +27685,20 @@
       <c r="AW165" s="3">
         <v>-1</v>
       </c>
-      <c r="AX165" s="6"/>
+      <c r="AX165" s="7"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:50">
       <c r="A166" s="3">
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="D166" s="3" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27212,20 +27835,20 @@
       <c r="AW166" s="3">
         <v>-1</v>
       </c>
-      <c r="AX166" s="6"/>
+      <c r="AX166" s="7"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:50">
       <c r="A167" s="3">
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="D167" s="3" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27362,20 +27985,20 @@
       <c r="AW167" s="3">
         <v>-1</v>
       </c>
-      <c r="AX167" s="6"/>
+      <c r="AX167" s="7"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:50">
       <c r="A168" s="3">
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -27512,20 +28135,20 @@
       <c r="AW168" s="3">
         <v>-1</v>
       </c>
-      <c r="AX168" s="6"/>
+      <c r="AX168" s="7"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:50">
       <c r="A169" s="3">
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="D169" s="3" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -27662,20 +28285,20 @@
       <c r="AW169" s="3">
         <v>-1</v>
       </c>
-      <c r="AX169" s="6"/>
+      <c r="AX169" s="7"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:50">
       <c r="A170" s="3">
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="D170" s="3" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -27812,20 +28435,20 @@
       <c r="AW170" s="3">
         <v>-1</v>
       </c>
-      <c r="AX170" s="6"/>
+      <c r="AX170" s="7"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:50">
       <c r="A171" s="3">
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -27962,21 +28585,21 @@
       <c r="AW171" s="3">
         <v>-1</v>
       </c>
-      <c r="AX171" s="6"/>
+      <c r="AX171" s="7"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:50">
       <c r="A172" s="3">
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="C172" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="D172" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="D172" s="3" t="s">
-        <v>552</v>
-      </c>
       <c r="E172" s="3">
         <v>-1</v>
       </c>
@@ -28112,20 +28735,20 @@
       <c r="AW172" s="3">
         <v>-1</v>
       </c>
-      <c r="AX172" s="6"/>
+      <c r="AX172" s="7"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:50">
       <c r="A173" s="3">
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28262,20 +28885,20 @@
       <c r="AW173" s="3">
         <v>-1</v>
       </c>
-      <c r="AX173" s="6"/>
+      <c r="AX173" s="7"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:50">
       <c r="A174" s="3">
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -28412,20 +29035,20 @@
       <c r="AW174" s="3">
         <v>-1</v>
       </c>
-      <c r="AX174" s="6"/>
+      <c r="AX174" s="7"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:50">
       <c r="A175" s="3">
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D175" s="3" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -28562,20 +29185,20 @@
       <c r="AW175" s="3">
         <v>-1</v>
       </c>
-      <c r="AX175" s="6"/>
+      <c r="AX175" s="7"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:50">
       <c r="A176" s="3">
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D176" s="3" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -28712,20 +29335,20 @@
       <c r="AW176" s="3">
         <v>-1</v>
       </c>
-      <c r="AX176" s="6"/>
+      <c r="AX176" s="7"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:50">
       <c r="A177" s="3">
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="C177" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D177" s="3" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -28862,20 +29485,20 @@
       <c r="AW177" s="3">
         <v>-1</v>
       </c>
-      <c r="AX177" s="6"/>
+      <c r="AX177" s="7"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:50">
       <c r="A178" s="3">
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="C178" s="3" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="D178" s="3" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29012,20 +29635,20 @@
       <c r="AW178" s="3">
         <v>-1</v>
       </c>
-      <c r="AX178" s="6"/>
+      <c r="AX178" s="7"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:50">
       <c r="A179" s="3">
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="C179" s="3" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="D179" s="3" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29162,20 +29785,20 @@
       <c r="AW179" s="3">
         <v>-1</v>
       </c>
-      <c r="AX179" s="6"/>
+      <c r="AX179" s="7"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:50">
       <c r="A180" s="3">
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="C180" s="3" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="D180" s="3" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29312,20 +29935,20 @@
       <c r="AW180" s="3">
         <v>-1</v>
       </c>
-      <c r="AX180" s="6"/>
+      <c r="AX180" s="7"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:50">
       <c r="A181" s="3">
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C181" s="3" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="D181" s="3" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -29462,20 +30085,20 @@
       <c r="AW181" s="3">
         <v>-1</v>
       </c>
-      <c r="AX181" s="6"/>
+      <c r="AX181" s="7"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:50">
       <c r="A182" s="3">
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="C182" s="3" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="D182" s="3" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -29612,20 +30235,20 @@
       <c r="AW182" s="3">
         <v>-1</v>
       </c>
-      <c r="AX182" s="6"/>
+      <c r="AX182" s="7"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:50">
       <c r="A183" s="3">
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="C183" s="3" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="D183" s="3" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -29762,20 +30385,20 @@
       <c r="AW183" s="3">
         <v>-1</v>
       </c>
-      <c r="AX183" s="6"/>
+      <c r="AX183" s="7"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:50">
       <c r="A184" s="3">
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="D184" s="3" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -29912,20 +30535,20 @@
       <c r="AW184" s="3">
         <v>-1</v>
       </c>
-      <c r="AX184" s="6"/>
+      <c r="AX184" s="7"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:50">
       <c r="A185" s="3">
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30062,20 +30685,20 @@
       <c r="AW185" s="3">
         <v>-1</v>
       </c>
-      <c r="AX185" s="6"/>
+      <c r="AX185" s="7"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:50">
       <c r="A186" s="3">
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="D186" s="3" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30212,20 +30835,20 @@
       <c r="AW186" s="3">
         <v>-1</v>
       </c>
-      <c r="AX186" s="6"/>
+      <c r="AX186" s="7"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:50">
       <c r="A187" s="3">
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="C187" s="3" t="s">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="D187" s="3" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30362,20 +30985,20 @@
       <c r="AW187" s="3">
         <v>-1</v>
       </c>
-      <c r="AX187" s="6"/>
+      <c r="AX187" s="7"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:50">
       <c r="A188" s="3">
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="C188" s="3" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="D188" s="3" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -30512,20 +31135,20 @@
       <c r="AW188" s="3">
         <v>-1</v>
       </c>
-      <c r="AX188" s="6"/>
+      <c r="AX188" s="7"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:50">
       <c r="A189" s="3">
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
       <c r="C189" s="3" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D189" s="3" t="s">
-        <v>602</v>
+        <v>604</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -30662,20 +31285,20 @@
       <c r="AW189" s="3">
         <v>-1</v>
       </c>
-      <c r="AX189" s="6"/>
+      <c r="AX189" s="7"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:50">
       <c r="A190" s="3">
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="C190" s="3" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="D190" s="3" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -30812,20 +31435,20 @@
       <c r="AW190" s="3">
         <v>-1</v>
       </c>
-      <c r="AX190" s="6"/>
+      <c r="AX190" s="7"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:50">
       <c r="A191" s="3">
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>606</v>
+        <v>608</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -30962,21 +31585,21 @@
       <c r="AW191" s="3">
         <v>-1</v>
       </c>
-      <c r="AX191" s="6"/>
+      <c r="AX191" s="7"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:50">
       <c r="A192" s="3">
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="C192" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="D192" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>607</v>
-      </c>
       <c r="E192" s="3">
         <v>-1</v>
       </c>
@@ -31112,20 +31735,20 @@
       <c r="AW192" s="3">
         <v>-1</v>
       </c>
-      <c r="AX192" s="6"/>
+      <c r="AX192" s="7"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50">
       <c r="A193" s="3">
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="D193" s="3" t="s">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31262,20 +31885,20 @@
       <c r="AW193" s="3">
         <v>-1</v>
       </c>
-      <c r="AX193" s="6"/>
+      <c r="AX193" s="7"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50">
       <c r="A194" s="3">
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="D194" s="3" t="s">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -31412,20 +32035,20 @@
       <c r="AW194" s="3">
         <v>-1</v>
       </c>
-      <c r="AX194" s="6"/>
+      <c r="AX194" s="7"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50">
       <c r="A195" s="3">
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -31562,20 +32185,20 @@
       <c r="AW195" s="3">
         <v>-1</v>
       </c>
-      <c r="AX195" s="6"/>
+      <c r="AX195" s="7"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50">
       <c r="A196" s="3">
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="C196" s="3" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D196" s="3" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -31712,20 +32335,20 @@
       <c r="AW196" s="3">
         <v>-1</v>
       </c>
-      <c r="AX196" s="6"/>
+      <c r="AX196" s="7"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50">
       <c r="A197" s="3">
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="C197" s="3" t="s">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="D197" s="3" t="s">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -31862,20 +32485,20 @@
       <c r="AW197" s="3">
         <v>-1</v>
       </c>
-      <c r="AX197" s="6"/>
+      <c r="AX197" s="7"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50">
       <c r="A198" s="3">
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D198" s="3" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32012,20 +32635,20 @@
       <c r="AW198" s="3">
         <v>-1</v>
       </c>
-      <c r="AX198" s="6"/>
+      <c r="AX198" s="7"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:50">
       <c r="A199" s="3">
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32162,20 +32785,20 @@
       <c r="AW199" s="3">
         <v>-1</v>
       </c>
-      <c r="AX199" s="6"/>
+      <c r="AX199" s="7"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:50">
       <c r="A200" s="3">
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="C200" s="3" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D200" s="3" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32312,20 +32935,20 @@
       <c r="AW200" s="3">
         <v>-1</v>
       </c>
-      <c r="AX200" s="6"/>
+      <c r="AX200" s="7"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50">
       <c r="A201" s="3">
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="D201" s="3" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -32462,20 +33085,20 @@
       <c r="AW201" s="3">
         <v>-1</v>
       </c>
-      <c r="AX201" s="6"/>
+      <c r="AX201" s="7"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50">
       <c r="A202" s="3">
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -32612,20 +33235,20 @@
       <c r="AW202" s="3">
         <v>-1</v>
       </c>
-      <c r="AX202" s="6"/>
+      <c r="AX202" s="7"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:50">
       <c r="A203" s="3">
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -32762,11 +33385,161 @@
       <c r="AW203" s="3">
         <v>-1</v>
       </c>
-      <c r="AX203" s="6"/>
+      <c r="AX203" s="7"/>
+    </row>
+    <row r="204" spans="1:50">
+      <c r="A204" s="3">
+        <v>201</v>
+      </c>
+      <c r="B204" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>640</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>641</v>
+      </c>
+      <c r="E204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H204" s="3">
+        <v>0</v>
+      </c>
+      <c r="I204" s="3">
+        <v>0</v>
+      </c>
+      <c r="J204" s="3">
+        <v>0</v>
+      </c>
+      <c r="K204" s="3">
+        <v>0</v>
+      </c>
+      <c r="L204" s="3">
+        <v>0</v>
+      </c>
+      <c r="M204" s="3">
+        <v>0</v>
+      </c>
+      <c r="N204" s="3">
+        <v>0</v>
+      </c>
+      <c r="O204" s="3">
+        <v>0</v>
+      </c>
+      <c r="P204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q204" s="3">
+        <v>0</v>
+      </c>
+      <c r="R204" s="3">
+        <v>0</v>
+      </c>
+      <c r="S204" s="3">
+        <v>0</v>
+      </c>
+      <c r="T204" s="3">
+        <v>0</v>
+      </c>
+      <c r="U204" s="3">
+        <v>0</v>
+      </c>
+      <c r="V204" s="3">
+        <v>0</v>
+      </c>
+      <c r="W204" s="3">
+        <v>0</v>
+      </c>
+      <c r="X204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y204" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV204" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW204" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX204" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -932,9 +937,6 @@
   </si>
   <si>
     <t>泰山派高深之剑法</t>
-  </si>
-  <si>
-    <t>回峰落雁剑法</t>
   </si>
   <si>
     <t>衡山派千变万化之剑法</t>
@@ -1584,7 +1586,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1602,7 +1604,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t></t>
     </r>
@@ -1985,18 +1987,16 @@
   <si>
     <t>测试</t>
   </si>
+  <si>
+    <t>打叶剑法</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -2007,7 +2007,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -2028,358 +2028,40 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -2387,267 +2069,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2663,66 +2103,23 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3051,31 +2448,30 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A175" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D205" sqref="D205"/>
+      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +2617,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -3373,7 +2769,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -3523,7 +2919,7 @@
       </c>
       <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -3673,7 +3069,7 @@
       </c>
       <c r="AX5" s="7"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2</v>
       </c>
@@ -3823,7 +3219,7 @@
       </c>
       <c r="AX6" s="7"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>3</v>
       </c>
@@ -3973,7 +3369,7 @@
       </c>
       <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>4</v>
       </c>
@@ -4123,7 +3519,7 @@
       </c>
       <c r="AX8" s="7"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>5</v>
       </c>
@@ -4273,7 +3669,7 @@
       </c>
       <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>6</v>
       </c>
@@ -4423,7 +3819,7 @@
       </c>
       <c r="AX10" s="7"/>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>7</v>
       </c>
@@ -4573,7 +3969,7 @@
       </c>
       <c r="AX11" s="7"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>8</v>
       </c>
@@ -4723,7 +4119,7 @@
       </c>
       <c r="AX12" s="7"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>9</v>
       </c>
@@ -4873,7 +4269,7 @@
       </c>
       <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>10</v>
       </c>
@@ -5023,7 +4419,7 @@
       </c>
       <c r="AX14" s="7"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>11</v>
       </c>
@@ -5173,7 +4569,7 @@
       </c>
       <c r="AX15" s="7"/>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>12</v>
       </c>
@@ -5323,7 +4719,7 @@
       </c>
       <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>13</v>
       </c>
@@ -5473,7 +4869,7 @@
       </c>
       <c r="AX17" s="7"/>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>14</v>
       </c>
@@ -5623,7 +5019,7 @@
       </c>
       <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>15</v>
       </c>
@@ -5773,7 +5169,7 @@
       </c>
       <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>16</v>
       </c>
@@ -5923,7 +5319,7 @@
       </c>
       <c r="AX20" s="7"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>17</v>
       </c>
@@ -6073,7 +5469,7 @@
       </c>
       <c r="AX21" s="7"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>18</v>
       </c>
@@ -6223,7 +5619,7 @@
       </c>
       <c r="AX22" s="7"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>19</v>
       </c>
@@ -6373,7 +5769,7 @@
       </c>
       <c r="AX23" s="7"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>20</v>
       </c>
@@ -6523,7 +5919,7 @@
       </c>
       <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>21</v>
       </c>
@@ -6673,7 +6069,7 @@
       </c>
       <c r="AX25" s="7"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>22</v>
       </c>
@@ -6823,7 +6219,7 @@
       </c>
       <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>23</v>
       </c>
@@ -6973,7 +6369,7 @@
       </c>
       <c r="AX27" s="7"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>24</v>
       </c>
@@ -7123,7 +6519,7 @@
       </c>
       <c r="AX28" s="7"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>25</v>
       </c>
@@ -7273,7 +6669,7 @@
       </c>
       <c r="AX29" s="7"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>26</v>
       </c>
@@ -7423,7 +6819,7 @@
       </c>
       <c r="AX30" s="7"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>27</v>
       </c>
@@ -7573,7 +6969,7 @@
       </c>
       <c r="AX31" s="7"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>28</v>
       </c>
@@ -7723,7 +7119,7 @@
       </c>
       <c r="AX32" s="7"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>29</v>
       </c>
@@ -7873,7 +7269,7 @@
       </c>
       <c r="AX33" s="7"/>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>30</v>
       </c>
@@ -8023,7 +7419,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>31</v>
       </c>
@@ -8173,7 +7569,7 @@
       </c>
       <c r="AX35" s="7"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>32</v>
       </c>
@@ -8323,7 +7719,7 @@
       </c>
       <c r="AX36" s="7"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>33</v>
       </c>
@@ -8473,7 +7869,7 @@
       </c>
       <c r="AX37" s="7"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>34</v>
       </c>
@@ -8623,7 +8019,7 @@
       </c>
       <c r="AX38" s="7"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>35</v>
       </c>
@@ -8773,7 +8169,7 @@
       </c>
       <c r="AX39" s="7"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>36</v>
       </c>
@@ -8923,7 +8319,7 @@
       </c>
       <c r="AX40" s="7"/>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>37</v>
       </c>
@@ -9073,7 +8469,7 @@
       </c>
       <c r="AX41" s="7"/>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>38</v>
       </c>
@@ -9223,7 +8619,7 @@
       </c>
       <c r="AX42" s="7"/>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>39</v>
       </c>
@@ -9373,7 +8769,7 @@
       </c>
       <c r="AX43" s="7"/>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>40</v>
       </c>
@@ -9523,7 +8919,7 @@
       </c>
       <c r="AX44" s="7"/>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>41</v>
       </c>
@@ -9673,7 +9069,7 @@
       </c>
       <c r="AX45" s="7"/>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>42</v>
       </c>
@@ -9823,7 +9219,7 @@
       </c>
       <c r="AX46" s="7"/>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>43</v>
       </c>
@@ -9973,7 +9369,7 @@
       </c>
       <c r="AX47" s="7"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>44</v>
       </c>
@@ -10123,7 +9519,7 @@
       </c>
       <c r="AX48" s="7"/>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>45</v>
       </c>
@@ -10273,7 +9669,7 @@
       </c>
       <c r="AX49" s="7"/>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>46</v>
       </c>
@@ -10423,7 +9819,7 @@
       </c>
       <c r="AX50" s="7"/>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>47</v>
       </c>
@@ -10573,7 +9969,7 @@
       </c>
       <c r="AX51" s="7"/>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>48</v>
       </c>
@@ -10725,7 +10121,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>49</v>
       </c>
@@ -10877,7 +10273,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>50</v>
       </c>
@@ -11029,7 +10425,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>51</v>
       </c>
@@ -11181,7 +10577,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>52</v>
       </c>
@@ -11333,7 +10729,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>53</v>
       </c>
@@ -11485,7 +10881,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>54</v>
       </c>
@@ -11635,7 +11031,7 @@
       </c>
       <c r="AX58" s="7"/>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>55</v>
       </c>
@@ -11785,7 +11181,7 @@
       </c>
       <c r="AX59" s="7"/>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>56</v>
       </c>
@@ -11935,7 +11331,7 @@
       </c>
       <c r="AX60" s="7"/>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>57</v>
       </c>
@@ -12085,7 +11481,7 @@
       </c>
       <c r="AX61" s="7"/>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>58</v>
       </c>
@@ -12235,7 +11631,7 @@
       </c>
       <c r="AX62" s="7"/>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>59</v>
       </c>
@@ -12385,7 +11781,7 @@
       </c>
       <c r="AX63" s="7"/>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>60</v>
       </c>
@@ -12535,7 +11931,7 @@
       </c>
       <c r="AX64" s="7"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>61</v>
       </c>
@@ -12685,7 +12081,7 @@
       </c>
       <c r="AX65" s="7"/>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>62</v>
       </c>
@@ -12835,7 +12231,7 @@
       </c>
       <c r="AX66" s="7"/>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>63</v>
       </c>
@@ -12985,7 +12381,7 @@
       </c>
       <c r="AX67" s="7"/>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>64</v>
       </c>
@@ -13135,7 +12531,7 @@
       </c>
       <c r="AX68" s="7"/>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>65</v>
       </c>
@@ -13285,7 +12681,7 @@
       </c>
       <c r="AX69" s="7"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>66</v>
       </c>
@@ -13435,7 +12831,7 @@
       </c>
       <c r="AX70" s="7"/>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>67</v>
       </c>
@@ -13585,7 +12981,7 @@
       </c>
       <c r="AX71" s="7"/>
     </row>
-    <row r="72" spans="1:50">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="3">
         <v>68</v>
       </c>
@@ -13735,18 +13131,18 @@
       </c>
       <c r="AX72" s="7"/>
     </row>
-    <row r="73" spans="1:50">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="3">
         <v>69</v>
       </c>
-      <c r="B73" s="3" t="s">
-        <v>306</v>
+      <c r="B73" s="9" t="s">
+        <v>641</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>170</v>
       </c>
       <c r="D73" s="3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E73" s="3">
         <v>46</v>
@@ -13885,18 +13281,18 @@
       </c>
       <c r="AX73" s="7"/>
     </row>
-    <row r="74" spans="1:50">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="3">
         <v>70</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D74" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E74" s="3">
         <v>53</v>
@@ -14035,18 +13431,18 @@
       </c>
       <c r="AX74" s="7"/>
     </row>
-    <row r="75" spans="1:50">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="3">
         <v>71</v>
       </c>
       <c r="B75" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>311</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>312</v>
       </c>
       <c r="E75" s="3">
         <v>47</v>
@@ -14185,18 +13581,18 @@
       </c>
       <c r="AX75" s="7"/>
     </row>
-    <row r="76" spans="1:50">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3">
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>315</v>
       </c>
       <c r="E76" s="3">
         <v>54</v>
@@ -14335,18 +13731,18 @@
       </c>
       <c r="AX76" s="7"/>
     </row>
-    <row r="77" spans="1:50">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="3">
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>317</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>318</v>
       </c>
       <c r="E77" s="3">
         <v>49</v>
@@ -14485,18 +13881,18 @@
       </c>
       <c r="AX77" s="7"/>
     </row>
-    <row r="78" spans="1:50">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3">
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>320</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>321</v>
       </c>
       <c r="E78" s="3">
         <v>55</v>
@@ -14635,18 +14031,18 @@
       </c>
       <c r="AX78" s="7"/>
     </row>
-    <row r="79" spans="1:50">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="3">
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>323</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>324</v>
       </c>
       <c r="E79" s="3">
         <v>58</v>
@@ -14785,18 +14181,18 @@
       </c>
       <c r="AX79" s="7"/>
     </row>
-    <row r="80" spans="1:50">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3">
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>327</v>
       </c>
       <c r="E80" s="3">
         <v>59</v>
@@ -14935,18 +14331,18 @@
       </c>
       <c r="AX80" s="7"/>
     </row>
-    <row r="81" spans="1:50">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3">
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>329</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>330</v>
       </c>
       <c r="E81" s="3">
         <v>57</v>
@@ -15085,18 +14481,18 @@
       </c>
       <c r="AX81" s="7"/>
     </row>
-    <row r="82" spans="1:50">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="3">
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>332</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>333</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -15235,18 +14631,18 @@
       </c>
       <c r="AX82" s="7"/>
     </row>
-    <row r="83" spans="1:50">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="3">
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>335</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>336</v>
       </c>
       <c r="E83" s="3">
         <v>61</v>
@@ -15385,18 +14781,18 @@
       </c>
       <c r="AX83" s="7"/>
     </row>
-    <row r="84" spans="1:50">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3">
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>338</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>339</v>
       </c>
       <c r="E84" s="3">
         <v>63</v>
@@ -15535,18 +14931,18 @@
       </c>
       <c r="AX84" s="7"/>
     </row>
-    <row r="85" spans="1:50">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>342</v>
       </c>
       <c r="E85" s="3">
         <v>66</v>
@@ -15685,18 +15081,18 @@
       </c>
       <c r="AX85" s="7"/>
     </row>
-    <row r="86" spans="1:50">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3">
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>344</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>345</v>
       </c>
       <c r="E86" s="3">
         <v>65</v>
@@ -15835,18 +15231,18 @@
       </c>
       <c r="AX86" s="7"/>
     </row>
-    <row r="87" spans="1:50">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="3">
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>347</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>348</v>
       </c>
       <c r="E87" s="3">
         <v>64</v>
@@ -15985,18 +15381,18 @@
       </c>
       <c r="AX87" s="7"/>
     </row>
-    <row r="88" spans="1:50">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="3">
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>247</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E88" s="3">
         <v>67</v>
@@ -16135,18 +15531,18 @@
       </c>
       <c r="AX88" s="7"/>
     </row>
-    <row r="89" spans="1:50">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3">
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>352</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>353</v>
       </c>
       <c r="E89" s="3">
         <v>68</v>
@@ -16285,18 +15681,18 @@
       </c>
       <c r="AX89" s="7"/>
     </row>
-    <row r="90" spans="1:50">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3">
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E90" s="3">
         <v>77</v>
@@ -16435,18 +15831,18 @@
       </c>
       <c r="AX90" s="7"/>
     </row>
-    <row r="91" spans="1:50">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3">
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>357</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>358</v>
       </c>
       <c r="E91" s="3">
         <v>78</v>
@@ -16585,18 +15981,18 @@
       </c>
       <c r="AX91" s="7"/>
     </row>
-    <row r="92" spans="1:50">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3">
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>360</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>361</v>
       </c>
       <c r="E92" s="3">
         <v>-1</v>
@@ -16735,18 +16131,18 @@
       </c>
       <c r="AX92" s="7"/>
     </row>
-    <row r="93" spans="1:50">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="3">
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>362</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>363</v>
       </c>
       <c r="E93" s="3">
         <v>-1</v>
@@ -16884,21 +16280,21 @@
         <v>172</v>
       </c>
       <c r="AX93" s="7" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
-    <row r="94" spans="1:50">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="3">
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>366</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>367</v>
       </c>
       <c r="E94" s="3">
         <v>-1</v>
@@ -17037,18 +16433,18 @@
       </c>
       <c r="AX94" s="7"/>
     </row>
-    <row r="95" spans="1:50">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>369</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>370</v>
       </c>
       <c r="E95" s="3">
         <v>-1</v>
@@ -17187,18 +16583,18 @@
       </c>
       <c r="AX95" s="7"/>
     </row>
-    <row r="96" spans="1:50">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="3">
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>372</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>373</v>
       </c>
       <c r="E96" s="3">
         <v>-1</v>
@@ -17337,18 +16733,18 @@
       </c>
       <c r="AX96" s="7"/>
     </row>
-    <row r="97" spans="1:50">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3">
         <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>375</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>376</v>
       </c>
       <c r="E97" s="3">
         <v>-1</v>
@@ -17487,18 +16883,18 @@
       </c>
       <c r="AX97" s="7"/>
     </row>
-    <row r="98" spans="1:50">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="3">
         <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E98" s="3">
         <v>-1</v>
@@ -17637,18 +17033,18 @@
       </c>
       <c r="AX98" s="7"/>
     </row>
-    <row r="99" spans="1:50">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3">
         <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E99" s="3">
         <v>92</v>
@@ -17787,18 +17183,18 @@
       </c>
       <c r="AX99" s="7"/>
     </row>
-    <row r="100" spans="1:50">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3">
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>379</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>381</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>382</v>
       </c>
       <c r="E100" s="3">
         <v>-1</v>
@@ -17937,18 +17333,18 @@
       </c>
       <c r="AX100" s="7"/>
     </row>
-    <row r="101" spans="1:50">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="3">
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>384</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E101" s="3">
         <v>-1</v>
@@ -18087,18 +17483,18 @@
       </c>
       <c r="AX101" s="7"/>
     </row>
-    <row r="102" spans="1:50">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3">
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>386</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E102" s="3">
         <v>-1</v>
@@ -18237,18 +17633,18 @@
       </c>
       <c r="AX102" s="7"/>
     </row>
-    <row r="103" spans="1:50">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="3">
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>388</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E103" s="3">
         <v>-1</v>
@@ -18387,18 +17783,18 @@
       </c>
       <c r="AX103" s="7"/>
     </row>
-    <row r="104" spans="1:50">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3">
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="E104" s="3">
         <v>-1</v>
@@ -18537,18 +17933,18 @@
       </c>
       <c r="AX104" s="7"/>
     </row>
-    <row r="105" spans="1:50">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A105" s="3">
         <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>391</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>392</v>
       </c>
       <c r="E105" s="3">
         <v>-1</v>
@@ -18687,18 +18083,18 @@
       </c>
       <c r="AX105" s="7"/>
     </row>
-    <row r="106" spans="1:50">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
         <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="E106" s="3">
         <v>-1</v>
@@ -18837,18 +18233,18 @@
       </c>
       <c r="AX106" s="7"/>
     </row>
-    <row r="107" spans="1:50">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A107" s="3">
         <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="E107" s="3">
         <v>-1</v>
@@ -18987,18 +18383,18 @@
       </c>
       <c r="AX107" s="7"/>
     </row>
-    <row r="108" spans="1:50">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="3">
         <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>397</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>400</v>
       </c>
       <c r="E108" s="3">
         <v>-1</v>
@@ -19137,18 +18533,18 @@
       </c>
       <c r="AX108" s="7"/>
     </row>
-    <row r="109" spans="1:50">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="3">
         <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>400</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>402</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>403</v>
       </c>
       <c r="E109" s="3">
         <v>-1</v>
@@ -19287,18 +18683,18 @@
       </c>
       <c r="AX109" s="7"/>
     </row>
-    <row r="110" spans="1:50">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A110" s="3">
         <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>404</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>405</v>
       </c>
       <c r="E110" s="3">
         <v>-1</v>
@@ -19437,18 +18833,18 @@
       </c>
       <c r="AX110" s="7"/>
     </row>
-    <row r="111" spans="1:50">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3">
         <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>405</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>407</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>408</v>
       </c>
       <c r="E111" s="3">
         <v>-1</v>
@@ -19587,18 +18983,18 @@
       </c>
       <c r="AX111" s="7"/>
     </row>
-    <row r="112" spans="1:50">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="3">
         <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>408</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>409</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>410</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E112" s="3">
         <v>-1</v>
@@ -19737,18 +19133,18 @@
       </c>
       <c r="AX112" s="7"/>
     </row>
-    <row r="113" spans="1:50">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3">
         <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>410</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>411</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>412</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>413</v>
       </c>
       <c r="E113" s="3">
         <v>-1</v>
@@ -19887,18 +19283,18 @@
       </c>
       <c r="AX113" s="7"/>
     </row>
-    <row r="114" spans="1:50">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A114" s="3">
         <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>414</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>415</v>
       </c>
       <c r="E114" s="3">
         <v>-1</v>
@@ -20037,18 +19433,18 @@
       </c>
       <c r="AX114" s="7"/>
     </row>
-    <row r="115" spans="1:50">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A115" s="3">
         <v>111</v>
       </c>
       <c r="B115" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C115" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="C115" s="3" t="s">
+      <c r="D115" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="E115" s="3">
         <v>-1</v>
@@ -20187,18 +19583,18 @@
       </c>
       <c r="AX115" s="7"/>
     </row>
-    <row r="116" spans="1:50">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3">
         <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C116" s="3" t="s">
         <v>419</v>
       </c>
-      <c r="C116" s="3" t="s">
-        <v>420</v>
-      </c>
       <c r="D116" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E116" s="3">
         <v>-1</v>
@@ -20337,18 +19733,18 @@
       </c>
       <c r="AX116" s="7"/>
     </row>
-    <row r="117" spans="1:50">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A117" s="3">
         <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C117" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="C117" s="3" t="s">
-        <v>422</v>
-      </c>
       <c r="D117" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E117" s="3">
         <v>-1</v>
@@ -20487,18 +19883,18 @@
       </c>
       <c r="AX117" s="7"/>
     </row>
-    <row r="118" spans="1:50">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3">
         <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
+        <v>422</v>
+      </c>
+      <c r="C118" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="C118" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="D118" s="3" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E118" s="3">
         <v>-1</v>
@@ -20637,18 +20033,18 @@
       </c>
       <c r="AX118" s="7"/>
     </row>
-    <row r="119" spans="1:50">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3">
         <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="D119" s="3" t="s">
         <v>425</v>
-      </c>
-      <c r="C119" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="D119" s="3" t="s">
-        <v>426</v>
       </c>
       <c r="E119" s="3">
         <v>-1</v>
@@ -20787,18 +20183,18 @@
       </c>
       <c r="AX119" s="7"/>
     </row>
-    <row r="120" spans="1:50">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C120" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="C120" s="3" t="s">
+      <c r="D120" s="3" t="s">
         <v>428</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>429</v>
       </c>
       <c r="E120" s="3">
         <v>-1</v>
@@ -20937,18 +20333,18 @@
       </c>
       <c r="AX120" s="7"/>
     </row>
-    <row r="121" spans="1:50">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3">
         <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>429</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="C121" s="3" t="s">
+      <c r="D121" s="3" t="s">
         <v>431</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>432</v>
       </c>
       <c r="E121" s="3">
         <v>-1</v>
@@ -21087,18 +20483,18 @@
       </c>
       <c r="AX121" s="7"/>
     </row>
-    <row r="122" spans="1:50">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3">
         <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
+        <v>432</v>
+      </c>
+      <c r="C122" s="3" t="s">
         <v>433</v>
       </c>
-      <c r="C122" s="3" t="s">
-        <v>434</v>
-      </c>
       <c r="D122" s="3" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E122" s="3">
         <v>-1</v>
@@ -21237,18 +20633,18 @@
       </c>
       <c r="AX122" s="7"/>
     </row>
-    <row r="123" spans="1:50">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3">
         <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="3" t="s">
         <v>435</v>
-      </c>
-      <c r="C123" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="3" t="s">
-        <v>436</v>
       </c>
       <c r="E123" s="3">
         <v>-1</v>
@@ -21387,18 +20783,18 @@
       </c>
       <c r="AX123" s="7"/>
     </row>
-    <row r="124" spans="1:50">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3">
         <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="C124" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="C124" s="3" t="s">
+      <c r="D124" s="3" t="s">
         <v>438</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>439</v>
       </c>
       <c r="E124" s="3">
         <v>-1</v>
@@ -21537,18 +20933,18 @@
       </c>
       <c r="AX124" s="7"/>
     </row>
-    <row r="125" spans="1:50">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A125" s="3">
         <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="C125" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="C125" s="3" t="s">
+      <c r="D125" s="3" t="s">
         <v>441</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>442</v>
       </c>
       <c r="E125" s="3">
         <v>-1</v>
@@ -21687,18 +21083,18 @@
       </c>
       <c r="AX125" s="7"/>
     </row>
-    <row r="126" spans="1:50">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3">
         <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C126" s="3" t="s">
         <v>443</v>
       </c>
-      <c r="C126" s="3" t="s">
-        <v>444</v>
-      </c>
       <c r="D126" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E126" s="3">
         <v>-1</v>
@@ -21837,18 +21233,18 @@
       </c>
       <c r="AX126" s="7"/>
     </row>
-    <row r="127" spans="1:50">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3">
         <v>123</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="C127" s="3" t="s">
         <v>445</v>
       </c>
-      <c r="C127" s="3" t="s">
+      <c r="D127" s="3" t="s">
         <v>446</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>447</v>
       </c>
       <c r="E127" s="3">
         <v>-1</v>
@@ -21987,18 +21383,18 @@
       </c>
       <c r="AX127" s="7"/>
     </row>
-    <row r="128" spans="1:50">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3">
         <v>124</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>448</v>
       </c>
-      <c r="C128" s="3" t="s">
+      <c r="D128" s="3" t="s">
         <v>449</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>450</v>
       </c>
       <c r="E128" s="3">
         <v>-1</v>
@@ -22137,18 +21533,18 @@
       </c>
       <c r="AX128" s="7"/>
     </row>
-    <row r="129" spans="1:50">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3">
         <v>125</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>450</v>
+      </c>
+      <c r="C129" s="3" t="s">
         <v>451</v>
       </c>
-      <c r="C129" s="3" t="s">
+      <c r="D129" s="3" t="s">
         <v>452</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>453</v>
       </c>
       <c r="E129" s="3">
         <v>-1</v>
@@ -22287,18 +21683,18 @@
       </c>
       <c r="AX129" s="7"/>
     </row>
-    <row r="130" spans="1:50">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A130" s="3">
         <v>126</v>
       </c>
       <c r="B130" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>454</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>456</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
@@ -22437,18 +21833,18 @@
       </c>
       <c r="AX130" s="7"/>
     </row>
-    <row r="131" spans="1:50">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131" s="3">
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>456</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>457</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>458</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>459</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -22587,18 +21983,18 @@
       </c>
       <c r="AX131" s="7"/>
     </row>
-    <row r="132" spans="1:50">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132" s="3">
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22737,18 +22133,18 @@
       </c>
       <c r="AX132" s="7"/>
     </row>
-    <row r="133" spans="1:50">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133" s="3">
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>461</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>462</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>463</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>464</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22887,18 +22283,18 @@
       </c>
       <c r="AX133" s="7"/>
     </row>
-    <row r="134" spans="1:50">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A134" s="3">
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -23037,18 +22433,18 @@
       </c>
       <c r="AX134" s="7"/>
     </row>
-    <row r="135" spans="1:50">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135" s="3">
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -23187,18 +22583,18 @@
       </c>
       <c r="AX135" s="7"/>
     </row>
-    <row r="136" spans="1:50">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A136" s="3">
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>469</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>471</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -23337,18 +22733,18 @@
       </c>
       <c r="AX136" s="7"/>
     </row>
-    <row r="137" spans="1:50">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A137" s="3">
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>472</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>474</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -23487,18 +22883,18 @@
       </c>
       <c r="AX137" s="7"/>
     </row>
-    <row r="138" spans="1:50">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A138" s="3">
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>475</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>477</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23637,18 +23033,18 @@
       </c>
       <c r="AX138" s="7"/>
     </row>
-    <row r="139" spans="1:50">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A139" s="3">
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>478</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>480</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23787,18 +23183,18 @@
       </c>
       <c r="AX139" s="7"/>
     </row>
-    <row r="140" spans="1:50">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A140" s="3">
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>481</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>482</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>483</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23937,18 +23333,18 @@
       </c>
       <c r="AX140" s="7"/>
     </row>
-    <row r="141" spans="1:50">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A141" s="3">
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="D141" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>485</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -24087,18 +23483,18 @@
       </c>
       <c r="AX141" s="7"/>
     </row>
-    <row r="142" spans="1:50">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A142" s="3">
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>486</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>487</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>488</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -24237,18 +23633,18 @@
       </c>
       <c r="AX142" s="7"/>
     </row>
-    <row r="143" spans="1:50">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A143" s="3">
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -24387,18 +23783,18 @@
       </c>
       <c r="AX143" s="7"/>
     </row>
-    <row r="144" spans="1:50">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A144" s="3">
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -24537,18 +23933,18 @@
       </c>
       <c r="AX144" s="7"/>
     </row>
-    <row r="145" spans="1:50">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A145" s="3">
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>490</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>491</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>492</v>
-      </c>
       <c r="D145" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24687,18 +24083,18 @@
       </c>
       <c r="AX145" s="7"/>
     </row>
-    <row r="146" spans="1:50">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A146" s="3">
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>493</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>494</v>
-      </c>
       <c r="D146" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24837,18 +24233,18 @@
       </c>
       <c r="AX146" s="7"/>
     </row>
-    <row r="147" spans="1:50">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A147" s="3">
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>495</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>497</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24987,18 +24383,18 @@
       </c>
       <c r="AX147" s="7"/>
     </row>
-    <row r="148" spans="1:50">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A148" s="3">
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>498</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>499</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>500</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -25137,18 +24533,18 @@
       </c>
       <c r="AX148" s="7"/>
     </row>
-    <row r="149" spans="1:50">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A149" s="3">
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>500</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>501</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>502</v>
-      </c>
       <c r="D149" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E149" s="3">
         <v>-1</v>
@@ -25287,18 +24683,18 @@
       </c>
       <c r="AX149" s="7"/>
     </row>
-    <row r="150" spans="1:50">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A150" s="3">
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>502</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>503</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>504</v>
-      </c>
       <c r="D150" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -25437,18 +24833,18 @@
       </c>
       <c r="AX150" s="7"/>
     </row>
-    <row r="151" spans="1:50">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A151" s="3">
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>504</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>505</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>506</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -25587,18 +24983,18 @@
       </c>
       <c r="AX151" s="7"/>
     </row>
-    <row r="152" spans="1:50">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A152" s="3">
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>506</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>507</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>508</v>
-      </c>
       <c r="D152" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25737,18 +25133,18 @@
       </c>
       <c r="AX152" s="7"/>
     </row>
-    <row r="153" spans="1:50">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="3">
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>508</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>509</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>510</v>
-      </c>
       <c r="D153" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25887,18 +25283,18 @@
       </c>
       <c r="AX153" s="7"/>
     </row>
-    <row r="154" spans="1:50">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A154" s="3">
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>511</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>512</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -26037,18 +25433,18 @@
       </c>
       <c r="AX154" s="7"/>
     </row>
-    <row r="155" spans="1:50">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A155" s="3">
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>512</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>513</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>514</v>
-      </c>
       <c r="D155" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -26187,18 +25583,18 @@
       </c>
       <c r="AX155" s="7"/>
     </row>
-    <row r="156" spans="1:50">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3">
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>514</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>515</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>516</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -26337,18 +25733,18 @@
       </c>
       <c r="AX156" s="7"/>
     </row>
-    <row r="157" spans="1:50">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A157" s="3">
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>516</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>517</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>518</v>
-      </c>
       <c r="D157" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -26487,18 +25883,18 @@
       </c>
       <c r="AX157" s="7"/>
     </row>
-    <row r="158" spans="1:50">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3">
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>518</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>519</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>520</v>
-      </c>
       <c r="D158" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26637,18 +26033,18 @@
       </c>
       <c r="AX158" s="7"/>
     </row>
-    <row r="159" spans="1:50">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A159" s="3">
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>520</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>521</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>522</v>
-      </c>
       <c r="D159" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26787,18 +26183,18 @@
       </c>
       <c r="AX159" s="7"/>
     </row>
-    <row r="160" spans="1:50">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A160" s="3">
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>522</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>523</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>524</v>
-      </c>
       <c r="D160" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26937,18 +26333,18 @@
       </c>
       <c r="AX160" s="7"/>
     </row>
-    <row r="161" spans="1:50">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" s="3">
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>525</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>526</v>
-      </c>
       <c r="D161" s="3" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -27087,18 +26483,18 @@
       </c>
       <c r="AX161" s="7"/>
     </row>
-    <row r="162" spans="1:50">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A162" s="3">
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -27237,18 +26633,18 @@
       </c>
       <c r="AX162" s="7"/>
     </row>
-    <row r="163" spans="1:50">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A163" s="3">
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>529</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>531</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -27387,18 +26783,18 @@
       </c>
       <c r="AX163" s="7"/>
     </row>
-    <row r="164" spans="1:50">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A164" s="3">
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>532</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>534</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -27537,18 +26933,18 @@
       </c>
       <c r="AX164" s="7"/>
     </row>
-    <row r="165" spans="1:50">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A165" s="3">
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>535</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>537</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27687,18 +27083,18 @@
       </c>
       <c r="AX165" s="7"/>
     </row>
-    <row r="166" spans="1:50">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A166" s="3">
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>538</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>540</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27837,18 +27233,18 @@
       </c>
       <c r="AX166" s="7"/>
     </row>
-    <row r="167" spans="1:50">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3">
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>541</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>543</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27987,18 +27383,18 @@
       </c>
       <c r="AX167" s="7"/>
     </row>
-    <row r="168" spans="1:50">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A168" s="3">
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>544</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>546</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -28137,18 +27533,18 @@
       </c>
       <c r="AX168" s="7"/>
     </row>
-    <row r="169" spans="1:50">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A169" s="3">
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>547</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>549</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -28287,18 +27683,18 @@
       </c>
       <c r="AX169" s="7"/>
     </row>
-    <row r="170" spans="1:50">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" s="3">
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>549</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>550</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>551</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>552</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -28437,18 +27833,18 @@
       </c>
       <c r="AX170" s="7"/>
     </row>
-    <row r="171" spans="1:50">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" s="3">
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -28587,18 +27983,18 @@
       </c>
       <c r="AX171" s="7"/>
     </row>
-    <row r="172" spans="1:50">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3">
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>555</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>556</v>
-      </c>
       <c r="D172" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E172" s="3">
         <v>-1</v>
@@ -28737,18 +28133,18 @@
       </c>
       <c r="AX172" s="7"/>
     </row>
-    <row r="173" spans="1:50">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A173" s="3">
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>556</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>557</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>558</v>
-      </c>
       <c r="D173" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28887,18 +28283,18 @@
       </c>
       <c r="AX173" s="7"/>
     </row>
-    <row r="174" spans="1:50">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A174" s="3">
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>559</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>560</v>
-      </c>
       <c r="D174" s="3" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -29037,18 +28433,18 @@
       </c>
       <c r="AX174" s="7"/>
     </row>
-    <row r="175" spans="1:50">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3">
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>561</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>563</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -29187,18 +28583,18 @@
       </c>
       <c r="AX175" s="7"/>
     </row>
-    <row r="176" spans="1:50">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3">
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>564</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>566</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -29337,18 +28733,18 @@
       </c>
       <c r="AX176" s="7"/>
     </row>
-    <row r="177" spans="1:50">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3">
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>567</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>569</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -29487,18 +28883,18 @@
       </c>
       <c r="AX177" s="7"/>
     </row>
-    <row r="178" spans="1:50">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3">
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>570</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>572</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29637,18 +29033,18 @@
       </c>
       <c r="AX178" s="7"/>
     </row>
-    <row r="179" spans="1:50">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A179" s="3">
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>573</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>575</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29787,18 +29183,18 @@
       </c>
       <c r="AX179" s="7"/>
     </row>
-    <row r="180" spans="1:50">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3">
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>578</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29937,18 +29333,18 @@
       </c>
       <c r="AX180" s="7"/>
     </row>
-    <row r="181" spans="1:50">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A181" s="3">
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>579</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>581</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -30087,18 +29483,18 @@
       </c>
       <c r="AX181" s="7"/>
     </row>
-    <row r="182" spans="1:50">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3">
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>582</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>584</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -30237,18 +29633,18 @@
       </c>
       <c r="AX182" s="7"/>
     </row>
-    <row r="183" spans="1:50">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3">
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>585</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>587</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -30387,18 +29783,18 @@
       </c>
       <c r="AX183" s="7"/>
     </row>
-    <row r="184" spans="1:50">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A184" s="3">
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>587</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>588</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>589</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>590</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -30537,18 +29933,18 @@
       </c>
       <c r="AX184" s="7"/>
     </row>
-    <row r="185" spans="1:50">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3">
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>592</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30687,18 +30083,18 @@
       </c>
       <c r="AX185" s="7"/>
     </row>
-    <row r="186" spans="1:50">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A186" s="3">
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>593</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>595</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30837,18 +30233,18 @@
       </c>
       <c r="AX186" s="7"/>
     </row>
-    <row r="187" spans="1:50">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A187" s="3">
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>596</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>598</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30987,18 +30383,18 @@
       </c>
       <c r="AX187" s="7"/>
     </row>
-    <row r="188" spans="1:50">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A188" s="3">
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>599</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>601</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -31137,18 +30533,18 @@
       </c>
       <c r="AX188" s="7"/>
     </row>
-    <row r="189" spans="1:50">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3">
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>602</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>604</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -31287,18 +30683,18 @@
       </c>
       <c r="AX189" s="7"/>
     </row>
-    <row r="190" spans="1:50">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A190" s="3">
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>604</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>605</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>606</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>607</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -31437,18 +30833,18 @@
       </c>
       <c r="AX190" s="7"/>
     </row>
-    <row r="191" spans="1:50">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A191" s="3">
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>607</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>608</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>526</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>609</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -31587,18 +30983,18 @@
       </c>
       <c r="AX191" s="7"/>
     </row>
-    <row r="192" spans="1:50">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A192" s="3">
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>610</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>611</v>
-      </c>
       <c r="D192" s="3" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="E192" s="3">
         <v>-1</v>
@@ -31737,18 +31133,18 @@
       </c>
       <c r="AX192" s="7"/>
     </row>
-    <row r="193" spans="1:50">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" s="3">
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>612</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>614</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31887,18 +31283,18 @@
       </c>
       <c r="AX193" s="7"/>
     </row>
-    <row r="194" spans="1:50">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3">
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>614</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>615</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>616</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>617</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -32037,18 +31433,18 @@
       </c>
       <c r="AX194" s="7"/>
     </row>
-    <row r="195" spans="1:50">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" s="3">
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>568</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>619</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -32187,18 +31583,18 @@
       </c>
       <c r="AX195" s="7"/>
     </row>
-    <row r="196" spans="1:50">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" s="3">
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>620</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>622</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -32337,18 +31733,18 @@
       </c>
       <c r="AX196" s="7"/>
     </row>
-    <row r="197" spans="1:50">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3">
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>623</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>625</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -32487,18 +31883,18 @@
       </c>
       <c r="AX197" s="7"/>
     </row>
-    <row r="198" spans="1:50">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3">
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>626</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>627</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>628</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32637,18 +32033,18 @@
       </c>
       <c r="AX198" s="7"/>
     </row>
-    <row r="199" spans="1:50">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3">
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32787,18 +32183,18 @@
       </c>
       <c r="AX199" s="7"/>
     </row>
-    <row r="200" spans="1:50">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200" s="3">
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>631</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>633</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32937,18 +32333,18 @@
       </c>
       <c r="AX200" s="7"/>
     </row>
-    <row r="201" spans="1:50">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201" s="3">
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>633</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>634</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>635</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>636</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -33087,18 +32483,18 @@
       </c>
       <c r="AX201" s="7"/>
     </row>
-    <row r="202" spans="1:50">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3">
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -33237,18 +32633,18 @@
       </c>
       <c r="AX202" s="7"/>
     </row>
-    <row r="203" spans="1:50">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3">
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>638</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>639</v>
-      </c>
       <c r="D203" s="3" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -33387,18 +32783,18 @@
       </c>
       <c r="AX203" s="7"/>
     </row>
-    <row r="204" spans="1:50">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3">
         <v>201</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>640</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>640</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>641</v>
       </c>
       <c r="E204" s="3">
         <v>-1</v>
@@ -33538,8 +32934,8 @@
       <c r="AX204" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1378,9 +1378,6 @@
   </si>
   <si>
     <t>黑木崖通行之信物</t>
-  </si>
-  <si>
-    <t>梨花酒</t>
   </si>
   <si>
     <t>梨花酒</t>
@@ -1989,6 +1986,10 @@
   </si>
   <si>
     <t>打叶剑法</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>玉石榴酒</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2457,8 +2458,8 @@
   <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A73" sqref="A73"/>
+      <pane ySplit="3" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13136,7 +13137,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>170</v>
@@ -21687,14 +21688,14 @@
       <c r="A130" s="3">
         <v>126</v>
       </c>
-      <c r="B130" s="3" t="s">
+      <c r="B130" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C130" s="3" t="s">
         <v>453</v>
       </c>
-      <c r="C130" s="3" t="s">
+      <c r="D130" s="3" t="s">
         <v>454</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>455</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
@@ -21838,13 +21839,13 @@
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>455</v>
+      </c>
+      <c r="C131" s="3" t="s">
         <v>456</v>
       </c>
-      <c r="C131" s="3" t="s">
+      <c r="D131" s="3" t="s">
         <v>457</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>458</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -21988,13 +21989,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22138,13 +22139,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>460</v>
+      </c>
+      <c r="C133" s="3" t="s">
         <v>461</v>
       </c>
-      <c r="C133" s="3" t="s">
+      <c r="D133" s="3" t="s">
         <v>462</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>463</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22288,13 +22289,13 @@
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -22438,13 +22439,13 @@
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -22588,13 +22589,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="C136" s="3" t="s">
         <v>468</v>
       </c>
-      <c r="C136" s="3" t="s">
+      <c r="D136" s="3" t="s">
         <v>469</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>470</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -22738,13 +22739,13 @@
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>470</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>471</v>
       </c>
-      <c r="C137" s="3" t="s">
+      <c r="D137" s="3" t="s">
         <v>472</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>473</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -22888,13 +22889,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>473</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>474</v>
       </c>
-      <c r="C138" s="3" t="s">
+      <c r="D138" s="3" t="s">
         <v>475</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>476</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23038,13 +23039,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>476</v>
+      </c>
+      <c r="C139" s="3" t="s">
         <v>477</v>
       </c>
-      <c r="C139" s="3" t="s">
+      <c r="D139" s="3" t="s">
         <v>478</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>479</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23188,13 +23189,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>479</v>
+      </c>
+      <c r="C140" s="3" t="s">
         <v>480</v>
       </c>
-      <c r="C140" s="3" t="s">
+      <c r="D140" s="3" t="s">
         <v>481</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>482</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23338,13 +23339,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>319</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -23488,13 +23489,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>484</v>
+      </c>
+      <c r="C142" s="3" t="s">
         <v>485</v>
       </c>
-      <c r="C142" s="3" t="s">
+      <c r="D142" s="3" t="s">
         <v>486</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>487</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -23638,13 +23639,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -23788,13 +23789,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -23938,13 +23939,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
+        <v>489</v>
+      </c>
+      <c r="C145" s="3" t="s">
         <v>490</v>
       </c>
-      <c r="C145" s="3" t="s">
-        <v>491</v>
-      </c>
       <c r="D145" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24088,13 +24089,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C146" s="3" t="s">
         <v>492</v>
       </c>
-      <c r="C146" s="3" t="s">
-        <v>493</v>
-      </c>
       <c r="D146" s="3" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24238,13 +24239,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>493</v>
+      </c>
+      <c r="C147" s="3" t="s">
         <v>494</v>
       </c>
-      <c r="C147" s="3" t="s">
+      <c r="D147" s="3" t="s">
         <v>495</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>496</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24388,13 +24389,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>496</v>
+      </c>
+      <c r="C148" s="3" t="s">
         <v>497</v>
       </c>
-      <c r="C148" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>498</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>499</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -24538,13 +24539,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
+        <v>499</v>
+      </c>
+      <c r="C149" s="3" t="s">
         <v>500</v>
       </c>
-      <c r="C149" s="3" t="s">
-        <v>501</v>
-      </c>
       <c r="D149" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E149" s="3">
         <v>-1</v>
@@ -24688,13 +24689,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
+        <v>501</v>
+      </c>
+      <c r="C150" s="3" t="s">
         <v>502</v>
       </c>
-      <c r="C150" s="3" t="s">
-        <v>503</v>
-      </c>
       <c r="D150" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -24838,13 +24839,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
+        <v>503</v>
+      </c>
+      <c r="C151" s="3" t="s">
         <v>504</v>
       </c>
-      <c r="C151" s="3" t="s">
-        <v>505</v>
-      </c>
       <c r="D151" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -24988,13 +24989,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
+        <v>505</v>
+      </c>
+      <c r="C152" s="3" t="s">
         <v>506</v>
       </c>
-      <c r="C152" s="3" t="s">
-        <v>507</v>
-      </c>
       <c r="D152" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25138,13 +25139,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
+        <v>507</v>
+      </c>
+      <c r="C153" s="3" t="s">
         <v>508</v>
       </c>
-      <c r="C153" s="3" t="s">
-        <v>509</v>
-      </c>
       <c r="D153" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25288,13 +25289,13 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
+        <v>509</v>
+      </c>
+      <c r="C154" s="3" t="s">
         <v>510</v>
       </c>
-      <c r="C154" s="3" t="s">
-        <v>511</v>
-      </c>
       <c r="D154" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -25438,13 +25439,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
+        <v>511</v>
+      </c>
+      <c r="C155" s="3" t="s">
         <v>512</v>
       </c>
-      <c r="C155" s="3" t="s">
-        <v>513</v>
-      </c>
       <c r="D155" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -25588,13 +25589,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
+        <v>513</v>
+      </c>
+      <c r="C156" s="3" t="s">
         <v>514</v>
       </c>
-      <c r="C156" s="3" t="s">
-        <v>515</v>
-      </c>
       <c r="D156" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -25738,13 +25739,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
+        <v>515</v>
+      </c>
+      <c r="C157" s="4" t="s">
         <v>516</v>
       </c>
-      <c r="C157" s="4" t="s">
-        <v>517</v>
-      </c>
       <c r="D157" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -25888,13 +25889,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
+        <v>517</v>
+      </c>
+      <c r="C158" s="3" t="s">
         <v>518</v>
       </c>
-      <c r="C158" s="3" t="s">
-        <v>519</v>
-      </c>
       <c r="D158" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26038,13 +26039,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
+        <v>519</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>520</v>
       </c>
-      <c r="C159" s="3" t="s">
-        <v>521</v>
-      </c>
       <c r="D159" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26188,13 +26189,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
+        <v>521</v>
+      </c>
+      <c r="C160" s="3" t="s">
         <v>522</v>
       </c>
-      <c r="C160" s="3" t="s">
-        <v>523</v>
-      </c>
       <c r="D160" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26338,13 +26339,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
+        <v>523</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>524</v>
       </c>
-      <c r="C161" s="3" t="s">
-        <v>525</v>
-      </c>
       <c r="D161" s="3" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -26488,13 +26489,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -26638,13 +26639,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>527</v>
+      </c>
+      <c r="C163" s="3" t="s">
         <v>528</v>
       </c>
-      <c r="C163" s="3" t="s">
+      <c r="D163" s="3" t="s">
         <v>529</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>530</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -26788,13 +26789,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>530</v>
+      </c>
+      <c r="C164" s="3" t="s">
         <v>531</v>
       </c>
-      <c r="C164" s="3" t="s">
+      <c r="D164" s="3" t="s">
         <v>532</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>533</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -26938,13 +26939,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>533</v>
+      </c>
+      <c r="C165" s="3" t="s">
         <v>534</v>
       </c>
-      <c r="C165" s="3" t="s">
+      <c r="D165" s="3" t="s">
         <v>535</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>536</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27088,13 +27089,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>536</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>537</v>
       </c>
-      <c r="C166" s="3" t="s">
+      <c r="D166" s="3" t="s">
         <v>538</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>539</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27238,13 +27239,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>539</v>
+      </c>
+      <c r="C167" s="3" t="s">
         <v>540</v>
       </c>
-      <c r="C167" s="3" t="s">
+      <c r="D167" s="3" t="s">
         <v>541</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>542</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27388,13 +27389,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>542</v>
+      </c>
+      <c r="C168" s="3" t="s">
         <v>543</v>
       </c>
-      <c r="C168" s="3" t="s">
+      <c r="D168" s="3" t="s">
         <v>544</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>545</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -27538,13 +27539,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>545</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>546</v>
       </c>
-      <c r="C169" s="3" t="s">
+      <c r="D169" s="3" t="s">
         <v>547</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>548</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -27688,13 +27689,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>548</v>
+      </c>
+      <c r="C170" s="3" t="s">
         <v>549</v>
       </c>
-      <c r="C170" s="3" t="s">
+      <c r="D170" s="3" t="s">
         <v>550</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>551</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -27838,13 +27839,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -27988,13 +27989,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C172" s="3" t="s">
         <v>554</v>
       </c>
-      <c r="C172" s="3" t="s">
-        <v>555</v>
-      </c>
       <c r="D172" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E172" s="3">
         <v>-1</v>
@@ -28138,13 +28139,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>555</v>
+      </c>
+      <c r="C173" s="3" t="s">
         <v>556</v>
       </c>
-      <c r="C173" s="3" t="s">
-        <v>557</v>
-      </c>
       <c r="D173" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28288,13 +28289,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C174" s="3" t="s">
         <v>558</v>
       </c>
-      <c r="C174" s="3" t="s">
-        <v>559</v>
-      </c>
       <c r="D174" s="3" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -28438,13 +28439,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>559</v>
+      </c>
+      <c r="C175" s="3" t="s">
         <v>560</v>
       </c>
-      <c r="C175" s="3" t="s">
+      <c r="D175" s="3" t="s">
         <v>561</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>562</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -28588,13 +28589,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="C176" s="3" t="s">
         <v>563</v>
       </c>
-      <c r="C176" s="3" t="s">
+      <c r="D176" s="3" t="s">
         <v>564</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>565</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -28738,13 +28739,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>565</v>
+      </c>
+      <c r="C177" s="3" t="s">
         <v>566</v>
       </c>
-      <c r="C177" s="3" t="s">
+      <c r="D177" s="3" t="s">
         <v>567</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>568</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -28888,13 +28889,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>568</v>
+      </c>
+      <c r="C178" s="3" t="s">
         <v>569</v>
       </c>
-      <c r="C178" s="3" t="s">
+      <c r="D178" s="3" t="s">
         <v>570</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>571</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29038,13 +29039,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>571</v>
+      </c>
+      <c r="C179" s="3" t="s">
         <v>572</v>
       </c>
-      <c r="C179" s="3" t="s">
+      <c r="D179" s="3" t="s">
         <v>573</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>574</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29188,13 +29189,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>574</v>
+      </c>
+      <c r="C180" s="3" t="s">
         <v>575</v>
       </c>
-      <c r="C180" s="3" t="s">
+      <c r="D180" s="3" t="s">
         <v>576</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>577</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29338,13 +29339,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C181" s="3" t="s">
         <v>578</v>
       </c>
-      <c r="C181" s="3" t="s">
+      <c r="D181" s="3" t="s">
         <v>579</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>580</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -29488,13 +29489,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>580</v>
+      </c>
+      <c r="C182" s="3" t="s">
         <v>581</v>
       </c>
-      <c r="C182" s="3" t="s">
+      <c r="D182" s="3" t="s">
         <v>582</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>583</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -29638,13 +29639,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>583</v>
+      </c>
+      <c r="C183" s="3" t="s">
         <v>584</v>
       </c>
-      <c r="C183" s="3" t="s">
+      <c r="D183" s="3" t="s">
         <v>585</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>586</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -29788,13 +29789,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C184" s="3" t="s">
         <v>587</v>
       </c>
-      <c r="C184" s="3" t="s">
+      <c r="D184" s="3" t="s">
         <v>588</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>589</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -29938,13 +29939,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D185" s="3" t="s">
         <v>590</v>
-      </c>
-      <c r="C185" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D185" s="3" t="s">
-        <v>591</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30088,13 +30089,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>591</v>
+      </c>
+      <c r="C186" s="3" t="s">
         <v>592</v>
       </c>
-      <c r="C186" s="3" t="s">
+      <c r="D186" s="3" t="s">
         <v>593</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>594</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30238,13 +30239,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C187" s="3" t="s">
         <v>595</v>
       </c>
-      <c r="C187" s="3" t="s">
+      <c r="D187" s="3" t="s">
         <v>596</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>597</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30388,13 +30389,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>597</v>
+      </c>
+      <c r="C188" s="3" t="s">
         <v>598</v>
       </c>
-      <c r="C188" s="3" t="s">
+      <c r="D188" s="3" t="s">
         <v>599</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>600</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -30538,13 +30539,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>600</v>
+      </c>
+      <c r="C189" s="3" t="s">
         <v>601</v>
       </c>
-      <c r="C189" s="3" t="s">
+      <c r="D189" s="3" t="s">
         <v>602</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>603</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -30688,13 +30689,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>603</v>
+      </c>
+      <c r="C190" s="3" t="s">
         <v>604</v>
       </c>
-      <c r="C190" s="3" t="s">
+      <c r="D190" s="3" t="s">
         <v>605</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>606</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -30838,13 +30839,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
+        <v>606</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>524</v>
+      </c>
+      <c r="D191" s="3" t="s">
         <v>607</v>
-      </c>
-      <c r="C191" s="3" t="s">
-        <v>525</v>
-      </c>
-      <c r="D191" s="3" t="s">
-        <v>608</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -30988,13 +30989,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C192" s="3" t="s">
         <v>609</v>
       </c>
-      <c r="C192" s="3" t="s">
-        <v>610</v>
-      </c>
       <c r="D192" s="3" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E192" s="3">
         <v>-1</v>
@@ -31138,13 +31139,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>610</v>
+      </c>
+      <c r="C193" s="3" t="s">
         <v>611</v>
       </c>
-      <c r="C193" s="3" t="s">
+      <c r="D193" s="3" t="s">
         <v>612</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>613</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31288,13 +31289,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>613</v>
+      </c>
+      <c r="C194" s="3" t="s">
         <v>614</v>
       </c>
-      <c r="C194" s="3" t="s">
+      <c r="D194" s="3" t="s">
         <v>615</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>616</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -31438,13 +31439,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="D195" s="3" t="s">
         <v>617</v>
-      </c>
-      <c r="C195" s="3" t="s">
-        <v>567</v>
-      </c>
-      <c r="D195" s="3" t="s">
-        <v>618</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -31588,13 +31589,13 @@
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>618</v>
+      </c>
+      <c r="C196" s="3" t="s">
         <v>619</v>
       </c>
-      <c r="C196" s="3" t="s">
+      <c r="D196" s="3" t="s">
         <v>620</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>621</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -31738,13 +31739,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>621</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>622</v>
       </c>
-      <c r="C197" s="3" t="s">
+      <c r="D197" s="3" t="s">
         <v>623</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>624</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -31888,13 +31889,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>624</v>
+      </c>
+      <c r="C198" s="3" t="s">
         <v>625</v>
       </c>
-      <c r="C198" s="3" t="s">
+      <c r="D198" s="3" t="s">
         <v>626</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>627</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32038,13 +32039,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32188,13 +32189,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>629</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>630</v>
       </c>
-      <c r="C200" s="3" t="s">
+      <c r="D200" s="3" t="s">
         <v>631</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>632</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32338,13 +32339,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>632</v>
+      </c>
+      <c r="C201" s="3" t="s">
         <v>633</v>
       </c>
-      <c r="C201" s="3" t="s">
+      <c r="D201" s="3" t="s">
         <v>634</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>635</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -32488,13 +32489,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -32638,13 +32639,13 @@
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
+        <v>636</v>
+      </c>
+      <c r="C203" s="3" t="s">
         <v>637</v>
       </c>
-      <c r="C203" s="3" t="s">
-        <v>638</v>
-      </c>
       <c r="D203" s="3" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -32788,13 +32789,13 @@
         <v>201</v>
       </c>
       <c r="B204" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="C204" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="D204" s="8" t="s">
         <v>639</v>
-      </c>
-      <c r="C204" s="8" t="s">
-        <v>639</v>
-      </c>
-      <c r="D204" s="8" t="s">
-        <v>640</v>
       </c>
       <c r="E204" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -948,9 +948,6 @@
     <t>王重阳悟于北斗七星之剑法</t>
   </si>
   <si>
-    <t>两仪剑法</t>
-  </si>
-  <si>
     <t>两仪剑</t>
   </si>
   <si>
@@ -1264,9 +1261,6 @@
   </si>
   <si>
     <t>金蛇郎君之随身武器</t>
-  </si>
-  <si>
-    <t>凝碧剑</t>
   </si>
   <si>
     <t>凝碧剑</t>
@@ -1990,6 +1984,14 @@
   </si>
   <si>
     <t>玉石榴酒</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>烛影剑</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>醉灯剑法</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2458,8 +2460,8 @@
   <dimension ref="A1:AX204"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F130" sqref="F130"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B115" sqref="B115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13137,7 +13139,7 @@
         <v>69</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C73" s="3" t="s">
         <v>170</v>
@@ -13436,14 +13438,14 @@
       <c r="A75" s="3">
         <v>71</v>
       </c>
-      <c r="B75" s="3" t="s">
+      <c r="B75" s="9" t="s">
+        <v>641</v>
+      </c>
+      <c r="C75" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D75" s="3" t="s">
         <v>310</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>311</v>
       </c>
       <c r="E75" s="3">
         <v>47</v>
@@ -13587,13 +13589,13 @@
         <v>72</v>
       </c>
       <c r="B76" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C76" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="D76" s="3" t="s">
         <v>313</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>314</v>
       </c>
       <c r="E76" s="3">
         <v>54</v>
@@ -13737,13 +13739,13 @@
         <v>73</v>
       </c>
       <c r="B77" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="C77" s="3" t="s">
+      <c r="D77" s="3" t="s">
         <v>316</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>317</v>
       </c>
       <c r="E77" s="3">
         <v>49</v>
@@ -13887,13 +13889,13 @@
         <v>74</v>
       </c>
       <c r="B78" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="C78" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="C78" s="3" t="s">
+      <c r="D78" s="3" t="s">
         <v>319</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>320</v>
       </c>
       <c r="E78" s="3">
         <v>55</v>
@@ -14037,13 +14039,13 @@
         <v>75</v>
       </c>
       <c r="B79" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="C79" s="3" t="s">
+      <c r="D79" s="3" t="s">
         <v>322</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>323</v>
       </c>
       <c r="E79" s="3">
         <v>58</v>
@@ -14187,13 +14189,13 @@
         <v>76</v>
       </c>
       <c r="B80" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="C80" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="C80" s="3" t="s">
+      <c r="D80" s="3" t="s">
         <v>325</v>
-      </c>
-      <c r="D80" s="3" t="s">
-        <v>326</v>
       </c>
       <c r="E80" s="3">
         <v>59</v>
@@ -14337,13 +14339,13 @@
         <v>77</v>
       </c>
       <c r="B81" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C81" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="C81" s="3" t="s">
+      <c r="D81" s="3" t="s">
         <v>328</v>
-      </c>
-      <c r="D81" s="3" t="s">
-        <v>329</v>
       </c>
       <c r="E81" s="3">
         <v>57</v>
@@ -14487,13 +14489,13 @@
         <v>78</v>
       </c>
       <c r="B82" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C82" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="C82" s="3" t="s">
+      <c r="D82" s="3" t="s">
         <v>331</v>
-      </c>
-      <c r="D82" s="3" t="s">
-        <v>332</v>
       </c>
       <c r="E82" s="3">
         <v>60</v>
@@ -14637,13 +14639,13 @@
         <v>79</v>
       </c>
       <c r="B83" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="C83" s="3" t="s">
+      <c r="D83" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="D83" s="3" t="s">
-        <v>335</v>
       </c>
       <c r="E83" s="3">
         <v>61</v>
@@ -14787,13 +14789,13 @@
         <v>80</v>
       </c>
       <c r="B84" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="C84" s="3" t="s">
+      <c r="D84" s="3" t="s">
         <v>337</v>
-      </c>
-      <c r="D84" s="3" t="s">
-        <v>338</v>
       </c>
       <c r="E84" s="3">
         <v>63</v>
@@ -14937,13 +14939,13 @@
         <v>81</v>
       </c>
       <c r="B85" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C85" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="C85" s="3" t="s">
+      <c r="D85" s="3" t="s">
         <v>340</v>
-      </c>
-      <c r="D85" s="3" t="s">
-        <v>341</v>
       </c>
       <c r="E85" s="3">
         <v>66</v>
@@ -15087,13 +15089,13 @@
         <v>82</v>
       </c>
       <c r="B86" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="C86" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="C86" s="3" t="s">
+      <c r="D86" s="3" t="s">
         <v>343</v>
-      </c>
-      <c r="D86" s="3" t="s">
-        <v>344</v>
       </c>
       <c r="E86" s="3">
         <v>65</v>
@@ -15237,13 +15239,13 @@
         <v>83</v>
       </c>
       <c r="B87" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C87" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="C87" s="3" t="s">
+      <c r="D87" s="3" t="s">
         <v>346</v>
-      </c>
-      <c r="D87" s="3" t="s">
-        <v>347</v>
       </c>
       <c r="E87" s="3">
         <v>64</v>
@@ -15387,13 +15389,13 @@
         <v>84</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C88" s="3" t="s">
         <v>247</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E88" s="3">
         <v>67</v>
@@ -15537,13 +15539,13 @@
         <v>85</v>
       </c>
       <c r="B89" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="C89" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="C89" s="3" t="s">
+      <c r="D89" s="3" t="s">
         <v>351</v>
-      </c>
-      <c r="D89" s="3" t="s">
-        <v>352</v>
       </c>
       <c r="E89" s="3">
         <v>68</v>
@@ -15687,13 +15689,13 @@
         <v>86</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="C90" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D90" s="3" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E90" s="3">
         <v>77</v>
@@ -15837,13 +15839,13 @@
         <v>87</v>
       </c>
       <c r="B91" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="C91" s="3" t="s">
+      <c r="D91" s="3" t="s">
         <v>356</v>
-      </c>
-      <c r="D91" s="3" t="s">
-        <v>357</v>
       </c>
       <c r="E91" s="3">
         <v>78</v>
@@ -15987,13 +15989,13 @@
         <v>88</v>
       </c>
       <c r="B92" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="C92" s="3" t="s">
+      <c r="D92" s="3" t="s">
         <v>359</v>
-      </c>
-      <c r="D92" s="3" t="s">
-        <v>360</v>
       </c>
       <c r="E92" s="3">
         <v>-1</v>
@@ -16137,13 +16139,13 @@
         <v>89</v>
       </c>
       <c r="B93" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D93" s="3" t="s">
         <v>361</v>
-      </c>
-      <c r="C93" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D93" s="3" t="s">
-        <v>362</v>
       </c>
       <c r="E93" s="3">
         <v>-1</v>
@@ -16281,7 +16283,7 @@
         <v>172</v>
       </c>
       <c r="AX93" s="7" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.2">
@@ -16289,13 +16291,13 @@
         <v>90</v>
       </c>
       <c r="B94" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="C94" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="C94" s="3" t="s">
+      <c r="D94" s="3" t="s">
         <v>365</v>
-      </c>
-      <c r="D94" s="3" t="s">
-        <v>366</v>
       </c>
       <c r="E94" s="3">
         <v>-1</v>
@@ -16439,13 +16441,13 @@
         <v>91</v>
       </c>
       <c r="B95" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C95" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="C95" s="3" t="s">
+      <c r="D95" s="3" t="s">
         <v>368</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>369</v>
       </c>
       <c r="E95" s="3">
         <v>-1</v>
@@ -16589,13 +16591,13 @@
         <v>92</v>
       </c>
       <c r="B96" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="C96" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="C96" s="3" t="s">
+      <c r="D96" s="3" t="s">
         <v>371</v>
-      </c>
-      <c r="D96" s="3" t="s">
-        <v>372</v>
       </c>
       <c r="E96" s="3">
         <v>-1</v>
@@ -16739,13 +16741,13 @@
         <v>93</v>
       </c>
       <c r="B97" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C97" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="C97" s="3" t="s">
+      <c r="D97" s="3" t="s">
         <v>374</v>
-      </c>
-      <c r="D97" s="3" t="s">
-        <v>375</v>
       </c>
       <c r="E97" s="3">
         <v>-1</v>
@@ -16889,13 +16891,13 @@
         <v>94</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C98" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D98" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E98" s="3">
         <v>-1</v>
@@ -17039,13 +17041,13 @@
         <v>95</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C99" s="3" t="s">
         <v>139</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E99" s="3">
         <v>92</v>
@@ -17189,13 +17191,13 @@
         <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C100" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="C100" s="3" t="s">
+      <c r="D100" s="3" t="s">
         <v>380</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>381</v>
       </c>
       <c r="E100" s="3">
         <v>-1</v>
@@ -17339,13 +17341,13 @@
         <v>97</v>
       </c>
       <c r="B101" s="3" t="s">
+        <v>381</v>
+      </c>
+      <c r="C101" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="C101" s="3" t="s">
-        <v>383</v>
-      </c>
       <c r="D101" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E101" s="3">
         <v>-1</v>
@@ -17489,13 +17491,13 @@
         <v>98</v>
       </c>
       <c r="B102" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="C102" s="3" t="s">
-        <v>385</v>
-      </c>
       <c r="D102" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E102" s="3">
         <v>-1</v>
@@ -17639,13 +17641,13 @@
         <v>99</v>
       </c>
       <c r="B103" s="3" t="s">
+        <v>385</v>
+      </c>
+      <c r="C103" s="3" t="s">
         <v>386</v>
       </c>
-      <c r="C103" s="3" t="s">
-        <v>387</v>
-      </c>
       <c r="D103" s="3" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E103" s="3">
         <v>-1</v>
@@ -17789,13 +17791,13 @@
         <v>100</v>
       </c>
       <c r="B104" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D104" s="3" t="s">
         <v>388</v>
-      </c>
-      <c r="C104" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D104" s="3" t="s">
-        <v>389</v>
       </c>
       <c r="E104" s="3">
         <v>-1</v>
@@ -17939,13 +17941,13 @@
         <v>101</v>
       </c>
       <c r="B105" s="3" t="s">
+        <v>389</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="D105" s="3" t="s">
         <v>390</v>
-      </c>
-      <c r="C105" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D105" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="E105" s="3">
         <v>-1</v>
@@ -18089,13 +18091,13 @@
         <v>102</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C106" s="3" t="s">
         <v>255</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E106" s="3">
         <v>-1</v>
@@ -18239,13 +18241,13 @@
         <v>103</v>
       </c>
       <c r="B107" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="C107" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="C107" s="3" t="s">
+      <c r="D107" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>396</v>
       </c>
       <c r="E107" s="3">
         <v>-1</v>
@@ -18389,13 +18391,13 @@
         <v>104</v>
       </c>
       <c r="B108" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="C108" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="C108" s="3" t="s">
+      <c r="D108" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="D108" s="3" t="s">
-        <v>399</v>
       </c>
       <c r="E108" s="3">
         <v>-1</v>
@@ -18539,13 +18541,13 @@
         <v>105</v>
       </c>
       <c r="B109" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C109" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="C109" s="3" t="s">
+      <c r="D109" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="E109" s="3">
         <v>-1</v>
@@ -18689,13 +18691,13 @@
         <v>106</v>
       </c>
       <c r="B110" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D110" s="3" t="s">
         <v>403</v>
-      </c>
-      <c r="C110" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>404</v>
       </c>
       <c r="E110" s="3">
         <v>-1</v>
@@ -18839,13 +18841,13 @@
         <v>107</v>
       </c>
       <c r="B111" s="3" t="s">
+        <v>404</v>
+      </c>
+      <c r="C111" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="C111" s="3" t="s">
+      <c r="D111" s="3" t="s">
         <v>406</v>
-      </c>
-      <c r="D111" s="3" t="s">
-        <v>407</v>
       </c>
       <c r="E111" s="3">
         <v>-1</v>
@@ -18989,13 +18991,13 @@
         <v>108</v>
       </c>
       <c r="B112" s="3" t="s">
+        <v>407</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="C112" s="3" t="s">
-        <v>409</v>
-      </c>
       <c r="D112" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E112" s="3">
         <v>-1</v>
@@ -19139,13 +19141,13 @@
         <v>109</v>
       </c>
       <c r="B113" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C113" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="C113" s="3" t="s">
+      <c r="D113" s="3" t="s">
         <v>411</v>
-      </c>
-      <c r="D113" s="3" t="s">
-        <v>412</v>
       </c>
       <c r="E113" s="3">
         <v>-1</v>
@@ -19289,13 +19291,13 @@
         <v>110</v>
       </c>
       <c r="B114" s="3" t="s">
+        <v>412</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="D114" s="3" t="s">
         <v>413</v>
-      </c>
-      <c r="C114" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="D114" s="3" t="s">
-        <v>414</v>
       </c>
       <c r="E114" s="3">
         <v>-1</v>
@@ -19438,14 +19440,14 @@
       <c r="A115" s="3">
         <v>111</v>
       </c>
-      <c r="B115" s="3" t="s">
+      <c r="B115" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="D115" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="C115" s="3" t="s">
-        <v>416</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>417</v>
       </c>
       <c r="E115" s="3">
         <v>-1</v>
@@ -19589,13 +19591,13 @@
         <v>112</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E116" s="3">
         <v>-1</v>
@@ -19739,13 +19741,13 @@
         <v>113</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E117" s="3">
         <v>-1</v>
@@ -19889,13 +19891,13 @@
         <v>114</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="D118" s="3" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E118" s="3">
         <v>-1</v>
@@ -20039,13 +20041,13 @@
         <v>115</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E119" s="3">
         <v>-1</v>
@@ -20189,13 +20191,13 @@
         <v>116</v>
       </c>
       <c r="B120" s="3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>425</v>
+      </c>
+      <c r="D120" s="3" t="s">
         <v>426</v>
-      </c>
-      <c r="C120" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="D120" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="E120" s="3">
         <v>-1</v>
@@ -20339,13 +20341,13 @@
         <v>117</v>
       </c>
       <c r="B121" s="3" t="s">
+        <v>427</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>428</v>
+      </c>
+      <c r="D121" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="C121" s="3" t="s">
-        <v>430</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>431</v>
       </c>
       <c r="E121" s="3">
         <v>-1</v>
@@ -20489,13 +20491,13 @@
         <v>118</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E122" s="3">
         <v>-1</v>
@@ -20639,13 +20641,13 @@
         <v>119</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E123" s="3">
         <v>-1</v>
@@ -20789,13 +20791,13 @@
         <v>120</v>
       </c>
       <c r="B124" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>436</v>
-      </c>
-      <c r="C124" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="D124" s="3" t="s">
-        <v>438</v>
       </c>
       <c r="E124" s="3">
         <v>-1</v>
@@ -20939,13 +20941,13 @@
         <v>121</v>
       </c>
       <c r="B125" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="D125" s="3" t="s">
         <v>439</v>
-      </c>
-      <c r="C125" s="3" t="s">
-        <v>440</v>
-      </c>
-      <c r="D125" s="3" t="s">
-        <v>441</v>
       </c>
       <c r="E125" s="3">
         <v>-1</v>
@@ -21089,13 +21091,13 @@
         <v>122</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E126" s="3">
         <v>-1</v>
@@ -21239,13 +21241,13 @@
         <v>123</v>
       </c>
       <c r="B127" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="D127" s="3" t="s">
         <v>444</v>
-      </c>
-      <c r="C127" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="D127" s="3" t="s">
-        <v>446</v>
       </c>
       <c r="E127" s="3">
         <v>-1</v>
@@ -21389,13 +21391,13 @@
         <v>124</v>
       </c>
       <c r="B128" s="3" t="s">
+        <v>445</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>446</v>
+      </c>
+      <c r="D128" s="3" t="s">
         <v>447</v>
-      </c>
-      <c r="C128" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="D128" s="3" t="s">
-        <v>449</v>
       </c>
       <c r="E128" s="3">
         <v>-1</v>
@@ -21539,13 +21541,13 @@
         <v>125</v>
       </c>
       <c r="B129" s="3" t="s">
+        <v>448</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>449</v>
+      </c>
+      <c r="D129" s="3" t="s">
         <v>450</v>
-      </c>
-      <c r="C129" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="D129" s="3" t="s">
-        <v>452</v>
       </c>
       <c r="E129" s="3">
         <v>-1</v>
@@ -21689,19 +21691,20 @@
         <v>126</v>
       </c>
       <c r="B130" s="9" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D130" s="3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E130" s="3">
         <v>-1</v>
       </c>
-      <c r="F130" s="3">
-        <v>-1</v>
+      <c r="F130" s="3" t="e">
+        <f>B115-1</f>
+        <v>#VALUE!</v>
       </c>
       <c r="G130" s="3">
         <v>-1</v>
@@ -21839,13 +21842,13 @@
         <v>127</v>
       </c>
       <c r="B131" s="3" t="s">
+        <v>453</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>454</v>
+      </c>
+      <c r="D131" s="3" t="s">
         <v>455</v>
-      </c>
-      <c r="C131" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="D131" s="3" t="s">
-        <v>457</v>
       </c>
       <c r="E131" s="3">
         <v>-1</v>
@@ -21989,13 +21992,13 @@
         <v>128</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C132" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D132" s="3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E132" s="3">
         <v>-1</v>
@@ -22139,13 +22142,13 @@
         <v>129</v>
       </c>
       <c r="B133" s="3" t="s">
+        <v>458</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>459</v>
+      </c>
+      <c r="D133" s="3" t="s">
         <v>460</v>
-      </c>
-      <c r="C133" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="D133" s="3" t="s">
-        <v>462</v>
       </c>
       <c r="E133" s="3">
         <v>-1</v>
@@ -22289,13 +22292,13 @@
         <v>130</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="C134" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E134" s="3">
         <v>-1</v>
@@ -22439,13 +22442,13 @@
         <v>131</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="C135" s="3" t="s">
         <v>197</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E135" s="3">
         <v>-1</v>
@@ -22589,13 +22592,13 @@
         <v>132</v>
       </c>
       <c r="B136" s="3" t="s">
+        <v>465</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="D136" s="3" t="s">
         <v>467</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>468</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>469</v>
       </c>
       <c r="E136" s="3">
         <v>-1</v>
@@ -22739,13 +22742,13 @@
         <v>133</v>
       </c>
       <c r="B137" s="3" t="s">
+        <v>468</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>469</v>
+      </c>
+      <c r="D137" s="3" t="s">
         <v>470</v>
-      </c>
-      <c r="C137" s="3" t="s">
-        <v>471</v>
-      </c>
-      <c r="D137" s="3" t="s">
-        <v>472</v>
       </c>
       <c r="E137" s="3">
         <v>-1</v>
@@ -22889,13 +22892,13 @@
         <v>134</v>
       </c>
       <c r="B138" s="3" t="s">
+        <v>471</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="D138" s="3" t="s">
         <v>473</v>
-      </c>
-      <c r="C138" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="D138" s="3" t="s">
-        <v>475</v>
       </c>
       <c r="E138" s="3">
         <v>-1</v>
@@ -23039,13 +23042,13 @@
         <v>135</v>
       </c>
       <c r="B139" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>475</v>
+      </c>
+      <c r="D139" s="3" t="s">
         <v>476</v>
-      </c>
-      <c r="C139" s="3" t="s">
-        <v>477</v>
-      </c>
-      <c r="D139" s="3" t="s">
-        <v>478</v>
       </c>
       <c r="E139" s="3">
         <v>-1</v>
@@ -23189,13 +23192,13 @@
         <v>136</v>
       </c>
       <c r="B140" s="3" t="s">
+        <v>477</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>478</v>
+      </c>
+      <c r="D140" s="3" t="s">
         <v>479</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>481</v>
       </c>
       <c r="E140" s="3">
         <v>-1</v>
@@ -23339,13 +23342,13 @@
         <v>137</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D141" s="3" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E141" s="3">
         <v>-1</v>
@@ -23489,13 +23492,13 @@
         <v>138</v>
       </c>
       <c r="B142" s="3" t="s">
+        <v>482</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>483</v>
+      </c>
+      <c r="D142" s="3" t="s">
         <v>484</v>
-      </c>
-      <c r="C142" s="3" t="s">
-        <v>485</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>486</v>
       </c>
       <c r="E142" s="3">
         <v>-1</v>
@@ -23639,13 +23642,13 @@
         <v>139</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E143" s="3">
         <v>-1</v>
@@ -23789,13 +23792,13 @@
         <v>140</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C144" s="3" t="s">
         <v>109</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E144" s="3">
         <v>-1</v>
@@ -23939,13 +23942,13 @@
         <v>141</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E145" s="3">
         <v>-1</v>
@@ -24089,13 +24092,13 @@
         <v>142</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D146" s="3" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E146" s="3">
         <v>-1</v>
@@ -24239,13 +24242,13 @@
         <v>143</v>
       </c>
       <c r="B147" s="3" t="s">
+        <v>491</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>492</v>
+      </c>
+      <c r="D147" s="3" t="s">
         <v>493</v>
-      </c>
-      <c r="C147" s="3" t="s">
-        <v>494</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>495</v>
       </c>
       <c r="E147" s="3">
         <v>-1</v>
@@ -24389,13 +24392,13 @@
         <v>144</v>
       </c>
       <c r="B148" s="3" t="s">
+        <v>494</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="D148" s="3" t="s">
         <v>496</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>498</v>
       </c>
       <c r="E148" s="3">
         <v>-1</v>
@@ -24539,13 +24542,13 @@
         <v>145</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E149" s="3">
         <v>-1</v>
@@ -24689,13 +24692,13 @@
         <v>146</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E150" s="3">
         <v>-1</v>
@@ -24839,13 +24842,13 @@
         <v>147</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="D151" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E151" s="3">
         <v>-1</v>
@@ -24989,13 +24992,13 @@
         <v>148</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E152" s="3">
         <v>-1</v>
@@ -25139,13 +25142,13 @@
         <v>149</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D153" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E153" s="3">
         <v>-1</v>
@@ -25289,13 +25292,13 @@
         <v>150</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="D154" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E154" s="3">
         <v>-1</v>
@@ -25439,13 +25442,13 @@
         <v>151</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="D155" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E155" s="3">
         <v>-1</v>
@@ -25589,13 +25592,13 @@
         <v>152</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E156" s="3">
         <v>-1</v>
@@ -25739,13 +25742,13 @@
         <v>153</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="D157" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E157" s="3">
         <v>-1</v>
@@ -25889,13 +25892,13 @@
         <v>154</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="D158" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E158" s="3">
         <v>-1</v>
@@ -26039,13 +26042,13 @@
         <v>155</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E159" s="3">
         <v>-1</v>
@@ -26189,13 +26192,13 @@
         <v>156</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="D160" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E160" s="3">
         <v>-1</v>
@@ -26339,13 +26342,13 @@
         <v>157</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D161" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="E161" s="3">
         <v>-1</v>
@@ -26489,13 +26492,13 @@
         <v>158</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="C162" s="3" t="s">
         <v>266</v>
       </c>
       <c r="D162" s="3" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="E162" s="3">
         <v>-1</v>
@@ -26639,13 +26642,13 @@
         <v>159</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>525</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>526</v>
+      </c>
+      <c r="D163" s="3" t="s">
         <v>527</v>
-      </c>
-      <c r="C163" s="3" t="s">
-        <v>528</v>
-      </c>
-      <c r="D163" s="3" t="s">
-        <v>529</v>
       </c>
       <c r="E163" s="3">
         <v>-1</v>
@@ -26789,13 +26792,13 @@
         <v>160</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>528</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>529</v>
+      </c>
+      <c r="D164" s="3" t="s">
         <v>530</v>
-      </c>
-      <c r="C164" s="3" t="s">
-        <v>531</v>
-      </c>
-      <c r="D164" s="3" t="s">
-        <v>532</v>
       </c>
       <c r="E164" s="3">
         <v>-1</v>
@@ -26939,13 +26942,13 @@
         <v>161</v>
       </c>
       <c r="B165" s="3" t="s">
+        <v>531</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>532</v>
+      </c>
+      <c r="D165" s="3" t="s">
         <v>533</v>
-      </c>
-      <c r="C165" s="3" t="s">
-        <v>534</v>
-      </c>
-      <c r="D165" s="3" t="s">
-        <v>535</v>
       </c>
       <c r="E165" s="3">
         <v>-1</v>
@@ -27089,13 +27092,13 @@
         <v>162</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>534</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="D166" s="3" t="s">
         <v>536</v>
-      </c>
-      <c r="C166" s="3" t="s">
-        <v>537</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>538</v>
       </c>
       <c r="E166" s="3">
         <v>-1</v>
@@ -27239,13 +27242,13 @@
         <v>163</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>537</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>538</v>
+      </c>
+      <c r="D167" s="3" t="s">
         <v>539</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>540</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>541</v>
       </c>
       <c r="E167" s="3">
         <v>-1</v>
@@ -27389,13 +27392,13 @@
         <v>164</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>540</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>541</v>
+      </c>
+      <c r="D168" s="3" t="s">
         <v>542</v>
-      </c>
-      <c r="C168" s="3" t="s">
-        <v>543</v>
-      </c>
-      <c r="D168" s="3" t="s">
-        <v>544</v>
       </c>
       <c r="E168" s="3">
         <v>-1</v>
@@ -27539,13 +27542,13 @@
         <v>165</v>
       </c>
       <c r="B169" s="3" t="s">
+        <v>543</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>544</v>
+      </c>
+      <c r="D169" s="3" t="s">
         <v>545</v>
-      </c>
-      <c r="C169" s="3" t="s">
-        <v>546</v>
-      </c>
-      <c r="D169" s="3" t="s">
-        <v>547</v>
       </c>
       <c r="E169" s="3">
         <v>-1</v>
@@ -27689,13 +27692,13 @@
         <v>166</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>546</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>547</v>
+      </c>
+      <c r="D170" s="3" t="s">
         <v>548</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>549</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>550</v>
       </c>
       <c r="E170" s="3">
         <v>-1</v>
@@ -27839,13 +27842,13 @@
         <v>167</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="C171" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E171" s="3">
         <v>-1</v>
@@ -27989,13 +27992,13 @@
         <v>168</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="D172" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E172" s="3">
         <v>-1</v>
@@ -28139,13 +28142,13 @@
         <v>169</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="D173" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E173" s="3">
         <v>-1</v>
@@ -28289,13 +28292,13 @@
         <v>170</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="D174" s="3" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="E174" s="3">
         <v>-1</v>
@@ -28439,13 +28442,13 @@
         <v>171</v>
       </c>
       <c r="B175" s="3" t="s">
+        <v>557</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>558</v>
+      </c>
+      <c r="D175" s="3" t="s">
         <v>559</v>
-      </c>
-      <c r="C175" s="3" t="s">
-        <v>560</v>
-      </c>
-      <c r="D175" s="3" t="s">
-        <v>561</v>
       </c>
       <c r="E175" s="3">
         <v>-1</v>
@@ -28589,13 +28592,13 @@
         <v>172</v>
       </c>
       <c r="B176" s="3" t="s">
+        <v>560</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>561</v>
+      </c>
+      <c r="D176" s="3" t="s">
         <v>562</v>
-      </c>
-      <c r="C176" s="3" t="s">
-        <v>563</v>
-      </c>
-      <c r="D176" s="3" t="s">
-        <v>564</v>
       </c>
       <c r="E176" s="3">
         <v>-1</v>
@@ -28739,13 +28742,13 @@
         <v>173</v>
       </c>
       <c r="B177" s="3" t="s">
+        <v>563</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>564</v>
+      </c>
+      <c r="D177" s="3" t="s">
         <v>565</v>
-      </c>
-      <c r="C177" s="3" t="s">
-        <v>566</v>
-      </c>
-      <c r="D177" s="3" t="s">
-        <v>567</v>
       </c>
       <c r="E177" s="3">
         <v>-1</v>
@@ -28889,13 +28892,13 @@
         <v>174</v>
       </c>
       <c r="B178" s="3" t="s">
+        <v>566</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>567</v>
+      </c>
+      <c r="D178" s="3" t="s">
         <v>568</v>
-      </c>
-      <c r="C178" s="3" t="s">
-        <v>569</v>
-      </c>
-      <c r="D178" s="3" t="s">
-        <v>570</v>
       </c>
       <c r="E178" s="3">
         <v>-1</v>
@@ -29039,13 +29042,13 @@
         <v>175</v>
       </c>
       <c r="B179" s="3" t="s">
+        <v>569</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>570</v>
+      </c>
+      <c r="D179" s="3" t="s">
         <v>571</v>
-      </c>
-      <c r="C179" s="3" t="s">
-        <v>572</v>
-      </c>
-      <c r="D179" s="3" t="s">
-        <v>573</v>
       </c>
       <c r="E179" s="3">
         <v>-1</v>
@@ -29189,13 +29192,13 @@
         <v>176</v>
       </c>
       <c r="B180" s="3" t="s">
+        <v>572</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>573</v>
+      </c>
+      <c r="D180" s="3" t="s">
         <v>574</v>
-      </c>
-      <c r="C180" s="3" t="s">
-        <v>575</v>
-      </c>
-      <c r="D180" s="3" t="s">
-        <v>576</v>
       </c>
       <c r="E180" s="3">
         <v>-1</v>
@@ -29339,13 +29342,13 @@
         <v>177</v>
       </c>
       <c r="B181" s="3" t="s">
+        <v>575</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="D181" s="3" t="s">
         <v>577</v>
-      </c>
-      <c r="C181" s="3" t="s">
-        <v>578</v>
-      </c>
-      <c r="D181" s="3" t="s">
-        <v>579</v>
       </c>
       <c r="E181" s="3">
         <v>-1</v>
@@ -29489,13 +29492,13 @@
         <v>178</v>
       </c>
       <c r="B182" s="3" t="s">
+        <v>578</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>579</v>
+      </c>
+      <c r="D182" s="3" t="s">
         <v>580</v>
-      </c>
-      <c r="C182" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="D182" s="3" t="s">
-        <v>582</v>
       </c>
       <c r="E182" s="3">
         <v>-1</v>
@@ -29639,13 +29642,13 @@
         <v>179</v>
       </c>
       <c r="B183" s="3" t="s">
+        <v>581</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="D183" s="3" t="s">
         <v>583</v>
-      </c>
-      <c r="C183" s="3" t="s">
-        <v>584</v>
-      </c>
-      <c r="D183" s="3" t="s">
-        <v>585</v>
       </c>
       <c r="E183" s="3">
         <v>-1</v>
@@ -29789,13 +29792,13 @@
         <v>180</v>
       </c>
       <c r="B184" s="3" t="s">
+        <v>584</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>585</v>
+      </c>
+      <c r="D184" s="3" t="s">
         <v>586</v>
-      </c>
-      <c r="C184" s="3" t="s">
-        <v>587</v>
-      </c>
-      <c r="D184" s="3" t="s">
-        <v>588</v>
       </c>
       <c r="E184" s="3">
         <v>-1</v>
@@ -29939,13 +29942,13 @@
         <v>181</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C185" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D185" s="3" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E185" s="3">
         <v>-1</v>
@@ -30089,13 +30092,13 @@
         <v>182</v>
       </c>
       <c r="B186" s="3" t="s">
+        <v>589</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>590</v>
+      </c>
+      <c r="D186" s="3" t="s">
         <v>591</v>
-      </c>
-      <c r="C186" s="3" t="s">
-        <v>592</v>
-      </c>
-      <c r="D186" s="3" t="s">
-        <v>593</v>
       </c>
       <c r="E186" s="3">
         <v>-1</v>
@@ -30239,13 +30242,13 @@
         <v>183</v>
       </c>
       <c r="B187" s="3" t="s">
+        <v>592</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>593</v>
+      </c>
+      <c r="D187" s="3" t="s">
         <v>594</v>
-      </c>
-      <c r="C187" s="3" t="s">
-        <v>595</v>
-      </c>
-      <c r="D187" s="3" t="s">
-        <v>596</v>
       </c>
       <c r="E187" s="3">
         <v>-1</v>
@@ -30389,13 +30392,13 @@
         <v>184</v>
       </c>
       <c r="B188" s="3" t="s">
+        <v>595</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>596</v>
+      </c>
+      <c r="D188" s="3" t="s">
         <v>597</v>
-      </c>
-      <c r="C188" s="3" t="s">
-        <v>598</v>
-      </c>
-      <c r="D188" s="3" t="s">
-        <v>599</v>
       </c>
       <c r="E188" s="3">
         <v>-1</v>
@@ -30539,13 +30542,13 @@
         <v>185</v>
       </c>
       <c r="B189" s="3" t="s">
+        <v>598</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>599</v>
+      </c>
+      <c r="D189" s="3" t="s">
         <v>600</v>
-      </c>
-      <c r="C189" s="3" t="s">
-        <v>601</v>
-      </c>
-      <c r="D189" s="3" t="s">
-        <v>602</v>
       </c>
       <c r="E189" s="3">
         <v>-1</v>
@@ -30689,13 +30692,13 @@
         <v>186</v>
       </c>
       <c r="B190" s="3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="D190" s="3" t="s">
         <v>603</v>
-      </c>
-      <c r="C190" s="3" t="s">
-        <v>604</v>
-      </c>
-      <c r="D190" s="3" t="s">
-        <v>605</v>
       </c>
       <c r="E190" s="3">
         <v>-1</v>
@@ -30839,13 +30842,13 @@
         <v>187</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C191" s="3" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E191" s="3">
         <v>-1</v>
@@ -30989,13 +30992,13 @@
         <v>188</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C192" s="3" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E192" s="3">
         <v>-1</v>
@@ -31139,13 +31142,13 @@
         <v>189</v>
       </c>
       <c r="B193" s="3" t="s">
+        <v>608</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>609</v>
+      </c>
+      <c r="D193" s="3" t="s">
         <v>610</v>
-      </c>
-      <c r="C193" s="3" t="s">
-        <v>611</v>
-      </c>
-      <c r="D193" s="3" t="s">
-        <v>612</v>
       </c>
       <c r="E193" s="3">
         <v>-1</v>
@@ -31289,13 +31292,13 @@
         <v>190</v>
       </c>
       <c r="B194" s="3" t="s">
+        <v>611</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>612</v>
+      </c>
+      <c r="D194" s="3" t="s">
         <v>613</v>
-      </c>
-      <c r="C194" s="3" t="s">
-        <v>614</v>
-      </c>
-      <c r="D194" s="3" t="s">
-        <v>615</v>
       </c>
       <c r="E194" s="3">
         <v>-1</v>
@@ -31439,13 +31442,13 @@
         <v>191</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="C195" s="3" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="D195" s="3" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E195" s="3">
         <v>-1</v>
@@ -31589,13 +31592,13 @@
         <v>192</v>
       </c>
       <c r="B196" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="D196" s="3" t="s">
         <v>618</v>
-      </c>
-      <c r="C196" s="3" t="s">
-        <v>619</v>
-      </c>
-      <c r="D196" s="3" t="s">
-        <v>620</v>
       </c>
       <c r="E196" s="3">
         <v>-1</v>
@@ -31739,13 +31742,13 @@
         <v>193</v>
       </c>
       <c r="B197" s="3" t="s">
+        <v>619</v>
+      </c>
+      <c r="C197" s="3" t="s">
+        <v>620</v>
+      </c>
+      <c r="D197" s="3" t="s">
         <v>621</v>
-      </c>
-      <c r="C197" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="D197" s="3" t="s">
-        <v>623</v>
       </c>
       <c r="E197" s="3">
         <v>-1</v>
@@ -31889,13 +31892,13 @@
         <v>194</v>
       </c>
       <c r="B198" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="D198" s="3" t="s">
         <v>624</v>
-      </c>
-      <c r="C198" s="3" t="s">
-        <v>625</v>
-      </c>
-      <c r="D198" s="3" t="s">
-        <v>626</v>
       </c>
       <c r="E198" s="3">
         <v>-1</v>
@@ -32039,13 +32042,13 @@
         <v>195</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>263</v>
       </c>
       <c r="D199" s="3" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E199" s="3">
         <v>-1</v>
@@ -32189,13 +32192,13 @@
         <v>196</v>
       </c>
       <c r="B200" s="3" t="s">
+        <v>627</v>
+      </c>
+      <c r="C200" s="3" t="s">
+        <v>628</v>
+      </c>
+      <c r="D200" s="3" t="s">
         <v>629</v>
-      </c>
-      <c r="C200" s="3" t="s">
-        <v>630</v>
-      </c>
-      <c r="D200" s="3" t="s">
-        <v>631</v>
       </c>
       <c r="E200" s="3">
         <v>-1</v>
@@ -32339,13 +32342,13 @@
         <v>197</v>
       </c>
       <c r="B201" s="3" t="s">
+        <v>630</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="D201" s="3" t="s">
         <v>632</v>
-      </c>
-      <c r="C201" s="3" t="s">
-        <v>633</v>
-      </c>
-      <c r="D201" s="3" t="s">
-        <v>634</v>
       </c>
       <c r="E201" s="3">
         <v>-1</v>
@@ -32489,13 +32492,13 @@
         <v>198</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>149</v>
       </c>
       <c r="D202" s="3" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E202" s="3">
         <v>-1</v>
@@ -32639,13 +32642,13 @@
         <v>199</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="C203" s="3" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D203" s="3" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E203" s="3">
         <v>-1</v>
@@ -32789,13 +32792,13 @@
         <v>201</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C204" s="8" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E204" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowHeight="17805"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="17805"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -463,14 +468,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -481,7 +480,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -497,351 +496,26 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -849,263 +523,21 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1125,65 +557,21 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1512,32 +900,31 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="U5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="18.9203539823009" customWidth="1"/>
-    <col min="50" max="50" width="28.3716814159292" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1683,7 +1070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1835,7 +1222,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1983,7 +1370,7 @@
       </c>
       <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2049,10 +1436,10 @@
         <v>0</v>
       </c>
       <c r="W5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X5" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y5" s="3">
         <v>0</v>
@@ -2079,10 +1466,10 @@
         <v>-1</v>
       </c>
       <c r="AG5" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH5" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI5" s="3">
         <v>0</v>
@@ -2100,11 +1487,11 @@
         <v>0</v>
       </c>
       <c r="AN5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="3">
         <v>20</v>
       </c>
-      <c r="AO5" s="3">
-        <v>0</v>
-      </c>
       <c r="AP5" s="3">
         <v>0</v>
       </c>
@@ -2118,7 +1505,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AU5" s="3">
         <v>-1</v>
@@ -2131,7 +1518,7 @@
       </c>
       <c r="AX5" s="6"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -2279,7 +1666,7 @@
       </c>
       <c r="AX6" s="6"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>20</v>
       </c>
@@ -2375,10 +1762,10 @@
         <v>-1</v>
       </c>
       <c r="AG7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="3">
         <v>0</v>
@@ -2396,11 +1783,11 @@
         <v>0</v>
       </c>
       <c r="AN7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="3">
         <v>20</v>
       </c>
-      <c r="AO7" s="3">
-        <v>0</v>
-      </c>
       <c r="AP7" s="3">
         <v>0</v>
       </c>
@@ -2414,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="3">
         <v>-1</v>
@@ -2427,7 +1814,7 @@
       </c>
       <c r="AX7" s="6"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>21</v>
       </c>
@@ -2575,7 +1962,7 @@
       </c>
       <c r="AX8" s="7"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>22</v>
       </c>
@@ -2723,7 +2110,7 @@
       </c>
       <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>30</v>
       </c>
@@ -2871,7 +2258,7 @@
       </c>
       <c r="AX10" s="7"/>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>31</v>
       </c>
@@ -3019,7 +2406,7 @@
       </c>
       <c r="AX11" s="7"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>32</v>
       </c>
@@ -3167,7 +2554,7 @@
       </c>
       <c r="AX12" s="7"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>33</v>
       </c>
@@ -3315,7 +2702,7 @@
       </c>
       <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>40</v>
       </c>
@@ -3463,7 +2850,7 @@
       </c>
       <c r="AX14" s="7"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>41</v>
       </c>
@@ -3611,7 +2998,7 @@
       </c>
       <c r="AX15" s="7"/>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>50</v>
       </c>
@@ -3759,7 +3146,7 @@
       </c>
       <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>60</v>
       </c>
@@ -3907,7 +3294,7 @@
       </c>
       <c r="AX17" s="7"/>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>61</v>
       </c>
@@ -4055,7 +3442,7 @@
       </c>
       <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>62</v>
       </c>
@@ -4203,7 +3590,7 @@
       </c>
       <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>63</v>
       </c>
@@ -4351,7 +3738,7 @@
       </c>
       <c r="AX20" s="7"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>70</v>
       </c>
@@ -4499,7 +3886,7 @@
       </c>
       <c r="AX21" s="7"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>80</v>
       </c>
@@ -4647,7 +4034,7 @@
       </c>
       <c r="AX22" s="7"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>90</v>
       </c>
@@ -4795,7 +4182,7 @@
       </c>
       <c r="AX23" s="7"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>110</v>
       </c>
@@ -4943,7 +4330,7 @@
       </c>
       <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>140</v>
       </c>
@@ -5091,7 +4478,7 @@
       </c>
       <c r="AX25" s="7"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>141</v>
       </c>
@@ -5239,7 +4626,7 @@
       </c>
       <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>174</v>
       </c>
@@ -5389,7 +4776,7 @@
       </c>
       <c r="AX27" s="7"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -5441,7 +4828,7 @@
       <c r="AW28" s="3"/>
       <c r="AX28" s="7"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -5493,7 +4880,7 @@
       <c r="AW29" s="3"/>
       <c r="AX29" s="7"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -5545,7 +4932,7 @@
       <c r="AW30" s="3"/>
       <c r="AX30" s="7"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="4"/>
@@ -5597,7 +4984,7 @@
       <c r="AW31" s="3"/>
       <c r="AX31" s="7"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="4"/>
@@ -5649,7 +5036,7 @@
       <c r="AW32" s="3"/>
       <c r="AX32" s="7"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -5701,7 +5088,7 @@
       <c r="AW33" s="3"/>
       <c r="AX33" s="7"/>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -5753,7 +5140,7 @@
       <c r="AW34" s="3"/>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -5805,7 +5192,7 @@
       <c r="AW35" s="3"/>
       <c r="AX35" s="7"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -5857,7 +5244,7 @@
       <c r="AW36" s="3"/>
       <c r="AX36" s="7"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -5909,7 +5296,7 @@
       <c r="AW37" s="3"/>
       <c r="AX37" s="7"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -5961,7 +5348,7 @@
       <c r="AW38" s="3"/>
       <c r="AX38" s="7"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
       <c r="C39" s="3"/>
@@ -6013,7 +5400,7 @@
       <c r="AW39" s="3"/>
       <c r="AX39" s="7"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6065,7 +5452,7 @@
       <c r="AW40" s="3"/>
       <c r="AX40" s="7"/>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6117,7 +5504,7 @@
       <c r="AW41" s="3"/>
       <c r="AX41" s="7"/>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6169,7 +5556,7 @@
       <c r="AW42" s="3"/>
       <c r="AX42" s="7"/>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6221,7 +5608,7 @@
       <c r="AW43" s="3"/>
       <c r="AX43" s="7"/>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6273,7 +5660,7 @@
       <c r="AW44" s="3"/>
       <c r="AX44" s="7"/>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6325,7 +5712,7 @@
       <c r="AW45" s="3"/>
       <c r="AX45" s="7"/>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6377,7 +5764,7 @@
       <c r="AW46" s="3"/>
       <c r="AX46" s="7"/>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6429,7 +5816,7 @@
       <c r="AW47" s="3"/>
       <c r="AX47" s="7"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6481,7 +5868,7 @@
       <c r="AW48" s="3"/>
       <c r="AX48" s="7"/>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6533,7 +5920,7 @@
       <c r="AW49" s="3"/>
       <c r="AX49" s="7"/>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6585,7 +5972,7 @@
       <c r="AW50" s="3"/>
       <c r="AX50" s="7"/>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6637,7 +6024,7 @@
       <c r="AW51" s="3"/>
       <c r="AX51" s="7"/>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6689,7 +6076,7 @@
       <c r="AW52" s="3"/>
       <c r="AX52" s="7"/>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6741,7 +6128,7 @@
       <c r="AW53" s="3"/>
       <c r="AX53" s="7"/>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6793,7 +6180,7 @@
       <c r="AW54" s="3"/>
       <c r="AX54" s="7"/>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6845,7 +6232,7 @@
       <c r="AW55" s="3"/>
       <c r="AX55" s="7"/>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6897,7 +6284,7 @@
       <c r="AW56" s="3"/>
       <c r="AX56" s="7"/>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6949,7 +6336,7 @@
       <c r="AW57" s="3"/>
       <c r="AX57" s="7"/>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -7001,7 +6388,7 @@
       <c r="AW58" s="3"/>
       <c r="AX58" s="7"/>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -7053,7 +6440,7 @@
       <c r="AW59" s="3"/>
       <c r="AX59" s="7"/>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7105,7 +6492,7 @@
       <c r="AW60" s="3"/>
       <c r="AX60" s="7"/>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7157,7 +6544,7 @@
       <c r="AW61" s="3"/>
       <c r="AX61" s="7"/>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
       <c r="C62" s="3"/>
@@ -7209,7 +6596,7 @@
       <c r="AW62" s="3"/>
       <c r="AX62" s="7"/>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7261,7 +6648,7 @@
       <c r="AW63" s="3"/>
       <c r="AX63" s="7"/>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7313,7 +6700,7 @@
       <c r="AW64" s="3"/>
       <c r="AX64" s="7"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7365,7 +6752,7 @@
       <c r="AW65" s="3"/>
       <c r="AX65" s="7"/>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7417,7 +6804,7 @@
       <c r="AW66" s="3"/>
       <c r="AX66" s="7"/>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7469,7 +6856,7 @@
       <c r="AW67" s="3"/>
       <c r="AX67" s="7"/>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7521,7 +6908,7 @@
       <c r="AW68" s="3"/>
       <c r="AX68" s="7"/>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7573,7 +6960,7 @@
       <c r="AW69" s="3"/>
       <c r="AX69" s="7"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7625,7 +7012,7 @@
       <c r="AW70" s="3"/>
       <c r="AX70" s="7"/>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7677,7 +7064,7 @@
       <c r="AW71" s="3"/>
       <c r="AX71" s="7"/>
     </row>
-    <row r="72" spans="1:50">
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7729,7 +7116,7 @@
       <c r="AW72" s="3"/>
       <c r="AX72" s="7"/>
     </row>
-    <row r="73" spans="1:50">
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -7781,7 +7168,7 @@
       <c r="AW73" s="3"/>
       <c r="AX73" s="7"/>
     </row>
-    <row r="74" spans="1:50">
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7833,7 +7220,7 @@
       <c r="AW74" s="3"/>
       <c r="AX74" s="7"/>
     </row>
-    <row r="75" spans="1:50">
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7885,7 +7272,7 @@
       <c r="AW75" s="3"/>
       <c r="AX75" s="7"/>
     </row>
-    <row r="76" spans="1:50">
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7937,7 +7324,7 @@
       <c r="AW76" s="3"/>
       <c r="AX76" s="7"/>
     </row>
-    <row r="77" spans="1:50">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7989,7 +7376,7 @@
       <c r="AW77" s="3"/>
       <c r="AX77" s="7"/>
     </row>
-    <row r="78" spans="1:50">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -8041,7 +7428,7 @@
       <c r="AW78" s="3"/>
       <c r="AX78" s="7"/>
     </row>
-    <row r="79" spans="1:50">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -8093,7 +7480,7 @@
       <c r="AW79" s="3"/>
       <c r="AX79" s="7"/>
     </row>
-    <row r="80" spans="1:50">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -8145,7 +7532,7 @@
       <c r="AW80" s="3"/>
       <c r="AX80" s="7"/>
     </row>
-    <row r="81" spans="1:50">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -8197,7 +7584,7 @@
       <c r="AW81" s="3"/>
       <c r="AX81" s="7"/>
     </row>
-    <row r="82" spans="1:50">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -8249,7 +7636,7 @@
       <c r="AW82" s="3"/>
       <c r="AX82" s="7"/>
     </row>
-    <row r="83" spans="1:50">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -8301,7 +7688,7 @@
       <c r="AW83" s="3"/>
       <c r="AX83" s="7"/>
     </row>
-    <row r="84" spans="1:50">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -8353,7 +7740,7 @@
       <c r="AW84" s="3"/>
       <c r="AX84" s="7"/>
     </row>
-    <row r="85" spans="1:50">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -8405,7 +7792,7 @@
       <c r="AW85" s="3"/>
       <c r="AX85" s="7"/>
     </row>
-    <row r="86" spans="1:50">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -8457,7 +7844,7 @@
       <c r="AW86" s="3"/>
       <c r="AX86" s="7"/>
     </row>
-    <row r="87" spans="1:50">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -8509,7 +7896,7 @@
       <c r="AW87" s="3"/>
       <c r="AX87" s="7"/>
     </row>
-    <row r="88" spans="1:50">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -8561,7 +7948,7 @@
       <c r="AW88" s="3"/>
       <c r="AX88" s="7"/>
     </row>
-    <row r="89" spans="1:50">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -8613,7 +8000,7 @@
       <c r="AW89" s="3"/>
       <c r="AX89" s="7"/>
     </row>
-    <row r="90" spans="1:50">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -8665,7 +8052,7 @@
       <c r="AW90" s="3"/>
       <c r="AX90" s="7"/>
     </row>
-    <row r="91" spans="1:50">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -8717,7 +8104,7 @@
       <c r="AW91" s="3"/>
       <c r="AX91" s="7"/>
     </row>
-    <row r="92" spans="1:50">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -8769,7 +8156,7 @@
       <c r="AW92" s="3"/>
       <c r="AX92" s="7"/>
     </row>
-    <row r="93" spans="1:50">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -8821,7 +8208,7 @@
       <c r="AW93" s="3"/>
       <c r="AX93" s="7"/>
     </row>
-    <row r="94" spans="1:50">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -8873,7 +8260,7 @@
       <c r="AW94" s="3"/>
       <c r="AX94" s="7"/>
     </row>
-    <row r="95" spans="1:50">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -8925,7 +8312,7 @@
       <c r="AW95" s="3"/>
       <c r="AX95" s="7"/>
     </row>
-    <row r="96" spans="1:50">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
@@ -8977,7 +8364,7 @@
       <c r="AW96" s="3"/>
       <c r="AX96" s="7"/>
     </row>
-    <row r="97" spans="1:50">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="5"/>
       <c r="C97" s="3"/>
@@ -9029,7 +8416,7 @@
       <c r="AW97" s="3"/>
       <c r="AX97" s="7"/>
     </row>
-    <row r="98" spans="1:50">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
@@ -9081,7 +8468,7 @@
       <c r="AW98" s="3"/>
       <c r="AX98" s="7"/>
     </row>
-    <row r="99" spans="1:50">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="5"/>
       <c r="C99" s="3"/>
@@ -9133,7 +8520,7 @@
       <c r="AW99" s="3"/>
       <c r="AX99" s="7"/>
     </row>
-    <row r="100" spans="1:50">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
@@ -9185,7 +8572,7 @@
       <c r="AW100" s="3"/>
       <c r="AX100" s="7"/>
     </row>
-    <row r="101" spans="1:50">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
@@ -9237,7 +8624,7 @@
       <c r="AW101" s="3"/>
       <c r="AX101" s="7"/>
     </row>
-    <row r="102" spans="1:50">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
@@ -9289,7 +8676,7 @@
       <c r="AW102" s="3"/>
       <c r="AX102" s="7"/>
     </row>
-    <row r="103" spans="1:50">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
@@ -9341,7 +8728,7 @@
       <c r="AW103" s="3"/>
       <c r="AX103" s="7"/>
     </row>
-    <row r="104" spans="1:50">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
@@ -9393,7 +8780,7 @@
       <c r="AW104" s="3"/>
       <c r="AX104" s="7"/>
     </row>
-    <row r="105" spans="1:50">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
@@ -9445,7 +8832,7 @@
       <c r="AW105" s="3"/>
       <c r="AX105" s="7"/>
     </row>
-    <row r="106" spans="1:50">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
@@ -9497,7 +8884,7 @@
       <c r="AW106" s="3"/>
       <c r="AX106" s="7"/>
     </row>
-    <row r="107" spans="1:50">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -9549,7 +8936,7 @@
       <c r="AW107" s="3"/>
       <c r="AX107" s="7"/>
     </row>
-    <row r="108" spans="1:50">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -9601,7 +8988,7 @@
       <c r="AW108" s="3"/>
       <c r="AX108" s="7"/>
     </row>
-    <row r="109" spans="1:50">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -9653,7 +9040,7 @@
       <c r="AW109" s="3"/>
       <c r="AX109" s="7"/>
     </row>
-    <row r="110" spans="1:50">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -9705,7 +9092,7 @@
       <c r="AW110" s="3"/>
       <c r="AX110" s="7"/>
     </row>
-    <row r="111" spans="1:50">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -9757,7 +9144,7 @@
       <c r="AW111" s="3"/>
       <c r="AX111" s="7"/>
     </row>
-    <row r="112" spans="1:50">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -9809,7 +9196,7 @@
       <c r="AW112" s="3"/>
       <c r="AX112" s="7"/>
     </row>
-    <row r="113" spans="1:50">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -9861,7 +9248,7 @@
       <c r="AW113" s="3"/>
       <c r="AX113" s="7"/>
     </row>
-    <row r="114" spans="1:50">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -9913,7 +9300,7 @@
       <c r="AW114" s="3"/>
       <c r="AX114" s="7"/>
     </row>
-    <row r="115" spans="1:50">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -9965,7 +9352,7 @@
       <c r="AW115" s="3"/>
       <c r="AX115" s="7"/>
     </row>
-    <row r="116" spans="1:50">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -10017,7 +9404,7 @@
       <c r="AW116" s="3"/>
       <c r="AX116" s="7"/>
     </row>
-    <row r="117" spans="1:50">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -10069,7 +9456,7 @@
       <c r="AW117" s="3"/>
       <c r="AX117" s="7"/>
     </row>
-    <row r="118" spans="1:50">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -10121,7 +9508,7 @@
       <c r="AW118" s="3"/>
       <c r="AX118" s="7"/>
     </row>
-    <row r="119" spans="1:50">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -10173,7 +9560,7 @@
       <c r="AW119" s="3"/>
       <c r="AX119" s="7"/>
     </row>
-    <row r="120" spans="1:50">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -10225,7 +9612,7 @@
       <c r="AW120" s="3"/>
       <c r="AX120" s="7"/>
     </row>
-    <row r="121" spans="1:50">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -10277,7 +9664,7 @@
       <c r="AW121" s="3"/>
       <c r="AX121" s="7"/>
     </row>
-    <row r="122" spans="1:50">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -10329,7 +9716,7 @@
       <c r="AW122" s="3"/>
       <c r="AX122" s="7"/>
     </row>
-    <row r="123" spans="1:50">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -10381,7 +9768,7 @@
       <c r="AW123" s="3"/>
       <c r="AX123" s="7"/>
     </row>
-    <row r="124" spans="1:50">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -10433,7 +9820,7 @@
       <c r="AW124" s="3"/>
       <c r="AX124" s="7"/>
     </row>
-    <row r="125" spans="1:50">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -10485,7 +9872,7 @@
       <c r="AW125" s="3"/>
       <c r="AX125" s="7"/>
     </row>
-    <row r="126" spans="1:50">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -10537,7 +9924,7 @@
       <c r="AW126" s="3"/>
       <c r="AX126" s="7"/>
     </row>
-    <row r="127" spans="1:50">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -10589,7 +9976,7 @@
       <c r="AW127" s="3"/>
       <c r="AX127" s="7"/>
     </row>
-    <row r="128" spans="1:50">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -10641,7 +10028,7 @@
       <c r="AW128" s="3"/>
       <c r="AX128" s="7"/>
     </row>
-    <row r="129" spans="1:50">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -10693,7 +10080,7 @@
       <c r="AW129" s="3"/>
       <c r="AX129" s="7"/>
     </row>
-    <row r="130" spans="1:50">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -10745,7 +10132,7 @@
       <c r="AW130" s="3"/>
       <c r="AX130" s="7"/>
     </row>
-    <row r="131" spans="1:50">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -10797,7 +10184,7 @@
       <c r="AW131" s="3"/>
       <c r="AX131" s="7"/>
     </row>
-    <row r="132" spans="1:50">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -10849,7 +10236,7 @@
       <c r="AW132" s="3"/>
       <c r="AX132" s="7"/>
     </row>
-    <row r="133" spans="1:50">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -10901,7 +10288,7 @@
       <c r="AW133" s="3"/>
       <c r="AX133" s="7"/>
     </row>
-    <row r="134" spans="1:50">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -10953,7 +10340,7 @@
       <c r="AW134" s="3"/>
       <c r="AX134" s="7"/>
     </row>
-    <row r="135" spans="1:50">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -11005,7 +10392,7 @@
       <c r="AW135" s="3"/>
       <c r="AX135" s="7"/>
     </row>
-    <row r="136" spans="1:50">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
@@ -11057,7 +10444,7 @@
       <c r="AW136" s="3"/>
       <c r="AX136" s="7"/>
     </row>
-    <row r="137" spans="1:50">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -11109,7 +10496,7 @@
       <c r="AW137" s="3"/>
       <c r="AX137" s="7"/>
     </row>
-    <row r="138" spans="1:50">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
@@ -11161,7 +10548,7 @@
       <c r="AW138" s="3"/>
       <c r="AX138" s="7"/>
     </row>
-    <row r="139" spans="1:50">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -11213,7 +10600,7 @@
       <c r="AW139" s="3"/>
       <c r="AX139" s="7"/>
     </row>
-    <row r="140" spans="1:50">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -11265,7 +10652,7 @@
       <c r="AW140" s="3"/>
       <c r="AX140" s="7"/>
     </row>
-    <row r="141" spans="1:50">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -11317,7 +10704,7 @@
       <c r="AW141" s="3"/>
       <c r="AX141" s="7"/>
     </row>
-    <row r="142" spans="1:50">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -11369,7 +10756,7 @@
       <c r="AW142" s="3"/>
       <c r="AX142" s="7"/>
     </row>
-    <row r="143" spans="1:50">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -11421,7 +10808,7 @@
       <c r="AW143" s="3"/>
       <c r="AX143" s="7"/>
     </row>
-    <row r="144" spans="1:50">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -11473,7 +10860,7 @@
       <c r="AW144" s="3"/>
       <c r="AX144" s="7"/>
     </row>
-    <row r="145" spans="1:50">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -11525,7 +10912,7 @@
       <c r="AW145" s="3"/>
       <c r="AX145" s="7"/>
     </row>
-    <row r="146" spans="1:50">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -11577,7 +10964,7 @@
       <c r="AW146" s="3"/>
       <c r="AX146" s="7"/>
     </row>
-    <row r="147" spans="1:50">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -11629,7 +11016,7 @@
       <c r="AW147" s="3"/>
       <c r="AX147" s="7"/>
     </row>
-    <row r="148" spans="1:50">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -11681,7 +11068,7 @@
       <c r="AW148" s="3"/>
       <c r="AX148" s="7"/>
     </row>
-    <row r="149" spans="1:50">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -11733,7 +11120,7 @@
       <c r="AW149" s="3"/>
       <c r="AX149" s="7"/>
     </row>
-    <row r="150" spans="1:50">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -11785,7 +11172,7 @@
       <c r="AW150" s="3"/>
       <c r="AX150" s="7"/>
     </row>
-    <row r="151" spans="1:50">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -11837,7 +11224,7 @@
       <c r="AW151" s="3"/>
       <c r="AX151" s="7"/>
     </row>
-    <row r="152" spans="1:50">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -11889,7 +11276,7 @@
       <c r="AW152" s="3"/>
       <c r="AX152" s="7"/>
     </row>
-    <row r="153" spans="1:50">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="5"/>
       <c r="C153" s="3"/>
@@ -11941,7 +11328,7 @@
       <c r="AW153" s="3"/>
       <c r="AX153" s="7"/>
     </row>
-    <row r="154" spans="1:50">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -11993,7 +11380,7 @@
       <c r="AW154" s="3"/>
       <c r="AX154" s="7"/>
     </row>
-    <row r="155" spans="1:50">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -12045,7 +11432,7 @@
       <c r="AW155" s="3"/>
       <c r="AX155" s="7"/>
     </row>
-    <row r="156" spans="1:50">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -12097,7 +11484,7 @@
       <c r="AW156" s="3"/>
       <c r="AX156" s="7"/>
     </row>
-    <row r="157" spans="1:50">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -12149,7 +11536,7 @@
       <c r="AW157" s="3"/>
       <c r="AX157" s="7"/>
     </row>
-    <row r="158" spans="1:50">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -12201,7 +11588,7 @@
       <c r="AW158" s="3"/>
       <c r="AX158" s="7"/>
     </row>
-    <row r="159" spans="1:50">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -12253,7 +11640,7 @@
       <c r="AW159" s="3"/>
       <c r="AX159" s="7"/>
     </row>
-    <row r="160" spans="1:50">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -12305,7 +11692,7 @@
       <c r="AW160" s="3"/>
       <c r="AX160" s="7"/>
     </row>
-    <row r="161" spans="1:50">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -12357,7 +11744,7 @@
       <c r="AW161" s="3"/>
       <c r="AX161" s="7"/>
     </row>
-    <row r="162" spans="1:50">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -12409,7 +11796,7 @@
       <c r="AW162" s="3"/>
       <c r="AX162" s="7"/>
     </row>
-    <row r="163" spans="1:50">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -12461,7 +11848,7 @@
       <c r="AW163" s="3"/>
       <c r="AX163" s="7"/>
     </row>
-    <row r="164" spans="1:50">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -12513,7 +11900,7 @@
       <c r="AW164" s="3"/>
       <c r="AX164" s="7"/>
     </row>
-    <row r="165" spans="1:50">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -12565,7 +11952,7 @@
       <c r="AW165" s="3"/>
       <c r="AX165" s="7"/>
     </row>
-    <row r="166" spans="1:50">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -12617,7 +12004,7 @@
       <c r="AW166" s="3"/>
       <c r="AX166" s="7"/>
     </row>
-    <row r="167" spans="1:50">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -12669,7 +12056,7 @@
       <c r="AW167" s="3"/>
       <c r="AX167" s="7"/>
     </row>
-    <row r="168" spans="1:50">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -12721,7 +12108,7 @@
       <c r="AW168" s="3"/>
       <c r="AX168" s="7"/>
     </row>
-    <row r="169" spans="1:50">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -12773,7 +12160,7 @@
       <c r="AW169" s="3"/>
       <c r="AX169" s="7"/>
     </row>
-    <row r="170" spans="1:50">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -12825,7 +12212,7 @@
       <c r="AW170" s="3"/>
       <c r="AX170" s="7"/>
     </row>
-    <row r="171" spans="1:50">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -12877,7 +12264,7 @@
       <c r="AW171" s="3"/>
       <c r="AX171" s="7"/>
     </row>
-    <row r="172" spans="1:50">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -12929,7 +12316,7 @@
       <c r="AW172" s="3"/>
       <c r="AX172" s="7"/>
     </row>
-    <row r="173" spans="1:50">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -12981,7 +12368,7 @@
       <c r="AW173" s="3"/>
       <c r="AX173" s="7"/>
     </row>
-    <row r="174" spans="1:50">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -13033,7 +12420,7 @@
       <c r="AW174" s="3"/>
       <c r="AX174" s="7"/>
     </row>
-    <row r="175" spans="1:50">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="4"/>
       <c r="C175" s="3"/>
@@ -13085,7 +12472,7 @@
       <c r="AW175" s="3"/>
       <c r="AX175" s="7"/>
     </row>
-    <row r="176" spans="1:50">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -13137,7 +12524,7 @@
       <c r="AW176" s="3"/>
       <c r="AX176" s="7"/>
     </row>
-    <row r="177" spans="1:50">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -13189,7 +12576,7 @@
       <c r="AW177" s="3"/>
       <c r="AX177" s="7"/>
     </row>
-    <row r="178" spans="1:50">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -13241,7 +12628,7 @@
       <c r="AW178" s="3"/>
       <c r="AX178" s="7"/>
     </row>
-    <row r="179" spans="1:50">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -13293,7 +12680,7 @@
       <c r="AW179" s="3"/>
       <c r="AX179" s="7"/>
     </row>
-    <row r="180" spans="1:50">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="4"/>
       <c r="C180" s="4"/>
@@ -13345,7 +12732,7 @@
       <c r="AW180" s="3"/>
       <c r="AX180" s="7"/>
     </row>
-    <row r="181" spans="1:50">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -13397,7 +12784,7 @@
       <c r="AW181" s="3"/>
       <c r="AX181" s="7"/>
     </row>
-    <row r="182" spans="1:50">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -13449,7 +12836,7 @@
       <c r="AW182" s="3"/>
       <c r="AX182" s="7"/>
     </row>
-    <row r="183" spans="1:50">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -13501,7 +12888,7 @@
       <c r="AW183" s="3"/>
       <c r="AX183" s="7"/>
     </row>
-    <row r="184" spans="1:50">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -13553,7 +12940,7 @@
       <c r="AW184" s="3"/>
       <c r="AX184" s="7"/>
     </row>
-    <row r="185" spans="1:50">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -13605,7 +12992,7 @@
       <c r="AW185" s="3"/>
       <c r="AX185" s="7"/>
     </row>
-    <row r="186" spans="1:50">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -13657,7 +13044,7 @@
       <c r="AW186" s="3"/>
       <c r="AX186" s="7"/>
     </row>
-    <row r="187" spans="1:50">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -13709,7 +13096,7 @@
       <c r="AW187" s="3"/>
       <c r="AX187" s="7"/>
     </row>
-    <row r="188" spans="1:50">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -13761,7 +13148,7 @@
       <c r="AW188" s="3"/>
       <c r="AX188" s="7"/>
     </row>
-    <row r="189" spans="1:50">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -13813,7 +13200,7 @@
       <c r="AW189" s="3"/>
       <c r="AX189" s="7"/>
     </row>
-    <row r="190" spans="1:50">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -13865,7 +13252,7 @@
       <c r="AW190" s="3"/>
       <c r="AX190" s="7"/>
     </row>
-    <row r="191" spans="1:50">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -13917,7 +13304,7 @@
       <c r="AW191" s="3"/>
       <c r="AX191" s="7"/>
     </row>
-    <row r="192" spans="1:50">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="3"/>
       <c r="C192" s="3"/>
@@ -13969,7 +13356,7 @@
       <c r="AW192" s="3"/>
       <c r="AX192" s="7"/>
     </row>
-    <row r="193" spans="1:50">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -14021,7 +13408,7 @@
       <c r="AW193" s="3"/>
       <c r="AX193" s="7"/>
     </row>
-    <row r="194" spans="1:50">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -14073,7 +13460,7 @@
       <c r="AW194" s="3"/>
       <c r="AX194" s="7"/>
     </row>
-    <row r="195" spans="1:50">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -14125,7 +13512,7 @@
       <c r="AW195" s="3"/>
       <c r="AX195" s="7"/>
     </row>
-    <row r="196" spans="1:50">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -14177,7 +13564,7 @@
       <c r="AW196" s="3"/>
       <c r="AX196" s="7"/>
     </row>
-    <row r="197" spans="1:50">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -14229,7 +13616,7 @@
       <c r="AW197" s="3"/>
       <c r="AX197" s="7"/>
     </row>
-    <row r="198" spans="1:50">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -14281,7 +13668,7 @@
       <c r="AW198" s="3"/>
       <c r="AX198" s="7"/>
     </row>
-    <row r="199" spans="1:50">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -14333,7 +13720,7 @@
       <c r="AW199" s="3"/>
       <c r="AX199" s="7"/>
     </row>
-    <row r="200" spans="1:50">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -14385,7 +13772,7 @@
       <c r="AW200" s="3"/>
       <c r="AX200" s="7"/>
     </row>
-    <row r="201" spans="1:50">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -14437,7 +13824,7 @@
       <c r="AW201" s="3"/>
       <c r="AX201" s="7"/>
     </row>
-    <row r="202" spans="1:50">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -14489,7 +13876,7 @@
       <c r="AW202" s="3"/>
       <c r="AX202" s="7"/>
     </row>
-    <row r="203" spans="1:50">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -14541,7 +13928,7 @@
       <c r="AW203" s="3"/>
       <c r="AX203" s="7"/>
     </row>
-    <row r="204" spans="1:50">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -14593,7 +13980,7 @@
       <c r="AW204" s="3"/>
       <c r="AX204" s="7"/>
     </row>
-    <row r="205" spans="1:50">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -14645,7 +14032,7 @@
       <c r="AW205" s="3"/>
       <c r="AX205" s="7"/>
     </row>
-    <row r="206" spans="1:50">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -14697,7 +14084,7 @@
       <c r="AW206" s="3"/>
       <c r="AX206" s="7"/>
     </row>
-    <row r="207" spans="1:50">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -14749,7 +14136,7 @@
       <c r="AW207" s="3"/>
       <c r="AX207" s="7"/>
     </row>
-    <row r="208" spans="1:50">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -14801,7 +14188,7 @@
       <c r="AW208" s="3"/>
       <c r="AX208" s="7"/>
     </row>
-    <row r="209" spans="1:50">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -14853,7 +14240,7 @@
       <c r="AW209" s="3"/>
       <c r="AX209" s="7"/>
     </row>
-    <row r="210" spans="1:50">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -14905,7 +14292,7 @@
       <c r="AW210" s="3"/>
       <c r="AX210" s="7"/>
     </row>
-    <row r="211" spans="1:50">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -14957,7 +14344,7 @@
       <c r="AW211" s="3"/>
       <c r="AX211" s="7"/>
     </row>
-    <row r="212" spans="1:50">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -15009,7 +14396,7 @@
       <c r="AW212" s="3"/>
       <c r="AX212" s="7"/>
     </row>
-    <row r="213" spans="1:50">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -15061,7 +14448,7 @@
       <c r="AW213" s="3"/>
       <c r="AX213" s="7"/>
     </row>
-    <row r="214" spans="1:50">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="3"/>
       <c r="C214" s="3"/>
@@ -15113,7 +14500,7 @@
       <c r="AW214" s="3"/>
       <c r="AX214" s="7"/>
     </row>
-    <row r="215" spans="1:50">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -15165,7 +14552,7 @@
       <c r="AW215" s="3"/>
       <c r="AX215" s="7"/>
     </row>
-    <row r="216" spans="1:50">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -15217,7 +14604,7 @@
       <c r="AW216" s="3"/>
       <c r="AX216" s="7"/>
     </row>
-    <row r="217" spans="1:50">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -15269,7 +14656,7 @@
       <c r="AW217" s="3"/>
       <c r="AX217" s="7"/>
     </row>
-    <row r="218" spans="1:50">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -15321,7 +14708,7 @@
       <c r="AW218" s="3"/>
       <c r="AX218" s="7"/>
     </row>
-    <row r="219" spans="1:50">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="3"/>
       <c r="C219" s="3"/>
@@ -15373,7 +14760,7 @@
       <c r="AW219" s="3"/>
       <c r="AX219" s="7"/>
     </row>
-    <row r="220" spans="1:50">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -15425,7 +14812,7 @@
       <c r="AW220" s="3"/>
       <c r="AX220" s="7"/>
     </row>
-    <row r="221" spans="1:50">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -15477,7 +14864,7 @@
       <c r="AW221" s="3"/>
       <c r="AX221" s="7"/>
     </row>
-    <row r="222" spans="1:50">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -15529,7 +14916,7 @@
       <c r="AW222" s="3"/>
       <c r="AX222" s="7"/>
     </row>
-    <row r="223" spans="1:50">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -15581,7 +14968,7 @@
       <c r="AW223" s="3"/>
       <c r="AX223" s="7"/>
     </row>
-    <row r="224" spans="1:50">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -15633,7 +15020,7 @@
       <c r="AW224" s="3"/>
       <c r="AX224" s="7"/>
     </row>
-    <row r="225" spans="1:50">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -15685,7 +15072,7 @@
       <c r="AW225" s="3"/>
       <c r="AX225" s="7"/>
     </row>
-    <row r="226" spans="1:50">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -15737,7 +15124,7 @@
       <c r="AW226" s="3"/>
       <c r="AX226" s="7"/>
     </row>
-    <row r="227" spans="1:50">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="4"/>
       <c r="C227" s="4"/>
@@ -15790,8 +15177,8 @@
       <c r="AX227" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -464,6 +464,30 @@
   <si>
     <t>能使鬼推磨</t>
   </si>
+  <si>
+    <t>青竹补血膏</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青竹解毒丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋青竹独家配方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>隋青竹独家配方</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>千彩花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>提升内力的花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -486,18 +510,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -906,11 +933,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX227"/>
+  <dimension ref="A1:AX230"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U5" sqref="A5:XFD5"/>
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4332,14 +4359,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>142</v>
+      <c r="D25" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4348,13 +4375,13 @@
         <v>-1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -4381,7 +4408,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -4423,10 +4450,10 @@
         <v>0</v>
       </c>
       <c r="AF25" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="3">
         <v>0</v>
@@ -4480,14 +4507,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>144</v>
+      <c r="D26" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4499,7 +4526,7 @@
         <v>-1</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4508,7 +4535,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -4628,16 +4655,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>174</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>147</v>
+        <v>122</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4649,7 +4674,7 @@
         <v>-1</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -4670,7 +4695,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -4777,166 +4802,456 @@
       <c r="AX27" s="7"/>
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A28" s="3"/>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
-      <c r="R28" s="3"/>
-      <c r="S28" s="3"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="3"/>
-      <c r="V28" s="3"/>
-      <c r="W28" s="3"/>
-      <c r="X28" s="3"/>
-      <c r="Y28" s="3"/>
-      <c r="Z28" s="3"/>
-      <c r="AA28" s="3"/>
-      <c r="AB28" s="3"/>
-      <c r="AC28" s="3"/>
-      <c r="AD28" s="3"/>
-      <c r="AE28" s="3"/>
-      <c r="AF28" s="3"/>
-      <c r="AG28" s="3"/>
-      <c r="AH28" s="3"/>
-      <c r="AI28" s="3"/>
-      <c r="AJ28" s="3"/>
-      <c r="AK28" s="3"/>
-      <c r="AL28" s="3"/>
-      <c r="AM28" s="3"/>
-      <c r="AN28" s="3"/>
-      <c r="AO28" s="3"/>
-      <c r="AP28" s="3"/>
-      <c r="AQ28" s="3"/>
-      <c r="AR28" s="3"/>
-      <c r="AS28" s="3"/>
-      <c r="AT28" s="3"/>
-      <c r="AU28" s="3"/>
-      <c r="AV28" s="3"/>
-      <c r="AW28" s="3"/>
+      <c r="A28" s="3">
+        <v>140</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="E28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
+      <c r="H28" s="3">
+        <v>1</v>
+      </c>
+      <c r="I28" s="3">
+        <v>0</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>10</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A29" s="3"/>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
-      <c r="R29" s="3"/>
-      <c r="S29" s="3"/>
-      <c r="T29" s="3"/>
-      <c r="U29" s="3"/>
-      <c r="V29" s="3"/>
-      <c r="W29" s="3"/>
-      <c r="X29" s="3"/>
-      <c r="Y29" s="3"/>
-      <c r="Z29" s="3"/>
-      <c r="AA29" s="3"/>
-      <c r="AB29" s="3"/>
-      <c r="AC29" s="3"/>
-      <c r="AD29" s="3"/>
-      <c r="AE29" s="3"/>
-      <c r="AF29" s="3"/>
-      <c r="AG29" s="3"/>
-      <c r="AH29" s="3"/>
-      <c r="AI29" s="3"/>
-      <c r="AJ29" s="3"/>
-      <c r="AK29" s="3"/>
-      <c r="AL29" s="3"/>
-      <c r="AM29" s="3"/>
-      <c r="AN29" s="3"/>
-      <c r="AO29" s="3"/>
-      <c r="AP29" s="3"/>
-      <c r="AQ29" s="3"/>
-      <c r="AR29" s="3"/>
-      <c r="AS29" s="3"/>
-      <c r="AT29" s="3"/>
-      <c r="AU29" s="3"/>
-      <c r="AV29" s="3"/>
-      <c r="AW29" s="3"/>
+      <c r="A29" s="3">
+        <v>141</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H29" s="3">
+        <v>0</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX29" s="7"/>
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A30" s="3"/>
-      <c r="B30" s="3"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="3"/>
-      <c r="Z30" s="3"/>
-      <c r="AA30" s="3"/>
-      <c r="AB30" s="3"/>
-      <c r="AC30" s="3"/>
-      <c r="AD30" s="3"/>
-      <c r="AE30" s="3"/>
-      <c r="AF30" s="3"/>
-      <c r="AG30" s="3"/>
-      <c r="AH30" s="3"/>
-      <c r="AI30" s="3"/>
-      <c r="AJ30" s="3"/>
-      <c r="AK30" s="3"/>
-      <c r="AL30" s="3"/>
-      <c r="AM30" s="3"/>
-      <c r="AN30" s="3"/>
-      <c r="AO30" s="3"/>
-      <c r="AP30" s="3"/>
-      <c r="AQ30" s="3"/>
-      <c r="AR30" s="3"/>
-      <c r="AS30" s="3"/>
-      <c r="AT30" s="3"/>
-      <c r="AU30" s="3"/>
-      <c r="AV30" s="3"/>
-      <c r="AW30" s="3"/>
+      <c r="A30" s="3">
+        <v>174</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H30" s="3">
+        <v>0</v>
+      </c>
+      <c r="I30" s="3">
+        <v>0</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="3"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
       <c r="G31" s="3"/>
@@ -4986,9 +5301,9 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="3"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
@@ -5038,9 +5353,9 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
@@ -5090,9 +5405,9 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
-      <c r="B34" s="3"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="3"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
@@ -5142,9 +5457,9 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
-      <c r="B35" s="3"/>
-      <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
@@ -5194,9 +5509,9 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
@@ -5246,9 +5561,9 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
-      <c r="B37" s="3"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="3"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
@@ -5298,9 +5613,9 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
-      <c r="B38" s="3"/>
-      <c r="C38" s="3"/>
-      <c r="D38" s="3"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="4"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5351,8 +5666,8 @@
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="5"/>
-      <c r="C39" s="3"/>
-      <c r="D39" s="3"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
       <c r="E39" s="3"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
@@ -5402,9 +5717,9 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
-      <c r="B40" s="3"/>
-      <c r="C40" s="3"/>
-      <c r="D40" s="3"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -5454,9 +5769,9 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
       <c r="E41" s="3"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
@@ -5506,9 +5821,9 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
       <c r="E42" s="3"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
@@ -5558,9 +5873,9 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
       <c r="G43" s="3"/>
@@ -5610,9 +5925,9 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
@@ -5662,9 +5977,9 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
-      <c r="B45" s="3"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
       <c r="G45" s="3"/>
@@ -5714,9 +6029,9 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-      <c r="C46" s="3"/>
-      <c r="D46" s="3"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
       <c r="G46" s="3"/>
@@ -5766,9 +6081,9 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
       <c r="E47" s="3"/>
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
@@ -5818,9 +6133,9 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-      <c r="C48" s="3"/>
-      <c r="D48" s="3"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
       <c r="E48" s="3"/>
       <c r="F48" s="3"/>
       <c r="G48" s="3"/>
@@ -5870,9 +6185,9 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -6546,7 +6861,7 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
+      <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
@@ -6702,7 +7017,7 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
+      <c r="B65" s="5"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -7068,7 +7383,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
-      <c r="D72" s="4"/>
+      <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -7224,7 +7539,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="D75" s="4"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -8366,7 +8681,7 @@
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
-      <c r="B97" s="5"/>
+      <c r="B97" s="3"/>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
@@ -8470,7 +8785,7 @@
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="5"/>
+      <c r="B99" s="3"/>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
@@ -8522,7 +8837,7 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
+      <c r="B100" s="5"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -8626,7 +8941,7 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
+      <c r="B102" s="5"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -11020,7 +11335,7 @@
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
-      <c r="D148" s="4"/>
+      <c r="D148" s="3"/>
       <c r="E148" s="3"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
@@ -11176,7 +11491,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="3"/>
+      <c r="D151" s="4"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -11278,7 +11593,7 @@
     </row>
     <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
-      <c r="B153" s="5"/>
+      <c r="B153" s="3"/>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
@@ -11434,7 +11749,7 @@
     </row>
     <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
+      <c r="B156" s="5"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -12422,7 +12737,7 @@
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="B175" s="4"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -12578,7 +12893,7 @@
     </row>
     <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
-      <c r="B178" s="3"/>
+      <c r="B178" s="4"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12682,8 +12997,8 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
       <c r="F180" s="3"/>
@@ -12838,8 +13153,8 @@
     </row>
     <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
-      <c r="C183" s="3"/>
+      <c r="B183" s="4"/>
+      <c r="C183" s="4"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -15126,9 +15441,9 @@
     </row>
     <row r="227" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
-      <c r="B227" s="4"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="4"/>
+      <c r="B227" s="3"/>
+      <c r="C227" s="3"/>
+      <c r="D227" s="3"/>
       <c r="E227" s="3"/>
       <c r="F227" s="3"/>
       <c r="G227" s="3"/>
@@ -15176,6 +15491,162 @@
       <c r="AW227" s="3"/>
       <c r="AX227" s="7"/>
     </row>
+    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A228" s="3"/>
+      <c r="B228" s="3"/>
+      <c r="C228" s="3"/>
+      <c r="D228" s="3"/>
+      <c r="E228" s="3"/>
+      <c r="F228" s="3"/>
+      <c r="G228" s="3"/>
+      <c r="H228" s="3"/>
+      <c r="I228" s="3"/>
+      <c r="J228" s="3"/>
+      <c r="K228" s="3"/>
+      <c r="L228" s="3"/>
+      <c r="M228" s="3"/>
+      <c r="N228" s="3"/>
+      <c r="O228" s="3"/>
+      <c r="P228" s="3"/>
+      <c r="Q228" s="3"/>
+      <c r="R228" s="3"/>
+      <c r="S228" s="3"/>
+      <c r="T228" s="3"/>
+      <c r="U228" s="3"/>
+      <c r="V228" s="3"/>
+      <c r="W228" s="3"/>
+      <c r="X228" s="3"/>
+      <c r="Y228" s="3"/>
+      <c r="Z228" s="3"/>
+      <c r="AA228" s="3"/>
+      <c r="AB228" s="3"/>
+      <c r="AC228" s="3"/>
+      <c r="AD228" s="3"/>
+      <c r="AE228" s="3"/>
+      <c r="AF228" s="3"/>
+      <c r="AG228" s="3"/>
+      <c r="AH228" s="3"/>
+      <c r="AI228" s="3"/>
+      <c r="AJ228" s="3"/>
+      <c r="AK228" s="3"/>
+      <c r="AL228" s="3"/>
+      <c r="AM228" s="3"/>
+      <c r="AN228" s="3"/>
+      <c r="AO228" s="3"/>
+      <c r="AP228" s="3"/>
+      <c r="AQ228" s="3"/>
+      <c r="AR228" s="3"/>
+      <c r="AS228" s="3"/>
+      <c r="AT228" s="3"/>
+      <c r="AU228" s="3"/>
+      <c r="AV228" s="3"/>
+      <c r="AW228" s="3"/>
+      <c r="AX228" s="7"/>
+    </row>
+    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A229" s="3"/>
+      <c r="B229" s="3"/>
+      <c r="C229" s="3"/>
+      <c r="D229" s="3"/>
+      <c r="E229" s="3"/>
+      <c r="F229" s="3"/>
+      <c r="G229" s="3"/>
+      <c r="H229" s="3"/>
+      <c r="I229" s="3"/>
+      <c r="J229" s="3"/>
+      <c r="K229" s="3"/>
+      <c r="L229" s="3"/>
+      <c r="M229" s="3"/>
+      <c r="N229" s="3"/>
+      <c r="O229" s="3"/>
+      <c r="P229" s="3"/>
+      <c r="Q229" s="3"/>
+      <c r="R229" s="3"/>
+      <c r="S229" s="3"/>
+      <c r="T229" s="3"/>
+      <c r="U229" s="3"/>
+      <c r="V229" s="3"/>
+      <c r="W229" s="3"/>
+      <c r="X229" s="3"/>
+      <c r="Y229" s="3"/>
+      <c r="Z229" s="3"/>
+      <c r="AA229" s="3"/>
+      <c r="AB229" s="3"/>
+      <c r="AC229" s="3"/>
+      <c r="AD229" s="3"/>
+      <c r="AE229" s="3"/>
+      <c r="AF229" s="3"/>
+      <c r="AG229" s="3"/>
+      <c r="AH229" s="3"/>
+      <c r="AI229" s="3"/>
+      <c r="AJ229" s="3"/>
+      <c r="AK229" s="3"/>
+      <c r="AL229" s="3"/>
+      <c r="AM229" s="3"/>
+      <c r="AN229" s="3"/>
+      <c r="AO229" s="3"/>
+      <c r="AP229" s="3"/>
+      <c r="AQ229" s="3"/>
+      <c r="AR229" s="3"/>
+      <c r="AS229" s="3"/>
+      <c r="AT229" s="3"/>
+      <c r="AU229" s="3"/>
+      <c r="AV229" s="3"/>
+      <c r="AW229" s="3"/>
+      <c r="AX229" s="7"/>
+    </row>
+    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A230" s="3"/>
+      <c r="B230" s="4"/>
+      <c r="C230" s="4"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="3"/>
+      <c r="F230" s="3"/>
+      <c r="G230" s="3"/>
+      <c r="H230" s="3"/>
+      <c r="I230" s="3"/>
+      <c r="J230" s="3"/>
+      <c r="K230" s="3"/>
+      <c r="L230" s="3"/>
+      <c r="M230" s="3"/>
+      <c r="N230" s="3"/>
+      <c r="O230" s="3"/>
+      <c r="P230" s="3"/>
+      <c r="Q230" s="3"/>
+      <c r="R230" s="3"/>
+      <c r="S230" s="3"/>
+      <c r="T230" s="3"/>
+      <c r="U230" s="3"/>
+      <c r="V230" s="3"/>
+      <c r="W230" s="3"/>
+      <c r="X230" s="3"/>
+      <c r="Y230" s="3"/>
+      <c r="Z230" s="3"/>
+      <c r="AA230" s="3"/>
+      <c r="AB230" s="3"/>
+      <c r="AC230" s="3"/>
+      <c r="AD230" s="3"/>
+      <c r="AE230" s="3"/>
+      <c r="AF230" s="3"/>
+      <c r="AG230" s="3"/>
+      <c r="AH230" s="3"/>
+      <c r="AI230" s="3"/>
+      <c r="AJ230" s="3"/>
+      <c r="AK230" s="3"/>
+      <c r="AL230" s="3"/>
+      <c r="AM230" s="3"/>
+      <c r="AN230" s="3"/>
+      <c r="AO230" s="3"/>
+      <c r="AP230" s="3"/>
+      <c r="AQ230" s="3"/>
+      <c r="AR230" s="3"/>
+      <c r="AS230" s="3"/>
+      <c r="AT230" s="3"/>
+      <c r="AU230" s="3"/>
+      <c r="AV230" s="3"/>
+      <c r="AW230" s="3"/>
+      <c r="AX230" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -485,7 +485,23 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>提升内力的花</t>
+    <t>提升内力的奇花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>十年陈酿罗大饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗纵雨的传家宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗大饼</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工大饼，可提升生命</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -933,11 +949,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX230"/>
+  <dimension ref="A1:AX232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O27" sqref="O27"/>
+      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5099,16 +5115,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>174</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>147</v>
+        <v>170</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C30" s="4"/>
+      <c r="D30" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5120,13 +5134,13 @@
         <v>-1</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K30" s="3">
         <v>0</v>
@@ -5248,107 +5262,301 @@
       <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A31" s="3"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
-      <c r="R31" s="3"/>
-      <c r="S31" s="3"/>
-      <c r="T31" s="3"/>
-      <c r="U31" s="3"/>
-      <c r="V31" s="3"/>
-      <c r="W31" s="3"/>
-      <c r="X31" s="3"/>
-      <c r="Y31" s="3"/>
-      <c r="Z31" s="3"/>
-      <c r="AA31" s="3"/>
-      <c r="AB31" s="3"/>
-      <c r="AC31" s="3"/>
-      <c r="AD31" s="3"/>
-      <c r="AE31" s="3"/>
-      <c r="AF31" s="3"/>
-      <c r="AG31" s="3"/>
-      <c r="AH31" s="3"/>
-      <c r="AI31" s="3"/>
-      <c r="AJ31" s="3"/>
-      <c r="AK31" s="3"/>
-      <c r="AL31" s="3"/>
-      <c r="AM31" s="3"/>
-      <c r="AN31" s="3"/>
-      <c r="AO31" s="3"/>
-      <c r="AP31" s="3"/>
-      <c r="AQ31" s="3"/>
-      <c r="AR31" s="3"/>
-      <c r="AS31" s="3"/>
-      <c r="AT31" s="3"/>
-      <c r="AU31" s="3"/>
-      <c r="AV31" s="3"/>
-      <c r="AW31" s="3"/>
+      <c r="A31" s="3">
+        <v>171</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C31" s="4"/>
+      <c r="D31" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H31" s="3">
+        <v>3</v>
+      </c>
+      <c r="I31" s="3">
+        <v>0</v>
+      </c>
+      <c r="J31" s="3">
+        <v>10</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX31" s="7"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A32" s="3"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="5"/>
-      <c r="D32" s="5"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
-      <c r="R32" s="3"/>
-      <c r="S32" s="3"/>
-      <c r="T32" s="3"/>
-      <c r="U32" s="3"/>
-      <c r="V32" s="3"/>
-      <c r="W32" s="3"/>
-      <c r="X32" s="3"/>
-      <c r="Y32" s="3"/>
-      <c r="Z32" s="3"/>
-      <c r="AA32" s="3"/>
-      <c r="AB32" s="3"/>
-      <c r="AC32" s="3"/>
-      <c r="AD32" s="3"/>
-      <c r="AE32" s="3"/>
-      <c r="AF32" s="3"/>
-      <c r="AG32" s="3"/>
-      <c r="AH32" s="3"/>
-      <c r="AI32" s="3"/>
-      <c r="AJ32" s="3"/>
-      <c r="AK32" s="3"/>
-      <c r="AL32" s="3"/>
-      <c r="AM32" s="3"/>
-      <c r="AN32" s="3"/>
-      <c r="AO32" s="3"/>
-      <c r="AP32" s="3"/>
-      <c r="AQ32" s="3"/>
-      <c r="AR32" s="3"/>
-      <c r="AS32" s="3"/>
-      <c r="AT32" s="3"/>
-      <c r="AU32" s="3"/>
-      <c r="AV32" s="3"/>
-      <c r="AW32" s="3"/>
+      <c r="A32" s="3">
+        <v>174</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX32" s="7"/>
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
@@ -5406,7 +5614,7 @@
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="5"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -5458,7 +5666,7 @@
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="5"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -5510,7 +5718,7 @@
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
+      <c r="C36" s="4"/>
       <c r="D36" s="5"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -5562,7 +5770,7 @@
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="C37" s="4"/>
       <c r="D37" s="5"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -5615,7 +5823,7 @@
       <c r="A38" s="3"/>
       <c r="B38" s="5"/>
       <c r="C38" s="5"/>
-      <c r="D38" s="4"/>
+      <c r="D38" s="5"/>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
@@ -5719,7 +5927,7 @@
       <c r="A40" s="3"/>
       <c r="B40" s="5"/>
       <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
+      <c r="D40" s="4"/>
       <c r="E40" s="3"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
@@ -6237,9 +6445,9 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="3"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
       <c r="G50" s="3"/>
@@ -6289,9 +6497,9 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-      <c r="C51" s="3"/>
-      <c r="D51" s="3"/>
+      <c r="B51" s="5"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
       <c r="G51" s="3"/>
@@ -7017,7 +7225,7 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
+      <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
@@ -7121,7 +7329,7 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
+      <c r="B67" s="5"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7539,7 +7747,7 @@
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
-      <c r="D75" s="4"/>
+      <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -7643,7 +7851,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="D77" s="4"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -8837,7 +9045,7 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="5"/>
+      <c r="B100" s="3"/>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
@@ -9045,7 +9253,7 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
+      <c r="B104" s="5"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -11491,7 +11699,7 @@
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
-      <c r="D151" s="4"/>
+      <c r="D151" s="3"/>
       <c r="E151" s="3"/>
       <c r="F151" s="3"/>
       <c r="G151" s="3"/>
@@ -11595,7 +11803,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="3"/>
+      <c r="D153" s="4"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -11749,7 +11957,7 @@
     </row>
     <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
-      <c r="B156" s="5"/>
+      <c r="B156" s="3"/>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
       <c r="E156" s="3"/>
@@ -11853,7 +12061,7 @@
     </row>
     <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="3"/>
+      <c r="B158" s="5"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12893,7 +13101,7 @@
     </row>
     <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
-      <c r="B178" s="4"/>
+      <c r="B178" s="3"/>
       <c r="C178" s="3"/>
       <c r="D178" s="3"/>
       <c r="E178" s="3"/>
@@ -12997,7 +13205,7 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="4"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13153,8 +13361,8 @@
     </row>
     <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
       <c r="F183" s="3"/>
@@ -13257,8 +13465,8 @@
     </row>
     <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
-      <c r="B185" s="3"/>
-      <c r="C185" s="3"/>
+      <c r="B185" s="4"/>
+      <c r="C185" s="4"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -15597,9 +15805,9 @@
     </row>
     <row r="230" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
-      <c r="B230" s="4"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="4"/>
+      <c r="B230" s="3"/>
+      <c r="C230" s="3"/>
+      <c r="D230" s="3"/>
       <c r="E230" s="3"/>
       <c r="F230" s="3"/>
       <c r="G230" s="3"/>
@@ -15647,6 +15855,110 @@
       <c r="AW230" s="3"/>
       <c r="AX230" s="7"/>
     </row>
+    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A231" s="3"/>
+      <c r="B231" s="3"/>
+      <c r="C231" s="3"/>
+      <c r="D231" s="3"/>
+      <c r="E231" s="3"/>
+      <c r="F231" s="3"/>
+      <c r="G231" s="3"/>
+      <c r="H231" s="3"/>
+      <c r="I231" s="3"/>
+      <c r="J231" s="3"/>
+      <c r="K231" s="3"/>
+      <c r="L231" s="3"/>
+      <c r="M231" s="3"/>
+      <c r="N231" s="3"/>
+      <c r="O231" s="3"/>
+      <c r="P231" s="3"/>
+      <c r="Q231" s="3"/>
+      <c r="R231" s="3"/>
+      <c r="S231" s="3"/>
+      <c r="T231" s="3"/>
+      <c r="U231" s="3"/>
+      <c r="V231" s="3"/>
+      <c r="W231" s="3"/>
+      <c r="X231" s="3"/>
+      <c r="Y231" s="3"/>
+      <c r="Z231" s="3"/>
+      <c r="AA231" s="3"/>
+      <c r="AB231" s="3"/>
+      <c r="AC231" s="3"/>
+      <c r="AD231" s="3"/>
+      <c r="AE231" s="3"/>
+      <c r="AF231" s="3"/>
+      <c r="AG231" s="3"/>
+      <c r="AH231" s="3"/>
+      <c r="AI231" s="3"/>
+      <c r="AJ231" s="3"/>
+      <c r="AK231" s="3"/>
+      <c r="AL231" s="3"/>
+      <c r="AM231" s="3"/>
+      <c r="AN231" s="3"/>
+      <c r="AO231" s="3"/>
+      <c r="AP231" s="3"/>
+      <c r="AQ231" s="3"/>
+      <c r="AR231" s="3"/>
+      <c r="AS231" s="3"/>
+      <c r="AT231" s="3"/>
+      <c r="AU231" s="3"/>
+      <c r="AV231" s="3"/>
+      <c r="AW231" s="3"/>
+      <c r="AX231" s="7"/>
+    </row>
+    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A232" s="3"/>
+      <c r="B232" s="4"/>
+      <c r="C232" s="4"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="3"/>
+      <c r="F232" s="3"/>
+      <c r="G232" s="3"/>
+      <c r="H232" s="3"/>
+      <c r="I232" s="3"/>
+      <c r="J232" s="3"/>
+      <c r="K232" s="3"/>
+      <c r="L232" s="3"/>
+      <c r="M232" s="3"/>
+      <c r="N232" s="3"/>
+      <c r="O232" s="3"/>
+      <c r="P232" s="3"/>
+      <c r="Q232" s="3"/>
+      <c r="R232" s="3"/>
+      <c r="S232" s="3"/>
+      <c r="T232" s="3"/>
+      <c r="U232" s="3"/>
+      <c r="V232" s="3"/>
+      <c r="W232" s="3"/>
+      <c r="X232" s="3"/>
+      <c r="Y232" s="3"/>
+      <c r="Z232" s="3"/>
+      <c r="AA232" s="3"/>
+      <c r="AB232" s="3"/>
+      <c r="AC232" s="3"/>
+      <c r="AD232" s="3"/>
+      <c r="AE232" s="3"/>
+      <c r="AF232" s="3"/>
+      <c r="AG232" s="3"/>
+      <c r="AH232" s="3"/>
+      <c r="AI232" s="3"/>
+      <c r="AJ232" s="3"/>
+      <c r="AK232" s="3"/>
+      <c r="AL232" s="3"/>
+      <c r="AM232" s="3"/>
+      <c r="AN232" s="3"/>
+      <c r="AO232" s="3"/>
+      <c r="AP232" s="3"/>
+      <c r="AQ232" s="3"/>
+      <c r="AR232" s="3"/>
+      <c r="AS232" s="3"/>
+      <c r="AT232" s="3"/>
+      <c r="AU232" s="3"/>
+      <c r="AV232" s="3"/>
+      <c r="AW232" s="3"/>
+      <c r="AX232" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -339,9 +339,6 @@
     <t>醉灯剑法</t>
   </si>
   <si>
-    <t>刘灯剑的独门绝学</t>
-  </si>
-  <si>
     <t>烛影剑</t>
   </si>
   <si>
@@ -388,12 +385,6 @@
   </si>
   <si>
     <t>萨擎苍的佩刀</t>
-  </si>
-  <si>
-    <t>怡麟楼酒杯</t>
-  </si>
-  <si>
-    <t>一个精致的酒杯</t>
   </si>
   <si>
     <t>将军甲</t>
@@ -502,6 +493,89 @@
   </si>
   <si>
     <t>手工大饼，可提升生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑客适用</t>
+  </si>
+  <si>
+    <t>青铜剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青铜盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门级盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门级剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门级刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒马剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月光护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>月白皎洁，可增加防御力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>入门级棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>万烛书苑小钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑的独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑随身携带钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罂散酒杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个杯底呈紫色的酒杯</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罂散</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷暗器，含剧毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇香解毒丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷所制之解毒丸</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -949,11 +1023,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX232"/>
+  <dimension ref="A1:AX241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I34" sqref="I34"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1718,7 +1792,7 @@
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>106</v>
+        <v>168</v>
       </c>
       <c r="E7" s="3">
         <v>20</v>
@@ -1862,11 +1936,11 @@
         <v>21</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E8" s="3">
         <v>-1</v>
@@ -2010,11 +2084,11 @@
         <v>22</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E9" s="3">
         <v>-1</v>
@@ -2155,14 +2229,14 @@
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>111</v>
+        <v>167</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>112</v>
+        <v>169</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2174,10 +2248,10 @@
         <v>-1</v>
       </c>
       <c r="H10" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J10" s="3">
         <v>0</v>
@@ -2303,17 +2377,17 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E11" s="3">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="F11" s="3">
         <v>-1</v>
@@ -2322,10 +2396,10 @@
         <v>-1</v>
       </c>
       <c r="H11" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I11" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2337,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2355,7 +2429,7 @@
         <v>0</v>
       </c>
       <c r="S11" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T11" s="3">
         <v>0</v>
@@ -2394,13 +2468,13 @@
         <v>0</v>
       </c>
       <c r="AF11" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG11" s="3">
         <v>0</v>
       </c>
       <c r="AH11" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI11" s="3">
         <v>0</v>
@@ -2418,7 +2492,7 @@
         <v>0</v>
       </c>
       <c r="AN11" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="3">
         <v>0</v>
@@ -2436,7 +2510,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AU11" s="3">
         <v>-1</v>
@@ -2451,26 +2525,26 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E12" s="3">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F12" s="3">
         <v>-1</v>
       </c>
       <c r="G12" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2485,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2500,74 +2574,74 @@
         <v>0</v>
       </c>
       <c r="R12" s="3">
+        <v>0</v>
+      </c>
+      <c r="S12" s="3">
+        <v>5</v>
+      </c>
+      <c r="T12" s="3">
+        <v>0</v>
+      </c>
+      <c r="U12" s="3">
+        <v>0</v>
+      </c>
+      <c r="V12" s="3">
+        <v>0</v>
+      </c>
+      <c r="W12" s="3">
+        <v>0</v>
+      </c>
+      <c r="X12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>50</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="3">
         <v>20</v>
       </c>
-      <c r="S12" s="3">
-        <v>0</v>
-      </c>
-      <c r="T12" s="3">
-        <v>0</v>
-      </c>
-      <c r="U12" s="3">
-        <v>0</v>
-      </c>
-      <c r="V12" s="3">
-        <v>20</v>
-      </c>
-      <c r="W12" s="3">
-        <v>0</v>
-      </c>
-      <c r="X12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="3">
-        <v>0</v>
-      </c>
       <c r="AO12" s="3">
         <v>0</v>
       </c>
@@ -2584,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AU12" s="3">
         <v>-1</v>
@@ -2599,14 +2673,14 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -2615,16 +2689,16 @@
         <v>-1</v>
       </c>
       <c r="G13" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
         <v>0</v>
       </c>
       <c r="J13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K13" s="3">
         <v>0</v>
@@ -2639,16 +2713,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -2660,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
@@ -2732,10 +2806,10 @@
         <v>0</v>
       </c>
       <c r="AT13" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU13" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV13" s="3">
         <v>0</v>
@@ -2747,14 +2821,14 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -2766,13 +2840,13 @@
         <v>-1</v>
       </c>
       <c r="H14" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I14" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2787,16 +2861,16 @@
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R14" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S14" s="3">
         <v>0</v>
@@ -2838,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="AF14" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG14" s="3">
         <v>0</v>
@@ -2880,10 +2954,10 @@
         <v>0</v>
       </c>
       <c r="AT14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU14" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="AV14" s="3">
         <v>0</v>
@@ -2895,14 +2969,14 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -2911,13 +2985,13 @@
         <v>-1</v>
       </c>
       <c r="G15" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -2938,7 +3012,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="3">
         <v>0</v>
@@ -2986,7 +3060,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="3">
         <v>0</v>
@@ -2995,7 +3069,7 @@
         <v>0</v>
       </c>
       <c r="AI15" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="3">
         <v>0</v>
@@ -3016,7 +3090,7 @@
         <v>0</v>
       </c>
       <c r="AP15" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ15" s="3">
         <v>0</v>
@@ -3043,14 +3117,14 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -3059,10 +3133,10 @@
         <v>-1</v>
       </c>
       <c r="G16" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H16" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
@@ -3086,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q16" s="3">
         <v>0</v>
@@ -3134,7 +3208,7 @@
         <v>0</v>
       </c>
       <c r="AF16" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG16" s="3">
         <v>0</v>
@@ -3143,7 +3217,7 @@
         <v>0</v>
       </c>
       <c r="AI16" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
@@ -3164,7 +3238,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ16" s="3">
         <v>0</v>
@@ -3191,14 +3265,14 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="4" t="s">
-        <v>126</v>
+      <c r="D17" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -3207,7 +3281,7 @@
         <v>-1</v>
       </c>
       <c r="G17" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="3">
         <v>1</v>
@@ -3234,13 +3308,13 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -3291,7 +3365,7 @@
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
@@ -3309,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="AO17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP17" s="3">
         <v>0</v>
@@ -3339,14 +3413,14 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="4" t="s">
-        <v>128</v>
+      <c r="D18" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -3382,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -3439,7 +3513,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
@@ -3457,10 +3531,10 @@
         <v>0</v>
       </c>
       <c r="AO18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="3">
         <v>20</v>
-      </c>
-      <c r="AP18" s="3">
-        <v>0</v>
       </c>
       <c r="AQ18" s="3">
         <v>0</v>
@@ -3487,14 +3561,14 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>129</v>
+        <v>158</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
-        <v>130</v>
+      <c r="D19" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -3530,7 +3604,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -3587,7 +3661,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
@@ -3608,10 +3682,10 @@
         <v>0</v>
       </c>
       <c r="AP19" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR19" s="3">
         <v>0</v>
@@ -3635,14 +3709,14 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>63</v>
+        <v>45</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>131</v>
+        <v>159</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -3651,28 +3725,28 @@
         <v>-1</v>
       </c>
       <c r="G20" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H20" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I20" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J20" s="3">
         <v>0</v>
       </c>
       <c r="K20" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L20" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O20" s="3">
         <v>0</v>
@@ -3684,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -3726,7 +3800,7 @@
         <v>0</v>
       </c>
       <c r="AF20" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG20" s="3">
         <v>0</v>
@@ -3783,14 +3857,14 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="4" t="s">
-        <v>134</v>
+      <c r="D21" s="5" t="s">
+        <v>155</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -3799,10 +3873,10 @@
         <v>-1</v>
       </c>
       <c r="G21" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H21" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I21" s="3">
         <v>0</v>
@@ -3826,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -3874,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG21" s="3">
         <v>0</v>
@@ -3883,7 +3957,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
@@ -3901,7 +3975,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP21" s="3">
         <v>0</v>
@@ -3931,14 +4005,14 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4" t="s">
-        <v>136</v>
+        <v>164</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>165</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -3947,10 +4021,10 @@
         <v>-1</v>
       </c>
       <c r="G22" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H22" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I22" s="3">
         <v>0</v>
@@ -3965,7 +4039,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>0</v>
@@ -3977,10 +4051,10 @@
         <v>0</v>
       </c>
       <c r="Q22" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R22" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S22" s="3">
         <v>0</v>
@@ -4025,7 +4099,7 @@
         <v>-1</v>
       </c>
       <c r="AG22" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH22" s="3">
         <v>0</v>
@@ -4061,10 +4135,10 @@
         <v>0</v>
       </c>
       <c r="AS22" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU22" s="3">
         <v>-1</v>
@@ -4079,14 +4153,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>137</v>
+        <v>170</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>138</v>
+        <v>171</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4227,14 +4301,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>139</v>
+        <v>122</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="3" t="s">
-        <v>140</v>
+      <c r="D24" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4243,10 +4317,10 @@
         <v>-1</v>
       </c>
       <c r="G24" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I24" s="3">
         <v>0</v>
@@ -4258,7 +4332,7 @@
         <v>0</v>
       </c>
       <c r="L24" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M24" s="3">
         <v>0</v>
@@ -4276,7 +4350,7 @@
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -4318,7 +4392,7 @@
         <v>0</v>
       </c>
       <c r="AF24" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG24" s="3">
         <v>0</v>
@@ -4375,14 +4449,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>120</v>
+        <v>61</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>150</v>
+      <c r="D25" s="4" t="s">
+        <v>125</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4391,13 +4465,13 @@
         <v>-1</v>
       </c>
       <c r="G25" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I25" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -4418,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -4466,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG25" s="3">
         <v>0</v>
@@ -4475,7 +4549,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
@@ -4493,7 +4567,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP25" s="3">
         <v>0</v>
@@ -4523,14 +4597,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>121</v>
+        <v>62</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
-        <v>151</v>
+      <c r="D26" s="4" t="s">
+        <v>127</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4539,10 +4613,10 @@
         <v>-1</v>
       </c>
       <c r="G26" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4551,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L26" s="3">
         <v>0</v>
@@ -4566,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -4614,7 +4688,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG26" s="3">
         <v>0</v>
@@ -4623,7 +4697,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
@@ -4644,7 +4718,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ26" s="3">
         <v>0</v>
@@ -4671,14 +4745,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>122</v>
+        <v>63</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>153</v>
+      <c r="D27" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4693,25 +4767,25 @@
         <v>3</v>
       </c>
       <c r="I27" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L27" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P27" s="3">
         <v>0</v>
@@ -4819,14 +4893,14 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -4835,10 +4909,10 @@
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -4868,7 +4942,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -4910,10 +4984,10 @@
         <v>0</v>
       </c>
       <c r="AF28" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
@@ -4967,14 +5041,14 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>141</v>
+        <v>71</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>144</v>
+        <v>173</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -4986,16 +5060,16 @@
         <v>-1</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I29" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -5058,10 +5132,10 @@
         <v>0</v>
       </c>
       <c r="AF29" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG29" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
@@ -5094,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AR29" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS29" s="3">
         <v>0</v>
@@ -5115,14 +5189,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>170</v>
+        <v>72</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>154</v>
+        <v>174</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
-        <v>155</v>
+      <c r="D30" s="4" t="s">
+        <v>175</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5140,10 +5214,10 @@
         <v>0</v>
       </c>
       <c r="J30" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L30" s="3">
         <v>0</v>
@@ -5263,14 +5337,14 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>171</v>
+        <v>80</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="5" t="s">
-        <v>157</v>
+      <c r="D31" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -5282,35 +5356,35 @@
         <v>-1</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
       </c>
       <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
         <v>10</v>
       </c>
-      <c r="K31" s="3">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3">
-        <v>0</v>
-      </c>
-      <c r="M31" s="3">
-        <v>0</v>
-      </c>
-      <c r="N31" s="3">
-        <v>0</v>
-      </c>
-      <c r="O31" s="3">
-        <v>0</v>
-      </c>
-      <c r="P31" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="3">
-        <v>0</v>
-      </c>
       <c r="R31" s="3">
         <v>0</v>
       </c>
@@ -5354,10 +5428,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -5393,10 +5467,10 @@
         <v>0</v>
       </c>
       <c r="AS31" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AT31" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU31" s="3">
         <v>-1</v>
@@ -5411,620 +5485,1484 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
+        <v>90</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H32" s="3">
+        <v>0</v>
+      </c>
+      <c r="I32" s="3">
+        <v>0</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="3">
+        <v>0</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3">
+        <v>0</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+      <c r="V32" s="3">
+        <v>0</v>
+      </c>
+      <c r="W32" s="3">
+        <v>0</v>
+      </c>
+      <c r="X32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV32" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX32" s="7"/>
+    </row>
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
+        <v>110</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H33" s="3">
+        <v>3</v>
+      </c>
+      <c r="I33" s="3">
+        <v>0</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="K33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="3">
+        <v>90</v>
+      </c>
+      <c r="M33" s="3">
+        <v>0</v>
+      </c>
+      <c r="N33" s="3">
+        <v>0</v>
+      </c>
+      <c r="O33" s="3">
+        <v>0</v>
+      </c>
+      <c r="P33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+      <c r="R33" s="3">
+        <v>0</v>
+      </c>
+      <c r="S33" s="3">
+        <v>0</v>
+      </c>
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+      <c r="V33" s="3">
+        <v>0</v>
+      </c>
+      <c r="W33" s="3">
+        <v>0</v>
+      </c>
+      <c r="X33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV33" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX33" s="7"/>
+    </row>
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
+        <v>120</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C34" s="4"/>
+      <c r="D34" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H34" s="3">
+        <v>3</v>
+      </c>
+      <c r="I34" s="3">
+        <v>200</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX34" s="7"/>
+    </row>
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
+        <v>121</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H35" s="3">
+        <v>3</v>
+      </c>
+      <c r="I35" s="3">
+        <v>0</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-90</v>
+      </c>
+      <c r="L35" s="3">
+        <v>0</v>
+      </c>
+      <c r="M35" s="3">
+        <v>0</v>
+      </c>
+      <c r="N35" s="3">
+        <v>0</v>
+      </c>
+      <c r="O35" s="3">
+        <v>0</v>
+      </c>
+      <c r="P35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+      <c r="R35" s="3">
+        <v>0</v>
+      </c>
+      <c r="S35" s="3">
+        <v>0</v>
+      </c>
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+      <c r="V35" s="3">
+        <v>0</v>
+      </c>
+      <c r="W35" s="3">
+        <v>0</v>
+      </c>
+      <c r="X35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV35" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX35" s="7"/>
+    </row>
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
+        <v>122</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H36" s="3">
+        <v>3</v>
+      </c>
+      <c r="I36" s="3">
+        <v>0</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="K36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="3">
+        <v>0</v>
+      </c>
+      <c r="M36" s="3">
+        <v>0</v>
+      </c>
+      <c r="N36" s="3">
+        <v>0</v>
+      </c>
+      <c r="O36" s="3">
+        <v>100</v>
+      </c>
+      <c r="P36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="3">
+        <v>0</v>
+      </c>
+      <c r="R36" s="3">
+        <v>0</v>
+      </c>
+      <c r="S36" s="3">
+        <v>0</v>
+      </c>
+      <c r="T36" s="3">
+        <v>0</v>
+      </c>
+      <c r="U36" s="3">
+        <v>0</v>
+      </c>
+      <c r="V36" s="3">
+        <v>0</v>
+      </c>
+      <c r="W36" s="3">
+        <v>0</v>
+      </c>
+      <c r="X36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV36" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX36" s="7"/>
+    </row>
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
+        <v>140</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G37" s="3">
+        <v>1</v>
+      </c>
+      <c r="H37" s="3">
+        <v>1</v>
+      </c>
+      <c r="I37" s="3">
+        <v>0</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="3">
+        <v>0</v>
+      </c>
+      <c r="L37" s="3">
+        <v>0</v>
+      </c>
+      <c r="M37" s="3">
+        <v>0</v>
+      </c>
+      <c r="N37" s="3">
+        <v>0</v>
+      </c>
+      <c r="O37" s="3">
+        <v>0</v>
+      </c>
+      <c r="P37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>0</v>
+      </c>
+      <c r="R37" s="3">
+        <v>10</v>
+      </c>
+      <c r="S37" s="3">
+        <v>0</v>
+      </c>
+      <c r="T37" s="3">
+        <v>0</v>
+      </c>
+      <c r="U37" s="3">
+        <v>0</v>
+      </c>
+      <c r="V37" s="3">
+        <v>0</v>
+      </c>
+      <c r="W37" s="3">
+        <v>0</v>
+      </c>
+      <c r="X37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG37" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV37" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX37" s="7"/>
+    </row>
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
+        <v>141</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="E38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H38" s="3">
+        <v>0</v>
+      </c>
+      <c r="I38" s="3">
+        <v>0</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="3">
+        <v>0</v>
+      </c>
+      <c r="R38" s="3">
+        <v>0</v>
+      </c>
+      <c r="S38" s="3">
+        <v>0</v>
+      </c>
+      <c r="T38" s="3">
+        <v>0</v>
+      </c>
+      <c r="U38" s="3">
+        <v>0</v>
+      </c>
+      <c r="V38" s="3">
+        <v>0</v>
+      </c>
+      <c r="W38" s="3">
+        <v>0</v>
+      </c>
+      <c r="X38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV38" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX38" s="7"/>
+    </row>
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
+        <v>170</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C39" s="4"/>
+      <c r="D39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H39" s="3">
+        <v>3</v>
+      </c>
+      <c r="I39" s="3">
+        <v>0</v>
+      </c>
+      <c r="J39" s="3">
+        <v>100</v>
+      </c>
+      <c r="K39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="3">
+        <v>0</v>
+      </c>
+      <c r="M39" s="3">
+        <v>0</v>
+      </c>
+      <c r="N39" s="3">
+        <v>0</v>
+      </c>
+      <c r="O39" s="3">
+        <v>0</v>
+      </c>
+      <c r="P39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="3">
+        <v>0</v>
+      </c>
+      <c r="R39" s="3">
+        <v>0</v>
+      </c>
+      <c r="S39" s="3">
+        <v>0</v>
+      </c>
+      <c r="T39" s="3">
+        <v>0</v>
+      </c>
+      <c r="U39" s="3">
+        <v>0</v>
+      </c>
+      <c r="V39" s="3">
+        <v>0</v>
+      </c>
+      <c r="W39" s="3">
+        <v>0</v>
+      </c>
+      <c r="X39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV39" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX39" s="7"/>
+    </row>
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
+        <v>171</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C40" s="4"/>
+      <c r="D40" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H40" s="3">
+        <v>3</v>
+      </c>
+      <c r="I40" s="3">
+        <v>0</v>
+      </c>
+      <c r="J40" s="3">
+        <v>10</v>
+      </c>
+      <c r="K40" s="3">
+        <v>0</v>
+      </c>
+      <c r="L40" s="3">
+        <v>0</v>
+      </c>
+      <c r="M40" s="3">
+        <v>0</v>
+      </c>
+      <c r="N40" s="3">
+        <v>0</v>
+      </c>
+      <c r="O40" s="3">
+        <v>0</v>
+      </c>
+      <c r="P40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="3">
+        <v>0</v>
+      </c>
+      <c r="R40" s="3">
+        <v>0</v>
+      </c>
+      <c r="S40" s="3">
+        <v>0</v>
+      </c>
+      <c r="T40" s="3">
+        <v>0</v>
+      </c>
+      <c r="U40" s="3">
+        <v>0</v>
+      </c>
+      <c r="V40" s="3">
+        <v>0</v>
+      </c>
+      <c r="W40" s="3">
+        <v>0</v>
+      </c>
+      <c r="X40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV40" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX40" s="7"/>
+    </row>
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>174</v>
       </c>
-      <c r="B32" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H32" s="3">
-        <v>0</v>
-      </c>
-      <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
-      <c r="N32" s="3">
-        <v>0</v>
-      </c>
-      <c r="O32" s="3">
-        <v>0</v>
-      </c>
-      <c r="P32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>0</v>
-      </c>
-      <c r="R32" s="3">
-        <v>0</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
-      </c>
-      <c r="T32" s="3">
-        <v>0</v>
-      </c>
-      <c r="U32" s="3">
-        <v>0</v>
-      </c>
-      <c r="V32" s="3">
-        <v>0</v>
-      </c>
-      <c r="W32" s="3">
-        <v>0</v>
-      </c>
-      <c r="X32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV32" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW32" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX32" s="7"/>
-    </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="5"/>
-      <c r="D33" s="5"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
-      <c r="R33" s="3"/>
-      <c r="S33" s="3"/>
-      <c r="T33" s="3"/>
-      <c r="U33" s="3"/>
-      <c r="V33" s="3"/>
-      <c r="W33" s="3"/>
-      <c r="X33" s="3"/>
-      <c r="Y33" s="3"/>
-      <c r="Z33" s="3"/>
-      <c r="AA33" s="3"/>
-      <c r="AB33" s="3"/>
-      <c r="AC33" s="3"/>
-      <c r="AD33" s="3"/>
-      <c r="AE33" s="3"/>
-      <c r="AF33" s="3"/>
-      <c r="AG33" s="3"/>
-      <c r="AH33" s="3"/>
-      <c r="AI33" s="3"/>
-      <c r="AJ33" s="3"/>
-      <c r="AK33" s="3"/>
-      <c r="AL33" s="3"/>
-      <c r="AM33" s="3"/>
-      <c r="AN33" s="3"/>
-      <c r="AO33" s="3"/>
-      <c r="AP33" s="3"/>
-      <c r="AQ33" s="3"/>
-      <c r="AR33" s="3"/>
-      <c r="AS33" s="3"/>
-      <c r="AT33" s="3"/>
-      <c r="AU33" s="3"/>
-      <c r="AV33" s="3"/>
-      <c r="AW33" s="3"/>
-      <c r="AX33" s="7"/>
-    </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A34" s="3"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="5"/>
-      <c r="D34" s="5"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="3"/>
-      <c r="G34" s="3"/>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
-      <c r="J34" s="3"/>
-      <c r="K34" s="3"/>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
-      <c r="R34" s="3"/>
-      <c r="S34" s="3"/>
-      <c r="T34" s="3"/>
-      <c r="U34" s="3"/>
-      <c r="V34" s="3"/>
-      <c r="W34" s="3"/>
-      <c r="X34" s="3"/>
-      <c r="Y34" s="3"/>
-      <c r="Z34" s="3"/>
-      <c r="AA34" s="3"/>
-      <c r="AB34" s="3"/>
-      <c r="AC34" s="3"/>
-      <c r="AD34" s="3"/>
-      <c r="AE34" s="3"/>
-      <c r="AF34" s="3"/>
-      <c r="AG34" s="3"/>
-      <c r="AH34" s="3"/>
-      <c r="AI34" s="3"/>
-      <c r="AJ34" s="3"/>
-      <c r="AK34" s="3"/>
-      <c r="AL34" s="3"/>
-      <c r="AM34" s="3"/>
-      <c r="AN34" s="3"/>
-      <c r="AO34" s="3"/>
-      <c r="AP34" s="3"/>
-      <c r="AQ34" s="3"/>
-      <c r="AR34" s="3"/>
-      <c r="AS34" s="3"/>
-      <c r="AT34" s="3"/>
-      <c r="AU34" s="3"/>
-      <c r="AV34" s="3"/>
-      <c r="AW34" s="3"/>
-      <c r="AX34" s="7"/>
-    </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A35" s="3"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
-      <c r="G35" s="3"/>
-      <c r="H35" s="3"/>
-      <c r="I35" s="3"/>
-      <c r="J35" s="3"/>
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
-      <c r="R35" s="3"/>
-      <c r="S35" s="3"/>
-      <c r="T35" s="3"/>
-      <c r="U35" s="3"/>
-      <c r="V35" s="3"/>
-      <c r="W35" s="3"/>
-      <c r="X35" s="3"/>
-      <c r="Y35" s="3"/>
-      <c r="Z35" s="3"/>
-      <c r="AA35" s="3"/>
-      <c r="AB35" s="3"/>
-      <c r="AC35" s="3"/>
-      <c r="AD35" s="3"/>
-      <c r="AE35" s="3"/>
-      <c r="AF35" s="3"/>
-      <c r="AG35" s="3"/>
-      <c r="AH35" s="3"/>
-      <c r="AI35" s="3"/>
-      <c r="AJ35" s="3"/>
-      <c r="AK35" s="3"/>
-      <c r="AL35" s="3"/>
-      <c r="AM35" s="3"/>
-      <c r="AN35" s="3"/>
-      <c r="AO35" s="3"/>
-      <c r="AP35" s="3"/>
-      <c r="AQ35" s="3"/>
-      <c r="AR35" s="3"/>
-      <c r="AS35" s="3"/>
-      <c r="AT35" s="3"/>
-      <c r="AU35" s="3"/>
-      <c r="AV35" s="3"/>
-      <c r="AW35" s="3"/>
-      <c r="AX35" s="7"/>
-    </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A36" s="3"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="5"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="3"/>
-      <c r="H36" s="3"/>
-      <c r="I36" s="3"/>
-      <c r="J36" s="3"/>
-      <c r="K36" s="3"/>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
-      <c r="R36" s="3"/>
-      <c r="S36" s="3"/>
-      <c r="T36" s="3"/>
-      <c r="U36" s="3"/>
-      <c r="V36" s="3"/>
-      <c r="W36" s="3"/>
-      <c r="X36" s="3"/>
-      <c r="Y36" s="3"/>
-      <c r="Z36" s="3"/>
-      <c r="AA36" s="3"/>
-      <c r="AB36" s="3"/>
-      <c r="AC36" s="3"/>
-      <c r="AD36" s="3"/>
-      <c r="AE36" s="3"/>
-      <c r="AF36" s="3"/>
-      <c r="AG36" s="3"/>
-      <c r="AH36" s="3"/>
-      <c r="AI36" s="3"/>
-      <c r="AJ36" s="3"/>
-      <c r="AK36" s="3"/>
-      <c r="AL36" s="3"/>
-      <c r="AM36" s="3"/>
-      <c r="AN36" s="3"/>
-      <c r="AO36" s="3"/>
-      <c r="AP36" s="3"/>
-      <c r="AQ36" s="3"/>
-      <c r="AR36" s="3"/>
-      <c r="AS36" s="3"/>
-      <c r="AT36" s="3"/>
-      <c r="AU36" s="3"/>
-      <c r="AV36" s="3"/>
-      <c r="AW36" s="3"/>
-      <c r="AX36" s="7"/>
-    </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A37" s="3"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="5"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="3"/>
-      <c r="G37" s="3"/>
-      <c r="H37" s="3"/>
-      <c r="I37" s="3"/>
-      <c r="J37" s="3"/>
-      <c r="K37" s="3"/>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
-      <c r="R37" s="3"/>
-      <c r="S37" s="3"/>
-      <c r="T37" s="3"/>
-      <c r="U37" s="3"/>
-      <c r="V37" s="3"/>
-      <c r="W37" s="3"/>
-      <c r="X37" s="3"/>
-      <c r="Y37" s="3"/>
-      <c r="Z37" s="3"/>
-      <c r="AA37" s="3"/>
-      <c r="AB37" s="3"/>
-      <c r="AC37" s="3"/>
-      <c r="AD37" s="3"/>
-      <c r="AE37" s="3"/>
-      <c r="AF37" s="3"/>
-      <c r="AG37" s="3"/>
-      <c r="AH37" s="3"/>
-      <c r="AI37" s="3"/>
-      <c r="AJ37" s="3"/>
-      <c r="AK37" s="3"/>
-      <c r="AL37" s="3"/>
-      <c r="AM37" s="3"/>
-      <c r="AN37" s="3"/>
-      <c r="AO37" s="3"/>
-      <c r="AP37" s="3"/>
-      <c r="AQ37" s="3"/>
-      <c r="AR37" s="3"/>
-      <c r="AS37" s="3"/>
-      <c r="AT37" s="3"/>
-      <c r="AU37" s="3"/>
-      <c r="AV37" s="3"/>
-      <c r="AW37" s="3"/>
-      <c r="AX37" s="7"/>
-    </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A38" s="3"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
-      <c r="R38" s="3"/>
-      <c r="S38" s="3"/>
-      <c r="T38" s="3"/>
-      <c r="U38" s="3"/>
-      <c r="V38" s="3"/>
-      <c r="W38" s="3"/>
-      <c r="X38" s="3"/>
-      <c r="Y38" s="3"/>
-      <c r="Z38" s="3"/>
-      <c r="AA38" s="3"/>
-      <c r="AB38" s="3"/>
-      <c r="AC38" s="3"/>
-      <c r="AD38" s="3"/>
-      <c r="AE38" s="3"/>
-      <c r="AF38" s="3"/>
-      <c r="AG38" s="3"/>
-      <c r="AH38" s="3"/>
-      <c r="AI38" s="3"/>
-      <c r="AJ38" s="3"/>
-      <c r="AK38" s="3"/>
-      <c r="AL38" s="3"/>
-      <c r="AM38" s="3"/>
-      <c r="AN38" s="3"/>
-      <c r="AO38" s="3"/>
-      <c r="AP38" s="3"/>
-      <c r="AQ38" s="3"/>
-      <c r="AR38" s="3"/>
-      <c r="AS38" s="3"/>
-      <c r="AT38" s="3"/>
-      <c r="AU38" s="3"/>
-      <c r="AV38" s="3"/>
-      <c r="AW38" s="3"/>
-      <c r="AX38" s="7"/>
-    </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A39" s="3"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="5"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
-      <c r="G39" s="3"/>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
-      <c r="R39" s="3"/>
-      <c r="S39" s="3"/>
-      <c r="T39" s="3"/>
-      <c r="U39" s="3"/>
-      <c r="V39" s="3"/>
-      <c r="W39" s="3"/>
-      <c r="X39" s="3"/>
-      <c r="Y39" s="3"/>
-      <c r="Z39" s="3"/>
-      <c r="AA39" s="3"/>
-      <c r="AB39" s="3"/>
-      <c r="AC39" s="3"/>
-      <c r="AD39" s="3"/>
-      <c r="AE39" s="3"/>
-      <c r="AF39" s="3"/>
-      <c r="AG39" s="3"/>
-      <c r="AH39" s="3"/>
-      <c r="AI39" s="3"/>
-      <c r="AJ39" s="3"/>
-      <c r="AK39" s="3"/>
-      <c r="AL39" s="3"/>
-      <c r="AM39" s="3"/>
-      <c r="AN39" s="3"/>
-      <c r="AO39" s="3"/>
-      <c r="AP39" s="3"/>
-      <c r="AQ39" s="3"/>
-      <c r="AR39" s="3"/>
-      <c r="AS39" s="3"/>
-      <c r="AT39" s="3"/>
-      <c r="AU39" s="3"/>
-      <c r="AV39" s="3"/>
-      <c r="AW39" s="3"/>
-      <c r="AX39" s="7"/>
-    </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A40" s="3"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
-      <c r="G40" s="3"/>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
-      <c r="R40" s="3"/>
-      <c r="S40" s="3"/>
-      <c r="T40" s="3"/>
-      <c r="U40" s="3"/>
-      <c r="V40" s="3"/>
-      <c r="W40" s="3"/>
-      <c r="X40" s="3"/>
-      <c r="Y40" s="3"/>
-      <c r="Z40" s="3"/>
-      <c r="AA40" s="3"/>
-      <c r="AB40" s="3"/>
-      <c r="AC40" s="3"/>
-      <c r="AD40" s="3"/>
-      <c r="AE40" s="3"/>
-      <c r="AF40" s="3"/>
-      <c r="AG40" s="3"/>
-      <c r="AH40" s="3"/>
-      <c r="AI40" s="3"/>
-      <c r="AJ40" s="3"/>
-      <c r="AK40" s="3"/>
-      <c r="AL40" s="3"/>
-      <c r="AM40" s="3"/>
-      <c r="AN40" s="3"/>
-      <c r="AO40" s="3"/>
-      <c r="AP40" s="3"/>
-      <c r="AQ40" s="3"/>
-      <c r="AR40" s="3"/>
-      <c r="AS40" s="3"/>
-      <c r="AT40" s="3"/>
-      <c r="AU40" s="3"/>
-      <c r="AV40" s="3"/>
-      <c r="AW40" s="3"/>
-      <c r="AX40" s="7"/>
-    </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="5"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
-      <c r="R41" s="3"/>
-      <c r="S41" s="3"/>
-      <c r="T41" s="3"/>
-      <c r="U41" s="3"/>
-      <c r="V41" s="3"/>
-      <c r="W41" s="3"/>
-      <c r="X41" s="3"/>
-      <c r="Y41" s="3"/>
-      <c r="Z41" s="3"/>
-      <c r="AA41" s="3"/>
-      <c r="AB41" s="3"/>
-      <c r="AC41" s="3"/>
-      <c r="AD41" s="3"/>
-      <c r="AE41" s="3"/>
-      <c r="AF41" s="3"/>
-      <c r="AG41" s="3"/>
-      <c r="AH41" s="3"/>
-      <c r="AI41" s="3"/>
-      <c r="AJ41" s="3"/>
-      <c r="AK41" s="3"/>
-      <c r="AL41" s="3"/>
-      <c r="AM41" s="3"/>
-      <c r="AN41" s="3"/>
-      <c r="AO41" s="3"/>
-      <c r="AP41" s="3"/>
-      <c r="AQ41" s="3"/>
-      <c r="AR41" s="3"/>
-      <c r="AS41" s="3"/>
-      <c r="AT41" s="3"/>
-      <c r="AU41" s="3"/>
-      <c r="AV41" s="3"/>
-      <c r="AW41" s="3"/>
+      <c r="B41" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>0</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>0</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX41" s="7"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
@@ -6186,7 +7124,7 @@
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
+      <c r="C45" s="4"/>
       <c r="D45" s="5"/>
       <c r="E45" s="3"/>
       <c r="F45" s="3"/>
@@ -6238,7 +7176,7 @@
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
+      <c r="C46" s="4"/>
       <c r="D46" s="5"/>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
@@ -6395,7 +7333,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
+      <c r="D49" s="4"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -6549,9 +7487,9 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="5"/>
       <c r="E52" s="3"/>
       <c r="F52" s="3"/>
       <c r="G52" s="3"/>
@@ -6601,9 +7539,9 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
-      <c r="B53" s="3"/>
-      <c r="C53" s="3"/>
-      <c r="D53" s="3"/>
+      <c r="B53" s="5"/>
+      <c r="C53" s="5"/>
+      <c r="D53" s="5"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
       <c r="G53" s="3"/>
@@ -6653,9 +7591,9 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
+      <c r="B54" s="5"/>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -6705,9 +7643,9 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
+      <c r="B55" s="5"/>
+      <c r="C55" s="5"/>
+      <c r="D55" s="5"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="G55" s="3"/>
@@ -6757,9 +7695,9 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
-      <c r="B56" s="3"/>
-      <c r="C56" s="3"/>
-      <c r="D56" s="3"/>
+      <c r="B56" s="5"/>
+      <c r="C56" s="5"/>
+      <c r="D56" s="5"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
       <c r="G56" s="3"/>
@@ -6809,9 +7747,9 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
-      <c r="B57" s="3"/>
-      <c r="C57" s="3"/>
-      <c r="D57" s="3"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -6861,9 +7799,9 @@
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
-      <c r="B58" s="3"/>
-      <c r="C58" s="3"/>
-      <c r="D58" s="3"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -6913,9 +7851,9 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
+      <c r="B59" s="5"/>
+      <c r="C59" s="5"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -6965,9 +7903,9 @@
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
+      <c r="B60" s="5"/>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
@@ -7329,7 +8267,7 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
+      <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
@@ -7797,7 +8735,7 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
+      <c r="B76" s="5"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -7851,7 +8789,7 @@
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
-      <c r="D77" s="4"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -8319,7 +9257,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="D86" s="4"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -9149,7 +10087,7 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="5"/>
+      <c r="B102" s="3"/>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
@@ -9253,7 +10191,7 @@
     </row>
     <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
-      <c r="B104" s="5"/>
+      <c r="B104" s="3"/>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
@@ -9617,7 +10555,7 @@
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
+      <c r="B111" s="5"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -9721,7 +10659,7 @@
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
+      <c r="B113" s="5"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -11803,7 +12741,7 @@
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
-      <c r="D153" s="4"/>
+      <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
       <c r="G153" s="3"/>
@@ -12061,7 +12999,7 @@
     </row>
     <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
-      <c r="B158" s="5"/>
+      <c r="B158" s="3"/>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
       <c r="E158" s="3"/>
@@ -12271,7 +13209,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="3"/>
+      <c r="D162" s="4"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -12529,7 +13467,7 @@
     </row>
     <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="B167" s="3"/>
+      <c r="B167" s="5"/>
       <c r="C167" s="3"/>
       <c r="D167" s="3"/>
       <c r="E167" s="3"/>
@@ -13205,7 +14143,7 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="B180" s="4"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -13465,8 +14403,8 @@
     </row>
     <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
-      <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
       <c r="D185" s="3"/>
       <c r="E185" s="3"/>
       <c r="F185" s="3"/>
@@ -13673,7 +14611,7 @@
     </row>
     <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="4"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -13933,8 +14871,8 @@
     </row>
     <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
-      <c r="B194" s="3"/>
-      <c r="C194" s="3"/>
+      <c r="B194" s="4"/>
+      <c r="C194" s="4"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -15909,9 +16847,9 @@
     </row>
     <row r="232" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
-      <c r="B232" s="4"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="4"/>
+      <c r="B232" s="3"/>
+      <c r="C232" s="3"/>
+      <c r="D232" s="3"/>
       <c r="E232" s="3"/>
       <c r="F232" s="3"/>
       <c r="G232" s="3"/>
@@ -15959,6 +16897,474 @@
       <c r="AW232" s="3"/>
       <c r="AX232" s="7"/>
     </row>
+    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A233" s="3"/>
+      <c r="B233" s="3"/>
+      <c r="C233" s="3"/>
+      <c r="D233" s="3"/>
+      <c r="E233" s="3"/>
+      <c r="F233" s="3"/>
+      <c r="G233" s="3"/>
+      <c r="H233" s="3"/>
+      <c r="I233" s="3"/>
+      <c r="J233" s="3"/>
+      <c r="K233" s="3"/>
+      <c r="L233" s="3"/>
+      <c r="M233" s="3"/>
+      <c r="N233" s="3"/>
+      <c r="O233" s="3"/>
+      <c r="P233" s="3"/>
+      <c r="Q233" s="3"/>
+      <c r="R233" s="3"/>
+      <c r="S233" s="3"/>
+      <c r="T233" s="3"/>
+      <c r="U233" s="3"/>
+      <c r="V233" s="3"/>
+      <c r="W233" s="3"/>
+      <c r="X233" s="3"/>
+      <c r="Y233" s="3"/>
+      <c r="Z233" s="3"/>
+      <c r="AA233" s="3"/>
+      <c r="AB233" s="3"/>
+      <c r="AC233" s="3"/>
+      <c r="AD233" s="3"/>
+      <c r="AE233" s="3"/>
+      <c r="AF233" s="3"/>
+      <c r="AG233" s="3"/>
+      <c r="AH233" s="3"/>
+      <c r="AI233" s="3"/>
+      <c r="AJ233" s="3"/>
+      <c r="AK233" s="3"/>
+      <c r="AL233" s="3"/>
+      <c r="AM233" s="3"/>
+      <c r="AN233" s="3"/>
+      <c r="AO233" s="3"/>
+      <c r="AP233" s="3"/>
+      <c r="AQ233" s="3"/>
+      <c r="AR233" s="3"/>
+      <c r="AS233" s="3"/>
+      <c r="AT233" s="3"/>
+      <c r="AU233" s="3"/>
+      <c r="AV233" s="3"/>
+      <c r="AW233" s="3"/>
+      <c r="AX233" s="7"/>
+    </row>
+    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A234" s="3"/>
+      <c r="B234" s="3"/>
+      <c r="C234" s="3"/>
+      <c r="D234" s="3"/>
+      <c r="E234" s="3"/>
+      <c r="F234" s="3"/>
+      <c r="G234" s="3"/>
+      <c r="H234" s="3"/>
+      <c r="I234" s="3"/>
+      <c r="J234" s="3"/>
+      <c r="K234" s="3"/>
+      <c r="L234" s="3"/>
+      <c r="M234" s="3"/>
+      <c r="N234" s="3"/>
+      <c r="O234" s="3"/>
+      <c r="P234" s="3"/>
+      <c r="Q234" s="3"/>
+      <c r="R234" s="3"/>
+      <c r="S234" s="3"/>
+      <c r="T234" s="3"/>
+      <c r="U234" s="3"/>
+      <c r="V234" s="3"/>
+      <c r="W234" s="3"/>
+      <c r="X234" s="3"/>
+      <c r="Y234" s="3"/>
+      <c r="Z234" s="3"/>
+      <c r="AA234" s="3"/>
+      <c r="AB234" s="3"/>
+      <c r="AC234" s="3"/>
+      <c r="AD234" s="3"/>
+      <c r="AE234" s="3"/>
+      <c r="AF234" s="3"/>
+      <c r="AG234" s="3"/>
+      <c r="AH234" s="3"/>
+      <c r="AI234" s="3"/>
+      <c r="AJ234" s="3"/>
+      <c r="AK234" s="3"/>
+      <c r="AL234" s="3"/>
+      <c r="AM234" s="3"/>
+      <c r="AN234" s="3"/>
+      <c r="AO234" s="3"/>
+      <c r="AP234" s="3"/>
+      <c r="AQ234" s="3"/>
+      <c r="AR234" s="3"/>
+      <c r="AS234" s="3"/>
+      <c r="AT234" s="3"/>
+      <c r="AU234" s="3"/>
+      <c r="AV234" s="3"/>
+      <c r="AW234" s="3"/>
+      <c r="AX234" s="7"/>
+    </row>
+    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A235" s="3"/>
+      <c r="B235" s="3"/>
+      <c r="C235" s="3"/>
+      <c r="D235" s="3"/>
+      <c r="E235" s="3"/>
+      <c r="F235" s="3"/>
+      <c r="G235" s="3"/>
+      <c r="H235" s="3"/>
+      <c r="I235" s="3"/>
+      <c r="J235" s="3"/>
+      <c r="K235" s="3"/>
+      <c r="L235" s="3"/>
+      <c r="M235" s="3"/>
+      <c r="N235" s="3"/>
+      <c r="O235" s="3"/>
+      <c r="P235" s="3"/>
+      <c r="Q235" s="3"/>
+      <c r="R235" s="3"/>
+      <c r="S235" s="3"/>
+      <c r="T235" s="3"/>
+      <c r="U235" s="3"/>
+      <c r="V235" s="3"/>
+      <c r="W235" s="3"/>
+      <c r="X235" s="3"/>
+      <c r="Y235" s="3"/>
+      <c r="Z235" s="3"/>
+      <c r="AA235" s="3"/>
+      <c r="AB235" s="3"/>
+      <c r="AC235" s="3"/>
+      <c r="AD235" s="3"/>
+      <c r="AE235" s="3"/>
+      <c r="AF235" s="3"/>
+      <c r="AG235" s="3"/>
+      <c r="AH235" s="3"/>
+      <c r="AI235" s="3"/>
+      <c r="AJ235" s="3"/>
+      <c r="AK235" s="3"/>
+      <c r="AL235" s="3"/>
+      <c r="AM235" s="3"/>
+      <c r="AN235" s="3"/>
+      <c r="AO235" s="3"/>
+      <c r="AP235" s="3"/>
+      <c r="AQ235" s="3"/>
+      <c r="AR235" s="3"/>
+      <c r="AS235" s="3"/>
+      <c r="AT235" s="3"/>
+      <c r="AU235" s="3"/>
+      <c r="AV235" s="3"/>
+      <c r="AW235" s="3"/>
+      <c r="AX235" s="7"/>
+    </row>
+    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A236" s="3"/>
+      <c r="B236" s="3"/>
+      <c r="C236" s="3"/>
+      <c r="D236" s="3"/>
+      <c r="E236" s="3"/>
+      <c r="F236" s="3"/>
+      <c r="G236" s="3"/>
+      <c r="H236" s="3"/>
+      <c r="I236" s="3"/>
+      <c r="J236" s="3"/>
+      <c r="K236" s="3"/>
+      <c r="L236" s="3"/>
+      <c r="M236" s="3"/>
+      <c r="N236" s="3"/>
+      <c r="O236" s="3"/>
+      <c r="P236" s="3"/>
+      <c r="Q236" s="3"/>
+      <c r="R236" s="3"/>
+      <c r="S236" s="3"/>
+      <c r="T236" s="3"/>
+      <c r="U236" s="3"/>
+      <c r="V236" s="3"/>
+      <c r="W236" s="3"/>
+      <c r="X236" s="3"/>
+      <c r="Y236" s="3"/>
+      <c r="Z236" s="3"/>
+      <c r="AA236" s="3"/>
+      <c r="AB236" s="3"/>
+      <c r="AC236" s="3"/>
+      <c r="AD236" s="3"/>
+      <c r="AE236" s="3"/>
+      <c r="AF236" s="3"/>
+      <c r="AG236" s="3"/>
+      <c r="AH236" s="3"/>
+      <c r="AI236" s="3"/>
+      <c r="AJ236" s="3"/>
+      <c r="AK236" s="3"/>
+      <c r="AL236" s="3"/>
+      <c r="AM236" s="3"/>
+      <c r="AN236" s="3"/>
+      <c r="AO236" s="3"/>
+      <c r="AP236" s="3"/>
+      <c r="AQ236" s="3"/>
+      <c r="AR236" s="3"/>
+      <c r="AS236" s="3"/>
+      <c r="AT236" s="3"/>
+      <c r="AU236" s="3"/>
+      <c r="AV236" s="3"/>
+      <c r="AW236" s="3"/>
+      <c r="AX236" s="7"/>
+    </row>
+    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A237" s="3"/>
+      <c r="B237" s="3"/>
+      <c r="C237" s="3"/>
+      <c r="D237" s="3"/>
+      <c r="E237" s="3"/>
+      <c r="F237" s="3"/>
+      <c r="G237" s="3"/>
+      <c r="H237" s="3"/>
+      <c r="I237" s="3"/>
+      <c r="J237" s="3"/>
+      <c r="K237" s="3"/>
+      <c r="L237" s="3"/>
+      <c r="M237" s="3"/>
+      <c r="N237" s="3"/>
+      <c r="O237" s="3"/>
+      <c r="P237" s="3"/>
+      <c r="Q237" s="3"/>
+      <c r="R237" s="3"/>
+      <c r="S237" s="3"/>
+      <c r="T237" s="3"/>
+      <c r="U237" s="3"/>
+      <c r="V237" s="3"/>
+      <c r="W237" s="3"/>
+      <c r="X237" s="3"/>
+      <c r="Y237" s="3"/>
+      <c r="Z237" s="3"/>
+      <c r="AA237" s="3"/>
+      <c r="AB237" s="3"/>
+      <c r="AC237" s="3"/>
+      <c r="AD237" s="3"/>
+      <c r="AE237" s="3"/>
+      <c r="AF237" s="3"/>
+      <c r="AG237" s="3"/>
+      <c r="AH237" s="3"/>
+      <c r="AI237" s="3"/>
+      <c r="AJ237" s="3"/>
+      <c r="AK237" s="3"/>
+      <c r="AL237" s="3"/>
+      <c r="AM237" s="3"/>
+      <c r="AN237" s="3"/>
+      <c r="AO237" s="3"/>
+      <c r="AP237" s="3"/>
+      <c r="AQ237" s="3"/>
+      <c r="AR237" s="3"/>
+      <c r="AS237" s="3"/>
+      <c r="AT237" s="3"/>
+      <c r="AU237" s="3"/>
+      <c r="AV237" s="3"/>
+      <c r="AW237" s="3"/>
+      <c r="AX237" s="7"/>
+    </row>
+    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A238" s="3"/>
+      <c r="B238" s="3"/>
+      <c r="C238" s="3"/>
+      <c r="D238" s="3"/>
+      <c r="E238" s="3"/>
+      <c r="F238" s="3"/>
+      <c r="G238" s="3"/>
+      <c r="H238" s="3"/>
+      <c r="I238" s="3"/>
+      <c r="J238" s="3"/>
+      <c r="K238" s="3"/>
+      <c r="L238" s="3"/>
+      <c r="M238" s="3"/>
+      <c r="N238" s="3"/>
+      <c r="O238" s="3"/>
+      <c r="P238" s="3"/>
+      <c r="Q238" s="3"/>
+      <c r="R238" s="3"/>
+      <c r="S238" s="3"/>
+      <c r="T238" s="3"/>
+      <c r="U238" s="3"/>
+      <c r="V238" s="3"/>
+      <c r="W238" s="3"/>
+      <c r="X238" s="3"/>
+      <c r="Y238" s="3"/>
+      <c r="Z238" s="3"/>
+      <c r="AA238" s="3"/>
+      <c r="AB238" s="3"/>
+      <c r="AC238" s="3"/>
+      <c r="AD238" s="3"/>
+      <c r="AE238" s="3"/>
+      <c r="AF238" s="3"/>
+      <c r="AG238" s="3"/>
+      <c r="AH238" s="3"/>
+      <c r="AI238" s="3"/>
+      <c r="AJ238" s="3"/>
+      <c r="AK238" s="3"/>
+      <c r="AL238" s="3"/>
+      <c r="AM238" s="3"/>
+      <c r="AN238" s="3"/>
+      <c r="AO238" s="3"/>
+      <c r="AP238" s="3"/>
+      <c r="AQ238" s="3"/>
+      <c r="AR238" s="3"/>
+      <c r="AS238" s="3"/>
+      <c r="AT238" s="3"/>
+      <c r="AU238" s="3"/>
+      <c r="AV238" s="3"/>
+      <c r="AW238" s="3"/>
+      <c r="AX238" s="7"/>
+    </row>
+    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A239" s="3"/>
+      <c r="B239" s="3"/>
+      <c r="C239" s="3"/>
+      <c r="D239" s="3"/>
+      <c r="E239" s="3"/>
+      <c r="F239" s="3"/>
+      <c r="G239" s="3"/>
+      <c r="H239" s="3"/>
+      <c r="I239" s="3"/>
+      <c r="J239" s="3"/>
+      <c r="K239" s="3"/>
+      <c r="L239" s="3"/>
+      <c r="M239" s="3"/>
+      <c r="N239" s="3"/>
+      <c r="O239" s="3"/>
+      <c r="P239" s="3"/>
+      <c r="Q239" s="3"/>
+      <c r="R239" s="3"/>
+      <c r="S239" s="3"/>
+      <c r="T239" s="3"/>
+      <c r="U239" s="3"/>
+      <c r="V239" s="3"/>
+      <c r="W239" s="3"/>
+      <c r="X239" s="3"/>
+      <c r="Y239" s="3"/>
+      <c r="Z239" s="3"/>
+      <c r="AA239" s="3"/>
+      <c r="AB239" s="3"/>
+      <c r="AC239" s="3"/>
+      <c r="AD239" s="3"/>
+      <c r="AE239" s="3"/>
+      <c r="AF239" s="3"/>
+      <c r="AG239" s="3"/>
+      <c r="AH239" s="3"/>
+      <c r="AI239" s="3"/>
+      <c r="AJ239" s="3"/>
+      <c r="AK239" s="3"/>
+      <c r="AL239" s="3"/>
+      <c r="AM239" s="3"/>
+      <c r="AN239" s="3"/>
+      <c r="AO239" s="3"/>
+      <c r="AP239" s="3"/>
+      <c r="AQ239" s="3"/>
+      <c r="AR239" s="3"/>
+      <c r="AS239" s="3"/>
+      <c r="AT239" s="3"/>
+      <c r="AU239" s="3"/>
+      <c r="AV239" s="3"/>
+      <c r="AW239" s="3"/>
+      <c r="AX239" s="7"/>
+    </row>
+    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A240" s="3"/>
+      <c r="B240" s="3"/>
+      <c r="C240" s="3"/>
+      <c r="D240" s="3"/>
+      <c r="E240" s="3"/>
+      <c r="F240" s="3"/>
+      <c r="G240" s="3"/>
+      <c r="H240" s="3"/>
+      <c r="I240" s="3"/>
+      <c r="J240" s="3"/>
+      <c r="K240" s="3"/>
+      <c r="L240" s="3"/>
+      <c r="M240" s="3"/>
+      <c r="N240" s="3"/>
+      <c r="O240" s="3"/>
+      <c r="P240" s="3"/>
+      <c r="Q240" s="3"/>
+      <c r="R240" s="3"/>
+      <c r="S240" s="3"/>
+      <c r="T240" s="3"/>
+      <c r="U240" s="3"/>
+      <c r="V240" s="3"/>
+      <c r="W240" s="3"/>
+      <c r="X240" s="3"/>
+      <c r="Y240" s="3"/>
+      <c r="Z240" s="3"/>
+      <c r="AA240" s="3"/>
+      <c r="AB240" s="3"/>
+      <c r="AC240" s="3"/>
+      <c r="AD240" s="3"/>
+      <c r="AE240" s="3"/>
+      <c r="AF240" s="3"/>
+      <c r="AG240" s="3"/>
+      <c r="AH240" s="3"/>
+      <c r="AI240" s="3"/>
+      <c r="AJ240" s="3"/>
+      <c r="AK240" s="3"/>
+      <c r="AL240" s="3"/>
+      <c r="AM240" s="3"/>
+      <c r="AN240" s="3"/>
+      <c r="AO240" s="3"/>
+      <c r="AP240" s="3"/>
+      <c r="AQ240" s="3"/>
+      <c r="AR240" s="3"/>
+      <c r="AS240" s="3"/>
+      <c r="AT240" s="3"/>
+      <c r="AU240" s="3"/>
+      <c r="AV240" s="3"/>
+      <c r="AW240" s="3"/>
+      <c r="AX240" s="7"/>
+    </row>
+    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A241" s="3"/>
+      <c r="B241" s="4"/>
+      <c r="C241" s="4"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="3"/>
+      <c r="F241" s="3"/>
+      <c r="G241" s="3"/>
+      <c r="H241" s="3"/>
+      <c r="I241" s="3"/>
+      <c r="J241" s="3"/>
+      <c r="K241" s="3"/>
+      <c r="L241" s="3"/>
+      <c r="M241" s="3"/>
+      <c r="N241" s="3"/>
+      <c r="O241" s="3"/>
+      <c r="P241" s="3"/>
+      <c r="Q241" s="3"/>
+      <c r="R241" s="3"/>
+      <c r="S241" s="3"/>
+      <c r="T241" s="3"/>
+      <c r="U241" s="3"/>
+      <c r="V241" s="3"/>
+      <c r="W241" s="3"/>
+      <c r="X241" s="3"/>
+      <c r="Y241" s="3"/>
+      <c r="Z241" s="3"/>
+      <c r="AA241" s="3"/>
+      <c r="AB241" s="3"/>
+      <c r="AC241" s="3"/>
+      <c r="AD241" s="3"/>
+      <c r="AE241" s="3"/>
+      <c r="AF241" s="3"/>
+      <c r="AG241" s="3"/>
+      <c r="AH241" s="3"/>
+      <c r="AI241" s="3"/>
+      <c r="AJ241" s="3"/>
+      <c r="AK241" s="3"/>
+      <c r="AL241" s="3"/>
+      <c r="AM241" s="3"/>
+      <c r="AN241" s="3"/>
+      <c r="AO241" s="3"/>
+      <c r="AP241" s="3"/>
+      <c r="AQ241" s="3"/>
+      <c r="AR241" s="3"/>
+      <c r="AS241" s="3"/>
+      <c r="AT241" s="3"/>
+      <c r="AU241" s="3"/>
+      <c r="AV241" s="3"/>
+      <c r="AW241" s="3"/>
+      <c r="AX241" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1025,9 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX241"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="AT31" sqref="AT31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1583,7 +1583,7 @@
         <v>-1</v>
       </c>
       <c r="AG5" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH5" s="3">
         <v>0</v>
@@ -1622,7 +1622,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AU5" s="3">
         <v>-1</v>
@@ -1879,7 +1879,7 @@
         <v>-1</v>
       </c>
       <c r="AG7" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AU7" s="3">
         <v>-1</v>
@@ -2619,7 +2619,7 @@
         <v>-1</v>
       </c>
       <c r="AG12" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH12" s="3">
         <v>50</v>
@@ -2658,7 +2658,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="3">
-        <v>60</v>
+        <v>300</v>
       </c>
       <c r="AU12" s="3">
         <v>-1</v>
@@ -2915,7 +2915,7 @@
         <v>-1</v>
       </c>
       <c r="AG14" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH14" s="3">
         <v>0</v>
@@ -5467,7 +5467,7 @@
         <v>0</v>
       </c>
       <c r="AS31" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AT31" s="3">
         <v>250</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -1025,9 +1025,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX241"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT31" sqref="AT31"/>
+      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2957,7 +2957,7 @@
         <v>500</v>
       </c>
       <c r="AU14" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="AV14" s="3">
         <v>0</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -327,9 +327,6 @@
     <t>扫叶剑法</t>
   </si>
   <si>
-    <t>莫穿林的独门绝学</t>
-  </si>
-  <si>
     <t>玉石榴酒</t>
   </si>
   <si>
@@ -340,9 +337,6 @@
   </si>
   <si>
     <t>烛影剑</t>
-  </si>
-  <si>
-    <t>刘灯剑的佩剑</t>
   </si>
   <si>
     <t>碧玉头盔</t>
@@ -547,10 +541,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刘灯剑的独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>刘灯剑随身携带钥匙</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -576,6 +566,54 @@
   </si>
   <si>
     <t>罂粟谷所制之解毒丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>松风剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>手工馒头，可提升体力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罗汉拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫桥山庄入门武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶恩寺入门武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑佩剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫穿林独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头岭独门武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角拳</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1023,11 +1061,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX241"/>
+  <dimension ref="A1:AX246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,7 +1534,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1640,11 +1678,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
@@ -1785,17 +1823,17 @@
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>20</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>105</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>173</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>168</v>
+        <v>100</v>
       </c>
       <c r="E7" s="3">
-        <v>20</v>
+        <v>-1</v>
       </c>
       <c r="F7" s="3">
         <v>-1</v>
@@ -1804,7 +1842,7 @@
         <v>-1</v>
       </c>
       <c r="H7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" s="3">
         <v>0</v>
@@ -1819,7 +1857,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N7" s="3">
         <v>0</v>
@@ -1852,7 +1890,7 @@
         <v>0</v>
       </c>
       <c r="X7" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y7" s="3">
         <v>0</v>
@@ -1876,10 +1914,10 @@
         <v>0</v>
       </c>
       <c r="AF7" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG7" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH7" s="3">
         <v>0</v>
@@ -1903,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AO7" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP7" s="3">
         <v>0</v>
@@ -1918,7 +1956,7 @@
         <v>0</v>
       </c>
       <c r="AT7" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AU7" s="3">
         <v>-1</v>
@@ -1929,30 +1967,30 @@
       <c r="AW7" s="3">
         <v>-1</v>
       </c>
-      <c r="AX7" s="6"/>
+      <c r="AX7" s="7"/>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>21</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>174</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>107</v>
+        <v>178</v>
       </c>
       <c r="E8" s="3">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F8" s="3">
         <v>-1</v>
       </c>
       <c r="G8" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H8" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" s="3">
         <v>0</v>
@@ -1967,7 +2005,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N8" s="3">
         <v>0</v>
@@ -1976,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="3">
         <v>0</v>
@@ -2000,7 +2038,7 @@
         <v>0</v>
       </c>
       <c r="X8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y8" s="3">
         <v>0</v>
@@ -2027,13 +2065,13 @@
         <v>-1</v>
       </c>
       <c r="AG8" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH8" s="3">
         <v>0</v>
       </c>
       <c r="AI8" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="3">
         <v>0</v>
@@ -2066,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AU8" s="3">
         <v>-1</v>
@@ -2077,30 +2115,30 @@
       <c r="AW8" s="3">
         <v>-1</v>
       </c>
-      <c r="AX8" s="7"/>
+      <c r="AX8" s="6"/>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>22</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>108</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>109</v>
+        <v>180</v>
       </c>
       <c r="E9" s="3">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F9" s="3">
         <v>-1</v>
       </c>
       <c r="G9" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I9" s="3">
         <v>0</v>
@@ -2115,7 +2153,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N9" s="3">
         <v>0</v>
@@ -2130,7 +2168,7 @@
         <v>0</v>
       </c>
       <c r="R9" s="3">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="S9" s="3">
         <v>0</v>
@@ -2148,7 +2186,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -2175,7 +2213,7 @@
         <v>-1</v>
       </c>
       <c r="AG9" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -2199,7 +2237,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP9" s="3">
         <v>0</v>
@@ -2214,7 +2252,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AU9" s="3">
         <v>-1</v>
@@ -2225,18 +2263,18 @@
       <c r="AW9" s="3">
         <v>-1</v>
       </c>
-      <c r="AX9" s="7"/>
+      <c r="AX9" s="6"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2245,10 +2283,10 @@
         <v>-1</v>
       </c>
       <c r="G10" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I10" s="3">
         <v>0</v>
@@ -2272,7 +2310,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -2320,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="AF10" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG10" s="3">
         <v>0</v>
@@ -2329,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
@@ -2347,7 +2385,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP10" s="3">
         <v>0</v>
@@ -2377,14 +2415,14 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E11" s="3">
         <v>-1</v>
@@ -2393,13 +2431,13 @@
         <v>-1</v>
       </c>
       <c r="G11" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H11" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I11" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J11" s="3">
         <v>0</v>
@@ -2426,7 +2464,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -2468,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG11" s="3">
         <v>0</v>
@@ -2525,17 +2563,17 @@
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>112</v>
+        <v>165</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>113</v>
+        <v>166</v>
       </c>
       <c r="E12" s="3">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="F12" s="3">
         <v>-1</v>
@@ -2544,7 +2582,7 @@
         <v>-1</v>
       </c>
       <c r="H12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2559,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="M12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="3">
         <v>0</v>
@@ -2577,7 +2615,7 @@
         <v>0</v>
       </c>
       <c r="S12" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T12" s="3">
         <v>0</v>
@@ -2616,13 +2654,13 @@
         <v>0</v>
       </c>
       <c r="AF12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG12" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH12" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI12" s="3">
         <v>0</v>
@@ -2640,7 +2678,7 @@
         <v>0</v>
       </c>
       <c r="AN12" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="3">
         <v>0</v>
@@ -2658,7 +2696,7 @@
         <v>0</v>
       </c>
       <c r="AT12" s="3">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="AU12" s="3">
         <v>-1</v>
@@ -2673,14 +2711,14 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -2689,13 +2727,13 @@
         <v>-1</v>
       </c>
       <c r="G13" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H13" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2722,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -2734,7 +2772,7 @@
         <v>0</v>
       </c>
       <c r="V13" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W13" s="3">
         <v>0</v>
@@ -2764,7 +2802,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG13" s="3">
         <v>0</v>
@@ -2821,17 +2859,17 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E14" s="3">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F14" s="3">
         <v>-1</v>
@@ -2846,7 +2884,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -2855,25 +2893,25 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
       </c>
       <c r="O14" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R14" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -2918,7 +2956,7 @@
         <v>2</v>
       </c>
       <c r="AH14" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI14" s="3">
         <v>0</v>
@@ -2936,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO14" s="3">
         <v>0</v>
@@ -2954,7 +2992,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="3">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AU14" s="3">
         <v>-1</v>
@@ -2969,14 +3007,14 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -2985,13 +3023,13 @@
         <v>-1</v>
       </c>
       <c r="G15" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H15" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I15" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -3018,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -3030,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -3060,7 +3098,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG15" s="3">
         <v>0</v>
@@ -3117,14 +3155,14 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="E16" s="3">
         <v>-1</v>
@@ -3133,16 +3171,16 @@
         <v>-1</v>
       </c>
       <c r="G16" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H16" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="3">
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -3157,16 +3195,16 @@
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P16" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R16" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S16" s="3">
         <v>0</v>
@@ -3211,13 +3249,13 @@
         <v>-1</v>
       </c>
       <c r="AG16" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH16" s="3">
         <v>0</v>
       </c>
       <c r="AI16" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="3">
         <v>0</v>
@@ -3238,7 +3276,7 @@
         <v>0</v>
       </c>
       <c r="AP16" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ16" s="3">
         <v>0</v>
@@ -3250,7 +3288,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU16" s="3">
         <v>-1</v>
@@ -3265,26 +3303,26 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>42</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>156</v>
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C17" s="4"/>
-      <c r="D17" s="5" t="s">
-        <v>161</v>
+      <c r="D17" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E17" s="3">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="F17" s="3">
         <v>-1</v>
       </c>
       <c r="G17" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H17" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3299,7 +3337,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -3308,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="3">
         <v>0</v>
@@ -3332,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="X17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
@@ -3359,13 +3397,13 @@
         <v>-1</v>
       </c>
       <c r="AG17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
       </c>
       <c r="AI17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="3">
         <v>0</v>
@@ -3398,7 +3436,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AU17" s="3">
         <v>-1</v>
@@ -3409,18 +3447,18 @@
       <c r="AW17" s="3">
         <v>-1</v>
       </c>
-      <c r="AX17" s="7"/>
+      <c r="AX17" s="6"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>157</v>
+        <v>116</v>
       </c>
       <c r="C18" s="4"/>
-      <c r="D18" s="5" t="s">
-        <v>162</v>
+      <c r="D18" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -3429,13 +3467,13 @@
         <v>-1</v>
       </c>
       <c r="G18" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H18" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -3456,7 +3494,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q18" s="3">
         <v>0</v>
@@ -3504,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="AF18" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG18" s="3">
         <v>0</v>
@@ -3513,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="AI18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="3">
         <v>0</v>
@@ -3534,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ18" s="3">
         <v>0</v>
@@ -3561,14 +3599,14 @@
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>158</v>
+        <v>118</v>
       </c>
       <c r="C19" s="4"/>
-      <c r="D19" s="5" t="s">
-        <v>166</v>
+      <c r="D19" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -3604,7 +3642,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -3661,7 +3699,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
@@ -3682,10 +3720,10 @@
         <v>0</v>
       </c>
       <c r="AP19" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ19" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR19" s="3">
         <v>0</v>
@@ -3709,15 +3747,15 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4" t="s">
-        <v>160</v>
-      </c>
       <c r="E20" s="3">
         <v>-1</v>
       </c>
@@ -3725,7 +3763,7 @@
         <v>-1</v>
       </c>
       <c r="G20" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="3">
         <v>1</v>
@@ -3752,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
       <c r="R20" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S20" s="3">
         <v>0</v>
@@ -3809,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
@@ -3827,7 +3865,7 @@
         <v>0</v>
       </c>
       <c r="AO20" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP20" s="3">
         <v>0</v>
@@ -3857,14 +3895,14 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>155</v>
+        <v>160</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -3900,7 +3938,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -3975,10 +4013,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="3">
         <v>20</v>
-      </c>
-      <c r="AP21" s="3">
-        <v>0</v>
       </c>
       <c r="AQ21" s="3">
         <v>0</v>
@@ -4005,15 +4043,15 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>165</v>
-      </c>
       <c r="E22" s="3">
         <v>-1</v>
       </c>
@@ -4021,7 +4059,7 @@
         <v>-1</v>
       </c>
       <c r="G22" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H22" s="3">
         <v>1</v>
@@ -4048,65 +4086,65 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
       </c>
       <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
+        <v>0</v>
+      </c>
+      <c r="W22" s="3">
+        <v>0</v>
+      </c>
+      <c r="X22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="3">
         <v>20</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
-        <v>0</v>
-      </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
-      <c r="W22" s="3">
-        <v>0</v>
-      </c>
-      <c r="X22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI22" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ22" s="3">
         <v>0</v>
       </c>
@@ -4129,7 +4167,7 @@
         <v>0</v>
       </c>
       <c r="AQ22" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR22" s="3">
         <v>0</v>
@@ -4153,14 +4191,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4169,10 +4207,10 @@
         <v>-1</v>
       </c>
       <c r="G23" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H23" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I23" s="3">
         <v>0</v>
@@ -4202,7 +4240,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -4244,7 +4282,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG23" s="3">
         <v>0</v>
@@ -4301,14 +4339,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>122</v>
+        <v>161</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>123</v>
+      <c r="D24" s="5" t="s">
+        <v>153</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4317,7 +4355,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4344,13 +4382,13 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S24" s="3">
         <v>0</v>
@@ -4401,7 +4439,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
@@ -4419,7 +4457,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP24" s="3">
         <v>0</v>
@@ -4449,14 +4487,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4" t="s">
-        <v>125</v>
+        <v>162</v>
+      </c>
+      <c r="C25" s="5"/>
+      <c r="D25" s="5" t="s">
+        <v>163</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4465,7 +4503,7 @@
         <v>-1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4492,13 +4530,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -4549,7 +4587,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
@@ -4567,7 +4605,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP25" s="3">
         <v>0</v>
@@ -4597,14 +4635,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>126</v>
+        <v>167</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4613,10 +4651,10 @@
         <v>-1</v>
       </c>
       <c r="G26" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4640,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -4688,7 +4726,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG26" s="3">
         <v>0</v>
@@ -4697,7 +4735,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
@@ -4718,7 +4756,7 @@
         <v>0</v>
       </c>
       <c r="AP26" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ26" s="3">
         <v>0</v>
@@ -4745,14 +4783,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4761,28 +4799,28 @@
         <v>-1</v>
       </c>
       <c r="G27" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L27" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M27" s="3">
         <v>0</v>
       </c>
       <c r="N27" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O27" s="3">
         <v>0</v>
@@ -4794,7 +4832,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -4836,7 +4874,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG27" s="3">
         <v>0</v>
@@ -4893,14 +4931,14 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -4909,10 +4947,10 @@
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -4936,7 +4974,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -4984,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="AF28" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG28" s="3">
         <v>0</v>
@@ -4993,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
@@ -5011,7 +5049,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP28" s="3">
         <v>0</v>
@@ -5041,14 +5079,14 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>172</v>
+        <v>124</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>173</v>
+        <v>125</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -5057,19 +5095,19 @@
         <v>-1</v>
       </c>
       <c r="G29" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J29" s="3">
         <v>0</v>
       </c>
       <c r="K29" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L29" s="3">
         <v>0</v>
@@ -5084,7 +5122,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -5135,13 +5173,13 @@
         <v>-1</v>
       </c>
       <c r="AG29" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH29" s="3">
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
@@ -5162,13 +5200,13 @@
         <v>0</v>
       </c>
       <c r="AP29" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ29" s="3">
         <v>0</v>
       </c>
       <c r="AR29" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS29" s="3">
         <v>0</v>
@@ -5189,14 +5227,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>174</v>
+        <v>126</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>175</v>
+        <v>127</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5211,22 +5249,22 @@
         <v>3</v>
       </c>
       <c r="I30" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L30" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O30" s="3">
         <v>0</v>
@@ -5337,14 +5375,14 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -5356,7 +5394,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -5371,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -5383,7 +5421,7 @@
         <v>0</v>
       </c>
       <c r="Q31" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R31" s="3">
         <v>0</v>
@@ -5428,10 +5466,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -5470,7 +5508,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="3">
         <v>-1</v>
@@ -5485,14 +5523,14 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>134</v>
+        <v>169</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>135</v>
+        <v>170</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5504,16 +5542,16 @@
         <v>-1</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -5576,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG32" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH32" s="3">
         <v>0</v>
@@ -5612,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS32" s="3">
         <v>0</v>
@@ -5633,14 +5671,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>110</v>
+        <v>72</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>136</v>
+        <v>171</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="3" t="s">
-        <v>137</v>
+      <c r="D33" s="4" t="s">
+        <v>172</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5661,10 +5699,10 @@
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L33" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
@@ -5781,14 +5819,14 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>120</v>
+        <v>80</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="5" t="s">
-        <v>147</v>
+      <c r="D34" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -5800,10 +5838,10 @@
         <v>-1</v>
       </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J34" s="3">
         <v>0</v>
@@ -5815,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -5827,7 +5865,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R34" s="3">
         <v>0</v>
@@ -5872,10 +5910,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -5914,7 +5952,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU34" s="3">
         <v>-1</v>
@@ -5929,14 +5967,14 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>146</v>
+        <v>175</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="5" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -5957,10 +5995,10 @@
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
@@ -6077,14 +6115,14 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>122</v>
+        <v>90</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="5" t="s">
-        <v>150</v>
+      <c r="D36" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6096,7 +6134,7 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6117,7 +6155,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P36" s="3">
         <v>0</v>
@@ -6225,26 +6263,26 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>140</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>138</v>
+        <v>91</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>139</v>
+        <v>183</v>
       </c>
       <c r="E37" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F37" s="3">
         <v>-1</v>
       </c>
       <c r="G37" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -6259,7 +6297,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -6274,7 +6312,7 @@
         <v>0</v>
       </c>
       <c r="R37" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S37" s="3">
         <v>0</v>
@@ -6292,7 +6330,7 @@
         <v>0</v>
       </c>
       <c r="X37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y37" s="3">
         <v>0</v>
@@ -6343,7 +6381,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP37" s="3">
         <v>0</v>
@@ -6358,7 +6396,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AU37" s="3">
         <v>-1</v>
@@ -6369,18 +6407,18 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="7"/>
+      <c r="AX37" s="6"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>141</v>
+        <v>110</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="4" t="s">
-        <v>141</v>
+      <c r="D38" s="3" t="s">
+        <v>135</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -6392,7 +6430,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6404,7 +6442,7 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M38" s="3">
         <v>0</v>
@@ -6521,14 +6559,14 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>170</v>
+        <v>120</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -6543,10 +6581,10 @@
         <v>3</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K39" s="3">
         <v>0</v>
@@ -6669,14 +6707,14 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>171</v>
+        <v>121</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -6694,10 +6732,10 @@
         <v>0</v>
       </c>
       <c r="J40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -6817,412 +6855,892 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
+        <v>122</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C41" s="4"/>
+      <c r="D41" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H41" s="3">
+        <v>3</v>
+      </c>
+      <c r="I41" s="3">
+        <v>0</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="3">
+        <v>0</v>
+      </c>
+      <c r="L41" s="3">
+        <v>0</v>
+      </c>
+      <c r="M41" s="3">
+        <v>0</v>
+      </c>
+      <c r="N41" s="3">
+        <v>0</v>
+      </c>
+      <c r="O41" s="3">
+        <v>100</v>
+      </c>
+      <c r="P41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="3">
+        <v>0</v>
+      </c>
+      <c r="R41" s="3">
+        <v>0</v>
+      </c>
+      <c r="S41" s="3">
+        <v>0</v>
+      </c>
+      <c r="T41" s="3">
+        <v>0</v>
+      </c>
+      <c r="U41" s="3">
+        <v>0</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="3">
+        <v>0</v>
+      </c>
+      <c r="X41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV41" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX41" s="7"/>
+    </row>
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
+        <v>140</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q42" s="3">
+        <v>0</v>
+      </c>
+      <c r="R42" s="3">
+        <v>10</v>
+      </c>
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG42" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX42" s="7"/>
+    </row>
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
+        <v>141</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H43" s="3">
+        <v>0</v>
+      </c>
+      <c r="I43" s="3">
+        <v>0</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="3">
+        <v>0</v>
+      </c>
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q43" s="3">
+        <v>0</v>
+      </c>
+      <c r="R43" s="3">
+        <v>0</v>
+      </c>
+      <c r="S43" s="3">
+        <v>0</v>
+      </c>
+      <c r="T43" s="3">
+        <v>0</v>
+      </c>
+      <c r="U43" s="3">
+        <v>0</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="3">
+        <v>0</v>
+      </c>
+      <c r="X43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV43" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX43" s="7"/>
+    </row>
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
+        <v>170</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C44" s="4"/>
+      <c r="D44" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H44" s="3">
+        <v>3</v>
+      </c>
+      <c r="I44" s="3">
+        <v>0</v>
+      </c>
+      <c r="J44" s="3">
+        <v>100</v>
+      </c>
+      <c r="K44" s="3">
+        <v>0</v>
+      </c>
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="3">
+        <v>0</v>
+      </c>
+      <c r="X44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV44" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX44" s="7"/>
+    </row>
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
+        <v>171</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="4"/>
+      <c r="D45" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H45" s="3">
+        <v>3</v>
+      </c>
+      <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>10</v>
+      </c>
+      <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+      <c r="R45" s="3">
+        <v>0</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+      <c r="V45" s="3">
+        <v>0</v>
+      </c>
+      <c r="W45" s="3">
+        <v>0</v>
+      </c>
+      <c r="X45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV45" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX45" s="7"/>
+    </row>
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>174</v>
       </c>
-      <c r="B41" s="3" t="s">
+      <c r="B46" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D46" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="C41" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>144</v>
-      </c>
-      <c r="E41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H41" s="3">
-        <v>0</v>
-      </c>
-      <c r="I41" s="3">
-        <v>0</v>
-      </c>
-      <c r="J41" s="3">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3">
-        <v>0</v>
-      </c>
-      <c r="L41" s="3">
-        <v>0</v>
-      </c>
-      <c r="M41" s="3">
-        <v>0</v>
-      </c>
-      <c r="N41" s="3">
-        <v>0</v>
-      </c>
-      <c r="O41" s="3">
-        <v>0</v>
-      </c>
-      <c r="P41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>0</v>
-      </c>
-      <c r="R41" s="3">
-        <v>0</v>
-      </c>
-      <c r="S41" s="3">
-        <v>0</v>
-      </c>
-      <c r="T41" s="3">
-        <v>0</v>
-      </c>
-      <c r="U41" s="3">
-        <v>0</v>
-      </c>
-      <c r="V41" s="3">
-        <v>0</v>
-      </c>
-      <c r="W41" s="3">
-        <v>0</v>
-      </c>
-      <c r="X41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV41" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW41" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX41" s="7"/>
-    </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A42" s="3"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
-      <c r="R42" s="3"/>
-      <c r="S42" s="3"/>
-      <c r="T42" s="3"/>
-      <c r="U42" s="3"/>
-      <c r="V42" s="3"/>
-      <c r="W42" s="3"/>
-      <c r="X42" s="3"/>
-      <c r="Y42" s="3"/>
-      <c r="Z42" s="3"/>
-      <c r="AA42" s="3"/>
-      <c r="AB42" s="3"/>
-      <c r="AC42" s="3"/>
-      <c r="AD42" s="3"/>
-      <c r="AE42" s="3"/>
-      <c r="AF42" s="3"/>
-      <c r="AG42" s="3"/>
-      <c r="AH42" s="3"/>
-      <c r="AI42" s="3"/>
-      <c r="AJ42" s="3"/>
-      <c r="AK42" s="3"/>
-      <c r="AL42" s="3"/>
-      <c r="AM42" s="3"/>
-      <c r="AN42" s="3"/>
-      <c r="AO42" s="3"/>
-      <c r="AP42" s="3"/>
-      <c r="AQ42" s="3"/>
-      <c r="AR42" s="3"/>
-      <c r="AS42" s="3"/>
-      <c r="AT42" s="3"/>
-      <c r="AU42" s="3"/>
-      <c r="AV42" s="3"/>
-      <c r="AW42" s="3"/>
-      <c r="AX42" s="7"/>
-    </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A43" s="3"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
-      <c r="L43" s="3"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
-      <c r="R43" s="3"/>
-      <c r="S43" s="3"/>
-      <c r="T43" s="3"/>
-      <c r="U43" s="3"/>
-      <c r="V43" s="3"/>
-      <c r="W43" s="3"/>
-      <c r="X43" s="3"/>
-      <c r="Y43" s="3"/>
-      <c r="Z43" s="3"/>
-      <c r="AA43" s="3"/>
-      <c r="AB43" s="3"/>
-      <c r="AC43" s="3"/>
-      <c r="AD43" s="3"/>
-      <c r="AE43" s="3"/>
-      <c r="AF43" s="3"/>
-      <c r="AG43" s="3"/>
-      <c r="AH43" s="3"/>
-      <c r="AI43" s="3"/>
-      <c r="AJ43" s="3"/>
-      <c r="AK43" s="3"/>
-      <c r="AL43" s="3"/>
-      <c r="AM43" s="3"/>
-      <c r="AN43" s="3"/>
-      <c r="AO43" s="3"/>
-      <c r="AP43" s="3"/>
-      <c r="AQ43" s="3"/>
-      <c r="AR43" s="3"/>
-      <c r="AS43" s="3"/>
-      <c r="AT43" s="3"/>
-      <c r="AU43" s="3"/>
-      <c r="AV43" s="3"/>
-      <c r="AW43" s="3"/>
-      <c r="AX43" s="7"/>
-    </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A44" s="3"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="3"/>
-      <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
-      <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
-      <c r="K44" s="3"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="3"/>
-      <c r="N44" s="3"/>
-      <c r="O44" s="3"/>
-      <c r="P44" s="3"/>
-      <c r="Q44" s="3"/>
-      <c r="R44" s="3"/>
-      <c r="S44" s="3"/>
-      <c r="T44" s="3"/>
-      <c r="U44" s="3"/>
-      <c r="V44" s="3"/>
-      <c r="W44" s="3"/>
-      <c r="X44" s="3"/>
-      <c r="Y44" s="3"/>
-      <c r="Z44" s="3"/>
-      <c r="AA44" s="3"/>
-      <c r="AB44" s="3"/>
-      <c r="AC44" s="3"/>
-      <c r="AD44" s="3"/>
-      <c r="AE44" s="3"/>
-      <c r="AF44" s="3"/>
-      <c r="AG44" s="3"/>
-      <c r="AH44" s="3"/>
-      <c r="AI44" s="3"/>
-      <c r="AJ44" s="3"/>
-      <c r="AK44" s="3"/>
-      <c r="AL44" s="3"/>
-      <c r="AM44" s="3"/>
-      <c r="AN44" s="3"/>
-      <c r="AO44" s="3"/>
-      <c r="AP44" s="3"/>
-      <c r="AQ44" s="3"/>
-      <c r="AR44" s="3"/>
-      <c r="AS44" s="3"/>
-      <c r="AT44" s="3"/>
-      <c r="AU44" s="3"/>
-      <c r="AV44" s="3"/>
-      <c r="AW44" s="3"/>
-      <c r="AX44" s="7"/>
-    </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A45" s="3"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="3"/>
-      <c r="F45" s="3"/>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-      <c r="I45" s="3"/>
-      <c r="J45" s="3"/>
-      <c r="K45" s="3"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
-      <c r="R45" s="3"/>
-      <c r="S45" s="3"/>
-      <c r="T45" s="3"/>
-      <c r="U45" s="3"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="3"/>
-      <c r="X45" s="3"/>
-      <c r="Y45" s="3"/>
-      <c r="Z45" s="3"/>
-      <c r="AA45" s="3"/>
-      <c r="AB45" s="3"/>
-      <c r="AC45" s="3"/>
-      <c r="AD45" s="3"/>
-      <c r="AE45" s="3"/>
-      <c r="AF45" s="3"/>
-      <c r="AG45" s="3"/>
-      <c r="AH45" s="3"/>
-      <c r="AI45" s="3"/>
-      <c r="AJ45" s="3"/>
-      <c r="AK45" s="3"/>
-      <c r="AL45" s="3"/>
-      <c r="AM45" s="3"/>
-      <c r="AN45" s="3"/>
-      <c r="AO45" s="3"/>
-      <c r="AP45" s="3"/>
-      <c r="AQ45" s="3"/>
-      <c r="AR45" s="3"/>
-      <c r="AS45" s="3"/>
-      <c r="AT45" s="3"/>
-      <c r="AU45" s="3"/>
-      <c r="AV45" s="3"/>
-      <c r="AW45" s="3"/>
-      <c r="AX45" s="7"/>
-    </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A46" s="3"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="3"/>
-      <c r="F46" s="3"/>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
-      <c r="I46" s="3"/>
-      <c r="J46" s="3"/>
-      <c r="K46" s="3"/>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
-      <c r="R46" s="3"/>
-      <c r="S46" s="3"/>
-      <c r="T46" s="3"/>
-      <c r="U46" s="3"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="3"/>
-      <c r="X46" s="3"/>
-      <c r="Y46" s="3"/>
-      <c r="Z46" s="3"/>
-      <c r="AA46" s="3"/>
-      <c r="AB46" s="3"/>
-      <c r="AC46" s="3"/>
-      <c r="AD46" s="3"/>
-      <c r="AE46" s="3"/>
-      <c r="AF46" s="3"/>
-      <c r="AG46" s="3"/>
-      <c r="AH46" s="3"/>
-      <c r="AI46" s="3"/>
-      <c r="AJ46" s="3"/>
-      <c r="AK46" s="3"/>
-      <c r="AL46" s="3"/>
-      <c r="AM46" s="3"/>
-      <c r="AN46" s="3"/>
-      <c r="AO46" s="3"/>
-      <c r="AP46" s="3"/>
-      <c r="AQ46" s="3"/>
-      <c r="AR46" s="3"/>
-      <c r="AS46" s="3"/>
-      <c r="AT46" s="3"/>
-      <c r="AU46" s="3"/>
-      <c r="AV46" s="3"/>
-      <c r="AW46" s="3"/>
+      <c r="E46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>0</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX46" s="7"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
@@ -7333,7 +7851,7 @@
       <c r="A49" s="3"/>
       <c r="B49" s="5"/>
       <c r="C49" s="5"/>
-      <c r="D49" s="4"/>
+      <c r="D49" s="5"/>
       <c r="E49" s="3"/>
       <c r="F49" s="3"/>
       <c r="G49" s="3"/>
@@ -7384,7 +7902,7 @@
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
+      <c r="C50" s="4"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -7436,7 +7954,7 @@
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
+      <c r="C51" s="4"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -7593,7 +8111,7 @@
       <c r="A54" s="3"/>
       <c r="B54" s="5"/>
       <c r="C54" s="5"/>
-      <c r="D54" s="5"/>
+      <c r="D54" s="4"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -7955,9 +8473,9 @@
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
+      <c r="B61" s="5"/>
+      <c r="C61" s="5"/>
+      <c r="D61" s="5"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
@@ -8007,9 +8525,9 @@
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-      <c r="C62" s="3"/>
-      <c r="D62" s="3"/>
+      <c r="B62" s="5"/>
+      <c r="C62" s="5"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -8059,9 +8577,9 @@
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
-      <c r="B63" s="3"/>
-      <c r="C63" s="3"/>
-      <c r="D63" s="3"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="5"/>
       <c r="E63" s="3"/>
       <c r="F63" s="3"/>
       <c r="G63" s="3"/>
@@ -8111,9 +8629,9 @@
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -8163,9 +8681,9 @@
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -8735,7 +9253,7 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
+      <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
@@ -8995,7 +9513,7 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
+      <c r="B81" s="5"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -9257,7 +9775,7 @@
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
-      <c r="D86" s="4"/>
+      <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -9517,7 +10035,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="D91" s="4"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -10555,7 +11073,7 @@
     </row>
     <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
-      <c r="B111" s="5"/>
+      <c r="B111" s="3"/>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
@@ -10659,7 +11177,7 @@
     </row>
     <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
-      <c r="B113" s="5"/>
+      <c r="B113" s="3"/>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
@@ -10815,7 +11333,7 @@
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
+      <c r="B116" s="5"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -10919,7 +11437,7 @@
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
-      <c r="B118" s="3"/>
+      <c r="B118" s="5"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -13209,7 +13727,7 @@
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
-      <c r="D162" s="4"/>
+      <c r="D162" s="3"/>
       <c r="E162" s="3"/>
       <c r="F162" s="3"/>
       <c r="G162" s="3"/>
@@ -13467,9 +13985,9 @@
     </row>
     <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
-      <c r="B167" s="5"/>
+      <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="3"/>
+      <c r="D167" s="4"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -13727,7 +14245,7 @@
     </row>
     <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
-      <c r="B172" s="3"/>
+      <c r="B172" s="5"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -14611,7 +15129,7 @@
     </row>
     <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
-      <c r="B189" s="4"/>
+      <c r="B189" s="3"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -14872,7 +15390,7 @@
     <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
       <c r="F194" s="3"/>
@@ -15131,8 +15649,8 @@
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="3"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -17315,9 +17833,9 @@
     </row>
     <row r="241" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
-      <c r="B241" s="4"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="4"/>
+      <c r="B241" s="3"/>
+      <c r="C241" s="3"/>
+      <c r="D241" s="3"/>
       <c r="E241" s="3"/>
       <c r="F241" s="3"/>
       <c r="G241" s="3"/>
@@ -17365,6 +17883,266 @@
       <c r="AW241" s="3"/>
       <c r="AX241" s="7"/>
     </row>
+    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A242" s="3"/>
+      <c r="B242" s="3"/>
+      <c r="C242" s="3"/>
+      <c r="D242" s="3"/>
+      <c r="E242" s="3"/>
+      <c r="F242" s="3"/>
+      <c r="G242" s="3"/>
+      <c r="H242" s="3"/>
+      <c r="I242" s="3"/>
+      <c r="J242" s="3"/>
+      <c r="K242" s="3"/>
+      <c r="L242" s="3"/>
+      <c r="M242" s="3"/>
+      <c r="N242" s="3"/>
+      <c r="O242" s="3"/>
+      <c r="P242" s="3"/>
+      <c r="Q242" s="3"/>
+      <c r="R242" s="3"/>
+      <c r="S242" s="3"/>
+      <c r="T242" s="3"/>
+      <c r="U242" s="3"/>
+      <c r="V242" s="3"/>
+      <c r="W242" s="3"/>
+      <c r="X242" s="3"/>
+      <c r="Y242" s="3"/>
+      <c r="Z242" s="3"/>
+      <c r="AA242" s="3"/>
+      <c r="AB242" s="3"/>
+      <c r="AC242" s="3"/>
+      <c r="AD242" s="3"/>
+      <c r="AE242" s="3"/>
+      <c r="AF242" s="3"/>
+      <c r="AG242" s="3"/>
+      <c r="AH242" s="3"/>
+      <c r="AI242" s="3"/>
+      <c r="AJ242" s="3"/>
+      <c r="AK242" s="3"/>
+      <c r="AL242" s="3"/>
+      <c r="AM242" s="3"/>
+      <c r="AN242" s="3"/>
+      <c r="AO242" s="3"/>
+      <c r="AP242" s="3"/>
+      <c r="AQ242" s="3"/>
+      <c r="AR242" s="3"/>
+      <c r="AS242" s="3"/>
+      <c r="AT242" s="3"/>
+      <c r="AU242" s="3"/>
+      <c r="AV242" s="3"/>
+      <c r="AW242" s="3"/>
+      <c r="AX242" s="7"/>
+    </row>
+    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A243" s="3"/>
+      <c r="B243" s="3"/>
+      <c r="C243" s="3"/>
+      <c r="D243" s="3"/>
+      <c r="E243" s="3"/>
+      <c r="F243" s="3"/>
+      <c r="G243" s="3"/>
+      <c r="H243" s="3"/>
+      <c r="I243" s="3"/>
+      <c r="J243" s="3"/>
+      <c r="K243" s="3"/>
+      <c r="L243" s="3"/>
+      <c r="M243" s="3"/>
+      <c r="N243" s="3"/>
+      <c r="O243" s="3"/>
+      <c r="P243" s="3"/>
+      <c r="Q243" s="3"/>
+      <c r="R243" s="3"/>
+      <c r="S243" s="3"/>
+      <c r="T243" s="3"/>
+      <c r="U243" s="3"/>
+      <c r="V243" s="3"/>
+      <c r="W243" s="3"/>
+      <c r="X243" s="3"/>
+      <c r="Y243" s="3"/>
+      <c r="Z243" s="3"/>
+      <c r="AA243" s="3"/>
+      <c r="AB243" s="3"/>
+      <c r="AC243" s="3"/>
+      <c r="AD243" s="3"/>
+      <c r="AE243" s="3"/>
+      <c r="AF243" s="3"/>
+      <c r="AG243" s="3"/>
+      <c r="AH243" s="3"/>
+      <c r="AI243" s="3"/>
+      <c r="AJ243" s="3"/>
+      <c r="AK243" s="3"/>
+      <c r="AL243" s="3"/>
+      <c r="AM243" s="3"/>
+      <c r="AN243" s="3"/>
+      <c r="AO243" s="3"/>
+      <c r="AP243" s="3"/>
+      <c r="AQ243" s="3"/>
+      <c r="AR243" s="3"/>
+      <c r="AS243" s="3"/>
+      <c r="AT243" s="3"/>
+      <c r="AU243" s="3"/>
+      <c r="AV243" s="3"/>
+      <c r="AW243" s="3"/>
+      <c r="AX243" s="7"/>
+    </row>
+    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A244" s="3"/>
+      <c r="B244" s="3"/>
+      <c r="C244" s="3"/>
+      <c r="D244" s="3"/>
+      <c r="E244" s="3"/>
+      <c r="F244" s="3"/>
+      <c r="G244" s="3"/>
+      <c r="H244" s="3"/>
+      <c r="I244" s="3"/>
+      <c r="J244" s="3"/>
+      <c r="K244" s="3"/>
+      <c r="L244" s="3"/>
+      <c r="M244" s="3"/>
+      <c r="N244" s="3"/>
+      <c r="O244" s="3"/>
+      <c r="P244" s="3"/>
+      <c r="Q244" s="3"/>
+      <c r="R244" s="3"/>
+      <c r="S244" s="3"/>
+      <c r="T244" s="3"/>
+      <c r="U244" s="3"/>
+      <c r="V244" s="3"/>
+      <c r="W244" s="3"/>
+      <c r="X244" s="3"/>
+      <c r="Y244" s="3"/>
+      <c r="Z244" s="3"/>
+      <c r="AA244" s="3"/>
+      <c r="AB244" s="3"/>
+      <c r="AC244" s="3"/>
+      <c r="AD244" s="3"/>
+      <c r="AE244" s="3"/>
+      <c r="AF244" s="3"/>
+      <c r="AG244" s="3"/>
+      <c r="AH244" s="3"/>
+      <c r="AI244" s="3"/>
+      <c r="AJ244" s="3"/>
+      <c r="AK244" s="3"/>
+      <c r="AL244" s="3"/>
+      <c r="AM244" s="3"/>
+      <c r="AN244" s="3"/>
+      <c r="AO244" s="3"/>
+      <c r="AP244" s="3"/>
+      <c r="AQ244" s="3"/>
+      <c r="AR244" s="3"/>
+      <c r="AS244" s="3"/>
+      <c r="AT244" s="3"/>
+      <c r="AU244" s="3"/>
+      <c r="AV244" s="3"/>
+      <c r="AW244" s="3"/>
+      <c r="AX244" s="7"/>
+    </row>
+    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A245" s="3"/>
+      <c r="B245" s="3"/>
+      <c r="C245" s="3"/>
+      <c r="D245" s="3"/>
+      <c r="E245" s="3"/>
+      <c r="F245" s="3"/>
+      <c r="G245" s="3"/>
+      <c r="H245" s="3"/>
+      <c r="I245" s="3"/>
+      <c r="J245" s="3"/>
+      <c r="K245" s="3"/>
+      <c r="L245" s="3"/>
+      <c r="M245" s="3"/>
+      <c r="N245" s="3"/>
+      <c r="O245" s="3"/>
+      <c r="P245" s="3"/>
+      <c r="Q245" s="3"/>
+      <c r="R245" s="3"/>
+      <c r="S245" s="3"/>
+      <c r="T245" s="3"/>
+      <c r="U245" s="3"/>
+      <c r="V245" s="3"/>
+      <c r="W245" s="3"/>
+      <c r="X245" s="3"/>
+      <c r="Y245" s="3"/>
+      <c r="Z245" s="3"/>
+      <c r="AA245" s="3"/>
+      <c r="AB245" s="3"/>
+      <c r="AC245" s="3"/>
+      <c r="AD245" s="3"/>
+      <c r="AE245" s="3"/>
+      <c r="AF245" s="3"/>
+      <c r="AG245" s="3"/>
+      <c r="AH245" s="3"/>
+      <c r="AI245" s="3"/>
+      <c r="AJ245" s="3"/>
+      <c r="AK245" s="3"/>
+      <c r="AL245" s="3"/>
+      <c r="AM245" s="3"/>
+      <c r="AN245" s="3"/>
+      <c r="AO245" s="3"/>
+      <c r="AP245" s="3"/>
+      <c r="AQ245" s="3"/>
+      <c r="AR245" s="3"/>
+      <c r="AS245" s="3"/>
+      <c r="AT245" s="3"/>
+      <c r="AU245" s="3"/>
+      <c r="AV245" s="3"/>
+      <c r="AW245" s="3"/>
+      <c r="AX245" s="7"/>
+    </row>
+    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A246" s="3"/>
+      <c r="B246" s="4"/>
+      <c r="C246" s="4"/>
+      <c r="D246" s="4"/>
+      <c r="E246" s="3"/>
+      <c r="F246" s="3"/>
+      <c r="G246" s="3"/>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+      <c r="J246" s="3"/>
+      <c r="K246" s="3"/>
+      <c r="L246" s="3"/>
+      <c r="M246" s="3"/>
+      <c r="N246" s="3"/>
+      <c r="O246" s="3"/>
+      <c r="P246" s="3"/>
+      <c r="Q246" s="3"/>
+      <c r="R246" s="3"/>
+      <c r="S246" s="3"/>
+      <c r="T246" s="3"/>
+      <c r="U246" s="3"/>
+      <c r="V246" s="3"/>
+      <c r="W246" s="3"/>
+      <c r="X246" s="3"/>
+      <c r="Y246" s="3"/>
+      <c r="Z246" s="3"/>
+      <c r="AA246" s="3"/>
+      <c r="AB246" s="3"/>
+      <c r="AC246" s="3"/>
+      <c r="AD246" s="3"/>
+      <c r="AE246" s="3"/>
+      <c r="AF246" s="3"/>
+      <c r="AG246" s="3"/>
+      <c r="AH246" s="3"/>
+      <c r="AI246" s="3"/>
+      <c r="AJ246" s="3"/>
+      <c r="AK246" s="3"/>
+      <c r="AL246" s="3"/>
+      <c r="AM246" s="3"/>
+      <c r="AN246" s="3"/>
+      <c r="AO246" s="3"/>
+      <c r="AP246" s="3"/>
+      <c r="AQ246" s="3"/>
+      <c r="AR246" s="3"/>
+      <c r="AS246" s="3"/>
+      <c r="AT246" s="3"/>
+      <c r="AU246" s="3"/>
+      <c r="AV246" s="3"/>
+      <c r="AW246" s="3"/>
+      <c r="AX246" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -614,6 +614,30 @@
   </si>
   <si>
     <t>牛角拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊皮护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊皮所制，可增加防御力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊胆固气丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊胆炼制，可恢复内力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>震狼一击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨擎苍独门绝学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1061,11 +1085,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX246"/>
+  <dimension ref="A1:AX249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A37" sqref="A37:XFD37"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7299,17 +7323,17 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>170</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
-        <v>150</v>
+      <c r="D44" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E44" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F44" s="3">
         <v>-1</v>
@@ -7318,13 +7342,13 @@
         <v>-1</v>
       </c>
       <c r="H44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
       </c>
       <c r="J44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K44" s="3">
         <v>0</v>
@@ -7333,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -7363,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -7390,10 +7414,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7414,7 +7438,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO44" s="3">
         <v>0</v>
@@ -7432,7 +7456,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="AU44" s="3">
         <v>-1</v>
@@ -7443,18 +7467,18 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="7"/>
+      <c r="AX44" s="6"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>151</v>
+        <v>185</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="5" t="s">
-        <v>152</v>
+      <c r="D45" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -7463,16 +7487,16 @@
         <v>-1</v>
       </c>
       <c r="G45" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H45" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
       </c>
       <c r="J45" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -7496,7 +7520,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -7538,10 +7562,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -7595,314 +7619,602 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
+        <v>161</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3</v>
+      </c>
+      <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
+        <v>100</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q46" s="3">
+        <v>0</v>
+      </c>
+      <c r="R46" s="3">
+        <v>0</v>
+      </c>
+      <c r="S46" s="3">
+        <v>0</v>
+      </c>
+      <c r="T46" s="3">
+        <v>0</v>
+      </c>
+      <c r="U46" s="3">
+        <v>0</v>
+      </c>
+      <c r="V46" s="3">
+        <v>0</v>
+      </c>
+      <c r="W46" s="3">
+        <v>0</v>
+      </c>
+      <c r="X46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV46" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX46" s="7"/>
+    </row>
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
+        <v>170</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="4"/>
+      <c r="D47" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="E47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H47" s="3">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>100</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+      <c r="X47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV47" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX47" s="7"/>
+    </row>
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
+        <v>171</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C48" s="4"/>
+      <c r="D48" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="E48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H48" s="3">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="3">
+        <v>10</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
+        <v>0</v>
+      </c>
+      <c r="O48" s="3">
+        <v>0</v>
+      </c>
+      <c r="P48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q48" s="3">
+        <v>0</v>
+      </c>
+      <c r="R48" s="3">
+        <v>0</v>
+      </c>
+      <c r="S48" s="3">
+        <v>0</v>
+      </c>
+      <c r="T48" s="3">
+        <v>0</v>
+      </c>
+      <c r="U48" s="3">
+        <v>0</v>
+      </c>
+      <c r="V48" s="3">
+        <v>0</v>
+      </c>
+      <c r="W48" s="3">
+        <v>0</v>
+      </c>
+      <c r="X48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV48" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX48" s="7"/>
+    </row>
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>174</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C46" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="D46" s="4" t="s">
+      <c r="D49" s="4" t="s">
         <v>142</v>
       </c>
-      <c r="E46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="F46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H46" s="3">
-        <v>0</v>
-      </c>
-      <c r="I46" s="3">
-        <v>0</v>
-      </c>
-      <c r="J46" s="3">
-        <v>0</v>
-      </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
-      <c r="L46" s="3">
-        <v>0</v>
-      </c>
-      <c r="M46" s="3">
-        <v>0</v>
-      </c>
-      <c r="N46" s="3">
-        <v>0</v>
-      </c>
-      <c r="O46" s="3">
-        <v>0</v>
-      </c>
-      <c r="P46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q46" s="3">
-        <v>0</v>
-      </c>
-      <c r="R46" s="3">
-        <v>0</v>
-      </c>
-      <c r="S46" s="3">
-        <v>0</v>
-      </c>
-      <c r="T46" s="3">
-        <v>0</v>
-      </c>
-      <c r="U46" s="3">
-        <v>0</v>
-      </c>
-      <c r="V46" s="3">
-        <v>0</v>
-      </c>
-      <c r="W46" s="3">
-        <v>0</v>
-      </c>
-      <c r="X46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y46" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AG46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AU46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV46" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW46" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX46" s="7"/>
-    </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A47" s="3"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
-      <c r="H47" s="3"/>
-      <c r="I47" s="3"/>
-      <c r="J47" s="3"/>
-      <c r="K47" s="3"/>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
-      <c r="R47" s="3"/>
-      <c r="S47" s="3"/>
-      <c r="T47" s="3"/>
-      <c r="U47" s="3"/>
-      <c r="V47" s="3"/>
-      <c r="W47" s="3"/>
-      <c r="X47" s="3"/>
-      <c r="Y47" s="3"/>
-      <c r="Z47" s="3"/>
-      <c r="AA47" s="3"/>
-      <c r="AB47" s="3"/>
-      <c r="AC47" s="3"/>
-      <c r="AD47" s="3"/>
-      <c r="AE47" s="3"/>
-      <c r="AF47" s="3"/>
-      <c r="AG47" s="3"/>
-      <c r="AH47" s="3"/>
-      <c r="AI47" s="3"/>
-      <c r="AJ47" s="3"/>
-      <c r="AK47" s="3"/>
-      <c r="AL47" s="3"/>
-      <c r="AM47" s="3"/>
-      <c r="AN47" s="3"/>
-      <c r="AO47" s="3"/>
-      <c r="AP47" s="3"/>
-      <c r="AQ47" s="3"/>
-      <c r="AR47" s="3"/>
-      <c r="AS47" s="3"/>
-      <c r="AT47" s="3"/>
-      <c r="AU47" s="3"/>
-      <c r="AV47" s="3"/>
-      <c r="AW47" s="3"/>
-      <c r="AX47" s="7"/>
-    </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A48" s="3"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="5"/>
-      <c r="D48" s="5"/>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
-      <c r="H48" s="3"/>
-      <c r="I48" s="3"/>
-      <c r="J48" s="3"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="3"/>
-      <c r="Z48" s="3"/>
-      <c r="AA48" s="3"/>
-      <c r="AB48" s="3"/>
-      <c r="AC48" s="3"/>
-      <c r="AD48" s="3"/>
-      <c r="AE48" s="3"/>
-      <c r="AF48" s="3"/>
-      <c r="AG48" s="3"/>
-      <c r="AH48" s="3"/>
-      <c r="AI48" s="3"/>
-      <c r="AJ48" s="3"/>
-      <c r="AK48" s="3"/>
-      <c r="AL48" s="3"/>
-      <c r="AM48" s="3"/>
-      <c r="AN48" s="3"/>
-      <c r="AO48" s="3"/>
-      <c r="AP48" s="3"/>
-      <c r="AQ48" s="3"/>
-      <c r="AR48" s="3"/>
-      <c r="AS48" s="3"/>
-      <c r="AT48" s="3"/>
-      <c r="AU48" s="3"/>
-      <c r="AV48" s="3"/>
-      <c r="AW48" s="3"/>
-      <c r="AX48" s="7"/>
-    </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A49" s="3"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="5"/>
-      <c r="E49" s="3"/>
-      <c r="F49" s="3"/>
-      <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
-      <c r="J49" s="3"/>
-      <c r="K49" s="3"/>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
-      <c r="R49" s="3"/>
-      <c r="S49" s="3"/>
-      <c r="T49" s="3"/>
-      <c r="U49" s="3"/>
-      <c r="V49" s="3"/>
-      <c r="W49" s="3"/>
-      <c r="X49" s="3"/>
-      <c r="Y49" s="3"/>
-      <c r="Z49" s="3"/>
-      <c r="AA49" s="3"/>
-      <c r="AB49" s="3"/>
-      <c r="AC49" s="3"/>
-      <c r="AD49" s="3"/>
-      <c r="AE49" s="3"/>
-      <c r="AF49" s="3"/>
-      <c r="AG49" s="3"/>
-      <c r="AH49" s="3"/>
-      <c r="AI49" s="3"/>
-      <c r="AJ49" s="3"/>
-      <c r="AK49" s="3"/>
-      <c r="AL49" s="3"/>
-      <c r="AM49" s="3"/>
-      <c r="AN49" s="3"/>
-      <c r="AO49" s="3"/>
-      <c r="AP49" s="3"/>
-      <c r="AQ49" s="3"/>
-      <c r="AR49" s="3"/>
-      <c r="AS49" s="3"/>
-      <c r="AT49" s="3"/>
-      <c r="AU49" s="3"/>
-      <c r="AV49" s="3"/>
-      <c r="AW49" s="3"/>
+      <c r="E49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H49" s="3">
+        <v>0</v>
+      </c>
+      <c r="I49" s="3">
+        <v>0</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+      <c r="W49" s="3">
+        <v>0</v>
+      </c>
+      <c r="X49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU49" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV49" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="5"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -7954,7 +8266,7 @@
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="5"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="3"/>
       <c r="F51" s="3"/>
@@ -8058,7 +8370,7 @@
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="5"/>
-      <c r="C53" s="5"/>
+      <c r="C53" s="4"/>
       <c r="D53" s="5"/>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
@@ -8110,8 +8422,8 @@
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="5"/>
-      <c r="C54" s="5"/>
-      <c r="D54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5"/>
       <c r="E54" s="3"/>
       <c r="F54" s="3"/>
       <c r="G54" s="3"/>
@@ -8267,7 +8579,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
+      <c r="D57" s="4"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -8733,9 +9045,9 @@
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
-      <c r="B66" s="3"/>
-      <c r="C66" s="3"/>
-      <c r="D66" s="3"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="5"/>
+      <c r="D66" s="5"/>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
       <c r="G66" s="3"/>
@@ -8785,9 +9097,9 @@
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
-      <c r="B67" s="3"/>
-      <c r="C67" s="3"/>
-      <c r="D67" s="3"/>
+      <c r="B67" s="5"/>
+      <c r="C67" s="5"/>
+      <c r="D67" s="5"/>
       <c r="E67" s="3"/>
       <c r="F67" s="3"/>
       <c r="G67" s="3"/>
@@ -8837,9 +9149,9 @@
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
-      <c r="B68" s="3"/>
-      <c r="C68" s="3"/>
-      <c r="D68" s="3"/>
+      <c r="B68" s="5"/>
+      <c r="C68" s="5"/>
+      <c r="D68" s="5"/>
       <c r="E68" s="3"/>
       <c r="F68" s="3"/>
       <c r="G68" s="3"/>
@@ -9513,7 +9825,7 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
-      <c r="B81" s="5"/>
+      <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
@@ -9669,7 +9981,7 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
+      <c r="B84" s="5"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -10035,7 +10347,7 @@
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
-      <c r="D91" s="4"/>
+      <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -10191,7 +10503,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="D94" s="4"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11333,7 +11645,7 @@
     </row>
     <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
-      <c r="B116" s="5"/>
+      <c r="B116" s="3"/>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
@@ -11437,7 +11749,7 @@
     </row>
     <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
-      <c r="B118" s="5"/>
+      <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
@@ -11489,7 +11801,7 @@
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
+      <c r="B119" s="5"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -11593,7 +11905,7 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -13987,7 +14299,7 @@
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
-      <c r="D167" s="4"/>
+      <c r="D167" s="3"/>
       <c r="E167" s="3"/>
       <c r="F167" s="3"/>
       <c r="G167" s="3"/>
@@ -14143,7 +14455,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="3"/>
+      <c r="D170" s="4"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -14245,7 +14557,7 @@
     </row>
     <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
-      <c r="B172" s="5"/>
+      <c r="B172" s="3"/>
       <c r="C172" s="3"/>
       <c r="D172" s="3"/>
       <c r="E172" s="3"/>
@@ -14401,7 +14713,7 @@
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="B175" s="3"/>
+      <c r="B175" s="5"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -15389,7 +15701,7 @@
     </row>
     <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
-      <c r="B194" s="4"/>
+      <c r="B194" s="3"/>
       <c r="C194" s="3"/>
       <c r="D194" s="3"/>
       <c r="E194" s="3"/>
@@ -15545,7 +15857,7 @@
     </row>
     <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
-      <c r="B197" s="3"/>
+      <c r="B197" s="4"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -15649,8 +15961,8 @@
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
       <c r="F199" s="3"/>
@@ -15805,8 +16117,8 @@
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
-      <c r="C202" s="3"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -18093,9 +18405,9 @@
     </row>
     <row r="246" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
-      <c r="B246" s="4"/>
-      <c r="C246" s="4"/>
-      <c r="D246" s="4"/>
+      <c r="B246" s="3"/>
+      <c r="C246" s="3"/>
+      <c r="D246" s="3"/>
       <c r="E246" s="3"/>
       <c r="F246" s="3"/>
       <c r="G246" s="3"/>
@@ -18143,6 +18455,162 @@
       <c r="AW246" s="3"/>
       <c r="AX246" s="7"/>
     </row>
+    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="3"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="H247" s="3"/>
+      <c r="I247" s="3"/>
+      <c r="J247" s="3"/>
+      <c r="K247" s="3"/>
+      <c r="L247" s="3"/>
+      <c r="M247" s="3"/>
+      <c r="N247" s="3"/>
+      <c r="O247" s="3"/>
+      <c r="P247" s="3"/>
+      <c r="Q247" s="3"/>
+      <c r="R247" s="3"/>
+      <c r="S247" s="3"/>
+      <c r="T247" s="3"/>
+      <c r="U247" s="3"/>
+      <c r="V247" s="3"/>
+      <c r="W247" s="3"/>
+      <c r="X247" s="3"/>
+      <c r="Y247" s="3"/>
+      <c r="Z247" s="3"/>
+      <c r="AA247" s="3"/>
+      <c r="AB247" s="3"/>
+      <c r="AC247" s="3"/>
+      <c r="AD247" s="3"/>
+      <c r="AE247" s="3"/>
+      <c r="AF247" s="3"/>
+      <c r="AG247" s="3"/>
+      <c r="AH247" s="3"/>
+      <c r="AI247" s="3"/>
+      <c r="AJ247" s="3"/>
+      <c r="AK247" s="3"/>
+      <c r="AL247" s="3"/>
+      <c r="AM247" s="3"/>
+      <c r="AN247" s="3"/>
+      <c r="AO247" s="3"/>
+      <c r="AP247" s="3"/>
+      <c r="AQ247" s="3"/>
+      <c r="AR247" s="3"/>
+      <c r="AS247" s="3"/>
+      <c r="AT247" s="3"/>
+      <c r="AU247" s="3"/>
+      <c r="AV247" s="3"/>
+      <c r="AW247" s="3"/>
+      <c r="AX247" s="7"/>
+    </row>
+    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A248" s="3"/>
+      <c r="B248" s="3"/>
+      <c r="C248" s="3"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="H248" s="3"/>
+      <c r="I248" s="3"/>
+      <c r="J248" s="3"/>
+      <c r="K248" s="3"/>
+      <c r="L248" s="3"/>
+      <c r="M248" s="3"/>
+      <c r="N248" s="3"/>
+      <c r="O248" s="3"/>
+      <c r="P248" s="3"/>
+      <c r="Q248" s="3"/>
+      <c r="R248" s="3"/>
+      <c r="S248" s="3"/>
+      <c r="T248" s="3"/>
+      <c r="U248" s="3"/>
+      <c r="V248" s="3"/>
+      <c r="W248" s="3"/>
+      <c r="X248" s="3"/>
+      <c r="Y248" s="3"/>
+      <c r="Z248" s="3"/>
+      <c r="AA248" s="3"/>
+      <c r="AB248" s="3"/>
+      <c r="AC248" s="3"/>
+      <c r="AD248" s="3"/>
+      <c r="AE248" s="3"/>
+      <c r="AF248" s="3"/>
+      <c r="AG248" s="3"/>
+      <c r="AH248" s="3"/>
+      <c r="AI248" s="3"/>
+      <c r="AJ248" s="3"/>
+      <c r="AK248" s="3"/>
+      <c r="AL248" s="3"/>
+      <c r="AM248" s="3"/>
+      <c r="AN248" s="3"/>
+      <c r="AO248" s="3"/>
+      <c r="AP248" s="3"/>
+      <c r="AQ248" s="3"/>
+      <c r="AR248" s="3"/>
+      <c r="AS248" s="3"/>
+      <c r="AT248" s="3"/>
+      <c r="AU248" s="3"/>
+      <c r="AV248" s="3"/>
+      <c r="AW248" s="3"/>
+      <c r="AX248" s="7"/>
+    </row>
+    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A249" s="3"/>
+      <c r="B249" s="4"/>
+      <c r="C249" s="4"/>
+      <c r="D249" s="4"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="H249" s="3"/>
+      <c r="I249" s="3"/>
+      <c r="J249" s="3"/>
+      <c r="K249" s="3"/>
+      <c r="L249" s="3"/>
+      <c r="M249" s="3"/>
+      <c r="N249" s="3"/>
+      <c r="O249" s="3"/>
+      <c r="P249" s="3"/>
+      <c r="Q249" s="3"/>
+      <c r="R249" s="3"/>
+      <c r="S249" s="3"/>
+      <c r="T249" s="3"/>
+      <c r="U249" s="3"/>
+      <c r="V249" s="3"/>
+      <c r="W249" s="3"/>
+      <c r="X249" s="3"/>
+      <c r="Y249" s="3"/>
+      <c r="Z249" s="3"/>
+      <c r="AA249" s="3"/>
+      <c r="AB249" s="3"/>
+      <c r="AC249" s="3"/>
+      <c r="AD249" s="3"/>
+      <c r="AE249" s="3"/>
+      <c r="AF249" s="3"/>
+      <c r="AG249" s="3"/>
+      <c r="AH249" s="3"/>
+      <c r="AI249" s="3"/>
+      <c r="AJ249" s="3"/>
+      <c r="AK249" s="3"/>
+      <c r="AL249" s="3"/>
+      <c r="AM249" s="3"/>
+      <c r="AN249" s="3"/>
+      <c r="AO249" s="3"/>
+      <c r="AP249" s="3"/>
+      <c r="AQ249" s="3"/>
+      <c r="AR249" s="3"/>
+      <c r="AS249" s="3"/>
+      <c r="AT249" s="3"/>
+      <c r="AU249" s="3"/>
+      <c r="AV249" s="3"/>
+      <c r="AW249" s="3"/>
+      <c r="AX249" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -638,6 +638,30 @@
   </si>
   <si>
     <t>萨擎苍独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇胆解毒丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇胆炼制，可解毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇牙针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇牙所制，含剧毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名指法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名窟神秘武学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1087,9 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O44" sqref="A44:XFD44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3391,10 +3415,10 @@
         <v>0</v>
       </c>
       <c r="W17" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y17" s="3">
         <v>0</v>
@@ -3442,10 +3466,10 @@
         <v>0</v>
       </c>
       <c r="AN17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP17" s="3">
         <v>0</v>
@@ -6351,10 +6375,10 @@
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="3">
         <v>0</v>
@@ -6402,10 +6426,10 @@
         <v>0</v>
       </c>
       <c r="AN37" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO37" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP37" s="3">
         <v>0</v>
@@ -8212,160 +8236,448 @@
       <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A50" s="3"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="3"/>
-      <c r="F50" s="3"/>
-      <c r="G50" s="3"/>
-      <c r="H50" s="3"/>
-      <c r="I50" s="3"/>
-      <c r="J50" s="3"/>
-      <c r="K50" s="3"/>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
-      <c r="R50" s="3"/>
-      <c r="S50" s="3"/>
-      <c r="T50" s="3"/>
-      <c r="U50" s="3"/>
-      <c r="V50" s="3"/>
-      <c r="W50" s="3"/>
-      <c r="X50" s="3"/>
-      <c r="Y50" s="3"/>
-      <c r="Z50" s="3"/>
-      <c r="AA50" s="3"/>
-      <c r="AB50" s="3"/>
-      <c r="AC50" s="3"/>
-      <c r="AD50" s="3"/>
-      <c r="AE50" s="3"/>
-      <c r="AF50" s="3"/>
-      <c r="AG50" s="3"/>
-      <c r="AH50" s="3"/>
-      <c r="AI50" s="3"/>
-      <c r="AJ50" s="3"/>
-      <c r="AK50" s="3"/>
-      <c r="AL50" s="3"/>
-      <c r="AM50" s="3"/>
-      <c r="AN50" s="3"/>
-      <c r="AO50" s="3"/>
-      <c r="AP50" s="3"/>
-      <c r="AQ50" s="3"/>
-      <c r="AR50" s="3"/>
-      <c r="AS50" s="3"/>
-      <c r="AT50" s="3"/>
-      <c r="AU50" s="3"/>
-      <c r="AV50" s="3"/>
-      <c r="AW50" s="3"/>
+      <c r="A50" s="3">
+        <v>180</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H50" s="3">
+        <v>3</v>
+      </c>
+      <c r="I50" s="3">
+        <v>0</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU50" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX50" s="7"/>
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A51" s="3"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="5"/>
-      <c r="D51" s="5"/>
-      <c r="E51" s="3"/>
-      <c r="F51" s="3"/>
-      <c r="G51" s="3"/>
-      <c r="H51" s="3"/>
-      <c r="I51" s="3"/>
-      <c r="J51" s="3"/>
-      <c r="K51" s="3"/>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
-      <c r="R51" s="3"/>
-      <c r="S51" s="3"/>
-      <c r="T51" s="3"/>
-      <c r="U51" s="3"/>
-      <c r="V51" s="3"/>
-      <c r="W51" s="3"/>
-      <c r="X51" s="3"/>
-      <c r="Y51" s="3"/>
-      <c r="Z51" s="3"/>
-      <c r="AA51" s="3"/>
-      <c r="AB51" s="3"/>
-      <c r="AC51" s="3"/>
-      <c r="AD51" s="3"/>
-      <c r="AE51" s="3"/>
-      <c r="AF51" s="3"/>
-      <c r="AG51" s="3"/>
-      <c r="AH51" s="3"/>
-      <c r="AI51" s="3"/>
-      <c r="AJ51" s="3"/>
-      <c r="AK51" s="3"/>
-      <c r="AL51" s="3"/>
-      <c r="AM51" s="3"/>
-      <c r="AN51" s="3"/>
-      <c r="AO51" s="3"/>
-      <c r="AP51" s="3"/>
-      <c r="AQ51" s="3"/>
-      <c r="AR51" s="3"/>
-      <c r="AS51" s="3"/>
-      <c r="AT51" s="3"/>
-      <c r="AU51" s="3"/>
-      <c r="AV51" s="3"/>
-      <c r="AW51" s="3"/>
+      <c r="A51" s="3">
+        <v>181</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H51" s="3">
+        <v>4</v>
+      </c>
+      <c r="I51" s="3">
+        <v>-80</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="K51" s="3">
+        <v>80</v>
+      </c>
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG51" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU51" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX51" s="7"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A52" s="3"/>
-      <c r="B52" s="5"/>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
-      <c r="R52" s="3"/>
-      <c r="S52" s="3"/>
-      <c r="T52" s="3"/>
-      <c r="U52" s="3"/>
-      <c r="V52" s="3"/>
-      <c r="W52" s="3"/>
-      <c r="X52" s="3"/>
-      <c r="Y52" s="3"/>
-      <c r="Z52" s="3"/>
-      <c r="AA52" s="3"/>
-      <c r="AB52" s="3"/>
-      <c r="AC52" s="3"/>
-      <c r="AD52" s="3"/>
-      <c r="AE52" s="3"/>
-      <c r="AF52" s="3"/>
-      <c r="AG52" s="3"/>
-      <c r="AH52" s="3"/>
-      <c r="AI52" s="3"/>
-      <c r="AJ52" s="3"/>
-      <c r="AK52" s="3"/>
-      <c r="AL52" s="3"/>
-      <c r="AM52" s="3"/>
-      <c r="AN52" s="3"/>
-      <c r="AO52" s="3"/>
-      <c r="AP52" s="3"/>
-      <c r="AQ52" s="3"/>
-      <c r="AR52" s="3"/>
-      <c r="AS52" s="3"/>
-      <c r="AT52" s="3"/>
-      <c r="AU52" s="3"/>
-      <c r="AV52" s="3"/>
-      <c r="AW52" s="3"/>
-      <c r="AX52" s="7"/>
+      <c r="A52" s="3">
+        <v>182</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="3">
+        <v>181</v>
+      </c>
+      <c r="F52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H52" s="3">
+        <v>2</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="3">
+        <v>0</v>
+      </c>
+      <c r="L52" s="3">
+        <v>0</v>
+      </c>
+      <c r="M52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N52" s="3">
+        <v>0</v>
+      </c>
+      <c r="O52" s="3">
+        <v>0</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+      <c r="R52" s="3">
+        <v>0</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+      <c r="V52" s="3">
+        <v>0</v>
+      </c>
+      <c r="W52" s="3">
+        <v>4</v>
+      </c>
+      <c r="X52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG52" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="3">
+        <v>40</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="3">
+        <v>50</v>
+      </c>
+      <c r="AU52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX52" s="6"/>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1112,8 +1112,8 @@
   <dimension ref="A1:AX249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I53" sqref="I53"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2358,7 +2358,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q10" s="3">
         <v>0</v>
@@ -2512,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -3104,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -3690,7 +3690,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -4288,7 +4288,7 @@
         <v>0</v>
       </c>
       <c r="R23" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S23" s="3">
         <v>0</v>
@@ -4584,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -4880,7 +4880,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -5022,7 +5022,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -5170,7 +5170,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -7100,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -7544,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="3">
-        <v>50</v>
+        <v>200</v>
       </c>
       <c r="AU52" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1111,9 +1111,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX249"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A24" sqref="A24:XFD24"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1:AT1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1708,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="AT5" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AU5" s="3">
         <v>-1</v>
@@ -2152,7 +2152,7 @@
         <v>0</v>
       </c>
       <c r="AT8" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AU8" s="3">
         <v>-1</v>
@@ -2300,7 +2300,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="3">
-        <v>300</v>
+        <v>500</v>
       </c>
       <c r="AU9" s="3">
         <v>-1</v>
@@ -3040,7 +3040,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AU14" s="3">
         <v>-1</v>
@@ -3484,7 +3484,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AU17" s="3">
         <v>-1</v>
@@ -6444,7 +6444,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="3">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="AU37" s="3">
         <v>-1</v>
@@ -7480,7 +7480,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AU44" s="3">
         <v>-1</v>
@@ -8666,7 +8666,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="3">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="AU52" s="3">
         <v>-1</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -421,12 +421,6 @@
   </si>
   <si>
     <t>世上最好的牛肉</t>
-  </si>
-  <si>
-    <t>槟榔</t>
-  </si>
-  <si>
-    <t>提神醒脑，可提升体力</t>
   </si>
   <si>
     <t>狼皮护甲</t>
@@ -662,6 +656,22 @@
   </si>
   <si>
     <t>无名窟神秘武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>润肺提神，可提升体力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩柯观音泪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟兰独门绝学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1109,11 +1119,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX249"/>
+  <dimension ref="A1:AX250"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT1" sqref="AT1:AT1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AT34" sqref="AT34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1582,7 +1592,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1874,7 +1884,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2022,11 +2032,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -2174,7 +2184,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
@@ -2322,7 +2332,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2614,11 +2624,11 @@
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -3354,11 +3364,11 @@
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
@@ -3798,11 +3808,11 @@
         <v>42</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -3946,11 +3956,11 @@
         <v>43</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -4094,11 +4104,11 @@
         <v>44</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -4242,11 +4252,11 @@
         <v>45</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4390,11 +4400,11 @@
         <v>46</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4538,11 +4548,11 @@
         <v>47</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4686,11 +4696,11 @@
         <v>50</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -5574,11 +5584,11 @@
         <v>71</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5722,11 +5732,11 @@
         <v>72</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5867,17 +5877,17 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>80</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="E34" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F34" s="3">
         <v>-1</v>
@@ -5913,7 +5923,7 @@
         <v>0</v>
       </c>
       <c r="Q34" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R34" s="3">
         <v>0</v>
@@ -5943,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
@@ -5994,13 +6004,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS34" s="3">
         <v>0</v>
       </c>
       <c r="AT34" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AU34" s="3">
         <v>-1</v>
@@ -6011,18 +6021,18 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="7"/>
+      <c r="AX34" s="6"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>175</v>
+        <v>130</v>
       </c>
       <c r="C35" s="4"/>
-      <c r="D35" s="5" t="s">
-        <v>176</v>
+      <c r="D35" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -6034,7 +6044,7 @@
         <v>-1</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -6046,10 +6056,10 @@
         <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -6061,7 +6071,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -6106,10 +6116,10 @@
         <v>0</v>
       </c>
       <c r="AF35" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -6148,7 +6158,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU35" s="3">
         <v>-1</v>
@@ -6163,14 +6173,14 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="4" t="s">
-        <v>133</v>
+      <c r="D36" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6182,7 +6192,7 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6194,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
@@ -6311,17 +6321,17 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>91</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>184</v>
+        <v>90</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>183</v>
+        <v>133</v>
       </c>
       <c r="E37" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="3">
         <v>-1</v>
@@ -6330,7 +6340,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -6345,7 +6355,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -6375,7 +6385,7 @@
         <v>0</v>
       </c>
       <c r="W37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X37" s="3">
         <v>0</v>
@@ -6402,10 +6412,10 @@
         <v>0</v>
       </c>
       <c r="AF37" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -6426,7 +6436,7 @@
         <v>0</v>
       </c>
       <c r="AN37" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO37" s="3">
         <v>0</v>
@@ -6444,7 +6454,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="3">
         <v>-1</v>
@@ -6455,21 +6465,21 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="6"/>
+      <c r="AX37" s="7"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>110</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>134</v>
+        <v>91</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C38" s="4"/>
-      <c r="D38" s="3" t="s">
-        <v>135</v>
+      <c r="D38" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E38" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F38" s="3">
         <v>-1</v>
@@ -6478,7 +6488,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6490,10 +6500,10 @@
         <v>0</v>
       </c>
       <c r="L38" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -6523,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X38" s="3">
         <v>0</v>
@@ -6550,10 +6560,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -6574,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO38" s="3">
         <v>0</v>
@@ -6592,7 +6602,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU38" s="3">
         <v>-1</v>
@@ -6603,18 +6613,18 @@
       <c r="AW38" s="3">
         <v>-1</v>
       </c>
-      <c r="AX38" s="7"/>
+      <c r="AX38" s="6"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>143</v>
+        <v>196</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="5" t="s">
-        <v>145</v>
+        <v>195</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -6629,7 +6639,7 @@
         <v>3</v>
       </c>
       <c r="I39" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
@@ -6638,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M39" s="3">
         <v>0</v>
@@ -6755,14 +6765,14 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -6777,13 +6787,13 @@
         <v>3</v>
       </c>
       <c r="I40" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L40" s="3">
         <v>0</v>
@@ -6903,14 +6913,14 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -6931,7 +6941,7 @@
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -6943,7 +6953,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P41" s="3">
         <v>0</v>
@@ -7051,14 +7061,14 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>137</v>
+      <c r="D42" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7067,10 +7077,10 @@
         <v>-1</v>
       </c>
       <c r="G42" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H42" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -7091,7 +7101,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -7100,7 +7110,7 @@
         <v>0</v>
       </c>
       <c r="R42" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S42" s="3">
         <v>0</v>
@@ -7142,10 +7152,10 @@
         <v>0</v>
       </c>
       <c r="AF42" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH42" s="3">
         <v>0</v>
@@ -7199,14 +7209,14 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -7215,10 +7225,10 @@
         <v>-1</v>
       </c>
       <c r="G43" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -7248,7 +7258,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -7290,10 +7300,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -7347,17 +7357,17 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>142</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>189</v>
+        <v>141</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>190</v>
+        <v>137</v>
       </c>
       <c r="E44" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="3">
         <v>-1</v>
@@ -7366,7 +7376,7 @@
         <v>-1</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -7381,7 +7391,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -7411,7 +7421,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -7438,10 +7448,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7462,7 +7472,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="3">
         <v>0</v>
@@ -7480,7 +7490,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="3">
         <v>-1</v>
@@ -7491,30 +7501,30 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="6"/>
+      <c r="AX44" s="7"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>160</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>185</v>
+        <v>142</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E45" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F45" s="3">
         <v>-1</v>
       </c>
       <c r="G45" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H45" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -7529,7 +7539,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -7544,7 +7554,7 @@
         <v>0</v>
       </c>
       <c r="R45" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S45" s="3">
         <v>0</v>
@@ -7559,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -7610,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO45" s="3">
         <v>0</v>
@@ -7628,7 +7638,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU45" s="3">
         <v>-1</v>
@@ -7639,18 +7649,18 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="7"/>
+      <c r="AX45" s="6"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -7659,10 +7669,10 @@
         <v>-1</v>
       </c>
       <c r="G46" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -7680,7 +7690,7 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O46" s="3">
         <v>0</v>
@@ -7692,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -7734,10 +7744,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG46" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -7791,14 +7801,14 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="5" t="s">
-        <v>150</v>
+      <c r="D47" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7816,19 +7826,19 @@
         <v>0</v>
       </c>
       <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3">
+        <v>0</v>
+      </c>
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+      <c r="N47" s="3">
         <v>100</v>
-      </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
-      <c r="N47" s="3">
-        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -7939,14 +7949,14 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -7964,7 +7974,7 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>0</v>
@@ -8087,16 +8097,14 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>174</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>142</v>
+        <v>171</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="4"/>
+      <c r="D49" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -8108,13 +8116,13 @@
         <v>-1</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -8237,14 +8245,16 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>180</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="C50" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D50" s="4" t="s">
-        <v>192</v>
+        <v>140</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8256,7 +8266,7 @@
         <v>-1</v>
       </c>
       <c r="H50" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -8265,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="K50" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L50" s="3">
         <v>0</v>
@@ -8385,14 +8395,14 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -8404,16 +8414,16 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I51" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J51" s="3">
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>
@@ -8476,10 +8486,10 @@
         <v>0</v>
       </c>
       <c r="AF51" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -8512,7 +8522,7 @@
         <v>0</v>
       </c>
       <c r="AR51" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS51" s="3">
         <v>0</v>
@@ -8533,17 +8543,17 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>182</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>195</v>
+        <v>181</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E52" s="3">
-        <v>181</v>
+        <v>-1</v>
       </c>
       <c r="F52" s="3">
         <v>-1</v>
@@ -8552,22 +8562,22 @@
         <v>-1</v>
       </c>
       <c r="H52" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I52" s="3">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -8597,7 +8607,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -8648,88 +8658,184 @@
         <v>0</v>
       </c>
       <c r="AN52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="3">
         <v>40</v>
       </c>
-      <c r="AO52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR52" s="3">
-        <v>0</v>
-      </c>
       <c r="AS52" s="3">
         <v>0</v>
       </c>
       <c r="AT52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV52" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX52" s="7"/>
+    </row>
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
+        <v>182</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E53" s="3">
+        <v>181</v>
+      </c>
+      <c r="F53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H53" s="3">
+        <v>2</v>
+      </c>
+      <c r="I53" s="3">
+        <v>0</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+      <c r="W53" s="3">
+        <v>4</v>
+      </c>
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG53" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="3">
+        <v>40</v>
+      </c>
+      <c r="AO53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="3">
         <v>500</v>
       </c>
-      <c r="AU52" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV52" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW52" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX52" s="6"/>
-    </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A53" s="3"/>
-      <c r="B53" s="5"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="5"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3"/>
-      <c r="I53" s="3"/>
-      <c r="J53" s="3"/>
-      <c r="K53" s="3"/>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
-      <c r="R53" s="3"/>
-      <c r="S53" s="3"/>
-      <c r="T53" s="3"/>
-      <c r="U53" s="3"/>
-      <c r="V53" s="3"/>
-      <c r="W53" s="3"/>
-      <c r="X53" s="3"/>
-      <c r="Y53" s="3"/>
-      <c r="Z53" s="3"/>
-      <c r="AA53" s="3"/>
-      <c r="AB53" s="3"/>
-      <c r="AC53" s="3"/>
-      <c r="AD53" s="3"/>
-      <c r="AE53" s="3"/>
-      <c r="AF53" s="3"/>
-      <c r="AG53" s="3"/>
-      <c r="AH53" s="3"/>
-      <c r="AI53" s="3"/>
-      <c r="AJ53" s="3"/>
-      <c r="AK53" s="3"/>
-      <c r="AL53" s="3"/>
-      <c r="AM53" s="3"/>
-      <c r="AN53" s="3"/>
-      <c r="AO53" s="3"/>
-      <c r="AP53" s="3"/>
-      <c r="AQ53" s="3"/>
-      <c r="AR53" s="3"/>
-      <c r="AS53" s="3"/>
-      <c r="AT53" s="3"/>
-      <c r="AU53" s="3"/>
-      <c r="AV53" s="3"/>
-      <c r="AW53" s="3"/>
-      <c r="AX53" s="7"/>
+      <c r="AU53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX53" s="6"/>
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
@@ -8786,7 +8892,7 @@
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="5"/>
-      <c r="C55" s="5"/>
+      <c r="C55" s="4"/>
       <c r="D55" s="5"/>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
@@ -8891,7 +8997,7 @@
       <c r="A57" s="3"/>
       <c r="B57" s="5"/>
       <c r="C57" s="5"/>
-      <c r="D57" s="4"/>
+      <c r="D57" s="5"/>
       <c r="E57" s="3"/>
       <c r="F57" s="3"/>
       <c r="G57" s="3"/>
@@ -8943,7 +9049,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="5"/>
+      <c r="D58" s="4"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -9513,9 +9619,9 @@
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
-      <c r="C69" s="3"/>
-      <c r="D69" s="3"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="5"/>
+      <c r="D69" s="5"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
       <c r="G69" s="3"/>
@@ -10293,7 +10399,7 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="5"/>
+      <c r="B84" s="3"/>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
@@ -10345,7 +10451,7 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -10815,7 +10921,7 @@
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
-      <c r="D94" s="4"/>
+      <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -10867,7 +10973,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="D95" s="4"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -12113,7 +12219,7 @@
     </row>
     <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
-      <c r="B119" s="5"/>
+      <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
@@ -12165,7 +12271,7 @@
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
+      <c r="B120" s="5"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -12217,7 +12323,7 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -12269,7 +12375,7 @@
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="3"/>
+      <c r="B122" s="5"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -14767,7 +14873,7 @@
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
-      <c r="D170" s="4"/>
+      <c r="D170" s="3"/>
       <c r="E170" s="3"/>
       <c r="F170" s="3"/>
       <c r="G170" s="3"/>
@@ -14819,7 +14925,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="3"/>
+      <c r="D171" s="4"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -15025,7 +15131,7 @@
     </row>
     <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
-      <c r="B175" s="5"/>
+      <c r="B175" s="3"/>
       <c r="C175" s="3"/>
       <c r="D175" s="3"/>
       <c r="E175" s="3"/>
@@ -15077,7 +15183,7 @@
     </row>
     <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
-      <c r="B176" s="3"/>
+      <c r="B176" s="5"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -16169,7 +16275,7 @@
     </row>
     <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
-      <c r="B197" s="4"/>
+      <c r="B197" s="3"/>
       <c r="C197" s="3"/>
       <c r="D197" s="3"/>
       <c r="E197" s="3"/>
@@ -16221,7 +16327,7 @@
     </row>
     <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
-      <c r="B198" s="3"/>
+      <c r="B198" s="4"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -16429,8 +16535,8 @@
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="B202" s="4"/>
-      <c r="C202" s="4"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
       <c r="F202" s="3"/>
@@ -16481,8 +16587,8 @@
     </row>
     <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
-      <c r="B203" s="3"/>
-      <c r="C203" s="3"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -18873,9 +18979,9 @@
     </row>
     <row r="249" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
-      <c r="B249" s="4"/>
-      <c r="C249" s="4"/>
-      <c r="D249" s="4"/>
+      <c r="B249" s="3"/>
+      <c r="C249" s="3"/>
+      <c r="D249" s="3"/>
       <c r="E249" s="3"/>
       <c r="F249" s="3"/>
       <c r="G249" s="3"/>
@@ -18923,6 +19029,58 @@
       <c r="AW249" s="3"/>
       <c r="AX249" s="7"/>
     </row>
+    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A250" s="3"/>
+      <c r="B250" s="4"/>
+      <c r="C250" s="4"/>
+      <c r="D250" s="4"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="3"/>
+      <c r="U250" s="3"/>
+      <c r="V250" s="3"/>
+      <c r="W250" s="3"/>
+      <c r="X250" s="3"/>
+      <c r="Y250" s="3"/>
+      <c r="Z250" s="3"/>
+      <c r="AA250" s="3"/>
+      <c r="AB250" s="3"/>
+      <c r="AC250" s="3"/>
+      <c r="AD250" s="3"/>
+      <c r="AE250" s="3"/>
+      <c r="AF250" s="3"/>
+      <c r="AG250" s="3"/>
+      <c r="AH250" s="3"/>
+      <c r="AI250" s="3"/>
+      <c r="AJ250" s="3"/>
+      <c r="AK250" s="3"/>
+      <c r="AL250" s="3"/>
+      <c r="AM250" s="3"/>
+      <c r="AN250" s="3"/>
+      <c r="AO250" s="3"/>
+      <c r="AP250" s="3"/>
+      <c r="AQ250" s="3"/>
+      <c r="AR250" s="3"/>
+      <c r="AS250" s="3"/>
+      <c r="AT250" s="3"/>
+      <c r="AU250" s="3"/>
+      <c r="AV250" s="3"/>
+      <c r="AW250" s="3"/>
+      <c r="AX250" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -672,6 +672,14 @@
   </si>
   <si>
     <t>粟兰独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱魔神掌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿眉大师独门绝学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1119,11 +1127,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX250"/>
+  <dimension ref="A1:AX251"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AT34" sqref="AT34"/>
+      <selection pane="bottomLeft" activeCell="AB18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3509,17 +3517,17 @@
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>40</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>116</v>
+        <v>35</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>117</v>
+        <v>200</v>
       </c>
       <c r="E18" s="3">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="F18" s="3">
         <v>-1</v>
@@ -3528,10 +3536,10 @@
         <v>-1</v>
       </c>
       <c r="H18" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I18" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J18" s="3">
         <v>0</v>
@@ -3543,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
@@ -3573,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -3600,10 +3608,10 @@
         <v>0</v>
       </c>
       <c r="AF18" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG18" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH18" s="3">
         <v>0</v>
@@ -3624,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO18" s="3">
         <v>0</v>
@@ -3642,7 +3650,7 @@
         <v>0</v>
       </c>
       <c r="AT18" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU18" s="3">
         <v>-1</v>
@@ -3653,18 +3661,18 @@
       <c r="AW18" s="3">
         <v>-1</v>
       </c>
-      <c r="AX18" s="7"/>
+      <c r="AX18" s="6"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E19" s="3">
         <v>-1</v>
@@ -3673,13 +3681,13 @@
         <v>-1</v>
       </c>
       <c r="G19" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H19" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I19" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -3700,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q19" s="3">
         <v>0</v>
@@ -3748,7 +3756,7 @@
         <v>0</v>
       </c>
       <c r="AF19" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG19" s="3">
         <v>0</v>
@@ -3757,7 +3765,7 @@
         <v>0</v>
       </c>
       <c r="AI19" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="3">
         <v>0</v>
@@ -3778,7 +3786,7 @@
         <v>0</v>
       </c>
       <c r="AP19" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ19" s="3">
         <v>0</v>
@@ -3805,14 +3813,14 @@
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C20" s="4"/>
-      <c r="D20" s="5" t="s">
-        <v>157</v>
+      <c r="D20" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E20" s="3">
         <v>-1</v>
@@ -3848,7 +3856,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -3905,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
@@ -3923,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="AO20" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP20" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ20" s="3">
         <v>0</v>
@@ -3953,14 +3961,14 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -4071,10 +4079,10 @@
         <v>0</v>
       </c>
       <c r="AO21" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ21" s="3">
         <v>0</v>
@@ -4101,14 +4109,14 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -4222,10 +4230,10 @@
         <v>0</v>
       </c>
       <c r="AP22" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ22" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR22" s="3">
         <v>0</v>
@@ -4249,14 +4257,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="4" t="s">
-        <v>156</v>
+      <c r="D23" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4265,7 +4273,7 @@
         <v>-1</v>
       </c>
       <c r="G23" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="3">
         <v>1</v>
@@ -4292,65 +4300,65 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
       <c r="R23" s="3">
+        <v>0</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+      <c r="V23" s="3">
+        <v>0</v>
+      </c>
+      <c r="W23" s="3">
+        <v>0</v>
+      </c>
+      <c r="X23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="3">
         <v>20</v>
       </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-      <c r="U23" s="3">
-        <v>0</v>
-      </c>
-      <c r="V23" s="3">
-        <v>0</v>
-      </c>
-      <c r="W23" s="3">
-        <v>0</v>
-      </c>
-      <c r="X23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF23" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI23" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ23" s="3">
         <v>0</v>
       </c>
@@ -4373,7 +4381,7 @@
         <v>0</v>
       </c>
       <c r="AQ23" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR23" s="3">
         <v>0</v>
@@ -4397,14 +4405,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>151</v>
+      <c r="D24" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4413,7 +4421,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4440,14 +4448,14 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
         <v>20</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
       <c r="S24" s="3">
         <v>0</v>
       </c>
@@ -4497,7 +4505,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
@@ -4515,7 +4523,7 @@
         <v>0</v>
       </c>
       <c r="AO24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="3">
         <v>0</v>
@@ -4545,14 +4553,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C25" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4561,7 +4569,7 @@
         <v>-1</v>
       </c>
       <c r="G25" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" s="3">
         <v>1</v>
@@ -4588,13 +4596,13 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
       </c>
       <c r="R25" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S25" s="3">
         <v>0</v>
@@ -4645,7 +4653,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
@@ -4663,7 +4671,7 @@
         <v>0</v>
       </c>
       <c r="AO25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP25" s="3">
         <v>0</v>
@@ -4693,14 +4701,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
+      </c>
+      <c r="C26" s="5"/>
+      <c r="D26" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4709,10 +4717,10 @@
         <v>-1</v>
       </c>
       <c r="G26" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H26" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I26" s="3">
         <v>0</v>
@@ -4742,7 +4750,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -4784,7 +4792,7 @@
         <v>0</v>
       </c>
       <c r="AF26" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG26" s="3">
         <v>0</v>
@@ -4841,14 +4849,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4857,10 +4865,10 @@
         <v>-1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -4890,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="R27" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S27" s="3">
         <v>0</v>
@@ -4932,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG27" s="3">
         <v>0</v>
@@ -4989,14 +4997,14 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -5005,7 +5013,7 @@
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -5032,13 +5040,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -5089,7 +5097,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
@@ -5107,7 +5115,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP28" s="3">
         <v>0</v>
@@ -5137,14 +5145,14 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -5180,7 +5188,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -5237,7 +5245,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
@@ -5255,10 +5263,10 @@
         <v>0</v>
       </c>
       <c r="AO29" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP29" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ29" s="3">
         <v>0</v>
@@ -5285,14 +5293,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5301,34 +5309,34 @@
         <v>-1</v>
       </c>
       <c r="G30" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H30" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J30" s="3">
         <v>0</v>
       </c>
       <c r="K30" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L30" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M30" s="3">
         <v>0</v>
       </c>
       <c r="N30" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O30" s="3">
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
@@ -5376,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG30" s="3">
         <v>0</v>
@@ -5385,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ30" s="3">
         <v>0</v>
@@ -5406,7 +5414,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ30" s="3">
         <v>0</v>
@@ -5433,14 +5441,14 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -5452,25 +5460,25 @@
         <v>-1</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I31" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L31" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
@@ -5581,14 +5589,14 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>167</v>
+        <v>128</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>168</v>
+        <v>129</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5600,16 +5608,16 @@
         <v>-1</v>
       </c>
       <c r="H32" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J32" s="3">
         <v>0</v>
       </c>
       <c r="K32" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L32" s="3">
         <v>0</v>
@@ -5672,10 +5680,10 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH32" s="3">
         <v>0</v>
@@ -5708,7 +5716,7 @@
         <v>0</v>
       </c>
       <c r="AR32" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS32" s="3">
         <v>0</v>
@@ -5729,14 +5737,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5748,16 +5756,16 @@
         <v>-1</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I33" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="L33" s="3">
         <v>0</v>
@@ -5820,10 +5828,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG33" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -5856,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS33" s="3">
         <v>0</v>
@@ -5877,17 +5885,17 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>73</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>197</v>
+        <v>72</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>169</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>198</v>
+        <v>170</v>
       </c>
       <c r="E34" s="3">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="F34" s="3">
         <v>-1</v>
@@ -5896,7 +5904,7 @@
         <v>-1</v>
       </c>
       <c r="H34" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -5905,13 +5913,13 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -5953,7 +5961,7 @@
         <v>0</v>
       </c>
       <c r="AA34" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB34" s="3">
         <v>0</v>
@@ -5968,10 +5976,10 @@
         <v>0</v>
       </c>
       <c r="AF34" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG34" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
@@ -6004,13 +6012,13 @@
         <v>0</v>
       </c>
       <c r="AR34" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS34" s="3">
         <v>0</v>
       </c>
       <c r="AT34" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU34" s="3">
         <v>-1</v>
@@ -6021,21 +6029,21 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="6"/>
+      <c r="AX34" s="7"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>80</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="E35" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F35" s="3">
         <v>-1</v>
@@ -6071,7 +6079,7 @@
         <v>0</v>
       </c>
       <c r="Q35" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R35" s="3">
         <v>0</v>
@@ -6101,7 +6109,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
@@ -6152,13 +6160,13 @@
         <v>0</v>
       </c>
       <c r="AR35" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS35" s="3">
         <v>0</v>
       </c>
       <c r="AT35" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AU35" s="3">
         <v>-1</v>
@@ -6169,18 +6177,18 @@
       <c r="AW35" s="3">
         <v>-1</v>
       </c>
-      <c r="AX35" s="7"/>
+      <c r="AX35" s="6"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>173</v>
+        <v>130</v>
       </c>
       <c r="C36" s="4"/>
-      <c r="D36" s="5" t="s">
-        <v>174</v>
+      <c r="D36" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6192,7 +6200,7 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6204,10 +6212,10 @@
         <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -6219,7 +6227,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -6264,10 +6272,10 @@
         <v>0</v>
       </c>
       <c r="AF36" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -6306,7 +6314,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU36" s="3">
         <v>-1</v>
@@ -6321,14 +6329,14 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="4" t="s">
-        <v>133</v>
+      <c r="D37" s="5" t="s">
+        <v>174</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -6340,7 +6348,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -6352,7 +6360,7 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M37" s="3">
         <v>0</v>
@@ -6469,17 +6477,17 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>91</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>182</v>
+        <v>90</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="E38" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F38" s="3">
         <v>-1</v>
@@ -6488,7 +6496,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6503,7 +6511,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -6533,7 +6541,7 @@
         <v>0</v>
       </c>
       <c r="W38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X38" s="3">
         <v>0</v>
@@ -6560,10 +6568,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -6584,7 +6592,7 @@
         <v>0</v>
       </c>
       <c r="AN38" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO38" s="3">
         <v>0</v>
@@ -6602,7 +6610,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="3">
         <v>-1</v>
@@ -6613,21 +6621,21 @@
       <c r="AW38" s="3">
         <v>-1</v>
       </c>
-      <c r="AX38" s="6"/>
+      <c r="AX38" s="7"/>
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>110</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>196</v>
+        <v>91</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="5" t="s">
-        <v>195</v>
+      <c r="D39" s="4" t="s">
+        <v>181</v>
       </c>
       <c r="E39" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F39" s="3">
         <v>-1</v>
@@ -6636,7 +6644,7 @@
         <v>-1</v>
       </c>
       <c r="H39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -6648,10 +6656,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -6681,7 +6689,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X39" s="3">
         <v>0</v>
@@ -6708,10 +6716,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -6732,7 +6740,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO39" s="3">
         <v>0</v>
@@ -6750,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU39" s="3">
         <v>-1</v>
@@ -6761,18 +6769,18 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="7"/>
+      <c r="AX39" s="6"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>141</v>
+        <v>196</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="5" t="s">
-        <v>143</v>
+        <v>195</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -6787,7 +6795,7 @@
         <v>3</v>
       </c>
       <c r="I40" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J40" s="3">
         <v>0</v>
@@ -6796,7 +6804,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M40" s="3">
         <v>0</v>
@@ -6913,14 +6921,14 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -6935,13 +6943,13 @@
         <v>3</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
@@ -7061,14 +7069,14 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7089,7 +7097,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L42" s="3">
         <v>0</v>
@@ -7101,7 +7109,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P42" s="3">
         <v>0</v>
@@ -7209,14 +7217,14 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="4" t="s">
-        <v>135</v>
+      <c r="D43" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -7225,10 +7233,10 @@
         <v>-1</v>
       </c>
       <c r="G43" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H43" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -7249,7 +7257,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -7258,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="R43" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S43" s="3">
         <v>0</v>
@@ -7300,10 +7308,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -7357,14 +7365,14 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -7373,10 +7381,10 @@
         <v>-1</v>
       </c>
       <c r="G44" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H44" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -7406,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -7448,10 +7456,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7505,17 +7513,17 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>142</v>
-      </c>
-      <c r="B45" s="4" t="s">
-        <v>187</v>
+        <v>141</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="4" t="s">
-        <v>188</v>
+        <v>137</v>
       </c>
       <c r="E45" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F45" s="3">
         <v>-1</v>
@@ -7524,7 +7532,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -7539,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -7569,7 +7577,7 @@
         <v>0</v>
       </c>
       <c r="W45" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X45" s="3">
         <v>0</v>
@@ -7596,10 +7604,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG45" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -7620,7 +7628,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO45" s="3">
         <v>0</v>
@@ -7638,7 +7646,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU45" s="3">
         <v>-1</v>
@@ -7649,30 +7657,30 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="6"/>
+      <c r="AX45" s="7"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>160</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>183</v>
+        <v>142</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>187</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="E46" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F46" s="3">
         <v>-1</v>
       </c>
       <c r="G46" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H46" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -7687,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -7702,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="R46" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S46" s="3">
         <v>0</v>
@@ -7717,7 +7725,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -7768,7 +7776,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO46" s="3">
         <v>0</v>
@@ -7786,7 +7794,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU46" s="3">
         <v>-1</v>
@@ -7797,18 +7805,18 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="7"/>
+      <c r="AX46" s="6"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7817,10 +7825,10 @@
         <v>-1</v>
       </c>
       <c r="G47" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H47" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -7838,7 +7846,7 @@
         <v>0</v>
       </c>
       <c r="N47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O47" s="3">
         <v>0</v>
@@ -7850,7 +7858,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -7892,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="AF47" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -7949,14 +7957,14 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>147</v>
+        <v>185</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
-        <v>148</v>
+      <c r="D48" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -7974,19 +7982,19 @@
         <v>0</v>
       </c>
       <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="K48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="3">
+        <v>0</v>
+      </c>
+      <c r="M48" s="3">
+        <v>0</v>
+      </c>
+      <c r="N48" s="3">
         <v>100</v>
-      </c>
-      <c r="K48" s="3">
-        <v>0</v>
-      </c>
-      <c r="L48" s="3">
-        <v>0</v>
-      </c>
-      <c r="M48" s="3">
-        <v>0</v>
-      </c>
-      <c r="N48" s="3">
-        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -8097,14 +8105,14 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -8122,7 +8130,7 @@
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -8245,16 +8253,14 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>174</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>140</v>
+        <v>171</v>
+      </c>
+      <c r="B50" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C50" s="4"/>
+      <c r="D50" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8266,13 +8272,13 @@
         <v>-1</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -8395,14 +8401,16 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>180</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C51" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D51" s="4" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -8414,7 +8422,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -8423,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L51" s="3">
         <v>0</v>
@@ -8543,14 +8551,14 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -8562,16 +8570,16 @@
         <v>-1</v>
       </c>
       <c r="H52" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I52" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J52" s="3">
         <v>0</v>
       </c>
       <c r="K52" s="3">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -8634,10 +8642,10 @@
         <v>0</v>
       </c>
       <c r="AF52" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -8670,7 +8678,7 @@
         <v>0</v>
       </c>
       <c r="AR52" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS52" s="3">
         <v>0</v>
@@ -8691,17 +8699,17 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>182</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>193</v>
+        <v>181</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E53" s="3">
-        <v>181</v>
+        <v>-1</v>
       </c>
       <c r="F53" s="3">
         <v>-1</v>
@@ -8710,22 +8718,22 @@
         <v>-1</v>
       </c>
       <c r="H53" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
       </c>
       <c r="K53" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
       </c>
       <c r="M53" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N53" s="3">
         <v>0</v>
@@ -8755,7 +8763,7 @@
         <v>0</v>
       </c>
       <c r="W53" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X53" s="3">
         <v>0</v>
@@ -8806,88 +8814,184 @@
         <v>0</v>
       </c>
       <c r="AN53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="3">
         <v>40</v>
       </c>
-      <c r="AO53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR53" s="3">
-        <v>0</v>
-      </c>
       <c r="AS53" s="3">
         <v>0</v>
       </c>
       <c r="AT53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX53" s="7"/>
+    </row>
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
+        <v>182</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="E54" s="3">
+        <v>181</v>
+      </c>
+      <c r="F54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>2</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>4</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="3">
+        <v>40</v>
+      </c>
+      <c r="AO54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="3">
         <v>500</v>
       </c>
-      <c r="AU53" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV53" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW53" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX53" s="6"/>
-    </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A54" s="3"/>
-      <c r="B54" s="5"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="3"/>
-      <c r="F54" s="3"/>
-      <c r="G54" s="3"/>
-      <c r="H54" s="3"/>
-      <c r="I54" s="3"/>
-      <c r="J54" s="3"/>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
-      <c r="R54" s="3"/>
-      <c r="S54" s="3"/>
-      <c r="T54" s="3"/>
-      <c r="U54" s="3"/>
-      <c r="V54" s="3"/>
-      <c r="W54" s="3"/>
-      <c r="X54" s="3"/>
-      <c r="Y54" s="3"/>
-      <c r="Z54" s="3"/>
-      <c r="AA54" s="3"/>
-      <c r="AB54" s="3"/>
-      <c r="AC54" s="3"/>
-      <c r="AD54" s="3"/>
-      <c r="AE54" s="3"/>
-      <c r="AF54" s="3"/>
-      <c r="AG54" s="3"/>
-      <c r="AH54" s="3"/>
-      <c r="AI54" s="3"/>
-      <c r="AJ54" s="3"/>
-      <c r="AK54" s="3"/>
-      <c r="AL54" s="3"/>
-      <c r="AM54" s="3"/>
-      <c r="AN54" s="3"/>
-      <c r="AO54" s="3"/>
-      <c r="AP54" s="3"/>
-      <c r="AQ54" s="3"/>
-      <c r="AR54" s="3"/>
-      <c r="AS54" s="3"/>
-      <c r="AT54" s="3"/>
-      <c r="AU54" s="3"/>
-      <c r="AV54" s="3"/>
-      <c r="AW54" s="3"/>
-      <c r="AX54" s="7"/>
+      <c r="AU54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX54" s="6"/>
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
@@ -8944,7 +9048,7 @@
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="5"/>
-      <c r="C56" s="5"/>
+      <c r="C56" s="4"/>
       <c r="D56" s="5"/>
       <c r="E56" s="3"/>
       <c r="F56" s="3"/>
@@ -9049,7 +9153,7 @@
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
       <c r="C58" s="5"/>
-      <c r="D58" s="4"/>
+      <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
       <c r="G58" s="3"/>
@@ -9101,7 +9205,7 @@
       <c r="A59" s="3"/>
       <c r="B59" s="5"/>
       <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
+      <c r="D59" s="4"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -9671,9 +9775,9 @@
     </row>
     <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
-      <c r="B70" s="3"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="5"/>
+      <c r="D70" s="5"/>
       <c r="E70" s="3"/>
       <c r="F70" s="3"/>
       <c r="G70" s="3"/>
@@ -10451,7 +10555,7 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
-      <c r="B85" s="5"/>
+      <c r="B85" s="3"/>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
@@ -10503,7 +10607,7 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
+      <c r="B86" s="5"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -10973,7 +11077,7 @@
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
+      <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -11025,7 +11129,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="D96" s="4"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -12271,7 +12375,7 @@
     </row>
     <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
-      <c r="B120" s="5"/>
+      <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
@@ -12323,7 +12427,7 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
+      <c r="B121" s="5"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -12375,7 +12479,7 @@
     </row>
     <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
-      <c r="B122" s="5"/>
+      <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
@@ -12427,7 +12531,7 @@
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
+      <c r="B123" s="5"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -14925,7 +15029,7 @@
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
-      <c r="D171" s="4"/>
+      <c r="D171" s="3"/>
       <c r="E171" s="3"/>
       <c r="F171" s="3"/>
       <c r="G171" s="3"/>
@@ -14977,7 +15081,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="3"/>
+      <c r="D172" s="4"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -15183,7 +15287,7 @@
     </row>
     <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
-      <c r="B176" s="5"/>
+      <c r="B176" s="3"/>
       <c r="C176" s="3"/>
       <c r="D176" s="3"/>
       <c r="E176" s="3"/>
@@ -15235,7 +15339,7 @@
     </row>
     <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="B177" s="3"/>
+      <c r="B177" s="5"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -16327,7 +16431,7 @@
     </row>
     <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
-      <c r="B198" s="4"/>
+      <c r="B198" s="3"/>
       <c r="C198" s="3"/>
       <c r="D198" s="3"/>
       <c r="E198" s="3"/>
@@ -16379,7 +16483,7 @@
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="B199" s="3"/>
+      <c r="B199" s="4"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -16587,8 +16691,8 @@
     </row>
     <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
-      <c r="B203" s="4"/>
-      <c r="C203" s="4"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
       <c r="D203" s="3"/>
       <c r="E203" s="3"/>
       <c r="F203" s="3"/>
@@ -16639,8 +16743,8 @@
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
-      <c r="C204" s="3"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -19031,9 +19135,9 @@
     </row>
     <row r="250" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
-      <c r="B250" s="4"/>
-      <c r="C250" s="4"/>
-      <c r="D250" s="4"/>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
       <c r="E250" s="3"/>
       <c r="F250" s="3"/>
       <c r="G250" s="3"/>
@@ -19081,6 +19185,58 @@
       <c r="AW250" s="3"/>
       <c r="AX250" s="7"/>
     </row>
+    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A251" s="3"/>
+      <c r="B251" s="4"/>
+      <c r="C251" s="4"/>
+      <c r="D251" s="4"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="3"/>
+      <c r="T251" s="3"/>
+      <c r="U251" s="3"/>
+      <c r="V251" s="3"/>
+      <c r="W251" s="3"/>
+      <c r="X251" s="3"/>
+      <c r="Y251" s="3"/>
+      <c r="Z251" s="3"/>
+      <c r="AA251" s="3"/>
+      <c r="AB251" s="3"/>
+      <c r="AC251" s="3"/>
+      <c r="AD251" s="3"/>
+      <c r="AE251" s="3"/>
+      <c r="AF251" s="3"/>
+      <c r="AG251" s="3"/>
+      <c r="AH251" s="3"/>
+      <c r="AI251" s="3"/>
+      <c r="AJ251" s="3"/>
+      <c r="AK251" s="3"/>
+      <c r="AL251" s="3"/>
+      <c r="AM251" s="3"/>
+      <c r="AN251" s="3"/>
+      <c r="AO251" s="3"/>
+      <c r="AP251" s="3"/>
+      <c r="AQ251" s="3"/>
+      <c r="AR251" s="3"/>
+      <c r="AS251" s="3"/>
+      <c r="AT251" s="3"/>
+      <c r="AU251" s="3"/>
+      <c r="AV251" s="3"/>
+      <c r="AW251" s="3"/>
+      <c r="AX251" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -535,10 +535,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刘灯剑随身携带钥匙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>紫罂散酒杯</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -567,10 +563,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>松风剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>馒头</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -680,6 +672,36 @@
   </si>
   <si>
     <t>寿眉大师独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨擎苍随身携带的钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑随身携带的钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟鸣阁小钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥风剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材</t>
+  </si>
+  <si>
+    <t>各式中药材，制作丹药所需</t>
+  </si>
+  <si>
+    <t></t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷山狂刀</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1127,16 +1149,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX251"/>
+  <dimension ref="A1:AX254"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB18" sqref="A18:XFD18"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1600,7 +1622,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1892,7 +1914,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
@@ -2040,11 +2062,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>172</v>
+        <v>202</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -2192,7 +2214,7 @@
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E9" s="3">
         <v>20</v>
@@ -2340,7 +2362,7 @@
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2636,7 +2658,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -3372,11 +3394,11 @@
         <v>34</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E17" s="3">
         <v>30</v>
@@ -3520,11 +3542,11 @@
         <v>35</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E18" s="3">
         <v>31</v>
@@ -4849,14 +4871,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C27" s="4"/>
       <c r="D27" s="4" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4997,26 +5019,26 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>60</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>120</v>
+        <v>49</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="4" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="E28" s="3">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="F28" s="3">
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -5031,7 +5053,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -5046,80 +5068,80 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG28" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
         <v>40</v>
       </c>
-      <c r="S28" s="3">
-        <v>0</v>
-      </c>
-      <c r="T28" s="3">
-        <v>0</v>
-      </c>
-      <c r="U28" s="3">
-        <v>0</v>
-      </c>
-      <c r="V28" s="3">
-        <v>0</v>
-      </c>
-      <c r="W28" s="3">
-        <v>0</v>
-      </c>
-      <c r="X28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF28" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO28" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ28" s="3">
         <v>0</v>
       </c>
@@ -5130,7 +5152,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU28" s="3">
         <v>-1</v>
@@ -5141,18 +5163,18 @@
       <c r="AW28" s="3">
         <v>-1</v>
       </c>
-      <c r="AX28" s="7"/>
+      <c r="AX28" s="6"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -5161,10 +5183,10 @@
         <v>-1</v>
       </c>
       <c r="G29" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -5188,7 +5210,7 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
@@ -5236,7 +5258,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG29" s="3">
         <v>0</v>
@@ -5245,7 +5267,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
@@ -5263,7 +5285,7 @@
         <v>0</v>
       </c>
       <c r="AO29" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP29" s="3">
         <v>0</v>
@@ -5293,14 +5315,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5309,7 +5331,7 @@
         <v>-1</v>
       </c>
       <c r="G30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
         <v>1</v>
@@ -5336,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="P30" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q30" s="3">
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -5393,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="AI30" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ30" s="3">
         <v>0</v>
@@ -5414,7 +5436,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="3">
         <v>0</v>
@@ -5441,14 +5463,14 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -5457,34 +5479,34 @@
         <v>-1</v>
       </c>
       <c r="G31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J31" s="3">
         <v>0</v>
       </c>
       <c r="K31" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L31" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M31" s="3">
         <v>0</v>
       </c>
       <c r="N31" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O31" s="3">
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -5532,7 +5554,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG31" s="3">
         <v>0</v>
@@ -5541,7 +5563,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
@@ -5559,7 +5581,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP31" s="3">
         <v>0</v>
@@ -5589,14 +5611,14 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5605,10 +5627,10 @@
         <v>-1</v>
       </c>
       <c r="G32" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -5632,7 +5654,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
@@ -5680,7 +5702,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG32" s="3">
         <v>0</v>
@@ -5689,7 +5711,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ32" s="3">
         <v>0</v>
@@ -5710,7 +5732,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ32" s="3">
         <v>0</v>
@@ -5737,14 +5759,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>167</v>
+        <v>126</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5756,25 +5778,25 @@
         <v>-1</v>
       </c>
       <c r="H33" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" s="3">
-        <v>-50</v>
+        <v>5000</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="L33" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
@@ -5828,10 +5850,10 @@
         <v>0</v>
       </c>
       <c r="AF33" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH33" s="3">
         <v>0</v>
@@ -5864,7 +5886,7 @@
         <v>0</v>
       </c>
       <c r="AR33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS33" s="3">
         <v>0</v>
@@ -5885,14 +5907,14 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>170</v>
+        <v>129</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -5904,7 +5926,7 @@
         <v>-1</v>
       </c>
       <c r="H34" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -5913,7 +5935,7 @@
         <v>0</v>
       </c>
       <c r="K34" s="3">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L34" s="3">
         <v>0</v>
@@ -6033,17 +6055,17 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>73</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>197</v>
+        <v>71</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>198</v>
+        <v>167</v>
       </c>
       <c r="E35" s="3">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="F35" s="3">
         <v>-1</v>
@@ -6052,22 +6074,22 @@
         <v>-1</v>
       </c>
       <c r="H35" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I35" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L35" s="3">
         <v>0</v>
       </c>
       <c r="M35" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N35" s="3">
         <v>0</v>
@@ -6109,7 +6131,7 @@
         <v>0</v>
       </c>
       <c r="AA35" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="3">
         <v>0</v>
@@ -6166,7 +6188,7 @@
         <v>0</v>
       </c>
       <c r="AT35" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU35" s="3">
         <v>-1</v>
@@ -6177,18 +6199,18 @@
       <c r="AW35" s="3">
         <v>-1</v>
       </c>
-      <c r="AX35" s="6"/>
+      <c r="AX35" s="7"/>
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6200,7 +6222,7 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6209,13 +6231,13 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
       </c>
       <c r="M36" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N36" s="3">
         <v>0</v>
@@ -6227,7 +6249,7 @@
         <v>0</v>
       </c>
       <c r="Q36" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R36" s="3">
         <v>0</v>
@@ -6272,10 +6294,10 @@
         <v>0</v>
       </c>
       <c r="AF36" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG36" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH36" s="3">
         <v>0</v>
@@ -6314,7 +6336,7 @@
         <v>0</v>
       </c>
       <c r="AT36" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU36" s="3">
         <v>-1</v>
@@ -6329,17 +6351,17 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>81</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>173</v>
+        <v>73</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C37" s="4"/>
-      <c r="D37" s="5" t="s">
-        <v>174</v>
+      <c r="D37" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E37" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F37" s="3">
         <v>-1</v>
@@ -6348,7 +6370,7 @@
         <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -6360,10 +6382,10 @@
         <v>0</v>
       </c>
       <c r="L37" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -6405,7 +6427,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
@@ -6420,10 +6442,10 @@
         <v>0</v>
       </c>
       <c r="AF37" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -6456,13 +6478,13 @@
         <v>0</v>
       </c>
       <c r="AR37" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS37" s="3">
         <v>0</v>
       </c>
       <c r="AT37" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU37" s="3">
         <v>-1</v>
@@ -6473,18 +6495,18 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="7"/>
+      <c r="AX37" s="6"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -6496,7 +6518,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6511,7 +6533,7 @@
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -6523,7 +6545,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -6568,10 +6590,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -6610,7 +6632,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU38" s="3">
         <v>-1</v>
@@ -6625,17 +6647,17 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>91</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>182</v>
+        <v>81</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="4" t="s">
-        <v>181</v>
+      <c r="D39" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E39" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="3">
         <v>-1</v>
@@ -6644,7 +6666,7 @@
         <v>-1</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -6656,10 +6678,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -6689,7 +6711,7 @@
         <v>0</v>
       </c>
       <c r="W39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X39" s="3">
         <v>0</v>
@@ -6716,10 +6738,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -6740,7 +6762,7 @@
         <v>0</v>
       </c>
       <c r="AN39" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO39" s="3">
         <v>0</v>
@@ -6758,7 +6780,7 @@
         <v>0</v>
       </c>
       <c r="AT39" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="3">
         <v>-1</v>
@@ -6769,18 +6791,18 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="6"/>
+      <c r="AX39" s="7"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="C40" s="4"/>
-      <c r="D40" s="5" t="s">
-        <v>195</v>
+      <c r="D40" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -6792,7 +6814,7 @@
         <v>-1</v>
       </c>
       <c r="H40" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -6804,7 +6826,7 @@
         <v>0</v>
       </c>
       <c r="L40" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M40" s="3">
         <v>0</v>
@@ -6921,17 +6943,17 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>120</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>143</v>
+      <c r="D41" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E41" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F41" s="3">
         <v>-1</v>
@@ -6940,10 +6962,10 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
@@ -6955,7 +6977,7 @@
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -6985,7 +7007,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -7012,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="AF41" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -7036,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO41" s="3">
         <v>0</v>
@@ -7054,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU41" s="3">
         <v>-1</v>
@@ -7065,18 +7087,18 @@
       <c r="AW41" s="3">
         <v>-1</v>
       </c>
-      <c r="AX41" s="7"/>
+      <c r="AX41" s="6"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="5" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7097,10 +7119,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -7217,14 +7239,14 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E43" s="3">
         <v>-1</v>
@@ -7239,7 +7261,7 @@
         <v>3</v>
       </c>
       <c r="I43" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -7257,7 +7279,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P43" s="3">
         <v>0</v>
@@ -7365,14 +7387,14 @@
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>140</v>
+        <v>121</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>135</v>
+      <c r="D44" s="5" t="s">
+        <v>144</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -7381,10 +7403,10 @@
         <v>-1</v>
       </c>
       <c r="G44" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H44" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -7393,7 +7415,7 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L44" s="3">
         <v>0</v>
@@ -7414,7 +7436,7 @@
         <v>0</v>
       </c>
       <c r="R44" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S44" s="3">
         <v>0</v>
@@ -7456,10 +7478,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7513,14 +7535,14 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>141</v>
+        <v>122</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="4" t="s">
-        <v>137</v>
+      <c r="D45" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -7532,7 +7554,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -7553,7 +7575,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -7661,17 +7683,19 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>142</v>
-      </c>
-      <c r="B46" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4" t="s">
-        <v>188</v>
+        <v>123</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E46" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F46" s="3">
         <v>-1</v>
@@ -7680,7 +7704,7 @@
         <v>-1</v>
       </c>
       <c r="H46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -7695,7 +7719,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -7725,7 +7749,7 @@
         <v>0</v>
       </c>
       <c r="W46" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X46" s="3">
         <v>0</v>
@@ -7752,10 +7776,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG46" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -7776,7 +7800,7 @@
         <v>0</v>
       </c>
       <c r="AN46" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO46" s="3">
         <v>0</v>
@@ -7794,7 +7818,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU46" s="3">
         <v>-1</v>
@@ -7805,18 +7829,18 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="6"/>
+      <c r="AX46" s="7"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>183</v>
+        <v>134</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="4" t="s">
-        <v>184</v>
+        <v>135</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7858,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -7957,14 +7981,14 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>161</v>
+        <v>141</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>185</v>
+        <v>136</v>
       </c>
       <c r="C48" s="4"/>
       <c r="D48" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -7976,7 +8000,7 @@
         <v>-1</v>
       </c>
       <c r="H48" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -7994,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="N48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O48" s="3">
         <v>0</v>
@@ -8105,17 +8129,17 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>170</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C49" s="4"/>
-      <c r="D49" s="5" t="s">
-        <v>148</v>
+      <c r="D49" s="4" t="s">
+        <v>186</v>
       </c>
       <c r="E49" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F49" s="3">
         <v>-1</v>
@@ -8124,13 +8148,13 @@
         <v>-1</v>
       </c>
       <c r="H49" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
       </c>
       <c r="J49" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K49" s="3">
         <v>0</v>
@@ -8139,7 +8163,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -8169,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -8196,10 +8220,10 @@
         <v>0</v>
       </c>
       <c r="AF49" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG49" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH49" s="3">
         <v>0</v>
@@ -8220,7 +8244,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO49" s="3">
         <v>0</v>
@@ -8238,7 +8262,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU49" s="3">
         <v>-1</v>
@@ -8249,18 +8273,18 @@
       <c r="AW49" s="3">
         <v>-1</v>
       </c>
-      <c r="AX49" s="7"/>
+      <c r="AX49" s="6"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>171</v>
+        <v>160</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>149</v>
+        <v>181</v>
       </c>
       <c r="C50" s="4"/>
-      <c r="D50" s="5" t="s">
-        <v>150</v>
+      <c r="D50" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8269,16 +8293,16 @@
         <v>-1</v>
       </c>
       <c r="G50" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
       </c>
       <c r="J50" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K50" s="3">
         <v>0</v>
@@ -8302,7 +8326,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
@@ -8344,10 +8368,10 @@
         <v>0</v>
       </c>
       <c r="AF50" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -8401,16 +8425,14 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>174</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>139</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>140</v>
+        <v>184</v>
       </c>
       <c r="E51" s="3">
         <v>-1</v>
@@ -8422,7 +8444,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -8440,7 +8462,7 @@
         <v>0</v>
       </c>
       <c r="N51" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -8551,14 +8573,14 @@
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>189</v>
+        <v>147</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>190</v>
+      <c r="D52" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -8576,10 +8598,10 @@
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K52" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L52" s="3">
         <v>0</v>
@@ -8699,14 +8721,14 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>191</v>
+        <v>149</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>192</v>
+      <c r="D53" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -8718,16 +8740,16 @@
         <v>-1</v>
       </c>
       <c r="H53" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I53" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K53" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L53" s="3">
         <v>0</v>
@@ -8790,10 +8812,10 @@
         <v>0</v>
       </c>
       <c r="AF53" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -8826,7 +8848,7 @@
         <v>0</v>
       </c>
       <c r="AR53" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS53" s="3">
         <v>0</v>
@@ -8847,312 +8869,602 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
+        <v>174</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="E54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H54" s="3">
+        <v>0</v>
+      </c>
+      <c r="I54" s="3">
+        <v>0</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
+        <v>0</v>
+      </c>
+      <c r="O54" s="3">
+        <v>0</v>
+      </c>
+      <c r="P54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q54" s="3">
+        <v>0</v>
+      </c>
+      <c r="R54" s="3">
+        <v>0</v>
+      </c>
+      <c r="S54" s="3">
+        <v>0</v>
+      </c>
+      <c r="T54" s="3">
+        <v>0</v>
+      </c>
+      <c r="U54" s="3">
+        <v>0</v>
+      </c>
+      <c r="V54" s="3">
+        <v>0</v>
+      </c>
+      <c r="W54" s="3">
+        <v>0</v>
+      </c>
+      <c r="X54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV54" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX54" s="7"/>
+    </row>
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
+        <v>180</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H55" s="3">
+        <v>3</v>
+      </c>
+      <c r="I55" s="3">
+        <v>0</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
+        <v>0</v>
+      </c>
+      <c r="P55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="3">
+        <v>0</v>
+      </c>
+      <c r="R55" s="3">
+        <v>0</v>
+      </c>
+      <c r="S55" s="3">
+        <v>0</v>
+      </c>
+      <c r="T55" s="3">
+        <v>0</v>
+      </c>
+      <c r="U55" s="3">
+        <v>0</v>
+      </c>
+      <c r="V55" s="3">
+        <v>0</v>
+      </c>
+      <c r="W55" s="3">
+        <v>0</v>
+      </c>
+      <c r="X55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV55" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX55" s="7"/>
+    </row>
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
+        <v>181</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H56" s="3">
+        <v>4</v>
+      </c>
+      <c r="I56" s="3">
+        <v>-80</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="3">
+        <v>80</v>
+      </c>
+      <c r="L56" s="3">
+        <v>0</v>
+      </c>
+      <c r="M56" s="3">
+        <v>0</v>
+      </c>
+      <c r="N56" s="3">
+        <v>0</v>
+      </c>
+      <c r="O56" s="3">
+        <v>0</v>
+      </c>
+      <c r="P56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q56" s="3">
+        <v>0</v>
+      </c>
+      <c r="R56" s="3">
+        <v>0</v>
+      </c>
+      <c r="S56" s="3">
+        <v>0</v>
+      </c>
+      <c r="T56" s="3">
+        <v>0</v>
+      </c>
+      <c r="U56" s="3">
+        <v>0</v>
+      </c>
+      <c r="V56" s="3">
+        <v>0</v>
+      </c>
+      <c r="W56" s="3">
+        <v>0</v>
+      </c>
+      <c r="X56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y56" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG56" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV56" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW56" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX56" s="7"/>
+    </row>
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>182</v>
       </c>
-      <c r="B54" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E54" s="3">
+      <c r="B57" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="3">
         <v>181</v>
       </c>
-      <c r="F54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H54" s="3">
+      <c r="F57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="3">
         <v>2</v>
       </c>
-      <c r="I54" s="3">
-        <v>0</v>
-      </c>
-      <c r="J54" s="3">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
-      </c>
-      <c r="O54" s="3">
-        <v>0</v>
-      </c>
-      <c r="P54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q54" s="3">
-        <v>0</v>
-      </c>
-      <c r="R54" s="3">
-        <v>0</v>
-      </c>
-      <c r="S54" s="3">
-        <v>0</v>
-      </c>
-      <c r="T54" s="3">
-        <v>0</v>
-      </c>
-      <c r="U54" s="3">
-        <v>0</v>
-      </c>
-      <c r="V54" s="3">
-        <v>0</v>
-      </c>
-      <c r="W54" s="3">
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
         <v>4</v>
       </c>
-      <c r="X54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y54" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG54" s="3">
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG57" s="3">
         <v>2</v>
       </c>
-      <c r="AH54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN54" s="3">
+      <c r="AH57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3">
         <v>40</v>
       </c>
-      <c r="AO54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="3">
+      <c r="AO57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="3">
         <v>500</v>
       </c>
-      <c r="AU54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV54" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW54" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX54" s="6"/>
-    </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A55" s="3"/>
-      <c r="B55" s="5"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="3"/>
-      <c r="F55" s="3"/>
-      <c r="G55" s="3"/>
-      <c r="H55" s="3"/>
-      <c r="I55" s="3"/>
-      <c r="J55" s="3"/>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
-      <c r="R55" s="3"/>
-      <c r="S55" s="3"/>
-      <c r="T55" s="3"/>
-      <c r="U55" s="3"/>
-      <c r="V55" s="3"/>
-      <c r="W55" s="3"/>
-      <c r="X55" s="3"/>
-      <c r="Y55" s="3"/>
-      <c r="Z55" s="3"/>
-      <c r="AA55" s="3"/>
-      <c r="AB55" s="3"/>
-      <c r="AC55" s="3"/>
-      <c r="AD55" s="3"/>
-      <c r="AE55" s="3"/>
-      <c r="AF55" s="3"/>
-      <c r="AG55" s="3"/>
-      <c r="AH55" s="3"/>
-      <c r="AI55" s="3"/>
-      <c r="AJ55" s="3"/>
-      <c r="AK55" s="3"/>
-      <c r="AL55" s="3"/>
-      <c r="AM55" s="3"/>
-      <c r="AN55" s="3"/>
-      <c r="AO55" s="3"/>
-      <c r="AP55" s="3"/>
-      <c r="AQ55" s="3"/>
-      <c r="AR55" s="3"/>
-      <c r="AS55" s="3"/>
-      <c r="AT55" s="3"/>
-      <c r="AU55" s="3"/>
-      <c r="AV55" s="3"/>
-      <c r="AW55" s="3"/>
-      <c r="AX55" s="7"/>
-    </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A56" s="3"/>
-      <c r="B56" s="5"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="5"/>
-      <c r="E56" s="3"/>
-      <c r="F56" s="3"/>
-      <c r="G56" s="3"/>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-      <c r="R56" s="3"/>
-      <c r="S56" s="3"/>
-      <c r="T56" s="3"/>
-      <c r="U56" s="3"/>
-      <c r="V56" s="3"/>
-      <c r="W56" s="3"/>
-      <c r="X56" s="3"/>
-      <c r="Y56" s="3"/>
-      <c r="Z56" s="3"/>
-      <c r="AA56" s="3"/>
-      <c r="AB56" s="3"/>
-      <c r="AC56" s="3"/>
-      <c r="AD56" s="3"/>
-      <c r="AE56" s="3"/>
-      <c r="AF56" s="3"/>
-      <c r="AG56" s="3"/>
-      <c r="AH56" s="3"/>
-      <c r="AI56" s="3"/>
-      <c r="AJ56" s="3"/>
-      <c r="AK56" s="3"/>
-      <c r="AL56" s="3"/>
-      <c r="AM56" s="3"/>
-      <c r="AN56" s="3"/>
-      <c r="AO56" s="3"/>
-      <c r="AP56" s="3"/>
-      <c r="AQ56" s="3"/>
-      <c r="AR56" s="3"/>
-      <c r="AS56" s="3"/>
-      <c r="AT56" s="3"/>
-      <c r="AU56" s="3"/>
-      <c r="AV56" s="3"/>
-      <c r="AW56" s="3"/>
-      <c r="AX56" s="7"/>
-    </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A57" s="3"/>
-      <c r="B57" s="5"/>
-      <c r="C57" s="5"/>
-      <c r="D57" s="5"/>
-      <c r="E57" s="3"/>
-      <c r="F57" s="3"/>
-      <c r="G57" s="3"/>
-      <c r="H57" s="3"/>
-      <c r="I57" s="3"/>
-      <c r="J57" s="3"/>
-      <c r="K57" s="3"/>
-      <c r="L57" s="3"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-      <c r="R57" s="3"/>
-      <c r="S57" s="3"/>
-      <c r="T57" s="3"/>
-      <c r="U57" s="3"/>
-      <c r="V57" s="3"/>
-      <c r="W57" s="3"/>
-      <c r="X57" s="3"/>
-      <c r="Y57" s="3"/>
-      <c r="Z57" s="3"/>
-      <c r="AA57" s="3"/>
-      <c r="AB57" s="3"/>
-      <c r="AC57" s="3"/>
-      <c r="AD57" s="3"/>
-      <c r="AE57" s="3"/>
-      <c r="AF57" s="3"/>
-      <c r="AG57" s="3"/>
-      <c r="AH57" s="3"/>
-      <c r="AI57" s="3"/>
-      <c r="AJ57" s="3"/>
-      <c r="AK57" s="3"/>
-      <c r="AL57" s="3"/>
-      <c r="AM57" s="3"/>
-      <c r="AN57" s="3"/>
-      <c r="AO57" s="3"/>
-      <c r="AP57" s="3"/>
-      <c r="AQ57" s="3"/>
-      <c r="AR57" s="3"/>
-      <c r="AS57" s="3"/>
-      <c r="AT57" s="3"/>
-      <c r="AU57" s="3"/>
-      <c r="AV57" s="3"/>
-      <c r="AW57" s="3"/>
-      <c r="AX57" s="7"/>
+      <c r="AU57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX57" s="6"/>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="5"/>
-      <c r="C58" s="5"/>
+      <c r="C58" s="4"/>
       <c r="D58" s="5"/>
       <c r="E58" s="3"/>
       <c r="F58" s="3"/>
@@ -9204,8 +9516,8 @@
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="5"/>
-      <c r="C59" s="5"/>
-      <c r="D59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="5"/>
       <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
@@ -9361,7 +9673,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
+      <c r="D62" s="4"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -9827,9 +10139,9 @@
     </row>
     <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
-      <c r="B71" s="3"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="5"/>
+      <c r="D71" s="5"/>
       <c r="E71" s="3"/>
       <c r="F71" s="3"/>
       <c r="G71" s="3"/>
@@ -9879,9 +10191,9 @@
     </row>
     <row r="72" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="5"/>
+      <c r="D72" s="5"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -9931,9 +10243,9 @@
     </row>
     <row r="73" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="5"/>
+      <c r="D73" s="5"/>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
@@ -10607,7 +10919,7 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
-      <c r="B86" s="5"/>
+      <c r="B86" s="3"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
@@ -10763,7 +11075,7 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
+      <c r="B89" s="5"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -11129,7 +11441,7 @@
       <c r="A96" s="3"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
-      <c r="D96" s="4"/>
+      <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -11285,7 +11597,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="D99" s="4"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -12427,7 +12739,7 @@
     </row>
     <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
-      <c r="B121" s="5"/>
+      <c r="B121" s="3"/>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
@@ -12531,7 +12843,7 @@
     </row>
     <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
-      <c r="B123" s="5"/>
+      <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
@@ -12583,7 +12895,7 @@
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
+      <c r="B124" s="5"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -12687,7 +12999,7 @@
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
+      <c r="B126" s="5"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -15081,7 +15393,7 @@
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
-      <c r="D172" s="4"/>
+      <c r="D172" s="3"/>
       <c r="E172" s="3"/>
       <c r="F172" s="3"/>
       <c r="G172" s="3"/>
@@ -15237,7 +15549,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="3"/>
+      <c r="D175" s="4"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -15339,7 +15651,7 @@
     </row>
     <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
-      <c r="B177" s="5"/>
+      <c r="B177" s="3"/>
       <c r="C177" s="3"/>
       <c r="D177" s="3"/>
       <c r="E177" s="3"/>
@@ -15495,7 +15807,7 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="B180" s="3"/>
+      <c r="B180" s="5"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -16483,7 +16795,7 @@
     </row>
     <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
-      <c r="B199" s="4"/>
+      <c r="B199" s="3"/>
       <c r="C199" s="3"/>
       <c r="D199" s="3"/>
       <c r="E199" s="3"/>
@@ -16639,7 +16951,7 @@
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="B202" s="3"/>
+      <c r="B202" s="4"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -16743,8 +17055,8 @@
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
-      <c r="B204" s="4"/>
-      <c r="C204" s="4"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
       <c r="F204" s="3"/>
@@ -16899,8 +17211,8 @@
     </row>
     <row r="207" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
-      <c r="B207" s="3"/>
-      <c r="C207" s="3"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -19187,9 +19499,9 @@
     </row>
     <row r="251" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
-      <c r="B251" s="4"/>
-      <c r="C251" s="4"/>
-      <c r="D251" s="4"/>
+      <c r="B251" s="3"/>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
       <c r="E251" s="3"/>
       <c r="F251" s="3"/>
       <c r="G251" s="3"/>
@@ -19237,6 +19549,162 @@
       <c r="AW251" s="3"/>
       <c r="AX251" s="7"/>
     </row>
+    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A252" s="3"/>
+      <c r="B252" s="3"/>
+      <c r="C252" s="3"/>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="H252" s="3"/>
+      <c r="I252" s="3"/>
+      <c r="J252" s="3"/>
+      <c r="K252" s="3"/>
+      <c r="L252" s="3"/>
+      <c r="M252" s="3"/>
+      <c r="N252" s="3"/>
+      <c r="O252" s="3"/>
+      <c r="P252" s="3"/>
+      <c r="Q252" s="3"/>
+      <c r="R252" s="3"/>
+      <c r="S252" s="3"/>
+      <c r="T252" s="3"/>
+      <c r="U252" s="3"/>
+      <c r="V252" s="3"/>
+      <c r="W252" s="3"/>
+      <c r="X252" s="3"/>
+      <c r="Y252" s="3"/>
+      <c r="Z252" s="3"/>
+      <c r="AA252" s="3"/>
+      <c r="AB252" s="3"/>
+      <c r="AC252" s="3"/>
+      <c r="AD252" s="3"/>
+      <c r="AE252" s="3"/>
+      <c r="AF252" s="3"/>
+      <c r="AG252" s="3"/>
+      <c r="AH252" s="3"/>
+      <c r="AI252" s="3"/>
+      <c r="AJ252" s="3"/>
+      <c r="AK252" s="3"/>
+      <c r="AL252" s="3"/>
+      <c r="AM252" s="3"/>
+      <c r="AN252" s="3"/>
+      <c r="AO252" s="3"/>
+      <c r="AP252" s="3"/>
+      <c r="AQ252" s="3"/>
+      <c r="AR252" s="3"/>
+      <c r="AS252" s="3"/>
+      <c r="AT252" s="3"/>
+      <c r="AU252" s="3"/>
+      <c r="AV252" s="3"/>
+      <c r="AW252" s="3"/>
+      <c r="AX252" s="7"/>
+    </row>
+    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A253" s="3"/>
+      <c r="B253" s="3"/>
+      <c r="C253" s="3"/>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="H253" s="3"/>
+      <c r="I253" s="3"/>
+      <c r="J253" s="3"/>
+      <c r="K253" s="3"/>
+      <c r="L253" s="3"/>
+      <c r="M253" s="3"/>
+      <c r="N253" s="3"/>
+      <c r="O253" s="3"/>
+      <c r="P253" s="3"/>
+      <c r="Q253" s="3"/>
+      <c r="R253" s="3"/>
+      <c r="S253" s="3"/>
+      <c r="T253" s="3"/>
+      <c r="U253" s="3"/>
+      <c r="V253" s="3"/>
+      <c r="W253" s="3"/>
+      <c r="X253" s="3"/>
+      <c r="Y253" s="3"/>
+      <c r="Z253" s="3"/>
+      <c r="AA253" s="3"/>
+      <c r="AB253" s="3"/>
+      <c r="AC253" s="3"/>
+      <c r="AD253" s="3"/>
+      <c r="AE253" s="3"/>
+      <c r="AF253" s="3"/>
+      <c r="AG253" s="3"/>
+      <c r="AH253" s="3"/>
+      <c r="AI253" s="3"/>
+      <c r="AJ253" s="3"/>
+      <c r="AK253" s="3"/>
+      <c r="AL253" s="3"/>
+      <c r="AM253" s="3"/>
+      <c r="AN253" s="3"/>
+      <c r="AO253" s="3"/>
+      <c r="AP253" s="3"/>
+      <c r="AQ253" s="3"/>
+      <c r="AR253" s="3"/>
+      <c r="AS253" s="3"/>
+      <c r="AT253" s="3"/>
+      <c r="AU253" s="3"/>
+      <c r="AV253" s="3"/>
+      <c r="AW253" s="3"/>
+      <c r="AX253" s="7"/>
+    </row>
+    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A254" s="3"/>
+      <c r="B254" s="4"/>
+      <c r="C254" s="4"/>
+      <c r="D254" s="4"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="H254" s="3"/>
+      <c r="I254" s="3"/>
+      <c r="J254" s="3"/>
+      <c r="K254" s="3"/>
+      <c r="L254" s="3"/>
+      <c r="M254" s="3"/>
+      <c r="N254" s="3"/>
+      <c r="O254" s="3"/>
+      <c r="P254" s="3"/>
+      <c r="Q254" s="3"/>
+      <c r="R254" s="3"/>
+      <c r="S254" s="3"/>
+      <c r="T254" s="3"/>
+      <c r="U254" s="3"/>
+      <c r="V254" s="3"/>
+      <c r="W254" s="3"/>
+      <c r="X254" s="3"/>
+      <c r="Y254" s="3"/>
+      <c r="Z254" s="3"/>
+      <c r="AA254" s="3"/>
+      <c r="AB254" s="3"/>
+      <c r="AC254" s="3"/>
+      <c r="AD254" s="3"/>
+      <c r="AE254" s="3"/>
+      <c r="AF254" s="3"/>
+      <c r="AG254" s="3"/>
+      <c r="AH254" s="3"/>
+      <c r="AI254" s="3"/>
+      <c r="AJ254" s="3"/>
+      <c r="AK254" s="3"/>
+      <c r="AL254" s="3"/>
+      <c r="AM254" s="3"/>
+      <c r="AN254" s="3"/>
+      <c r="AO254" s="3"/>
+      <c r="AP254" s="3"/>
+      <c r="AQ254" s="3"/>
+      <c r="AR254" s="3"/>
+      <c r="AS254" s="3"/>
+      <c r="AT254" s="3"/>
+      <c r="AU254" s="3"/>
+      <c r="AV254" s="3"/>
+      <c r="AW254" s="3"/>
+      <c r="AX254" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="211">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -702,6 +702,22 @@
   </si>
   <si>
     <t>卷山狂刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青竹杖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜马靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫桥山庄武器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫桥山庄靴子</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1149,11 +1165,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX254"/>
+  <dimension ref="A1:AX256"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2207,51 +2223,51 @@
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>20</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>104</v>
+        <v>13</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>207</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>176</v>
+        <v>209</v>
       </c>
       <c r="E9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
         <v>20</v>
       </c>
-      <c r="F9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H9" s="3">
-        <v>2</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
       <c r="Q9" s="3">
         <v>0</v>
       </c>
@@ -2274,7 +2290,7 @@
         <v>0</v>
       </c>
       <c r="X9" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="3">
         <v>0</v>
@@ -2301,7 +2317,7 @@
         <v>-1</v>
       </c>
       <c r="AG9" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH9" s="3">
         <v>0</v>
@@ -2340,7 +2356,7 @@
         <v>0</v>
       </c>
       <c r="AT9" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU9" s="3">
         <v>-1</v>
@@ -2351,18 +2367,18 @@
       <c r="AW9" s="3">
         <v>-1</v>
       </c>
-      <c r="AX9" s="6"/>
+      <c r="AX9" s="7"/>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>105</v>
+        <v>208</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2371,7 +2387,7 @@
         <v>-1</v>
       </c>
       <c r="G10" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="3">
         <v>1</v>
@@ -2398,13 +2414,13 @@
         <v>0</v>
       </c>
       <c r="P10" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="R10" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S10" s="3">
         <v>0</v>
@@ -2455,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="3">
         <v>0</v>
@@ -2473,7 +2489,7 @@
         <v>0</v>
       </c>
       <c r="AO10" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP10" s="3">
         <v>0</v>
@@ -2503,26 +2519,26 @@
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>22</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>106</v>
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>107</v>
+        <v>176</v>
       </c>
       <c r="E11" s="3">
-        <v>-1</v>
+        <v>20</v>
       </c>
       <c r="F11" s="3">
         <v>-1</v>
       </c>
       <c r="G11" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H11" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11" s="3">
         <v>0</v>
@@ -2537,7 +2553,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N11" s="3">
         <v>0</v>
@@ -2552,7 +2568,7 @@
         <v>0</v>
       </c>
       <c r="R11" s="3">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="S11" s="3">
         <v>0</v>
@@ -2570,7 +2586,7 @@
         <v>0</v>
       </c>
       <c r="X11" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y11" s="3">
         <v>0</v>
@@ -2597,7 +2613,7 @@
         <v>-1</v>
       </c>
       <c r="AG11" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH11" s="3">
         <v>0</v>
@@ -2621,7 +2637,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP11" s="3">
         <v>0</v>
@@ -2636,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AT11" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU11" s="3">
         <v>-1</v>
@@ -2647,18 +2663,18 @@
       <c r="AW11" s="3">
         <v>-1</v>
       </c>
-      <c r="AX11" s="7"/>
+      <c r="AX11" s="6"/>
     </row>
     <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>163</v>
+        <v>105</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -2667,10 +2683,10 @@
         <v>-1</v>
       </c>
       <c r="G12" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="3">
         <v>0</v>
@@ -2694,7 +2710,7 @@
         <v>0</v>
       </c>
       <c r="P12" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Q12" s="3">
         <v>0</v>
@@ -2742,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="AF12" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG12" s="3">
         <v>0</v>
@@ -2751,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="AI12" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ12" s="3">
         <v>0</v>
@@ -2769,7 +2785,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP12" s="3">
         <v>0</v>
@@ -2799,14 +2815,14 @@
     </row>
     <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -2815,13 +2831,13 @@
         <v>-1</v>
       </c>
       <c r="G13" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H13" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I13" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J13" s="3">
         <v>0</v>
@@ -2848,7 +2864,7 @@
         <v>0</v>
       </c>
       <c r="R13" s="3">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="S13" s="3">
         <v>0</v>
@@ -2890,7 +2906,7 @@
         <v>0</v>
       </c>
       <c r="AF13" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG13" s="3">
         <v>0</v>
@@ -2947,17 +2963,17 @@
     </row>
     <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>110</v>
+        <v>163</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>111</v>
+        <v>200</v>
       </c>
       <c r="E14" s="3">
-        <v>32</v>
+        <v>-1</v>
       </c>
       <c r="F14" s="3">
         <v>-1</v>
@@ -2966,7 +2982,7 @@
         <v>-1</v>
       </c>
       <c r="H14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" s="3">
         <v>0</v>
@@ -2981,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -2999,7 +3015,7 @@
         <v>0</v>
       </c>
       <c r="S14" s="3">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="T14" s="3">
         <v>0</v>
@@ -3038,13 +3054,13 @@
         <v>0</v>
       </c>
       <c r="AF14" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG14" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH14" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="3">
         <v>0</v>
@@ -3062,7 +3078,7 @@
         <v>0</v>
       </c>
       <c r="AN14" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="3">
         <v>0</v>
@@ -3080,7 +3096,7 @@
         <v>0</v>
       </c>
       <c r="AT14" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="AU14" s="3">
         <v>-1</v>
@@ -3095,14 +3111,14 @@
     </row>
     <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -3111,13 +3127,13 @@
         <v>-1</v>
       </c>
       <c r="G15" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H15" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I15" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J15" s="3">
         <v>0</v>
@@ -3144,7 +3160,7 @@
         <v>0</v>
       </c>
       <c r="R15" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="S15" s="3">
         <v>0</v>
@@ -3156,7 +3172,7 @@
         <v>0</v>
       </c>
       <c r="V15" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="W15" s="3">
         <v>0</v>
@@ -3186,7 +3202,7 @@
         <v>0</v>
       </c>
       <c r="AF15" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG15" s="3">
         <v>0</v>
@@ -3243,17 +3259,17 @@
     </row>
     <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E16" s="3">
-        <v>-1</v>
+        <v>32</v>
       </c>
       <c r="F16" s="3">
         <v>-1</v>
@@ -3268,7 +3284,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="K16" s="3">
         <v>0</v>
@@ -3277,25 +3293,25 @@
         <v>0</v>
       </c>
       <c r="M16" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N16" s="3">
         <v>0</v>
       </c>
       <c r="O16" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="P16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R16" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="S16" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T16" s="3">
         <v>0</v>
@@ -3340,7 +3356,7 @@
         <v>2</v>
       </c>
       <c r="AH16" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AI16" s="3">
         <v>0</v>
@@ -3358,7 +3374,7 @@
         <v>0</v>
       </c>
       <c r="AN16" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO16" s="3">
         <v>0</v>
@@ -3376,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="AT16" s="3">
-        <v>500</v>
+        <v>200</v>
       </c>
       <c r="AU16" s="3">
         <v>-1</v>
@@ -3391,26 +3407,26 @@
     </row>
     <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>34</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>173</v>
+        <v>32</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>112</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>175</v>
+        <v>113</v>
       </c>
       <c r="E17" s="3">
-        <v>30</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="3">
         <v>-1</v>
       </c>
       <c r="G17" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H17" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" s="3">
         <v>0</v>
@@ -3425,7 +3441,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N17" s="3">
         <v>0</v>
@@ -3440,7 +3456,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="S17" s="3">
         <v>0</v>
@@ -3452,10 +3468,10 @@
         <v>0</v>
       </c>
       <c r="V17" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="W17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X17" s="3">
         <v>0</v>
@@ -3485,7 +3501,7 @@
         <v>-1</v>
       </c>
       <c r="AG17" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH17" s="3">
         <v>0</v>
@@ -3506,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="3">
         <v>0</v>
@@ -3524,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="AT17" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU17" s="3">
         <v>-1</v>
@@ -3535,21 +3551,21 @@
       <c r="AW17" s="3">
         <v>-1</v>
       </c>
-      <c r="AX17" s="6"/>
+      <c r="AX17" s="7"/>
     </row>
     <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>35</v>
-      </c>
-      <c r="B18" s="4" t="s">
-        <v>197</v>
+        <v>33</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>198</v>
+        <v>115</v>
       </c>
       <c r="E18" s="3">
-        <v>31</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="3">
         <v>-1</v>
@@ -3564,7 +3580,7 @@
         <v>0</v>
       </c>
       <c r="J18" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="K18" s="3">
         <v>0</v>
@@ -3573,22 +3589,22 @@
         <v>0</v>
       </c>
       <c r="M18" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>0</v>
       </c>
       <c r="O18" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="P18" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q18" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R18" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="S18" s="3">
         <v>0</v>
@@ -3603,7 +3619,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X18" s="3">
         <v>0</v>
@@ -3654,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="AN18" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="3">
         <v>0</v>
@@ -3683,21 +3699,21 @@
       <c r="AW18" s="3">
         <v>-1</v>
       </c>
-      <c r="AX18" s="6"/>
+      <c r="AX18" s="7"/>
     </row>
     <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>40</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>116</v>
+        <v>34</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="E19" s="3">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="F19" s="3">
         <v>-1</v>
@@ -3706,10 +3722,10 @@
         <v>-1</v>
       </c>
       <c r="H19" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I19" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="J19" s="3">
         <v>0</v>
@@ -3721,7 +3737,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N19" s="3">
         <v>0</v>
@@ -3751,7 +3767,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X19" s="3">
         <v>0</v>
@@ -3778,10 +3794,10 @@
         <v>0</v>
       </c>
       <c r="AF19" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG19" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH19" s="3">
         <v>0</v>
@@ -3802,7 +3818,7 @@
         <v>0</v>
       </c>
       <c r="AN19" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO19" s="3">
         <v>0</v>
@@ -3820,7 +3836,7 @@
         <v>0</v>
       </c>
       <c r="AT19" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU19" s="3">
         <v>-1</v>
@@ -3831,30 +3847,30 @@
       <c r="AW19" s="3">
         <v>-1</v>
       </c>
-      <c r="AX19" s="7"/>
+      <c r="AX19" s="6"/>
     </row>
     <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>41</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>118</v>
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>119</v>
+        <v>198</v>
       </c>
       <c r="E20" s="3">
-        <v>-1</v>
+        <v>31</v>
       </c>
       <c r="F20" s="3">
         <v>-1</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="3">
         <v>0</v>
@@ -3869,7 +3885,7 @@
         <v>0</v>
       </c>
       <c r="M20" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
@@ -3878,7 +3894,7 @@
         <v>0</v>
       </c>
       <c r="P20" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="3">
         <v>0</v>
@@ -3899,7 +3915,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X20" s="3">
         <v>0</v>
@@ -3929,13 +3945,13 @@
         <v>-1</v>
       </c>
       <c r="AG20" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH20" s="3">
         <v>0</v>
       </c>
       <c r="AI20" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="3">
         <v>0</v>
@@ -3950,13 +3966,13 @@
         <v>0</v>
       </c>
       <c r="AN20" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO20" s="3">
         <v>0</v>
       </c>
       <c r="AP20" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ20" s="3">
         <v>0</v>
@@ -3968,7 +3984,7 @@
         <v>0</v>
       </c>
       <c r="AT20" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU20" s="3">
         <v>-1</v>
@@ -3979,18 +3995,18 @@
       <c r="AW20" s="3">
         <v>-1</v>
       </c>
-      <c r="AX20" s="7"/>
+      <c r="AX20" s="6"/>
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>152</v>
+        <v>116</v>
       </c>
       <c r="C21" s="4"/>
-      <c r="D21" s="5" t="s">
-        <v>157</v>
+      <c r="D21" s="4" t="s">
+        <v>117</v>
       </c>
       <c r="E21" s="3">
         <v>-1</v>
@@ -3999,13 +4015,13 @@
         <v>-1</v>
       </c>
       <c r="G21" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H21" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I21" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J21" s="3">
         <v>0</v>
@@ -4026,7 +4042,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="3">
         <v>0</v>
@@ -4074,7 +4090,7 @@
         <v>0</v>
       </c>
       <c r="AF21" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG21" s="3">
         <v>0</v>
@@ -4083,7 +4099,7 @@
         <v>0</v>
       </c>
       <c r="AI21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="3">
         <v>0</v>
@@ -4101,7 +4117,7 @@
         <v>0</v>
       </c>
       <c r="AO21" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP21" s="3">
         <v>0</v>
@@ -4131,14 +4147,14 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>153</v>
+        <v>118</v>
       </c>
       <c r="C22" s="4"/>
-      <c r="D22" s="5" t="s">
-        <v>158</v>
+      <c r="D22" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -4174,7 +4190,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -4231,7 +4247,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ22" s="3">
         <v>0</v>
@@ -4252,7 +4268,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AQ22" s="3">
         <v>0</v>
@@ -4279,14 +4295,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4397,13 +4413,13 @@
         <v>0</v>
       </c>
       <c r="AO23" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP23" s="3">
         <v>0</v>
       </c>
       <c r="AQ23" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR23" s="3">
         <v>0</v>
@@ -4427,14 +4443,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="4" t="s">
-        <v>156</v>
+      <c r="D24" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4443,7 +4459,7 @@
         <v>-1</v>
       </c>
       <c r="G24" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" s="3">
         <v>1</v>
@@ -4470,65 +4486,65 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q24" s="3">
         <v>0</v>
       </c>
       <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
+        <v>0</v>
+      </c>
+      <c r="X24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF24" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="3">
         <v>20</v>
       </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
-      <c r="X24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH24" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI24" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ24" s="3">
         <v>0</v>
       </c>
@@ -4548,7 +4564,7 @@
         <v>0</v>
       </c>
       <c r="AP24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ24" s="3">
         <v>0</v>
@@ -4575,14 +4591,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4618,7 +4634,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -4693,13 +4709,13 @@
         <v>0</v>
       </c>
       <c r="AO25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="3">
         <v>20</v>
-      </c>
-      <c r="AP25" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ25" s="3">
-        <v>0</v>
       </c>
       <c r="AR25" s="3">
         <v>0</v>
@@ -4723,14 +4739,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4772,7 +4788,7 @@
         <v>0</v>
       </c>
       <c r="R26" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S26" s="3">
         <v>0</v>
@@ -4871,14 +4887,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>201</v>
+        <v>159</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
-        <v>199</v>
+      <c r="D27" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4887,10 +4903,10 @@
         <v>-1</v>
       </c>
       <c r="G27" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I27" s="3">
         <v>0</v>
@@ -4914,7 +4930,7 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
@@ -4962,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="AF27" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG27" s="3">
         <v>0</v>
@@ -4971,7 +4987,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ27" s="3">
         <v>0</v>
@@ -4989,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP27" s="3">
         <v>0</v>
@@ -5019,26 +5035,26 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>49</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4" t="s">
-        <v>186</v>
+        <v>47</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E28" s="3">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="F28" s="3">
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H28" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I28" s="3">
         <v>0</v>
@@ -5053,7 +5069,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N28" s="3">
         <v>0</v>
@@ -5068,7 +5084,7 @@
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -5089,7 +5105,7 @@
         <v>0</v>
       </c>
       <c r="Y28" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z28" s="3">
         <v>0</v>
@@ -5113,7 +5129,7 @@
         <v>-1</v>
       </c>
       <c r="AG28" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH28" s="3">
         <v>0</v>
@@ -5140,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="AP28" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ28" s="3">
         <v>0</v>
@@ -5152,7 +5168,7 @@
         <v>0</v>
       </c>
       <c r="AT28" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU28" s="3">
         <v>-1</v>
@@ -5163,18 +5179,18 @@
       <c r="AW28" s="3">
         <v>-1</v>
       </c>
-      <c r="AX28" s="6"/>
+      <c r="AX28" s="7"/>
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4" t="s">
-        <v>165</v>
+        <v>199</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -5315,26 +5331,26 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>60</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>120</v>
+        <v>49</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>206</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="E30" s="3">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="F30" s="3">
         <v>-1</v>
       </c>
       <c r="G30" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H30" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -5349,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -5364,80 +5380,80 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG30" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="3">
         <v>40</v>
       </c>
-      <c r="S30" s="3">
-        <v>0</v>
-      </c>
-      <c r="T30" s="3">
-        <v>0</v>
-      </c>
-      <c r="U30" s="3">
-        <v>0</v>
-      </c>
-      <c r="V30" s="3">
-        <v>0</v>
-      </c>
-      <c r="W30" s="3">
-        <v>0</v>
-      </c>
-      <c r="X30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF30" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AO30" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP30" s="3">
-        <v>0</v>
-      </c>
       <c r="AQ30" s="3">
         <v>0</v>
       </c>
@@ -5448,7 +5464,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU30" s="3">
         <v>-1</v>
@@ -5459,18 +5475,18 @@
       <c r="AW30" s="3">
         <v>-1</v>
       </c>
-      <c r="AX30" s="7"/>
+      <c r="AX30" s="6"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>61</v>
+        <v>50</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E31" s="3">
         <v>-1</v>
@@ -5479,10 +5495,10 @@
         <v>-1</v>
       </c>
       <c r="G31" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H31" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -5506,7 +5522,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -5554,7 +5570,7 @@
         <v>0</v>
       </c>
       <c r="AF31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG31" s="3">
         <v>0</v>
@@ -5563,7 +5579,7 @@
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
@@ -5581,7 +5597,7 @@
         <v>0</v>
       </c>
       <c r="AO31" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP31" s="3">
         <v>0</v>
@@ -5611,14 +5627,14 @@
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5627,7 +5643,7 @@
         <v>-1</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
         <v>1</v>
@@ -5654,13 +5670,13 @@
         <v>0</v>
       </c>
       <c r="P32" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="3">
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -5711,7 +5727,7 @@
         <v>0</v>
       </c>
       <c r="AI32" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ32" s="3">
         <v>0</v>
@@ -5732,7 +5748,7 @@
         <v>0</v>
       </c>
       <c r="AP32" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ32" s="3">
         <v>0</v>
@@ -5759,14 +5775,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5775,34 +5791,34 @@
         <v>-1</v>
       </c>
       <c r="G33" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H33" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I33" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J33" s="3">
         <v>0</v>
       </c>
       <c r="K33" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L33" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M33" s="3">
         <v>0</v>
       </c>
       <c r="N33" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O33" s="3">
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
@@ -5850,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG33" s="3">
         <v>0</v>
@@ -5859,7 +5875,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ33" s="3">
         <v>0</v>
@@ -5877,7 +5893,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP33" s="3">
         <v>0</v>
@@ -5907,14 +5923,14 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -5923,10 +5939,10 @@
         <v>-1</v>
       </c>
       <c r="G34" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -5950,7 +5966,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -5998,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="AF34" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG34" s="3">
         <v>0</v>
@@ -6007,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
@@ -6028,7 +6044,7 @@
         <v>0</v>
       </c>
       <c r="AP34" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ34" s="3">
         <v>0</v>
@@ -6055,14 +6071,14 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>166</v>
+        <v>126</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -6074,25 +6090,25 @@
         <v>-1</v>
       </c>
       <c r="H35" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I35" s="3">
-        <v>-50</v>
+        <v>5000</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>50</v>
+        <v>-100</v>
       </c>
       <c r="L35" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
@@ -6146,10 +6162,10 @@
         <v>0</v>
       </c>
       <c r="AF35" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH35" s="3">
         <v>0</v>
@@ -6182,7 +6198,7 @@
         <v>0</v>
       </c>
       <c r="AR35" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS35" s="3">
         <v>0</v>
@@ -6203,14 +6219,14 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>168</v>
+        <v>128</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>169</v>
+        <v>129</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6222,7 +6238,7 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I36" s="3">
         <v>0</v>
@@ -6231,7 +6247,7 @@
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>-40</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
         <v>0</v>
@@ -6351,17 +6367,17 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>73</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>195</v>
+        <v>71</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>166</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
       <c r="E37" s="3">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="F37" s="3">
         <v>-1</v>
@@ -6370,22 +6386,22 @@
         <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I37" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
       </c>
       <c r="M37" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N37" s="3">
         <v>0</v>
@@ -6427,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="AA37" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="3">
         <v>0</v>
@@ -6484,7 +6500,7 @@
         <v>0</v>
       </c>
       <c r="AT37" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU37" s="3">
         <v>-1</v>
@@ -6495,18 +6511,18 @@
       <c r="AW37" s="3">
         <v>-1</v>
       </c>
-      <c r="AX37" s="6"/>
+      <c r="AX37" s="7"/>
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>131</v>
+        <v>169</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -6518,7 +6534,7 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I38" s="3">
         <v>0</v>
@@ -6527,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
       </c>
       <c r="M38" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N38" s="3">
         <v>0</v>
@@ -6545,7 +6561,7 @@
         <v>0</v>
       </c>
       <c r="Q38" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R38" s="3">
         <v>0</v>
@@ -6590,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -6632,7 +6648,7 @@
         <v>0</v>
       </c>
       <c r="AT38" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU38" s="3">
         <v>-1</v>
@@ -6647,17 +6663,17 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>81</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>73</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>195</v>
       </c>
       <c r="C39" s="4"/>
-      <c r="D39" s="5" t="s">
-        <v>172</v>
+      <c r="D39" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="E39" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F39" s="3">
         <v>-1</v>
@@ -6666,7 +6682,7 @@
         <v>-1</v>
       </c>
       <c r="H39" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -6678,10 +6694,10 @@
         <v>0</v>
       </c>
       <c r="L39" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -6723,7 +6739,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
@@ -6738,10 +6754,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG39" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -6774,13 +6790,13 @@
         <v>0</v>
       </c>
       <c r="AR39" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS39" s="3">
         <v>0</v>
       </c>
       <c r="AT39" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU39" s="3">
         <v>-1</v>
@@ -6791,18 +6807,18 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="7"/>
+      <c r="AX39" s="6"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="E40" s="3">
         <v>-1</v>
@@ -6814,7 +6830,7 @@
         <v>-1</v>
       </c>
       <c r="H40" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -6829,7 +6845,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -6841,7 +6857,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -6886,10 +6902,10 @@
         <v>0</v>
       </c>
       <c r="AF40" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG40" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -6928,7 +6944,7 @@
         <v>0</v>
       </c>
       <c r="AT40" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU40" s="3">
         <v>-1</v>
@@ -6943,17 +6959,17 @@
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>91</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>180</v>
+        <v>81</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>171</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="4" t="s">
-        <v>179</v>
+      <c r="D41" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E41" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F41" s="3">
         <v>-1</v>
@@ -6962,7 +6978,7 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -6974,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M41" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -7007,7 +7023,7 @@
         <v>0</v>
       </c>
       <c r="W41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X41" s="3">
         <v>0</v>
@@ -7034,10 +7050,10 @@
         <v>0</v>
       </c>
       <c r="AF41" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -7058,7 +7074,7 @@
         <v>0</v>
       </c>
       <c r="AN41" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO41" s="3">
         <v>0</v>
@@ -7076,7 +7092,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="3">
         <v>-1</v>
@@ -7087,18 +7103,18 @@
       <c r="AW41" s="3">
         <v>-1</v>
       </c>
-      <c r="AX41" s="6"/>
+      <c r="AX41" s="7"/>
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>194</v>
+        <v>132</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="5" t="s">
-        <v>193</v>
+      <c r="D42" s="4" t="s">
+        <v>133</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7110,7 +7126,7 @@
         <v>-1</v>
       </c>
       <c r="H42" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -7122,7 +7138,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -7239,17 +7255,17 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>120</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>141</v>
+        <v>91</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>180</v>
       </c>
       <c r="C43" s="4"/>
-      <c r="D43" s="5" t="s">
-        <v>143</v>
+      <c r="D43" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="E43" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F43" s="3">
         <v>-1</v>
@@ -7258,10 +7274,10 @@
         <v>-1</v>
       </c>
       <c r="H43" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I43" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J43" s="3">
         <v>0</v>
@@ -7273,7 +7289,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -7303,7 +7319,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -7330,10 +7346,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -7354,7 +7370,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO43" s="3">
         <v>0</v>
@@ -7372,7 +7388,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU43" s="3">
         <v>-1</v>
@@ -7383,18 +7399,18 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="7"/>
+      <c r="AX43" s="6"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>142</v>
+        <v>194</v>
       </c>
       <c r="C44" s="4"/>
       <c r="D44" s="5" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="E44" s="3">
         <v>-1</v>
@@ -7415,10 +7431,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M44" s="3">
         <v>0</v>
@@ -7535,14 +7551,14 @@
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -7557,7 +7573,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -7575,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P45" s="3">
         <v>0</v>
@@ -7683,16 +7699,14 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>204</v>
+        <v>144</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -7704,7 +7718,7 @@
         <v>-1</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I46" s="3">
         <v>0</v>
@@ -7713,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7833,14 +7847,14 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>140</v>
+        <v>122</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="C47" s="4"/>
-      <c r="D47" s="4" t="s">
-        <v>135</v>
+      <c r="D47" s="5" t="s">
+        <v>146</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7849,10 +7863,10 @@
         <v>-1</v>
       </c>
       <c r="G47" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H47" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -7873,7 +7887,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -7882,7 +7896,7 @@
         <v>0</v>
       </c>
       <c r="R47" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S47" s="3">
         <v>0</v>
@@ -7924,10 +7938,10 @@
         <v>0</v>
       </c>
       <c r="AF47" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG47" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -7981,14 +7995,16 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>141</v>
+        <v>123</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C48" s="4"/>
-      <c r="D48" s="4" t="s">
-        <v>137</v>
+        <v>203</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>204</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -8129,26 +8145,26 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>142</v>
-      </c>
-      <c r="B49" s="4" t="s">
-        <v>185</v>
+        <v>140</v>
+      </c>
+      <c r="B49" s="5" t="s">
+        <v>134</v>
       </c>
       <c r="C49" s="4"/>
       <c r="D49" s="4" t="s">
-        <v>186</v>
+        <v>135</v>
       </c>
       <c r="E49" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F49" s="3">
         <v>-1</v>
       </c>
       <c r="G49" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H49" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -8163,7 +8179,7 @@
         <v>0</v>
       </c>
       <c r="M49" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N49" s="3">
         <v>0</v>
@@ -8178,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -8193,7 +8209,7 @@
         <v>0</v>
       </c>
       <c r="W49" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X49" s="3">
         <v>0</v>
@@ -8244,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="AN49" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO49" s="3">
         <v>0</v>
@@ -8262,7 +8278,7 @@
         <v>0</v>
       </c>
       <c r="AT49" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU49" s="3">
         <v>-1</v>
@@ -8273,18 +8289,18 @@
       <c r="AW49" s="3">
         <v>-1</v>
       </c>
-      <c r="AX49" s="6"/>
+      <c r="AX49" s="7"/>
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>182</v>
+        <v>137</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8293,10 +8309,10 @@
         <v>-1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -8326,7 +8342,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
@@ -8368,10 +8384,10 @@
         <v>0</v>
       </c>
       <c r="AF50" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -8425,17 +8441,17 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>161</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>183</v>
+        <v>142</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>185</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E51" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F51" s="3">
         <v>-1</v>
@@ -8444,7 +8460,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -8459,10 +8475,10 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O51" s="3">
         <v>0</v>
@@ -8489,7 +8505,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X51" s="3">
         <v>0</v>
@@ -8516,10 +8532,10 @@
         <v>0</v>
       </c>
       <c r="AF51" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -8540,7 +8556,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO51" s="3">
         <v>0</v>
@@ -8558,7 +8574,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU51" s="3">
         <v>-1</v>
@@ -8569,18 +8585,18 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="7"/>
+      <c r="AX51" s="6"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="5" t="s">
-        <v>148</v>
+      <c r="D52" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="E52" s="3">
         <v>-1</v>
@@ -8589,16 +8605,16 @@
         <v>-1</v>
       </c>
       <c r="G52" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H52" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
       </c>
       <c r="J52" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="K52" s="3">
         <v>0</v>
@@ -8622,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -8664,10 +8680,10 @@
         <v>0</v>
       </c>
       <c r="AF52" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG52" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -8721,14 +8737,14 @@
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>149</v>
+        <v>183</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="5" t="s">
-        <v>150</v>
+      <c r="D53" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -8746,7 +8762,7 @@
         <v>0</v>
       </c>
       <c r="J53" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K53" s="3">
         <v>0</v>
@@ -8758,7 +8774,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O53" s="3">
         <v>0</v>
@@ -8869,16 +8885,14 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>174</v>
-      </c>
-      <c r="B54" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>140</v>
+        <v>170</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C54" s="4"/>
+      <c r="D54" s="5" t="s">
+        <v>148</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -8890,13 +8904,13 @@
         <v>-1</v>
       </c>
       <c r="H54" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I54" s="3">
         <v>0</v>
       </c>
       <c r="J54" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="K54" s="3">
         <v>0</v>
@@ -9019,14 +9033,14 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>187</v>
+        <v>149</v>
       </c>
       <c r="C55" s="4"/>
-      <c r="D55" s="4" t="s">
-        <v>188</v>
+      <c r="D55" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -9044,10 +9058,10 @@
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K55" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L55" s="3">
         <v>0</v>
@@ -9167,14 +9181,16 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>181</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D56" s="4" t="s">
-        <v>190</v>
+        <v>140</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -9186,16 +9202,16 @@
         <v>-1</v>
       </c>
       <c r="H56" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J56" s="3">
         <v>0</v>
       </c>
       <c r="K56" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L56" s="3">
         <v>0</v>
@@ -9258,10 +9274,10 @@
         <v>0</v>
       </c>
       <c r="AF56" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG56" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH56" s="3">
         <v>0</v>
@@ -9294,7 +9310,7 @@
         <v>0</v>
       </c>
       <c r="AR56" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS56" s="3">
         <v>0</v>
@@ -9315,260 +9331,452 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>182</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>187</v>
       </c>
       <c r="C57" s="4"/>
       <c r="D57" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="E57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H57" s="3">
+        <v>3</v>
+      </c>
+      <c r="I57" s="3">
+        <v>0</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="K57" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L57" s="3">
+        <v>0</v>
+      </c>
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
+        <v>0</v>
+      </c>
+      <c r="O57" s="3">
+        <v>0</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+      <c r="R57" s="3">
+        <v>0</v>
+      </c>
+      <c r="S57" s="3">
+        <v>0</v>
+      </c>
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+      <c r="V57" s="3">
+        <v>0</v>
+      </c>
+      <c r="W57" s="3">
+        <v>0</v>
+      </c>
+      <c r="X57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV57" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW57" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX57" s="7"/>
+    </row>
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
+        <v>181</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="E58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H58" s="3">
+        <v>4</v>
+      </c>
+      <c r="I58" s="3">
+        <v>-80</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="3">
+        <v>80</v>
+      </c>
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+      <c r="X58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG58" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR58" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV58" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW58" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX58" s="7"/>
+    </row>
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
+        <v>182</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="E57" s="3">
+      <c r="E59" s="3">
         <v>181</v>
       </c>
-      <c r="F57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="G57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="H57" s="3">
+      <c r="F59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H59" s="3">
         <v>2</v>
       </c>
-      <c r="I57" s="3">
-        <v>0</v>
-      </c>
-      <c r="J57" s="3">
-        <v>0</v>
-      </c>
-      <c r="K57" s="3">
-        <v>0</v>
-      </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-      <c r="M57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="N57" s="3">
-        <v>0</v>
-      </c>
-      <c r="O57" s="3">
-        <v>0</v>
-      </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-      <c r="R57" s="3">
-        <v>0</v>
-      </c>
-      <c r="S57" s="3">
-        <v>0</v>
-      </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-      <c r="U57" s="3">
-        <v>0</v>
-      </c>
-      <c r="V57" s="3">
-        <v>0</v>
-      </c>
-      <c r="W57" s="3">
+      <c r="I59" s="3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="3">
+        <v>0</v>
+      </c>
+      <c r="L59" s="3">
+        <v>0</v>
+      </c>
+      <c r="M59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N59" s="3">
+        <v>0</v>
+      </c>
+      <c r="O59" s="3">
+        <v>0</v>
+      </c>
+      <c r="P59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q59" s="3">
+        <v>0</v>
+      </c>
+      <c r="R59" s="3">
+        <v>0</v>
+      </c>
+      <c r="S59" s="3">
+        <v>0</v>
+      </c>
+      <c r="T59" s="3">
+        <v>0</v>
+      </c>
+      <c r="U59" s="3">
+        <v>0</v>
+      </c>
+      <c r="V59" s="3">
+        <v>0</v>
+      </c>
+      <c r="W59" s="3">
         <v>4</v>
       </c>
-      <c r="X57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y57" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG57" s="3">
+      <c r="X59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y59" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG59" s="3">
         <v>2</v>
       </c>
-      <c r="AH57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AJ57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AK57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AL57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AM57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AN57" s="3">
+      <c r="AH59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN59" s="3">
         <v>40</v>
       </c>
-      <c r="AO57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AS57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AT57" s="3">
+      <c r="AO59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT59" s="3">
         <v>500</v>
       </c>
-      <c r="AU57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV57" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX57" s="6"/>
-    </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A58" s="3"/>
-      <c r="B58" s="5"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="5"/>
-      <c r="E58" s="3"/>
-      <c r="F58" s="3"/>
-      <c r="G58" s="3"/>
-      <c r="H58" s="3"/>
-      <c r="I58" s="3"/>
-      <c r="J58" s="3"/>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="3"/>
-      <c r="N58" s="3"/>
-      <c r="O58" s="3"/>
-      <c r="P58" s="3"/>
-      <c r="Q58" s="3"/>
-      <c r="R58" s="3"/>
-      <c r="S58" s="3"/>
-      <c r="T58" s="3"/>
-      <c r="U58" s="3"/>
-      <c r="V58" s="3"/>
-      <c r="W58" s="3"/>
-      <c r="X58" s="3"/>
-      <c r="Y58" s="3"/>
-      <c r="Z58" s="3"/>
-      <c r="AA58" s="3"/>
-      <c r="AB58" s="3"/>
-      <c r="AC58" s="3"/>
-      <c r="AD58" s="3"/>
-      <c r="AE58" s="3"/>
-      <c r="AF58" s="3"/>
-      <c r="AG58" s="3"/>
-      <c r="AH58" s="3"/>
-      <c r="AI58" s="3"/>
-      <c r="AJ58" s="3"/>
-      <c r="AK58" s="3"/>
-      <c r="AL58" s="3"/>
-      <c r="AM58" s="3"/>
-      <c r="AN58" s="3"/>
-      <c r="AO58" s="3"/>
-      <c r="AP58" s="3"/>
-      <c r="AQ58" s="3"/>
-      <c r="AR58" s="3"/>
-      <c r="AS58" s="3"/>
-      <c r="AT58" s="3"/>
-      <c r="AU58" s="3"/>
-      <c r="AV58" s="3"/>
-      <c r="AW58" s="3"/>
-      <c r="AX58" s="7"/>
-    </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A59" s="3"/>
-      <c r="B59" s="5"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="3"/>
-      <c r="F59" s="3"/>
-      <c r="G59" s="3"/>
-      <c r="H59" s="3"/>
-      <c r="I59" s="3"/>
-      <c r="J59" s="3"/>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-      <c r="R59" s="3"/>
-      <c r="S59" s="3"/>
-      <c r="T59" s="3"/>
-      <c r="U59" s="3"/>
-      <c r="V59" s="3"/>
-      <c r="W59" s="3"/>
-      <c r="X59" s="3"/>
-      <c r="Y59" s="3"/>
-      <c r="Z59" s="3"/>
-      <c r="AA59" s="3"/>
-      <c r="AB59" s="3"/>
-      <c r="AC59" s="3"/>
-      <c r="AD59" s="3"/>
-      <c r="AE59" s="3"/>
-      <c r="AF59" s="3"/>
-      <c r="AG59" s="3"/>
-      <c r="AH59" s="3"/>
-      <c r="AI59" s="3"/>
-      <c r="AJ59" s="3"/>
-      <c r="AK59" s="3"/>
-      <c r="AL59" s="3"/>
-      <c r="AM59" s="3"/>
-      <c r="AN59" s="3"/>
-      <c r="AO59" s="3"/>
-      <c r="AP59" s="3"/>
-      <c r="AQ59" s="3"/>
-      <c r="AR59" s="3"/>
-      <c r="AS59" s="3"/>
-      <c r="AT59" s="3"/>
-      <c r="AU59" s="3"/>
-      <c r="AV59" s="3"/>
-      <c r="AW59" s="3"/>
-      <c r="AX59" s="7"/>
+      <c r="AU59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX59" s="6"/>
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="5"/>
-      <c r="C60" s="5"/>
+      <c r="C60" s="4"/>
       <c r="D60" s="5"/>
       <c r="E60" s="3"/>
       <c r="F60" s="3"/>
@@ -9620,7 +9828,7 @@
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="5"/>
-      <c r="C61" s="5"/>
+      <c r="C61" s="4"/>
       <c r="D61" s="5"/>
       <c r="E61" s="3"/>
       <c r="F61" s="3"/>
@@ -9673,7 +9881,7 @@
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
       <c r="C62" s="5"/>
-      <c r="D62" s="4"/>
+      <c r="D62" s="5"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
       <c r="G62" s="3"/>
@@ -9777,7 +9985,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
+      <c r="D64" s="4"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -10295,9 +10503,9 @@
     </row>
     <row r="74" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
-      <c r="B74" s="3"/>
-      <c r="C74" s="3"/>
-      <c r="D74" s="3"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
       <c r="E74" s="3"/>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
@@ -10347,9 +10555,9 @@
     </row>
     <row r="75" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
-      <c r="B75" s="3"/>
-      <c r="C75" s="3"/>
-      <c r="D75" s="3"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
       <c r="E75" s="3"/>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
@@ -11075,7 +11283,7 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="5"/>
+      <c r="B89" s="3"/>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
@@ -11179,7 +11387,7 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
+      <c r="B91" s="5"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -11597,7 +11805,7 @@
       <c r="A99" s="3"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
+      <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -11701,7 +11909,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -12895,7 +13103,7 @@
     </row>
     <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
-      <c r="B124" s="5"/>
+      <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
@@ -13103,7 +13311,7 @@
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
+      <c r="B128" s="5"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -15549,7 +15757,7 @@
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
-      <c r="D175" s="4"/>
+      <c r="D175" s="3"/>
       <c r="E175" s="3"/>
       <c r="F175" s="3"/>
       <c r="G175" s="3"/>
@@ -15653,7 +15861,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="3"/>
+      <c r="D177" s="4"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -15807,7 +16015,7 @@
     </row>
     <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
-      <c r="B180" s="5"/>
+      <c r="B180" s="3"/>
       <c r="C180" s="3"/>
       <c r="D180" s="3"/>
       <c r="E180" s="3"/>
@@ -15911,7 +16119,7 @@
     </row>
     <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
-      <c r="B182" s="3"/>
+      <c r="B182" s="5"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -16951,7 +17159,7 @@
     </row>
     <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
-      <c r="B202" s="4"/>
+      <c r="B202" s="3"/>
       <c r="C202" s="3"/>
       <c r="D202" s="3"/>
       <c r="E202" s="3"/>
@@ -17055,7 +17263,7 @@
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
-      <c r="B204" s="3"/>
+      <c r="B204" s="4"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -17211,8 +17419,8 @@
     </row>
     <row r="207" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
-      <c r="B207" s="4"/>
-      <c r="C207" s="4"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
       <c r="D207" s="3"/>
       <c r="E207" s="3"/>
       <c r="F207" s="3"/>
@@ -17315,8 +17523,8 @@
     </row>
     <row r="209" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
-      <c r="B209" s="3"/>
-      <c r="C209" s="3"/>
+      <c r="B209" s="4"/>
+      <c r="C209" s="4"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -19655,9 +19863,9 @@
     </row>
     <row r="254" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
-      <c r="B254" s="4"/>
-      <c r="C254" s="4"/>
-      <c r="D254" s="4"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="3"/>
+      <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
       <c r="G254" s="3"/>
@@ -19705,6 +19913,110 @@
       <c r="AW254" s="3"/>
       <c r="AX254" s="7"/>
     </row>
+    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A255" s="3"/>
+      <c r="B255" s="3"/>
+      <c r="C255" s="3"/>
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="H255" s="3"/>
+      <c r="I255" s="3"/>
+      <c r="J255" s="3"/>
+      <c r="K255" s="3"/>
+      <c r="L255" s="3"/>
+      <c r="M255" s="3"/>
+      <c r="N255" s="3"/>
+      <c r="O255" s="3"/>
+      <c r="P255" s="3"/>
+      <c r="Q255" s="3"/>
+      <c r="R255" s="3"/>
+      <c r="S255" s="3"/>
+      <c r="T255" s="3"/>
+      <c r="U255" s="3"/>
+      <c r="V255" s="3"/>
+      <c r="W255" s="3"/>
+      <c r="X255" s="3"/>
+      <c r="Y255" s="3"/>
+      <c r="Z255" s="3"/>
+      <c r="AA255" s="3"/>
+      <c r="AB255" s="3"/>
+      <c r="AC255" s="3"/>
+      <c r="AD255" s="3"/>
+      <c r="AE255" s="3"/>
+      <c r="AF255" s="3"/>
+      <c r="AG255" s="3"/>
+      <c r="AH255" s="3"/>
+      <c r="AI255" s="3"/>
+      <c r="AJ255" s="3"/>
+      <c r="AK255" s="3"/>
+      <c r="AL255" s="3"/>
+      <c r="AM255" s="3"/>
+      <c r="AN255" s="3"/>
+      <c r="AO255" s="3"/>
+      <c r="AP255" s="3"/>
+      <c r="AQ255" s="3"/>
+      <c r="AR255" s="3"/>
+      <c r="AS255" s="3"/>
+      <c r="AT255" s="3"/>
+      <c r="AU255" s="3"/>
+      <c r="AV255" s="3"/>
+      <c r="AW255" s="3"/>
+      <c r="AX255" s="7"/>
+    </row>
+    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A256" s="3"/>
+      <c r="B256" s="4"/>
+      <c r="C256" s="4"/>
+      <c r="D256" s="4"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="H256" s="3"/>
+      <c r="I256" s="3"/>
+      <c r="J256" s="3"/>
+      <c r="K256" s="3"/>
+      <c r="L256" s="3"/>
+      <c r="M256" s="3"/>
+      <c r="N256" s="3"/>
+      <c r="O256" s="3"/>
+      <c r="P256" s="3"/>
+      <c r="Q256" s="3"/>
+      <c r="R256" s="3"/>
+      <c r="S256" s="3"/>
+      <c r="T256" s="3"/>
+      <c r="U256" s="3"/>
+      <c r="V256" s="3"/>
+      <c r="W256" s="3"/>
+      <c r="X256" s="3"/>
+      <c r="Y256" s="3"/>
+      <c r="Z256" s="3"/>
+      <c r="AA256" s="3"/>
+      <c r="AB256" s="3"/>
+      <c r="AC256" s="3"/>
+      <c r="AD256" s="3"/>
+      <c r="AE256" s="3"/>
+      <c r="AF256" s="3"/>
+      <c r="AG256" s="3"/>
+      <c r="AH256" s="3"/>
+      <c r="AI256" s="3"/>
+      <c r="AJ256" s="3"/>
+      <c r="AK256" s="3"/>
+      <c r="AL256" s="3"/>
+      <c r="AM256" s="3"/>
+      <c r="AN256" s="3"/>
+      <c r="AO256" s="3"/>
+      <c r="AP256" s="3"/>
+      <c r="AQ256" s="3"/>
+      <c r="AR256" s="3"/>
+      <c r="AS256" s="3"/>
+      <c r="AT256" s="3"/>
+      <c r="AU256" s="3"/>
+      <c r="AV256" s="3"/>
+      <c r="AW256" s="3"/>
+      <c r="AX256" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="213">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -579,145 +579,153 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>刘灯剑独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑佩剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫穿林独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛头岭独门武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>牛角拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊皮护甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊皮所制，可增加防御力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊胆固气丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊胆炼制，可恢复内力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>震狼一击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨擎苍独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇胆解毒丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇胆炼制，可解毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇牙针</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>蛇牙所制，含剧毒</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名指法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无名窟神秘武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>润肺提神，可提升体力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>雪梨</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>摩柯观音泪</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>粟兰独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱魔神掌</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>寿眉大师独门绝学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>萨擎苍随身携带的钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>刘灯剑随身携带的钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>钟鸣阁小钥匙</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥风剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>药材</t>
+  </si>
+  <si>
+    <t>各式中药材，制作丹药所需</t>
+  </si>
+  <si>
+    <t></t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>卷山狂刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>青竹杖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>胜马靴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫桥山庄武器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>莫桥山庄靴子</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>伏虎拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>茶恩寺入门武学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>刘灯剑独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘灯剑佩剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫穿林独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛头岭独门武学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>牛角拳</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊皮护甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊皮所制，可增加防御力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊胆固气丸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊胆炼制，可恢复内力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>震狼一击</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨擎苍独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇胆解毒丸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇胆炼制，可解毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇牙针</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>蛇牙所制，含剧毒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名指法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无名窟神秘武学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>润肺提神，可提升体力</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>雪梨</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>摩柯观音泪</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>粟兰独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>驱魔神掌</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>寿眉大师独门绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>萨擎苍随身携带的钥匙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>刘灯剑随身携带的钥匙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>钟鸣阁小钥匙</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥风剑法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>药材</t>
-  </si>
-  <si>
-    <t>各式中药材，制作丹药所需</t>
-  </si>
-  <si>
-    <t></t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>卷山狂刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>青竹杖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>胜马靴</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫桥山庄武器</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>莫桥山庄靴子</t>
+    <t>茶恩寺独门绝技</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1165,11 +1173,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX256"/>
+  <dimension ref="A1:AX257"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD10"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1638,7 +1646,7 @@
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -2078,7 +2086,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
@@ -2226,11 +2234,11 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E9" s="3">
         <v>-1</v>
@@ -2374,11 +2382,11 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2526,7 +2534,7 @@
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2674,7 +2682,7 @@
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -2970,7 +2978,7 @@
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -3710,7 +3718,7 @@
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="E19" s="3">
         <v>30</v>
@@ -3854,11 +3862,11 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E20" s="3">
         <v>31</v>
@@ -3966,7 +3974,7 @@
         <v>0</v>
       </c>
       <c r="AN20" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AO20" s="3">
         <v>0</v>
@@ -3999,17 +4007,17 @@
     </row>
     <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>40</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>116</v>
+        <v>36</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>210</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>117</v>
+        <v>212</v>
       </c>
       <c r="E21" s="3">
-        <v>-1</v>
+        <v>33</v>
       </c>
       <c r="F21" s="3">
         <v>-1</v>
@@ -4018,53 +4026,53 @@
         <v>-1</v>
       </c>
       <c r="H21" s="3">
+        <v>2</v>
+      </c>
+      <c r="I21" s="3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="K21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N21" s="3">
+        <v>0</v>
+      </c>
+      <c r="O21" s="3">
+        <v>0</v>
+      </c>
+      <c r="P21" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="3">
+        <v>0</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>0</v>
+      </c>
+      <c r="T21" s="3">
+        <v>0</v>
+      </c>
+      <c r="U21" s="3">
+        <v>0</v>
+      </c>
+      <c r="V21" s="3">
+        <v>0</v>
+      </c>
+      <c r="W21" s="3">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
-        <v>250</v>
-      </c>
-      <c r="J21" s="3">
-        <v>0</v>
-      </c>
-      <c r="K21" s="3">
-        <v>0</v>
-      </c>
-      <c r="L21" s="3">
-        <v>0</v>
-      </c>
-      <c r="M21" s="3">
-        <v>0</v>
-      </c>
-      <c r="N21" s="3">
-        <v>0</v>
-      </c>
-      <c r="O21" s="3">
-        <v>0</v>
-      </c>
-      <c r="P21" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="3">
-        <v>0</v>
-      </c>
-      <c r="R21" s="3">
-        <v>0</v>
-      </c>
-      <c r="S21" s="3">
-        <v>0</v>
-      </c>
-      <c r="T21" s="3">
-        <v>0</v>
-      </c>
-      <c r="U21" s="3">
-        <v>0</v>
-      </c>
-      <c r="V21" s="3">
-        <v>0</v>
-      </c>
-      <c r="W21" s="3">
-        <v>0</v>
-      </c>
       <c r="X21" s="3">
         <v>0</v>
       </c>
@@ -4090,10 +4098,10 @@
         <v>0</v>
       </c>
       <c r="AF21" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG21" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH21" s="3">
         <v>0</v>
@@ -4114,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="AN21" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO21" s="3">
         <v>0</v>
@@ -4129,10 +4137,10 @@
         <v>0</v>
       </c>
       <c r="AS21" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AT21" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AU21" s="3">
         <v>-1</v>
@@ -4143,18 +4151,18 @@
       <c r="AW21" s="3">
         <v>-1</v>
       </c>
-      <c r="AX21" s="7"/>
+      <c r="AX21" s="6"/>
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -4163,13 +4171,13 @@
         <v>-1</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H22" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -4190,7 +4198,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="3">
         <v>0</v>
@@ -4238,7 +4246,7 @@
         <v>0</v>
       </c>
       <c r="AF22" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG22" s="3">
         <v>0</v>
@@ -4247,7 +4255,7 @@
         <v>0</v>
       </c>
       <c r="AI22" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="3">
         <v>0</v>
@@ -4268,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ22" s="3">
         <v>0</v>
@@ -4295,14 +4303,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>152</v>
+        <v>118</v>
       </c>
       <c r="C23" s="4"/>
-      <c r="D23" s="5" t="s">
-        <v>157</v>
+      <c r="D23" s="4" t="s">
+        <v>119</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4338,7 +4346,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -4395,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
@@ -4413,10 +4421,10 @@
         <v>0</v>
       </c>
       <c r="AO23" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP23" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ23" s="3">
         <v>0</v>
@@ -4443,14 +4451,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4561,10 +4569,10 @@
         <v>0</v>
       </c>
       <c r="AO24" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ24" s="3">
         <v>0</v>
@@ -4591,14 +4599,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C25" s="4"/>
       <c r="D25" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4712,10 +4720,10 @@
         <v>0</v>
       </c>
       <c r="AP25" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AQ25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR25" s="3">
         <v>0</v>
@@ -4739,14 +4747,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="4" t="s">
-        <v>156</v>
+      <c r="D26" s="5" t="s">
+        <v>162</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4755,7 +4763,7 @@
         <v>-1</v>
       </c>
       <c r="G26" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="3">
         <v>1</v>
@@ -4782,65 +4790,65 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
       </c>
       <c r="R26" s="3">
+        <v>0</v>
+      </c>
+      <c r="S26" s="3">
+        <v>0</v>
+      </c>
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+      <c r="V26" s="3">
+        <v>0</v>
+      </c>
+      <c r="W26" s="3">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF26" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH26" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI26" s="3">
         <v>20</v>
       </c>
-      <c r="S26" s="3">
-        <v>0</v>
-      </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-      <c r="U26" s="3">
-        <v>0</v>
-      </c>
-      <c r="V26" s="3">
-        <v>0</v>
-      </c>
-      <c r="W26" s="3">
-        <v>0</v>
-      </c>
-      <c r="X26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF26" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH26" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI26" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ26" s="3">
         <v>0</v>
       </c>
@@ -4863,7 +4871,7 @@
         <v>0</v>
       </c>
       <c r="AQ26" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR26" s="3">
         <v>0</v>
@@ -4887,14 +4895,14 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="5" t="s">
-        <v>151</v>
+      <c r="D27" s="4" t="s">
+        <v>156</v>
       </c>
       <c r="E27" s="3">
         <v>-1</v>
@@ -4903,7 +4911,7 @@
         <v>-1</v>
       </c>
       <c r="G27" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4930,14 +4938,14 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+      <c r="R27" s="3">
         <v>20</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-      <c r="R27" s="3">
-        <v>0</v>
-      </c>
       <c r="S27" s="3">
         <v>0</v>
       </c>
@@ -4987,7 +4995,7 @@
         <v>0</v>
       </c>
       <c r="AI27" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ27" s="3">
         <v>0</v>
@@ -5005,7 +5013,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP27" s="3">
         <v>0</v>
@@ -5035,14 +5043,14 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C28" s="5"/>
+        <v>159</v>
+      </c>
+      <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -5051,7 +5059,7 @@
         <v>-1</v>
       </c>
       <c r="G28" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H28" s="3">
         <v>1</v>
@@ -5078,13 +5086,13 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
       </c>
       <c r="R28" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S28" s="3">
         <v>0</v>
@@ -5135,7 +5143,7 @@
         <v>0</v>
       </c>
       <c r="AI28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ28" s="3">
         <v>0</v>
@@ -5153,7 +5161,7 @@
         <v>0</v>
       </c>
       <c r="AO28" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP28" s="3">
         <v>0</v>
@@ -5183,14 +5191,14 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4" t="s">
-        <v>199</v>
+        <v>160</v>
+      </c>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5" t="s">
+        <v>161</v>
       </c>
       <c r="E29" s="3">
         <v>-1</v>
@@ -5199,10 +5207,10 @@
         <v>-1</v>
       </c>
       <c r="G29" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H29" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" s="3">
         <v>0</v>
@@ -5232,7 +5240,7 @@
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -5274,7 +5282,7 @@
         <v>0</v>
       </c>
       <c r="AF29" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG29" s="3">
         <v>0</v>
@@ -5331,17 +5339,17 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>49</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>206</v>
+        <v>48</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>200</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="E30" s="3">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="F30" s="3">
         <v>-1</v>
@@ -5350,7 +5358,7 @@
         <v>-1</v>
       </c>
       <c r="H30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -5365,7 +5373,7 @@
         <v>0</v>
       </c>
       <c r="M30" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N30" s="3">
         <v>0</v>
@@ -5401,7 +5409,7 @@
         <v>0</v>
       </c>
       <c r="Y30" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z30" s="3">
         <v>0</v>
@@ -5422,10 +5430,10 @@
         <v>0</v>
       </c>
       <c r="AF30" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG30" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH30" s="3">
         <v>0</v>
@@ -5452,7 +5460,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ30" s="3">
         <v>0</v>
@@ -5464,7 +5472,7 @@
         <v>0</v>
       </c>
       <c r="AT30" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU30" s="3">
         <v>-1</v>
@@ -5475,21 +5483,21 @@
       <c r="AW30" s="3">
         <v>-1</v>
       </c>
-      <c r="AX30" s="6"/>
+      <c r="AX30" s="7"/>
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>50</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>164</v>
+        <v>49</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>205</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4" t="s">
-        <v>165</v>
+        <v>185</v>
       </c>
       <c r="E31" s="3">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="F31" s="3">
         <v>-1</v>
@@ -5498,7 +5506,7 @@
         <v>-1</v>
       </c>
       <c r="H31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -5513,7 +5521,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -5549,7 +5557,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z31" s="3">
         <v>0</v>
@@ -5570,10 +5578,10 @@
         <v>0</v>
       </c>
       <c r="AF31" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG31" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
@@ -5600,7 +5608,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ31" s="3">
         <v>0</v>
@@ -5612,7 +5620,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU31" s="3">
         <v>-1</v>
@@ -5623,18 +5631,18 @@
       <c r="AW31" s="3">
         <v>-1</v>
       </c>
-      <c r="AX31" s="7"/>
+      <c r="AX31" s="6"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="4" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5643,10 +5651,10 @@
         <v>-1</v>
       </c>
       <c r="G32" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H32" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -5676,7 +5684,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -5718,7 +5726,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG32" s="3">
         <v>0</v>
@@ -5775,14 +5783,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5791,7 +5799,7 @@
         <v>-1</v>
       </c>
       <c r="G33" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="3">
         <v>1</v>
@@ -5818,13 +5826,13 @@
         <v>0</v>
       </c>
       <c r="P33" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q33" s="3">
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -5875,7 +5883,7 @@
         <v>0</v>
       </c>
       <c r="AI33" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ33" s="3">
         <v>0</v>
@@ -5893,7 +5901,7 @@
         <v>0</v>
       </c>
       <c r="AO33" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP33" s="3">
         <v>0</v>
@@ -5923,14 +5931,14 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E34" s="3">
         <v>-1</v>
@@ -5966,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -6023,7 +6031,7 @@
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
@@ -6041,10 +6049,10 @@
         <v>0</v>
       </c>
       <c r="AO34" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AP34" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ34" s="3">
         <v>0</v>
@@ -6071,14 +6079,14 @@
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -6087,34 +6095,34 @@
         <v>-1</v>
       </c>
       <c r="G35" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I35" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J35" s="3">
         <v>0</v>
       </c>
       <c r="K35" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L35" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M35" s="3">
         <v>0</v>
       </c>
       <c r="N35" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O35" s="3">
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -6162,7 +6170,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG35" s="3">
         <v>0</v>
@@ -6171,7 +6179,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ35" s="3">
         <v>0</v>
@@ -6192,7 +6200,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ35" s="3">
         <v>0</v>
@@ -6219,14 +6227,14 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6238,25 +6246,25 @@
         <v>-1</v>
       </c>
       <c r="H36" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I36" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="L36" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="O36" s="3">
         <v>0</v>
@@ -6367,14 +6375,14 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>167</v>
+        <v>129</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -6386,16 +6394,16 @@
         <v>-1</v>
       </c>
       <c r="H37" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I37" s="3">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J37" s="3">
         <v>0</v>
       </c>
       <c r="K37" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="L37" s="3">
         <v>0</v>
@@ -6458,10 +6466,10 @@
         <v>0</v>
       </c>
       <c r="AF37" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG37" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH37" s="3">
         <v>0</v>
@@ -6494,7 +6502,7 @@
         <v>0</v>
       </c>
       <c r="AR37" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS37" s="3">
         <v>0</v>
@@ -6515,14 +6523,14 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -6534,16 +6542,16 @@
         <v>-1</v>
       </c>
       <c r="H38" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I38" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="3">
-        <v>-40</v>
+        <v>50</v>
       </c>
       <c r="L38" s="3">
         <v>0</v>
@@ -6606,10 +6614,10 @@
         <v>0</v>
       </c>
       <c r="AF38" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG38" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
@@ -6642,7 +6650,7 @@
         <v>0</v>
       </c>
       <c r="AR38" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS38" s="3">
         <v>0</v>
@@ -6663,17 +6671,17 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>73</v>
-      </c>
-      <c r="B39" s="4" t="s">
-        <v>195</v>
+        <v>72</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>168</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>196</v>
+        <v>169</v>
       </c>
       <c r="E39" s="3">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="F39" s="3">
         <v>-1</v>
@@ -6682,7 +6690,7 @@
         <v>-1</v>
       </c>
       <c r="H39" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I39" s="3">
         <v>0</v>
@@ -6691,13 +6699,13 @@
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L39" s="3">
         <v>0</v>
       </c>
       <c r="M39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N39" s="3">
         <v>0</v>
@@ -6739,7 +6747,7 @@
         <v>0</v>
       </c>
       <c r="AA39" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="3">
         <v>0</v>
@@ -6754,10 +6762,10 @@
         <v>0</v>
       </c>
       <c r="AF39" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG39" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH39" s="3">
         <v>0</v>
@@ -6790,13 +6798,13 @@
         <v>0</v>
       </c>
       <c r="AR39" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS39" s="3">
         <v>0</v>
       </c>
       <c r="AT39" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU39" s="3">
         <v>-1</v>
@@ -6807,21 +6815,21 @@
       <c r="AW39" s="3">
         <v>-1</v>
       </c>
-      <c r="AX39" s="6"/>
+      <c r="AX39" s="7"/>
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>80</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>130</v>
+        <v>73</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>194</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>131</v>
+        <v>195</v>
       </c>
       <c r="E40" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F40" s="3">
         <v>-1</v>
@@ -6857,7 +6865,7 @@
         <v>0</v>
       </c>
       <c r="Q40" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R40" s="3">
         <v>0</v>
@@ -6887,7 +6895,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
@@ -6938,13 +6946,13 @@
         <v>0</v>
       </c>
       <c r="AR40" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS40" s="3">
         <v>0</v>
       </c>
       <c r="AT40" s="3">
-        <v>250</v>
+        <v>500</v>
       </c>
       <c r="AU40" s="3">
         <v>-1</v>
@@ -6955,18 +6963,18 @@
       <c r="AW40" s="3">
         <v>-1</v>
       </c>
-      <c r="AX40" s="7"/>
+      <c r="AX40" s="6"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>171</v>
+        <v>130</v>
       </c>
       <c r="C41" s="4"/>
-      <c r="D41" s="5" t="s">
-        <v>172</v>
+      <c r="D41" s="4" t="s">
+        <v>131</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -6978,7 +6986,7 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I41" s="3">
         <v>0</v>
@@ -6990,10 +6998,10 @@
         <v>0</v>
       </c>
       <c r="L41" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -7005,7 +7013,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -7050,10 +7058,10 @@
         <v>0</v>
       </c>
       <c r="AF41" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG41" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH41" s="3">
         <v>0</v>
@@ -7092,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="AT41" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU41" s="3">
         <v>-1</v>
@@ -7107,14 +7115,14 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>132</v>
+        <v>171</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="4" t="s">
-        <v>133</v>
+      <c r="D42" s="5" t="s">
+        <v>172</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7126,7 +7134,7 @@
         <v>-1</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I42" s="3">
         <v>0</v>
@@ -7138,7 +7146,7 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -7255,17 +7263,17 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>91</v>
-      </c>
-      <c r="B43" s="4" t="s">
-        <v>180</v>
+        <v>90</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>132</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>179</v>
+        <v>133</v>
       </c>
       <c r="E43" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F43" s="3">
         <v>-1</v>
@@ -7274,7 +7282,7 @@
         <v>-1</v>
       </c>
       <c r="H43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -7289,7 +7297,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -7319,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="W43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X43" s="3">
         <v>0</v>
@@ -7346,10 +7354,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG43" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -7370,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="AN43" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO43" s="3">
         <v>0</v>
@@ -7388,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AT43" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU43" s="3">
         <v>-1</v>
@@ -7399,21 +7407,21 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="6"/>
+      <c r="AX43" s="7"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>110</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>194</v>
+        <v>91</v>
+      </c>
+      <c r="B44" s="4" t="s">
+        <v>179</v>
       </c>
       <c r="C44" s="4"/>
-      <c r="D44" s="5" t="s">
-        <v>193</v>
+      <c r="D44" s="4" t="s">
+        <v>178</v>
       </c>
       <c r="E44" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F44" s="3">
         <v>-1</v>
@@ -7422,7 +7430,7 @@
         <v>-1</v>
       </c>
       <c r="H44" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -7434,10 +7442,10 @@
         <v>0</v>
       </c>
       <c r="L44" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -7467,7 +7475,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -7494,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG44" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7518,7 +7526,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO44" s="3">
         <v>0</v>
@@ -7536,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU44" s="3">
         <v>-1</v>
@@ -7547,18 +7555,18 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="7"/>
+      <c r="AX44" s="6"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>141</v>
+        <v>193</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="5" t="s">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="E45" s="3">
         <v>-1</v>
@@ -7573,7 +7581,7 @@
         <v>3</v>
       </c>
       <c r="I45" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J45" s="3">
         <v>0</v>
@@ -7582,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M45" s="3">
         <v>0</v>
@@ -7699,14 +7707,14 @@
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C46" s="4"/>
       <c r="D46" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E46" s="3">
         <v>-1</v>
@@ -7721,13 +7729,13 @@
         <v>3</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L46" s="3">
         <v>0</v>
@@ -7847,14 +7855,14 @@
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C47" s="4"/>
       <c r="D47" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7875,7 +7883,7 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
@@ -7887,7 +7895,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P47" s="3">
         <v>0</v>
@@ -7995,16 +8003,14 @@
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>205</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C48" s="4"/>
       <c r="D48" s="5" t="s">
-        <v>204</v>
+        <v>146</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -8016,7 +8022,7 @@
         <v>-1</v>
       </c>
       <c r="H48" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -8037,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
@@ -8145,14 +8151,16 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C49" s="4"/>
-      <c r="D49" s="4" t="s">
-        <v>135</v>
+        <v>202</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>203</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -8161,10 +8169,10 @@
         <v>-1</v>
       </c>
       <c r="G49" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H49" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -8194,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="R49" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S49" s="3">
         <v>0</v>
@@ -8236,10 +8244,10 @@
         <v>0</v>
       </c>
       <c r="AF49" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG49" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH49" s="3">
         <v>0</v>
@@ -8293,14 +8301,14 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8309,10 +8317,10 @@
         <v>-1</v>
       </c>
       <c r="G50" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H50" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -8342,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
@@ -8384,10 +8392,10 @@
         <v>0</v>
       </c>
       <c r="AF50" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG50" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -8441,17 +8449,17 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>142</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>185</v>
+        <v>141</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>186</v>
+        <v>137</v>
       </c>
       <c r="E51" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F51" s="3">
         <v>-1</v>
@@ -8460,7 +8468,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -8475,7 +8483,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -8505,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X51" s="3">
         <v>0</v>
@@ -8532,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="AF51" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG51" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -8556,7 +8564,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO51" s="3">
         <v>0</v>
@@ -8574,7 +8582,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU51" s="3">
         <v>-1</v>
@@ -8585,30 +8593,30 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="6"/>
+      <c r="AX51" s="7"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>160</v>
-      </c>
-      <c r="B52" s="5" t="s">
-        <v>181</v>
+        <v>142</v>
+      </c>
+      <c r="B52" s="4" t="s">
+        <v>184</v>
       </c>
       <c r="C52" s="4"/>
       <c r="D52" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="E52" s="3">
-        <v>-1</v>
+        <v>40</v>
       </c>
       <c r="F52" s="3">
         <v>-1</v>
       </c>
       <c r="G52" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H52" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -8623,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="M52" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -8638,7 +8646,7 @@
         <v>0</v>
       </c>
       <c r="R52" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S52" s="3">
         <v>0</v>
@@ -8653,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -8704,7 +8712,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AO52" s="3">
         <v>0</v>
@@ -8722,7 +8730,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU52" s="3">
         <v>-1</v>
@@ -8733,18 +8741,18 @@
       <c r="AW52" s="3">
         <v>-1</v>
       </c>
-      <c r="AX52" s="7"/>
+      <c r="AX52" s="6"/>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C53" s="4"/>
       <c r="D53" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -8753,10 +8761,10 @@
         <v>-1</v>
       </c>
       <c r="G53" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H53" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I53" s="3">
         <v>0</v>
@@ -8774,7 +8782,7 @@
         <v>0</v>
       </c>
       <c r="N53" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O53" s="3">
         <v>0</v>
@@ -8786,7 +8794,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S53" s="3">
         <v>0</v>
@@ -8828,10 +8836,10 @@
         <v>0</v>
       </c>
       <c r="AF53" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG53" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -8885,14 +8893,14 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="5" t="s">
-        <v>148</v>
+      <c r="D54" s="4" t="s">
+        <v>183</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -8910,19 +8918,19 @@
         <v>0</v>
       </c>
       <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="K54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="3">
+        <v>0</v>
+      </c>
+      <c r="M54" s="3">
+        <v>0</v>
+      </c>
+      <c r="N54" s="3">
         <v>100</v>
-      </c>
-      <c r="K54" s="3">
-        <v>0</v>
-      </c>
-      <c r="L54" s="3">
-        <v>0</v>
-      </c>
-      <c r="M54" s="3">
-        <v>0</v>
-      </c>
-      <c r="N54" s="3">
-        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -9033,14 +9041,14 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -9058,7 +9066,7 @@
         <v>0</v>
       </c>
       <c r="J55" s="3">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="K55" s="3">
         <v>0</v>
@@ -9181,16 +9189,14 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>174</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>140</v>
+        <v>171</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="4"/>
+      <c r="D56" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -9202,13 +9208,13 @@
         <v>-1</v>
       </c>
       <c r="H56" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -9331,14 +9337,16 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>180</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C57" s="4"/>
+        <v>174</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>139</v>
+      </c>
       <c r="D57" s="4" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -9350,7 +9358,7 @@
         <v>-1</v>
       </c>
       <c r="H57" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -9359,7 +9367,7 @@
         <v>0</v>
       </c>
       <c r="K57" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L57" s="3">
         <v>0</v>
@@ -9479,14 +9487,14 @@
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E58" s="3">
         <v>-1</v>
@@ -9498,16 +9506,16 @@
         <v>-1</v>
       </c>
       <c r="H58" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I58" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J58" s="3">
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>80</v>
+        <v>-100</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -9570,10 +9578,10 @@
         <v>0</v>
       </c>
       <c r="AF58" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG58" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH58" s="3">
         <v>0</v>
@@ -9606,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AR58" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS58" s="3">
         <v>0</v>
@@ -9627,17 +9635,17 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>182</v>
-      </c>
-      <c r="B59" s="4" t="s">
-        <v>191</v>
+        <v>181</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>188</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E59" s="3">
-        <v>181</v>
+        <v>-1</v>
       </c>
       <c r="F59" s="3">
         <v>-1</v>
@@ -9646,22 +9654,22 @@
         <v>-1</v>
       </c>
       <c r="H59" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I59" s="3">
-        <v>0</v>
+        <v>-80</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
       </c>
       <c r="M59" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N59" s="3">
         <v>0</v>
@@ -9691,7 +9699,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X59" s="3">
         <v>0</v>
@@ -9742,88 +9750,184 @@
         <v>0</v>
       </c>
       <c r="AN59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR59" s="3">
         <v>40</v>
       </c>
-      <c r="AO59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AP59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AQ59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AR59" s="3">
-        <v>0</v>
-      </c>
       <c r="AS59" s="3">
         <v>0</v>
       </c>
       <c r="AT59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV59" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX59" s="7"/>
+    </row>
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
+        <v>182</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="3">
+        <v>181</v>
+      </c>
+      <c r="F60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H60" s="3">
+        <v>2</v>
+      </c>
+      <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q60" s="3">
+        <v>0</v>
+      </c>
+      <c r="R60" s="3">
+        <v>0</v>
+      </c>
+      <c r="S60" s="3">
+        <v>0</v>
+      </c>
+      <c r="T60" s="3">
+        <v>0</v>
+      </c>
+      <c r="U60" s="3">
+        <v>0</v>
+      </c>
+      <c r="V60" s="3">
+        <v>0</v>
+      </c>
+      <c r="W60" s="3">
+        <v>4</v>
+      </c>
+      <c r="X60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y60" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG60" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN60" s="3">
+        <v>40</v>
+      </c>
+      <c r="AO60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT60" s="3">
         <v>500</v>
       </c>
-      <c r="AU59" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AV59" s="3">
-        <v>0</v>
-      </c>
-      <c r="AW59" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX59" s="6"/>
-    </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A60" s="3"/>
-      <c r="B60" s="5"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="5"/>
-      <c r="E60" s="3"/>
-      <c r="F60" s="3"/>
-      <c r="G60" s="3"/>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
-      <c r="K60" s="3"/>
-      <c r="L60" s="3"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-      <c r="R60" s="3"/>
-      <c r="S60" s="3"/>
-      <c r="T60" s="3"/>
-      <c r="U60" s="3"/>
-      <c r="V60" s="3"/>
-      <c r="W60" s="3"/>
-      <c r="X60" s="3"/>
-      <c r="Y60" s="3"/>
-      <c r="Z60" s="3"/>
-      <c r="AA60" s="3"/>
-      <c r="AB60" s="3"/>
-      <c r="AC60" s="3"/>
-      <c r="AD60" s="3"/>
-      <c r="AE60" s="3"/>
-      <c r="AF60" s="3"/>
-      <c r="AG60" s="3"/>
-      <c r="AH60" s="3"/>
-      <c r="AI60" s="3"/>
-      <c r="AJ60" s="3"/>
-      <c r="AK60" s="3"/>
-      <c r="AL60" s="3"/>
-      <c r="AM60" s="3"/>
-      <c r="AN60" s="3"/>
-      <c r="AO60" s="3"/>
-      <c r="AP60" s="3"/>
-      <c r="AQ60" s="3"/>
-      <c r="AR60" s="3"/>
-      <c r="AS60" s="3"/>
-      <c r="AT60" s="3"/>
-      <c r="AU60" s="3"/>
-      <c r="AV60" s="3"/>
-      <c r="AW60" s="3"/>
-      <c r="AX60" s="7"/>
+      <c r="AU60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV60" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX60" s="6"/>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
@@ -9880,7 +9984,7 @@
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="5"/>
-      <c r="C62" s="5"/>
+      <c r="C62" s="4"/>
       <c r="D62" s="5"/>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
@@ -9985,7 +10089,7 @@
       <c r="A64" s="3"/>
       <c r="B64" s="5"/>
       <c r="C64" s="5"/>
-      <c r="D64" s="4"/>
+      <c r="D64" s="5"/>
       <c r="E64" s="3"/>
       <c r="F64" s="3"/>
       <c r="G64" s="3"/>
@@ -10037,7 +10141,7 @@
       <c r="A65" s="3"/>
       <c r="B65" s="5"/>
       <c r="C65" s="5"/>
-      <c r="D65" s="5"/>
+      <c r="D65" s="4"/>
       <c r="E65" s="3"/>
       <c r="F65" s="3"/>
       <c r="G65" s="3"/>
@@ -10607,9 +10711,9 @@
     </row>
     <row r="76" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="5"/>
+      <c r="D76" s="5"/>
       <c r="E76" s="3"/>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
@@ -11387,7 +11491,7 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
+      <c r="B91" s="3"/>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
@@ -11439,7 +11543,7 @@
     </row>
     <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
+      <c r="B92" s="5"/>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
@@ -11909,7 +12013,7 @@
       <c r="A101" s="3"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
-      <c r="D101" s="4"/>
+      <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -11961,7 +12065,7 @@
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
+      <c r="D102" s="4"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -13207,7 +13311,7 @@
     </row>
     <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
-      <c r="B126" s="5"/>
+      <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
@@ -13259,7 +13363,7 @@
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
+      <c r="B127" s="5"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -13311,7 +13415,7 @@
     </row>
     <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
-      <c r="B128" s="5"/>
+      <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
@@ -13363,7 +13467,7 @@
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
+      <c r="B129" s="5"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -15861,7 +15965,7 @@
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
-      <c r="D177" s="4"/>
+      <c r="D177" s="3"/>
       <c r="E177" s="3"/>
       <c r="F177" s="3"/>
       <c r="G177" s="3"/>
@@ -15913,7 +16017,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="3"/>
+      <c r="D178" s="4"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -16119,7 +16223,7 @@
     </row>
     <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
-      <c r="B182" s="5"/>
+      <c r="B182" s="3"/>
       <c r="C182" s="3"/>
       <c r="D182" s="3"/>
       <c r="E182" s="3"/>
@@ -16171,7 +16275,7 @@
     </row>
     <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="B183" s="3"/>
+      <c r="B183" s="5"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -17263,7 +17367,7 @@
     </row>
     <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
-      <c r="B204" s="4"/>
+      <c r="B204" s="3"/>
       <c r="C204" s="3"/>
       <c r="D204" s="3"/>
       <c r="E204" s="3"/>
@@ -17315,7 +17419,7 @@
     </row>
     <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
-      <c r="B205" s="3"/>
+      <c r="B205" s="4"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -17523,8 +17627,8 @@
     </row>
     <row r="209" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
-      <c r="B209" s="4"/>
-      <c r="C209" s="4"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
       <c r="D209" s="3"/>
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
@@ -17575,8 +17679,8 @@
     </row>
     <row r="210" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
+      <c r="B210" s="4"/>
+      <c r="C210" s="4"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -19967,9 +20071,9 @@
     </row>
     <row r="256" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
-      <c r="B256" s="4"/>
-      <c r="C256" s="4"/>
-      <c r="D256" s="4"/>
+      <c r="B256" s="3"/>
+      <c r="C256" s="3"/>
+      <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
@@ -20017,6 +20121,58 @@
       <c r="AW256" s="3"/>
       <c r="AX256" s="7"/>
     </row>
+    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A257" s="3"/>
+      <c r="B257" s="4"/>
+      <c r="C257" s="4"/>
+      <c r="D257" s="4"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="H257" s="3"/>
+      <c r="I257" s="3"/>
+      <c r="J257" s="3"/>
+      <c r="K257" s="3"/>
+      <c r="L257" s="3"/>
+      <c r="M257" s="3"/>
+      <c r="N257" s="3"/>
+      <c r="O257" s="3"/>
+      <c r="P257" s="3"/>
+      <c r="Q257" s="3"/>
+      <c r="R257" s="3"/>
+      <c r="S257" s="3"/>
+      <c r="T257" s="3"/>
+      <c r="U257" s="3"/>
+      <c r="V257" s="3"/>
+      <c r="W257" s="3"/>
+      <c r="X257" s="3"/>
+      <c r="Y257" s="3"/>
+      <c r="Z257" s="3"/>
+      <c r="AA257" s="3"/>
+      <c r="AB257" s="3"/>
+      <c r="AC257" s="3"/>
+      <c r="AD257" s="3"/>
+      <c r="AE257" s="3"/>
+      <c r="AF257" s="3"/>
+      <c r="AG257" s="3"/>
+      <c r="AH257" s="3"/>
+      <c r="AI257" s="3"/>
+      <c r="AJ257" s="3"/>
+      <c r="AK257" s="3"/>
+      <c r="AL257" s="3"/>
+      <c r="AM257" s="3"/>
+      <c r="AN257" s="3"/>
+      <c r="AO257" s="3"/>
+      <c r="AP257" s="3"/>
+      <c r="AQ257" s="3"/>
+      <c r="AR257" s="3"/>
+      <c r="AS257" s="3"/>
+      <c r="AT257" s="3"/>
+      <c r="AU257" s="3"/>
+      <c r="AV257" s="3"/>
+      <c r="AW257" s="3"/>
+      <c r="AX257" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="231">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -313,9 +313,6 @@
   </si>
   <si>
     <t>需材料</t>
-  </si>
-  <si>
-    <t>练出物品（练出物品ID，需要物品ID,需要物品数量）</t>
   </si>
   <si>
     <t>铜钥匙</t>
@@ -543,10 +540,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>紫罂散</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>罂粟谷暗器，含剧毒</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -726,6 +719,86 @@
   </si>
   <si>
     <t>茶恩寺独门绝技</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罂锥</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>培元固本丸</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>促使机体气血舒畅，可恢复生命和内力</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金疮药</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗外伤之灵药，可恢复生命</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>茶恩寺武器</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>佛拳</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫粟花</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡城奇花，制作暗器所需</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫罂毒术</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>落红剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷入门武学</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷入门剑法</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫粟秘籍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>罂粟谷之暗器总诀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>71,10</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>练出物品（练出物品ID，需要物品ID,需要物品数量）</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡城丹药图鉴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>渡城药鉴</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>120,3|121,6|30,9|37,12|38,15</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1173,16 +1246,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX257"/>
+  <dimension ref="A1:AX263"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="22.5" customWidth="1"/>
+    <col min="48" max="48" width="9" customWidth="1"/>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1486,7 +1560,7 @@
         <v>97</v>
       </c>
       <c r="AX3" s="6" t="s">
-        <v>98</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.2">
@@ -1494,11 +1568,11 @@
         <v>0</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E4" s="3">
         <v>-1</v>
@@ -1642,11 +1716,11 @@
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C5" s="4"/>
       <c r="D5" s="4" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" s="3">
         <v>1</v>
@@ -1757,7 +1831,7 @@
         <v>0</v>
       </c>
       <c r="AO5" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP5" s="3">
         <v>0</v>
@@ -1790,11 +1864,11 @@
         <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C6" s="4"/>
       <c r="D6" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E6" s="3">
         <v>-1</v>
@@ -1938,11 +2012,11 @@
         <v>11</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="3">
         <v>-1</v>
@@ -2086,11 +2160,11 @@
         <v>12</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E8" s="3">
         <v>10</v>
@@ -2201,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="AO8" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP8" s="3">
         <v>0</v>
@@ -2234,11 +2308,11 @@
         <v>13</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" s="4"/>
       <c r="D9" s="4" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" s="3">
         <v>-1</v>
@@ -2349,7 +2423,7 @@
         <v>0</v>
       </c>
       <c r="AO9" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP9" s="3">
         <v>0</v>
@@ -2382,11 +2456,11 @@
         <v>14</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" s="4"/>
       <c r="D10" s="4" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" s="3">
         <v>-1</v>
@@ -2530,11 +2604,11 @@
         <v>20</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E11" s="3">
         <v>20</v>
@@ -2645,7 +2719,7 @@
         <v>0</v>
       </c>
       <c r="AO11" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP11" s="3">
         <v>0</v>
@@ -2678,11 +2752,11 @@
         <v>21</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C12" s="4"/>
       <c r="D12" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E12" s="3">
         <v>-1</v>
@@ -2793,7 +2867,7 @@
         <v>0</v>
       </c>
       <c r="AO12" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AP12" s="3">
         <v>0</v>
@@ -2826,11 +2900,11 @@
         <v>22</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="4"/>
       <c r="D13" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="3">
         <v>-1</v>
@@ -2974,11 +3048,11 @@
         <v>23</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E14" s="3">
         <v>-1</v>
@@ -3122,11 +3196,11 @@
         <v>30</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="3">
         <v>-1</v>
@@ -3270,11 +3344,11 @@
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E16" s="3">
         <v>32</v>
@@ -3376,13 +3450,13 @@
         <v>0</v>
       </c>
       <c r="AL16" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AM16" s="3">
         <v>0</v>
       </c>
       <c r="AN16" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="3">
         <v>0</v>
@@ -3418,11 +3492,11 @@
         <v>32</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E17" s="3">
         <v>-1</v>
@@ -3566,11 +3640,11 @@
         <v>33</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18" s="3">
         <v>-1</v>
@@ -3714,11 +3788,11 @@
         <v>34</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E19" s="3">
         <v>30</v>
@@ -3862,11 +3936,11 @@
         <v>35</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C20" s="4"/>
       <c r="D20" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="E20" s="3">
         <v>31</v>
@@ -4010,11 +4084,11 @@
         <v>36</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E21" s="3">
         <v>33</v>
@@ -4155,14 +4229,14 @@
     </row>
     <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4" t="s">
-        <v>117</v>
+        <v>213</v>
       </c>
       <c r="E22" s="3">
         <v>-1</v>
@@ -4177,7 +4251,7 @@
         <v>3</v>
       </c>
       <c r="I22" s="3">
-        <v>250</v>
+        <v>100</v>
       </c>
       <c r="J22" s="3">
         <v>0</v>
@@ -4192,7 +4266,7 @@
         <v>0</v>
       </c>
       <c r="N22" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O22" s="3">
         <v>0</v>
@@ -4303,14 +4377,14 @@
     </row>
     <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>118</v>
+        <v>214</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4" t="s">
-        <v>119</v>
+        <v>215</v>
       </c>
       <c r="E23" s="3">
         <v>-1</v>
@@ -4319,13 +4393,13 @@
         <v>-1</v>
       </c>
       <c r="G23" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H23" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I23" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="J23" s="3">
         <v>0</v>
@@ -4346,7 +4420,7 @@
         <v>0</v>
       </c>
       <c r="P23" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q23" s="3">
         <v>0</v>
@@ -4394,7 +4468,7 @@
         <v>0</v>
       </c>
       <c r="AF23" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG23" s="3">
         <v>0</v>
@@ -4403,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AI23" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="3">
         <v>0</v>
@@ -4424,7 +4498,7 @@
         <v>0</v>
       </c>
       <c r="AP23" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ23" s="3">
         <v>0</v>
@@ -4451,14 +4525,14 @@
     </row>
     <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>152</v>
+        <v>217</v>
       </c>
       <c r="C24" s="4"/>
-      <c r="D24" s="5" t="s">
-        <v>157</v>
+      <c r="D24" s="4" t="s">
+        <v>216</v>
       </c>
       <c r="E24" s="3">
         <v>-1</v>
@@ -4494,29 +4568,29 @@
         <v>0</v>
       </c>
       <c r="P24" s="3">
+        <v>30</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
+      </c>
+      <c r="S24" s="3">
+        <v>0</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+      <c r="V24" s="3">
+        <v>0</v>
+      </c>
+      <c r="W24" s="3">
         <v>10</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3">
-        <v>0</v>
-      </c>
-      <c r="S24" s="3">
-        <v>0</v>
-      </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-      <c r="U24" s="3">
-        <v>0</v>
-      </c>
-      <c r="V24" s="3">
-        <v>0</v>
-      </c>
-      <c r="W24" s="3">
-        <v>0</v>
-      </c>
       <c r="X24" s="3">
         <v>0</v>
       </c>
@@ -4551,7 +4625,7 @@
         <v>0</v>
       </c>
       <c r="AI24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="3">
         <v>0</v>
@@ -4566,10 +4640,10 @@
         <v>0</v>
       </c>
       <c r="AN24" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO24" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP24" s="3">
         <v>0</v>
@@ -4599,14 +4673,14 @@
     </row>
     <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>153</v>
+        <v>115</v>
       </c>
       <c r="C25" s="4"/>
-      <c r="D25" s="5" t="s">
-        <v>158</v>
+      <c r="D25" s="4" t="s">
+        <v>116</v>
       </c>
       <c r="E25" s="3">
         <v>-1</v>
@@ -4615,13 +4689,13 @@
         <v>-1</v>
       </c>
       <c r="G25" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H25" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I25" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J25" s="3">
         <v>0</v>
@@ -4642,7 +4716,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="3">
         <v>0</v>
@@ -4690,7 +4764,7 @@
         <v>0</v>
       </c>
       <c r="AF25" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG25" s="3">
         <v>0</v>
@@ -4699,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AI25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="3">
         <v>0</v>
@@ -4720,7 +4794,7 @@
         <v>0</v>
       </c>
       <c r="AP25" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AQ25" s="3">
         <v>0</v>
@@ -4747,14 +4821,14 @@
     </row>
     <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>154</v>
+        <v>117</v>
       </c>
       <c r="C26" s="4"/>
-      <c r="D26" s="5" t="s">
-        <v>162</v>
+      <c r="D26" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="E26" s="3">
         <v>-1</v>
@@ -4790,7 +4864,7 @@
         <v>0</v>
       </c>
       <c r="P26" s="3">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="Q26" s="3">
         <v>0</v>
@@ -4847,7 +4921,7 @@
         <v>0</v>
       </c>
       <c r="AI26" s="3">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="AJ26" s="3">
         <v>0</v>
@@ -4868,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="AP26" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ26" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AR26" s="3">
         <v>0</v>
@@ -4895,13 +4969,13 @@
     </row>
     <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C27" s="4"/>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="5" t="s">
         <v>156</v>
       </c>
       <c r="E27" s="3">
@@ -4911,7 +4985,7 @@
         <v>-1</v>
       </c>
       <c r="G27" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27" s="3">
         <v>1</v>
@@ -4938,65 +5012,65 @@
         <v>0</v>
       </c>
       <c r="P27" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q27" s="3">
         <v>0</v>
       </c>
       <c r="R27" s="3">
+        <v>0</v>
+      </c>
+      <c r="S27" s="3">
+        <v>0</v>
+      </c>
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+      <c r="V27" s="3">
+        <v>0</v>
+      </c>
+      <c r="W27" s="3">
+        <v>0</v>
+      </c>
+      <c r="X27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="3">
         <v>20</v>
       </c>
-      <c r="S27" s="3">
-        <v>0</v>
-      </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-      <c r="U27" s="3">
-        <v>0</v>
-      </c>
-      <c r="V27" s="3">
-        <v>0</v>
-      </c>
-      <c r="W27" s="3">
-        <v>0</v>
-      </c>
-      <c r="X27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AF27" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AG27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AH27" s="3">
-        <v>0</v>
-      </c>
-      <c r="AI27" s="3">
-        <v>0</v>
-      </c>
       <c r="AJ27" s="3">
         <v>0</v>
       </c>
@@ -5013,7 +5087,7 @@
         <v>0</v>
       </c>
       <c r="AO27" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP27" s="3">
         <v>0</v>
@@ -5043,14 +5117,14 @@
     </row>
     <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="C28" s="4"/>
       <c r="D28" s="5" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E28" s="3">
         <v>-1</v>
@@ -5086,7 +5160,7 @@
         <v>0</v>
       </c>
       <c r="P28" s="3">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="Q28" s="3">
         <v>0</v>
@@ -5161,10 +5235,10 @@
         <v>0</v>
       </c>
       <c r="AO28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="3">
         <v>20</v>
-      </c>
-      <c r="AP28" s="3">
-        <v>0</v>
       </c>
       <c r="AQ28" s="3">
         <v>0</v>
@@ -5191,12 +5265,12 @@
     </row>
     <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="5"/>
+        <v>153</v>
+      </c>
+      <c r="C29" s="4"/>
       <c r="D29" s="5" t="s">
         <v>161</v>
       </c>
@@ -5207,7 +5281,7 @@
         <v>-1</v>
       </c>
       <c r="G29" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
         <v>1</v>
@@ -5234,13 +5308,13 @@
         <v>0</v>
       </c>
       <c r="P29" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="Q29" s="3">
         <v>0</v>
       </c>
       <c r="R29" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
@@ -5291,7 +5365,7 @@
         <v>0</v>
       </c>
       <c r="AI29" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ29" s="3">
         <v>0</v>
@@ -5315,7 +5389,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR29" s="3">
         <v>0</v>
@@ -5339,14 +5413,14 @@
     </row>
     <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>200</v>
+        <v>154</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4" t="s">
-        <v>198</v>
+        <v>155</v>
       </c>
       <c r="E30" s="3">
         <v>-1</v>
@@ -5355,10 +5429,10 @@
         <v>-1</v>
       </c>
       <c r="G30" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H30" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" s="3">
         <v>0</v>
@@ -5388,7 +5462,7 @@
         <v>0</v>
       </c>
       <c r="R30" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S30" s="3">
         <v>0</v>
@@ -5430,7 +5504,7 @@
         <v>0</v>
       </c>
       <c r="AF30" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG30" s="3">
         <v>0</v>
@@ -5487,26 +5561,26 @@
     </row>
     <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>49</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>205</v>
+        <v>46</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>158</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="4" t="s">
-        <v>185</v>
+      <c r="D31" s="5" t="s">
+        <v>150</v>
       </c>
       <c r="E31" s="3">
-        <v>41</v>
+        <v>-1</v>
       </c>
       <c r="F31" s="3">
         <v>-1</v>
       </c>
       <c r="G31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H31" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I31" s="3">
         <v>0</v>
@@ -5521,7 +5595,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N31" s="3">
         <v>0</v>
@@ -5530,7 +5604,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="Q31" s="3">
         <v>0</v>
@@ -5557,7 +5631,7 @@
         <v>0</v>
       </c>
       <c r="Y31" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="3">
         <v>0</v>
@@ -5581,13 +5655,13 @@
         <v>-1</v>
       </c>
       <c r="AG31" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="3">
         <v>0</v>
       </c>
       <c r="AI31" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ31" s="3">
         <v>0</v>
@@ -5605,10 +5679,10 @@
         <v>0</v>
       </c>
       <c r="AO31" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP31" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ31" s="3">
         <v>0</v>
@@ -5620,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="AT31" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU31" s="3">
         <v>-1</v>
@@ -5631,18 +5705,18 @@
       <c r="AW31" s="3">
         <v>-1</v>
       </c>
-      <c r="AX31" s="6"/>
+      <c r="AX31" s="7"/>
     </row>
     <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>164</v>
-      </c>
-      <c r="C32" s="4"/>
-      <c r="D32" s="4" t="s">
-        <v>165</v>
+        <v>159</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5" t="s">
+        <v>160</v>
       </c>
       <c r="E32" s="3">
         <v>-1</v>
@@ -5651,10 +5725,10 @@
         <v>-1</v>
       </c>
       <c r="G32" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" s="3">
         <v>0</v>
@@ -5684,7 +5758,7 @@
         <v>0</v>
       </c>
       <c r="R32" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S32" s="3">
         <v>0</v>
@@ -5726,7 +5800,7 @@
         <v>0</v>
       </c>
       <c r="AF32" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG32" s="3">
         <v>0</v>
@@ -5783,14 +5857,14 @@
     </row>
     <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>120</v>
+        <v>198</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="4" t="s">
-        <v>121</v>
+        <v>196</v>
       </c>
       <c r="E33" s="3">
         <v>-1</v>
@@ -5799,10 +5873,10 @@
         <v>-1</v>
       </c>
       <c r="G33" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H33" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="3">
         <v>0</v>
@@ -5832,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="R33" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S33" s="3">
         <v>0</v>
@@ -5874,7 +5948,7 @@
         <v>0</v>
       </c>
       <c r="AF33" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG33" s="3">
         <v>0</v>
@@ -5931,26 +6005,26 @@
     </row>
     <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>61</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>122</v>
+        <v>49</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>203</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4" t="s">
-        <v>123</v>
+        <v>183</v>
       </c>
       <c r="E34" s="3">
-        <v>-1</v>
+        <v>41</v>
       </c>
       <c r="F34" s="3">
         <v>-1</v>
       </c>
       <c r="G34" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H34" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I34" s="3">
         <v>0</v>
@@ -5965,7 +6039,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N34" s="3">
         <v>0</v>
@@ -5974,7 +6048,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="3">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="3">
         <v>0</v>
@@ -6001,7 +6075,7 @@
         <v>0</v>
       </c>
       <c r="Y34" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Z34" s="3">
         <v>0</v>
@@ -6025,13 +6099,13 @@
         <v>-1</v>
       </c>
       <c r="AG34" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH34" s="3">
         <v>0</v>
       </c>
       <c r="AI34" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AJ34" s="3">
         <v>0</v>
@@ -6049,10 +6123,10 @@
         <v>0</v>
       </c>
       <c r="AO34" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AP34" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ34" s="3">
         <v>0</v>
@@ -6064,7 +6138,7 @@
         <v>0</v>
       </c>
       <c r="AT34" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU34" s="3">
         <v>-1</v>
@@ -6075,18 +6149,18 @@
       <c r="AW34" s="3">
         <v>-1</v>
       </c>
-      <c r="AX34" s="7"/>
+      <c r="AX34" s="6"/>
     </row>
     <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>124</v>
+        <v>163</v>
       </c>
       <c r="C35" s="4"/>
       <c r="D35" s="4" t="s">
-        <v>125</v>
+        <v>164</v>
       </c>
       <c r="E35" s="3">
         <v>-1</v>
@@ -6095,10 +6169,10 @@
         <v>-1</v>
       </c>
       <c r="G35" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H35" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" s="3">
         <v>0</v>
@@ -6122,7 +6196,7 @@
         <v>0</v>
       </c>
       <c r="P35" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="3">
         <v>0</v>
@@ -6170,7 +6244,7 @@
         <v>0</v>
       </c>
       <c r="AF35" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="3">
         <v>0</v>
@@ -6179,7 +6253,7 @@
         <v>0</v>
       </c>
       <c r="AI35" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AJ35" s="3">
         <v>0</v>
@@ -6200,7 +6274,7 @@
         <v>0</v>
       </c>
       <c r="AP35" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AQ35" s="3">
         <v>0</v>
@@ -6227,14 +6301,14 @@
     </row>
     <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="C36" s="4"/>
       <c r="D36" s="4" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="E36" s="3">
         <v>-1</v>
@@ -6243,28 +6317,28 @@
         <v>-1</v>
       </c>
       <c r="G36" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H36" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I36" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="J36" s="3">
         <v>0</v>
       </c>
       <c r="K36" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L36" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="M36" s="3">
         <v>0</v>
       </c>
       <c r="N36" s="3">
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="O36" s="3">
         <v>0</v>
@@ -6276,7 +6350,7 @@
         <v>0</v>
       </c>
       <c r="R36" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="S36" s="3">
         <v>0</v>
@@ -6318,7 +6392,7 @@
         <v>0</v>
       </c>
       <c r="AF36" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG36" s="3">
         <v>0</v>
@@ -6375,14 +6449,14 @@
     </row>
     <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="E37" s="3">
         <v>-1</v>
@@ -6391,10 +6465,10 @@
         <v>-1</v>
       </c>
       <c r="G37" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H37" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="3">
         <v>0</v>
@@ -6418,7 +6492,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="3">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="Q37" s="3">
         <v>0</v>
@@ -6466,7 +6540,7 @@
         <v>0</v>
       </c>
       <c r="AF37" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG37" s="3">
         <v>0</v>
@@ -6475,7 +6549,7 @@
         <v>0</v>
       </c>
       <c r="AI37" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ37" s="3">
         <v>0</v>
@@ -6493,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="AO37" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AP37" s="3">
         <v>0</v>
@@ -6523,14 +6597,14 @@
     </row>
     <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>166</v>
+        <v>123</v>
       </c>
       <c r="C38" s="4"/>
       <c r="D38" s="4" t="s">
-        <v>167</v>
+        <v>124</v>
       </c>
       <c r="E38" s="3">
         <v>-1</v>
@@ -6539,35 +6613,35 @@
         <v>-1</v>
       </c>
       <c r="G38" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="H38" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I38" s="3">
-        <v>-50</v>
+        <v>0</v>
       </c>
       <c r="J38" s="3">
         <v>0</v>
       </c>
       <c r="K38" s="3">
+        <v>0</v>
+      </c>
+      <c r="L38" s="3">
+        <v>0</v>
+      </c>
+      <c r="M38" s="3">
+        <v>0</v>
+      </c>
+      <c r="N38" s="3">
+        <v>0</v>
+      </c>
+      <c r="O38" s="3">
+        <v>0</v>
+      </c>
+      <c r="P38" s="3">
         <v>50</v>
       </c>
-      <c r="L38" s="3">
-        <v>0</v>
-      </c>
-      <c r="M38" s="3">
-        <v>0</v>
-      </c>
-      <c r="N38" s="3">
-        <v>0</v>
-      </c>
-      <c r="O38" s="3">
-        <v>0</v>
-      </c>
-      <c r="P38" s="3">
-        <v>0</v>
-      </c>
       <c r="Q38" s="3">
         <v>0</v>
       </c>
@@ -6617,13 +6691,13 @@
         <v>-1</v>
       </c>
       <c r="AG38" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH38" s="3">
         <v>0</v>
       </c>
       <c r="AI38" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AJ38" s="3">
         <v>0</v>
@@ -6644,13 +6718,13 @@
         <v>0</v>
       </c>
       <c r="AP38" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AQ38" s="3">
         <v>0</v>
       </c>
       <c r="AR38" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS38" s="3">
         <v>0</v>
@@ -6671,14 +6745,14 @@
     </row>
     <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>168</v>
+        <v>125</v>
       </c>
       <c r="C39" s="4"/>
       <c r="D39" s="4" t="s">
-        <v>169</v>
+        <v>126</v>
       </c>
       <c r="E39" s="3">
         <v>-1</v>
@@ -6693,22 +6767,22 @@
         <v>3</v>
       </c>
       <c r="I39" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="J39" s="3">
         <v>0</v>
       </c>
       <c r="K39" s="3">
-        <v>-40</v>
+        <v>-100</v>
       </c>
       <c r="L39" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="M39" s="3">
         <v>0</v>
       </c>
       <c r="N39" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="O39" s="3">
         <v>0</v>
@@ -6819,17 +6893,17 @@
     </row>
     <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>73</v>
-      </c>
-      <c r="B40" s="4" t="s">
-        <v>194</v>
+        <v>70</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>127</v>
       </c>
       <c r="C40" s="4"/>
       <c r="D40" s="4" t="s">
-        <v>195</v>
+        <v>128</v>
       </c>
       <c r="E40" s="3">
-        <v>72</v>
+        <v>-1</v>
       </c>
       <c r="F40" s="3">
         <v>-1</v>
@@ -6838,7 +6912,7 @@
         <v>-1</v>
       </c>
       <c r="H40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" s="3">
         <v>0</v>
@@ -6853,7 +6927,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N40" s="3">
         <v>0</v>
@@ -6895,7 +6969,7 @@
         <v>0</v>
       </c>
       <c r="AA40" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AB40" s="3">
         <v>0</v>
@@ -6910,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="AF40" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH40" s="3">
         <v>0</v>
@@ -6946,13 +7020,13 @@
         <v>0</v>
       </c>
       <c r="AR40" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS40" s="3">
         <v>0</v>
       </c>
       <c r="AT40" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU40" s="3">
         <v>-1</v>
@@ -6963,18 +7037,18 @@
       <c r="AW40" s="3">
         <v>-1</v>
       </c>
-      <c r="AX40" s="6"/>
+      <c r="AX40" s="7"/>
     </row>
     <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>130</v>
+        <v>211</v>
       </c>
       <c r="C41" s="4"/>
       <c r="D41" s="4" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="E41" s="3">
         <v>-1</v>
@@ -6986,22 +7060,22 @@
         <v>-1</v>
       </c>
       <c r="H41" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I41" s="3">
-        <v>0</v>
+        <v>-50</v>
       </c>
       <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="L41" s="3">
         <v>0</v>
       </c>
       <c r="M41" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N41" s="3">
         <v>0</v>
@@ -7013,7 +7087,7 @@
         <v>0</v>
       </c>
       <c r="Q41" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="R41" s="3">
         <v>0</v>
@@ -7094,13 +7168,13 @@
         <v>0</v>
       </c>
       <c r="AR41" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS41" s="3">
         <v>0</v>
       </c>
       <c r="AT41" s="3">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="AU41" s="3">
         <v>-1</v>
@@ -7115,14 +7189,14 @@
     </row>
     <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="C42" s="4"/>
-      <c r="D42" s="5" t="s">
-        <v>172</v>
+      <c r="D42" s="4" t="s">
+        <v>167</v>
       </c>
       <c r="E42" s="3">
         <v>-1</v>
@@ -7143,10 +7217,10 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L42" s="3">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="M42" s="3">
         <v>0</v>
@@ -7263,17 +7337,17 @@
     </row>
     <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>90</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>132</v>
+        <v>73</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>192</v>
       </c>
       <c r="C43" s="4"/>
       <c r="D43" s="4" t="s">
-        <v>133</v>
+        <v>193</v>
       </c>
       <c r="E43" s="3">
-        <v>-1</v>
+        <v>72</v>
       </c>
       <c r="F43" s="3">
         <v>-1</v>
@@ -7282,7 +7356,7 @@
         <v>-1</v>
       </c>
       <c r="H43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" s="3">
         <v>0</v>
@@ -7297,7 +7371,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N43" s="3">
         <v>0</v>
@@ -7339,7 +7413,7 @@
         <v>0</v>
       </c>
       <c r="AA43" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AB43" s="3">
         <v>0</v>
@@ -7354,10 +7428,10 @@
         <v>0</v>
       </c>
       <c r="AF43" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG43" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH43" s="3">
         <v>0</v>
@@ -7390,13 +7464,13 @@
         <v>0</v>
       </c>
       <c r="AR43" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS43" s="3">
         <v>0</v>
       </c>
       <c r="AT43" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="AU43" s="3">
         <v>-1</v>
@@ -7407,21 +7481,23 @@
       <c r="AW43" s="3">
         <v>-1</v>
       </c>
-      <c r="AX43" s="7"/>
+      <c r="AX43" s="6"/>
     </row>
     <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>91</v>
-      </c>
-      <c r="B44" s="4" t="s">
-        <v>179</v>
-      </c>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4" t="s">
-        <v>178</v>
+        <v>74</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>219</v>
       </c>
       <c r="E44" s="3">
-        <v>90</v>
+        <v>-1</v>
       </c>
       <c r="F44" s="3">
         <v>-1</v>
@@ -7430,7 +7506,7 @@
         <v>-1</v>
       </c>
       <c r="H44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" s="3">
         <v>0</v>
@@ -7445,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="M44" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N44" s="3">
         <v>0</v>
@@ -7475,7 +7551,7 @@
         <v>0</v>
       </c>
       <c r="W44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X44" s="3">
         <v>0</v>
@@ -7502,10 +7578,10 @@
         <v>0</v>
       </c>
       <c r="AF44" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG44" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH44" s="3">
         <v>0</v>
@@ -7526,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="AN44" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AO44" s="3">
         <v>0</v>
@@ -7544,7 +7620,7 @@
         <v>0</v>
       </c>
       <c r="AT44" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="AU44" s="3">
         <v>-1</v>
@@ -7555,21 +7631,21 @@
       <c r="AW44" s="3">
         <v>-1</v>
       </c>
-      <c r="AX44" s="6"/>
+      <c r="AX44" s="7"/>
     </row>
     <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>110</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>193</v>
+        <v>75</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>220</v>
       </c>
       <c r="C45" s="4"/>
-      <c r="D45" s="5" t="s">
-        <v>192</v>
+      <c r="D45" s="4" t="s">
+        <v>222</v>
       </c>
       <c r="E45" s="3">
-        <v>-1</v>
+        <v>70</v>
       </c>
       <c r="F45" s="3">
         <v>-1</v>
@@ -7578,7 +7654,7 @@
         <v>-1</v>
       </c>
       <c r="H45" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I45" s="3">
         <v>0</v>
@@ -7590,10 +7666,10 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="M45" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N45" s="3">
         <v>0</v>
@@ -7626,7 +7702,7 @@
         <v>0</v>
       </c>
       <c r="X45" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y45" s="3">
         <v>0</v>
@@ -7650,10 +7726,10 @@
         <v>0</v>
       </c>
       <c r="AF45" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG45" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH45" s="3">
         <v>0</v>
@@ -7665,7 +7741,7 @@
         <v>0</v>
       </c>
       <c r="AK45" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL45" s="3">
         <v>0</v>
@@ -7674,7 +7750,7 @@
         <v>0</v>
       </c>
       <c r="AN45" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AO45" s="3">
         <v>0</v>
@@ -7692,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AU45" s="3">
         <v>-1</v>
@@ -7703,21 +7779,21 @@
       <c r="AW45" s="3">
         <v>-1</v>
       </c>
-      <c r="AX45" s="7"/>
+      <c r="AX45" s="6"/>
     </row>
     <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
-        <v>120</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>141</v>
+        <v>76</v>
+      </c>
+      <c r="B46" s="4" t="s">
+        <v>221</v>
       </c>
       <c r="C46" s="4"/>
-      <c r="D46" s="5" t="s">
-        <v>143</v>
+      <c r="D46" s="4" t="s">
+        <v>223</v>
       </c>
       <c r="E46" s="3">
-        <v>-1</v>
+        <v>71</v>
       </c>
       <c r="F46" s="3">
         <v>-1</v>
@@ -7726,10 +7802,10 @@
         <v>-1</v>
       </c>
       <c r="H46" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I46" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="J46" s="3">
         <v>0</v>
@@ -7741,7 +7817,7 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N46" s="3">
         <v>0</v>
@@ -7774,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="X46" s="3">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Y46" s="3">
         <v>0</v>
@@ -7798,10 +7874,10 @@
         <v>0</v>
       </c>
       <c r="AF46" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG46" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH46" s="3">
         <v>0</v>
@@ -7813,7 +7889,7 @@
         <v>0</v>
       </c>
       <c r="AK46" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AL46" s="3">
         <v>0</v>
@@ -7825,7 +7901,7 @@
         <v>0</v>
       </c>
       <c r="AO46" s="3">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AP46" s="3">
         <v>0</v>
@@ -7840,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="AU46" s="3">
         <v>-1</v>
@@ -7851,18 +7927,18 @@
       <c r="AW46" s="3">
         <v>-1</v>
       </c>
-      <c r="AX46" s="7"/>
+      <c r="AX46" s="6"/>
     </row>
     <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>121</v>
+        <v>77</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="C47" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="C47" s="5"/>
       <c r="D47" s="5" t="s">
-        <v>144</v>
+        <v>225</v>
       </c>
       <c r="E47" s="3">
         <v>-1</v>
@@ -7874,7 +7950,7 @@
         <v>-1</v>
       </c>
       <c r="H47" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I47" s="3">
         <v>0</v>
@@ -7883,13 +7959,13 @@
         <v>0</v>
       </c>
       <c r="K47" s="3">
-        <v>-90</v>
+        <v>0</v>
       </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
       <c r="M47" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N47" s="3">
         <v>0</v>
@@ -7931,7 +8007,7 @@
         <v>0</v>
       </c>
       <c r="AA47" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AB47" s="3">
         <v>0</v>
@@ -7946,10 +8022,10 @@
         <v>0</v>
       </c>
       <c r="AF47" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG47" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH47" s="3">
         <v>0</v>
@@ -7982,35 +8058,37 @@
         <v>0</v>
       </c>
       <c r="AR47" s="3">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="AS47" s="3">
         <v>0</v>
       </c>
       <c r="AT47" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU47" s="3">
         <v>-1</v>
       </c>
       <c r="AV47" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AW47" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX47" s="7"/>
+        <v>74</v>
+      </c>
+      <c r="AX47" s="7" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>122</v>
+        <v>80</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="C48" s="4"/>
-      <c r="D48" s="5" t="s">
-        <v>146</v>
+      <c r="D48" s="4" t="s">
+        <v>130</v>
       </c>
       <c r="E48" s="3">
         <v>-1</v>
@@ -8022,7 +8100,7 @@
         <v>-1</v>
       </c>
       <c r="H48" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I48" s="3">
         <v>0</v>
@@ -8037,19 +8115,19 @@
         <v>0</v>
       </c>
       <c r="M48" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N48" s="3">
         <v>0</v>
       </c>
       <c r="O48" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="P48" s="3">
         <v>0</v>
       </c>
       <c r="Q48" s="3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="R48" s="3">
         <v>0</v>
@@ -8094,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="AF48" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG48" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH48" s="3">
         <v>0</v>
@@ -8136,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="AT48" s="3">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="AU48" s="3">
         <v>-1</v>
@@ -8151,16 +8229,14 @@
     </row>
     <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>123</v>
+        <v>81</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="C49" s="4" t="s">
-        <v>204</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C49" s="4"/>
       <c r="D49" s="5" t="s">
-        <v>203</v>
+        <v>170</v>
       </c>
       <c r="E49" s="3">
         <v>-1</v>
@@ -8172,7 +8248,7 @@
         <v>-1</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -8184,7 +8260,7 @@
         <v>0</v>
       </c>
       <c r="L49" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="M49" s="3">
         <v>0</v>
@@ -8301,14 +8377,14 @@
     </row>
     <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="4"/>
       <c r="D50" s="4" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="E50" s="3">
         <v>-1</v>
@@ -8317,10 +8393,10 @@
         <v>-1</v>
       </c>
       <c r="G50" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H50" s="3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" s="3">
         <v>0</v>
@@ -8350,7 +8426,7 @@
         <v>0</v>
       </c>
       <c r="R50" s="3">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S50" s="3">
         <v>0</v>
@@ -8392,10 +8468,10 @@
         <v>0</v>
       </c>
       <c r="AF50" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG50" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH50" s="3">
         <v>0</v>
@@ -8449,17 +8525,17 @@
     </row>
     <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>141</v>
-      </c>
-      <c r="B51" s="5" t="s">
-        <v>136</v>
+        <v>91</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C51" s="4"/>
       <c r="D51" s="4" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="E51" s="3">
-        <v>-1</v>
+        <v>90</v>
       </c>
       <c r="F51" s="3">
         <v>-1</v>
@@ -8468,7 +8544,7 @@
         <v>-1</v>
       </c>
       <c r="H51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" s="3">
         <v>0</v>
@@ -8483,7 +8559,7 @@
         <v>0</v>
       </c>
       <c r="M51" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N51" s="3">
         <v>0</v>
@@ -8513,7 +8589,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X51" s="3">
         <v>0</v>
@@ -8540,10 +8616,10 @@
         <v>0</v>
       </c>
       <c r="AF51" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG51" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH51" s="3">
         <v>0</v>
@@ -8564,7 +8640,7 @@
         <v>0</v>
       </c>
       <c r="AN51" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AO51" s="3">
         <v>0</v>
@@ -8582,7 +8658,7 @@
         <v>0</v>
       </c>
       <c r="AT51" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="AU51" s="3">
         <v>-1</v>
@@ -8593,21 +8669,21 @@
       <c r="AW51" s="3">
         <v>-1</v>
       </c>
-      <c r="AX51" s="7"/>
+      <c r="AX51" s="6"/>
     </row>
     <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>142</v>
-      </c>
-      <c r="B52" s="4" t="s">
-        <v>184</v>
+        <v>110</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>191</v>
       </c>
       <c r="C52" s="4"/>
-      <c r="D52" s="4" t="s">
-        <v>185</v>
+      <c r="D52" s="5" t="s">
+        <v>190</v>
       </c>
       <c r="E52" s="3">
-        <v>40</v>
+        <v>-1</v>
       </c>
       <c r="F52" s="3">
         <v>-1</v>
@@ -8616,7 +8692,7 @@
         <v>-1</v>
       </c>
       <c r="H52" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" s="3">
         <v>0</v>
@@ -8628,10 +8704,10 @@
         <v>0</v>
       </c>
       <c r="L52" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="M52" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="N52" s="3">
         <v>0</v>
@@ -8661,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="W52" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="X52" s="3">
         <v>0</v>
@@ -8688,10 +8764,10 @@
         <v>0</v>
       </c>
       <c r="AF52" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG52" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH52" s="3">
         <v>0</v>
@@ -8712,7 +8788,7 @@
         <v>0</v>
       </c>
       <c r="AN52" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AO52" s="3">
         <v>0</v>
@@ -8730,7 +8806,7 @@
         <v>0</v>
       </c>
       <c r="AT52" s="3">
-        <v>500</v>
+        <v>0</v>
       </c>
       <c r="AU52" s="3">
         <v>-1</v>
@@ -8741,18 +8817,18 @@
       <c r="AW52" s="3">
         <v>-1</v>
       </c>
-      <c r="AX52" s="6"/>
+      <c r="AX52" s="7"/>
     </row>
     <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
-        <v>160</v>
+        <v>120</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="C53" s="4"/>
-      <c r="D53" s="4" t="s">
-        <v>181</v>
+      <c r="D53" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="E53" s="3">
         <v>-1</v>
@@ -8761,13 +8837,13 @@
         <v>-1</v>
       </c>
       <c r="G53" s="3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="H53" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I53" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="J53" s="3">
         <v>0</v>
@@ -8794,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="R53" s="3">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="S53" s="3">
         <v>0</v>
@@ -8836,10 +8912,10 @@
         <v>0</v>
       </c>
       <c r="AF53" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG53" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH53" s="3">
         <v>0</v>
@@ -8893,14 +8969,14 @@
     </row>
     <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>182</v>
+        <v>141</v>
       </c>
       <c r="C54" s="4"/>
-      <c r="D54" s="4" t="s">
-        <v>183</v>
+      <c r="D54" s="5" t="s">
+        <v>143</v>
       </c>
       <c r="E54" s="3">
         <v>-1</v>
@@ -8921,7 +8997,7 @@
         <v>0</v>
       </c>
       <c r="K54" s="3">
-        <v>0</v>
+        <v>-90</v>
       </c>
       <c r="L54" s="3">
         <v>0</v>
@@ -8930,7 +9006,7 @@
         <v>0</v>
       </c>
       <c r="N54" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="O54" s="3">
         <v>0</v>
@@ -9041,14 +9117,14 @@
     </row>
     <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
-        <v>170</v>
+        <v>122</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C55" s="4"/>
       <c r="D55" s="5" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E55" s="3">
         <v>-1</v>
@@ -9066,22 +9142,22 @@
         <v>0</v>
       </c>
       <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="3">
+        <v>0</v>
+      </c>
+      <c r="L55" s="3">
+        <v>0</v>
+      </c>
+      <c r="M55" s="3">
+        <v>0</v>
+      </c>
+      <c r="N55" s="3">
+        <v>0</v>
+      </c>
+      <c r="O55" s="3">
         <v>100</v>
-      </c>
-      <c r="K55" s="3">
-        <v>0</v>
-      </c>
-      <c r="L55" s="3">
-        <v>0</v>
-      </c>
-      <c r="M55" s="3">
-        <v>0</v>
-      </c>
-      <c r="N55" s="3">
-        <v>0</v>
-      </c>
-      <c r="O55" s="3">
-        <v>0</v>
       </c>
       <c r="P55" s="3">
         <v>0</v>
@@ -9189,14 +9265,16 @@
     </row>
     <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
-        <v>171</v>
+        <v>123</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="C56" s="4"/>
+        <v>200</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>202</v>
+      </c>
       <c r="D56" s="5" t="s">
-        <v>150</v>
+        <v>201</v>
       </c>
       <c r="E56" s="3">
         <v>-1</v>
@@ -9208,13 +9286,13 @@
         <v>-1</v>
       </c>
       <c r="H56" s="3">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I56" s="3">
         <v>0</v>
       </c>
       <c r="J56" s="3">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K56" s="3">
         <v>0</v>
@@ -9337,16 +9415,14 @@
     </row>
     <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
-        <v>174</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>140</v>
+        <v>124</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C57" s="4"/>
+      <c r="D57" s="5" t="s">
+        <v>228</v>
       </c>
       <c r="E57" s="3">
         <v>-1</v>
@@ -9358,7 +9434,7 @@
         <v>-1</v>
       </c>
       <c r="H57" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" s="3">
         <v>0</v>
@@ -9373,7 +9449,7 @@
         <v>0</v>
       </c>
       <c r="M57" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="N57" s="3">
         <v>0</v>
@@ -9394,10 +9470,10 @@
         <v>0</v>
       </c>
       <c r="T57" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="U57" s="3">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -9430,10 +9506,10 @@
         <v>0</v>
       </c>
       <c r="AF57" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG57" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH57" s="3">
         <v>0</v>
@@ -9445,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="AK57" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AL57" s="3">
         <v>0</v>
@@ -9472,29 +9548,31 @@
         <v>0</v>
       </c>
       <c r="AT57" s="3">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="AU57" s="3">
         <v>-1</v>
       </c>
       <c r="AV57" s="3">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="AW57" s="3">
-        <v>-1</v>
-      </c>
-      <c r="AX57" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="AX57" s="7" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
-        <v>180</v>
+        <v>140</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="C58" s="4"/>
       <c r="D58" s="4" t="s">
-        <v>187</v>
+        <v>134</v>
       </c>
       <c r="E58" s="3">
         <v>-1</v>
@@ -9503,10 +9581,10 @@
         <v>-1</v>
       </c>
       <c r="G58" s="3">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="H58" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I58" s="3">
         <v>0</v>
@@ -9515,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="K58" s="3">
-        <v>-100</v>
+        <v>0</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -9536,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="R58" s="3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="S58" s="3">
         <v>0</v>
@@ -9578,10 +9656,10 @@
         <v>0</v>
       </c>
       <c r="AF58" s="3">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="AG58" s="3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AH58" s="3">
         <v>0</v>
@@ -9635,14 +9713,14 @@
     </row>
     <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
-        <v>181</v>
+        <v>141</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>188</v>
+        <v>135</v>
       </c>
       <c r="C59" s="4"/>
       <c r="D59" s="4" t="s">
-        <v>189</v>
+        <v>136</v>
       </c>
       <c r="E59" s="3">
         <v>-1</v>
@@ -9654,16 +9732,16 @@
         <v>-1</v>
       </c>
       <c r="H59" s="3">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="I59" s="3">
-        <v>-80</v>
+        <v>0</v>
       </c>
       <c r="J59" s="3">
         <v>0</v>
       </c>
       <c r="K59" s="3">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L59" s="3">
         <v>0</v>
@@ -9726,10 +9804,10 @@
         <v>0</v>
       </c>
       <c r="AF59" s="3">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="AG59" s="3">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AH59" s="3">
         <v>0</v>
@@ -9762,7 +9840,7 @@
         <v>0</v>
       </c>
       <c r="AR59" s="3">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="AS59" s="3">
         <v>0</v>
@@ -9783,17 +9861,17 @@
     </row>
     <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
+        <v>142</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="B60" s="4" t="s">
-        <v>190</v>
       </c>
       <c r="C60" s="4"/>
       <c r="D60" s="4" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E60" s="3">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="F60" s="3">
         <v>-1</v>
@@ -9930,425 +10008,1195 @@
       <c r="AX60" s="6"/>
     </row>
     <row r="61" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A61" s="3"/>
-      <c r="B61" s="5"/>
+      <c r="A61" s="3">
+        <v>160</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>178</v>
+      </c>
       <c r="C61" s="4"/>
-      <c r="D61" s="5"/>
-      <c r="E61" s="3"/>
-      <c r="F61" s="3"/>
-      <c r="G61" s="3"/>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-      <c r="R61" s="3"/>
-      <c r="S61" s="3"/>
-      <c r="T61" s="3"/>
-      <c r="U61" s="3"/>
-      <c r="V61" s="3"/>
-      <c r="W61" s="3"/>
-      <c r="X61" s="3"/>
-      <c r="Y61" s="3"/>
-      <c r="Z61" s="3"/>
-      <c r="AA61" s="3"/>
-      <c r="AB61" s="3"/>
-      <c r="AC61" s="3"/>
-      <c r="AD61" s="3"/>
-      <c r="AE61" s="3"/>
-      <c r="AF61" s="3"/>
-      <c r="AG61" s="3"/>
-      <c r="AH61" s="3"/>
-      <c r="AI61" s="3"/>
-      <c r="AJ61" s="3"/>
-      <c r="AK61" s="3"/>
-      <c r="AL61" s="3"/>
-      <c r="AM61" s="3"/>
-      <c r="AN61" s="3"/>
-      <c r="AO61" s="3"/>
-      <c r="AP61" s="3"/>
-      <c r="AQ61" s="3"/>
-      <c r="AR61" s="3"/>
-      <c r="AS61" s="3"/>
-      <c r="AT61" s="3"/>
-      <c r="AU61" s="3"/>
-      <c r="AV61" s="3"/>
-      <c r="AW61" s="3"/>
+      <c r="D61" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="E61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G61" s="3">
+        <v>1</v>
+      </c>
+      <c r="H61" s="3">
+        <v>1</v>
+      </c>
+      <c r="I61" s="3">
+        <v>0</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+      <c r="R61" s="3">
+        <v>30</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+      <c r="W61" s="3">
+        <v>0</v>
+      </c>
+      <c r="X61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG61" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU61" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV61" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX61" s="7"/>
     </row>
     <row r="62" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A62" s="3"/>
-      <c r="B62" s="5"/>
+      <c r="A62" s="3">
+        <v>161</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>180</v>
+      </c>
       <c r="C62" s="4"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="3"/>
-      <c r="F62" s="3"/>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="3"/>
-      <c r="N62" s="3"/>
-      <c r="O62" s="3"/>
-      <c r="P62" s="3"/>
-      <c r="Q62" s="3"/>
-      <c r="R62" s="3"/>
-      <c r="S62" s="3"/>
-      <c r="T62" s="3"/>
-      <c r="U62" s="3"/>
-      <c r="V62" s="3"/>
-      <c r="W62" s="3"/>
-      <c r="X62" s="3"/>
-      <c r="Y62" s="3"/>
-      <c r="Z62" s="3"/>
-      <c r="AA62" s="3"/>
-      <c r="AB62" s="3"/>
-      <c r="AC62" s="3"/>
-      <c r="AD62" s="3"/>
-      <c r="AE62" s="3"/>
-      <c r="AF62" s="3"/>
-      <c r="AG62" s="3"/>
-      <c r="AH62" s="3"/>
-      <c r="AI62" s="3"/>
-      <c r="AJ62" s="3"/>
-      <c r="AK62" s="3"/>
-      <c r="AL62" s="3"/>
-      <c r="AM62" s="3"/>
-      <c r="AN62" s="3"/>
-      <c r="AO62" s="3"/>
-      <c r="AP62" s="3"/>
-      <c r="AQ62" s="3"/>
-      <c r="AR62" s="3"/>
-      <c r="AS62" s="3"/>
-      <c r="AT62" s="3"/>
-      <c r="AU62" s="3"/>
-      <c r="AV62" s="3"/>
-      <c r="AW62" s="3"/>
+      <c r="D62" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="E62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H62" s="3">
+        <v>3</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
+        <v>0</v>
+      </c>
+      <c r="L62" s="3">
+        <v>0</v>
+      </c>
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>100</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+      <c r="V62" s="3">
+        <v>0</v>
+      </c>
+      <c r="W62" s="3">
+        <v>0</v>
+      </c>
+      <c r="X62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU62" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV62" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX62" s="7"/>
     </row>
     <row r="63" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A63" s="3"/>
-      <c r="B63" s="5"/>
-      <c r="C63" s="5"/>
-      <c r="D63" s="5"/>
-      <c r="E63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-      <c r="AR63" s="3"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
-      <c r="AU63" s="3"/>
-      <c r="AV63" s="3"/>
-      <c r="AW63" s="3"/>
+      <c r="A63" s="3">
+        <v>170</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="C63" s="4"/>
+      <c r="D63" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H63" s="3">
+        <v>3</v>
+      </c>
+      <c r="I63" s="3">
+        <v>0</v>
+      </c>
+      <c r="J63" s="3">
+        <v>100</v>
+      </c>
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW63" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX63" s="7"/>
     </row>
     <row r="64" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A64" s="3"/>
-      <c r="B64" s="5"/>
-      <c r="C64" s="5"/>
-      <c r="D64" s="5"/>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
-      <c r="AR64" s="3"/>
-      <c r="AS64" s="3"/>
-      <c r="AT64" s="3"/>
-      <c r="AU64" s="3"/>
-      <c r="AV64" s="3"/>
-      <c r="AW64" s="3"/>
+      <c r="A64" s="3">
+        <v>171</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C64" s="4"/>
+      <c r="D64" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="E64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H64" s="3">
+        <v>3</v>
+      </c>
+      <c r="I64" s="3">
+        <v>0</v>
+      </c>
+      <c r="J64" s="3">
+        <v>10</v>
+      </c>
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX64" s="7"/>
     </row>
     <row r="65" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A65" s="3"/>
-      <c r="B65" s="5"/>
-      <c r="C65" s="5"/>
-      <c r="D65" s="4"/>
-      <c r="E65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="3"/>
-      <c r="AK65" s="3"/>
-      <c r="AL65" s="3"/>
-      <c r="AM65" s="3"/>
-      <c r="AN65" s="3"/>
-      <c r="AO65" s="3"/>
-      <c r="AP65" s="3"/>
-      <c r="AQ65" s="3"/>
-      <c r="AR65" s="3"/>
-      <c r="AS65" s="3"/>
-      <c r="AT65" s="3"/>
-      <c r="AU65" s="3"/>
-      <c r="AV65" s="3"/>
-      <c r="AW65" s="3"/>
+      <c r="A65" s="3">
+        <v>174</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="E65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H65" s="3">
+        <v>0</v>
+      </c>
+      <c r="I65" s="3">
+        <v>0</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW65" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX65" s="7"/>
     </row>
     <row r="66" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A66" s="3"/>
-      <c r="B66" s="5"/>
-      <c r="C66" s="5"/>
-      <c r="D66" s="5"/>
-      <c r="E66" s="3"/>
-      <c r="F66" s="3"/>
-      <c r="G66" s="3"/>
-      <c r="H66" s="3"/>
-      <c r="I66" s="3"/>
-      <c r="J66" s="3"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="3"/>
-      <c r="Z66" s="3"/>
-      <c r="AA66" s="3"/>
-      <c r="AB66" s="3"/>
-      <c r="AC66" s="3"/>
-      <c r="AD66" s="3"/>
-      <c r="AE66" s="3"/>
-      <c r="AF66" s="3"/>
-      <c r="AG66" s="3"/>
-      <c r="AH66" s="3"/>
-      <c r="AI66" s="3"/>
-      <c r="AJ66" s="3"/>
-      <c r="AK66" s="3"/>
-      <c r="AL66" s="3"/>
-      <c r="AM66" s="3"/>
-      <c r="AN66" s="3"/>
-      <c r="AO66" s="3"/>
-      <c r="AP66" s="3"/>
-      <c r="AQ66" s="3"/>
-      <c r="AR66" s="3"/>
-      <c r="AS66" s="3"/>
-      <c r="AT66" s="3"/>
-      <c r="AU66" s="3"/>
-      <c r="AV66" s="3"/>
-      <c r="AW66" s="3"/>
+      <c r="A66" s="3">
+        <v>180</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="E66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H66" s="3">
+        <v>3</v>
+      </c>
+      <c r="I66" s="3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="K66" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L66" s="3">
+        <v>0</v>
+      </c>
+      <c r="M66" s="3">
+        <v>0</v>
+      </c>
+      <c r="N66" s="3">
+        <v>0</v>
+      </c>
+      <c r="O66" s="3">
+        <v>0</v>
+      </c>
+      <c r="P66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q66" s="3">
+        <v>0</v>
+      </c>
+      <c r="R66" s="3">
+        <v>0</v>
+      </c>
+      <c r="S66" s="3">
+        <v>0</v>
+      </c>
+      <c r="T66" s="3">
+        <v>0</v>
+      </c>
+      <c r="U66" s="3">
+        <v>0</v>
+      </c>
+      <c r="V66" s="3">
+        <v>0</v>
+      </c>
+      <c r="W66" s="3">
+        <v>0</v>
+      </c>
+      <c r="X66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y66" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV66" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW66" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX66" s="7"/>
     </row>
     <row r="67" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A67" s="3"/>
-      <c r="B67" s="5"/>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="3"/>
-      <c r="F67" s="3"/>
-      <c r="G67" s="3"/>
-      <c r="H67" s="3"/>
-      <c r="I67" s="3"/>
-      <c r="J67" s="3"/>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-      <c r="R67" s="3"/>
-      <c r="S67" s="3"/>
-      <c r="T67" s="3"/>
-      <c r="U67" s="3"/>
-      <c r="V67" s="3"/>
-      <c r="W67" s="3"/>
-      <c r="X67" s="3"/>
-      <c r="Y67" s="3"/>
-      <c r="Z67" s="3"/>
-      <c r="AA67" s="3"/>
-      <c r="AB67" s="3"/>
-      <c r="AC67" s="3"/>
-      <c r="AD67" s="3"/>
-      <c r="AE67" s="3"/>
-      <c r="AF67" s="3"/>
-      <c r="AG67" s="3"/>
-      <c r="AH67" s="3"/>
-      <c r="AI67" s="3"/>
-      <c r="AJ67" s="3"/>
-      <c r="AK67" s="3"/>
-      <c r="AL67" s="3"/>
-      <c r="AM67" s="3"/>
-      <c r="AN67" s="3"/>
-      <c r="AO67" s="3"/>
-      <c r="AP67" s="3"/>
-      <c r="AQ67" s="3"/>
-      <c r="AR67" s="3"/>
-      <c r="AS67" s="3"/>
-      <c r="AT67" s="3"/>
-      <c r="AU67" s="3"/>
-      <c r="AV67" s="3"/>
-      <c r="AW67" s="3"/>
+      <c r="A67" s="3">
+        <v>181</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H67" s="3">
+        <v>4</v>
+      </c>
+      <c r="I67" s="3">
+        <v>-80</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="3">
+        <v>80</v>
+      </c>
+      <c r="L67" s="3">
+        <v>0</v>
+      </c>
+      <c r="M67" s="3">
+        <v>0</v>
+      </c>
+      <c r="N67" s="3">
+        <v>0</v>
+      </c>
+      <c r="O67" s="3">
+        <v>0</v>
+      </c>
+      <c r="P67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q67" s="3">
+        <v>0</v>
+      </c>
+      <c r="R67" s="3">
+        <v>0</v>
+      </c>
+      <c r="S67" s="3">
+        <v>0</v>
+      </c>
+      <c r="T67" s="3">
+        <v>0</v>
+      </c>
+      <c r="U67" s="3">
+        <v>0</v>
+      </c>
+      <c r="V67" s="3">
+        <v>0</v>
+      </c>
+      <c r="W67" s="3">
+        <v>0</v>
+      </c>
+      <c r="X67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y67" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG67" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR67" s="3">
+        <v>40</v>
+      </c>
+      <c r="AS67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV67" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW67" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX67" s="7"/>
     </row>
     <row r="68" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A68" s="3"/>
-      <c r="B68" s="5"/>
-      <c r="C68" s="5"/>
-      <c r="D68" s="5"/>
-      <c r="E68" s="3"/>
-      <c r="F68" s="3"/>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
-      <c r="I68" s="3"/>
-      <c r="J68" s="3"/>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="3"/>
-      <c r="N68" s="3"/>
-      <c r="O68" s="3"/>
-      <c r="P68" s="3"/>
-      <c r="Q68" s="3"/>
-      <c r="R68" s="3"/>
-      <c r="S68" s="3"/>
-      <c r="T68" s="3"/>
-      <c r="U68" s="3"/>
-      <c r="V68" s="3"/>
-      <c r="W68" s="3"/>
-      <c r="X68" s="3"/>
-      <c r="Y68" s="3"/>
-      <c r="Z68" s="3"/>
-      <c r="AA68" s="3"/>
-      <c r="AB68" s="3"/>
-      <c r="AC68" s="3"/>
-      <c r="AD68" s="3"/>
-      <c r="AE68" s="3"/>
-      <c r="AF68" s="3"/>
-      <c r="AG68" s="3"/>
-      <c r="AH68" s="3"/>
-      <c r="AI68" s="3"/>
-      <c r="AJ68" s="3"/>
-      <c r="AK68" s="3"/>
-      <c r="AL68" s="3"/>
-      <c r="AM68" s="3"/>
-      <c r="AN68" s="3"/>
-      <c r="AO68" s="3"/>
-      <c r="AP68" s="3"/>
-      <c r="AQ68" s="3"/>
-      <c r="AR68" s="3"/>
-      <c r="AS68" s="3"/>
-      <c r="AT68" s="3"/>
-      <c r="AU68" s="3"/>
-      <c r="AV68" s="3"/>
-      <c r="AW68" s="3"/>
-      <c r="AX68" s="7"/>
+      <c r="A68" s="3">
+        <v>182</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E68" s="3">
+        <v>181</v>
+      </c>
+      <c r="F68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H68" s="3">
+        <v>2</v>
+      </c>
+      <c r="I68" s="3">
+        <v>0</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+      <c r="W68" s="3">
+        <v>4</v>
+      </c>
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG68" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN68" s="3">
+        <v>40</v>
+      </c>
+      <c r="AO68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT68" s="3">
+        <v>500</v>
+      </c>
+      <c r="AU68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW68" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX68" s="6"/>
     </row>
     <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
+      <c r="C69" s="4"/>
       <c r="D69" s="5"/>
       <c r="E69" s="3"/>
       <c r="F69" s="3"/>
@@ -10505,7 +11353,7 @@
       <c r="A72" s="3"/>
       <c r="B72" s="5"/>
       <c r="C72" s="5"/>
-      <c r="D72" s="5"/>
+      <c r="D72" s="4"/>
       <c r="E72" s="3"/>
       <c r="F72" s="3"/>
       <c r="G72" s="3"/>
@@ -10763,9 +11611,9 @@
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="5"/>
+      <c r="D77" s="5"/>
       <c r="E77" s="3"/>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
@@ -10815,9 +11663,9 @@
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="5"/>
+      <c r="D78" s="5"/>
       <c r="E78" s="3"/>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
@@ -10867,9 +11715,9 @@
     </row>
     <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
-      <c r="B79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="5"/>
+      <c r="D79" s="5"/>
       <c r="E79" s="3"/>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
@@ -10919,9 +11767,9 @@
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="5"/>
+      <c r="D80" s="5"/>
       <c r="E80" s="3"/>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
@@ -10971,9 +11819,9 @@
     </row>
     <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
+      <c r="B81" s="5"/>
+      <c r="C81" s="5"/>
+      <c r="D81" s="5"/>
       <c r="E81" s="3"/>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
@@ -11023,9 +11871,9 @@
     </row>
     <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
+      <c r="B82" s="5"/>
+      <c r="C82" s="5"/>
+      <c r="D82" s="5"/>
       <c r="E82" s="3"/>
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
@@ -11075,9 +11923,9 @@
     </row>
     <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
+      <c r="B83" s="5"/>
+      <c r="C83" s="5"/>
+      <c r="D83" s="5"/>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
       <c r="G83" s="3"/>
@@ -11127,9 +11975,9 @@
     </row>
     <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="5"/>
+      <c r="D84" s="5"/>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
       <c r="G84" s="3"/>
@@ -11179,9 +12027,9 @@
     </row>
     <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
+      <c r="D85" s="5"/>
       <c r="E85" s="3"/>
       <c r="F85" s="3"/>
       <c r="G85" s="3"/>
@@ -11231,9 +12079,9 @@
     </row>
     <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
       <c r="E86" s="3"/>
       <c r="F86" s="3"/>
       <c r="G86" s="3"/>
@@ -11283,9 +12131,9 @@
     </row>
     <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
+      <c r="B87" s="5"/>
+      <c r="C87" s="5"/>
+      <c r="D87" s="5"/>
       <c r="E87" s="3"/>
       <c r="F87" s="3"/>
       <c r="G87" s="3"/>
@@ -11335,9 +12183,9 @@
     </row>
     <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
+      <c r="D88" s="5"/>
       <c r="E88" s="3"/>
       <c r="F88" s="3"/>
       <c r="G88" s="3"/>
@@ -11387,9 +12235,9 @@
     </row>
     <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
+      <c r="D89" s="5"/>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
       <c r="G89" s="3"/>
@@ -11439,9 +12287,9 @@
     </row>
     <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
+      <c r="D90" s="5"/>
       <c r="E90" s="3"/>
       <c r="F90" s="3"/>
       <c r="G90" s="3"/>
@@ -11491,9 +12339,9 @@
     </row>
     <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
+      <c r="D91" s="5"/>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
       <c r="G91" s="3"/>
@@ -11544,8 +12392,8 @@
     <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="5"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
       <c r="E92" s="3"/>
       <c r="F92" s="3"/>
       <c r="G92" s="3"/>
@@ -11595,9 +12443,9 @@
     </row>
     <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="5"/>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
       <c r="G93" s="3"/>
@@ -11647,9 +12495,9 @@
     </row>
     <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="5"/>
+      <c r="D94" s="5"/>
       <c r="E94" s="3"/>
       <c r="F94" s="3"/>
       <c r="G94" s="3"/>
@@ -11699,9 +12547,9 @@
     </row>
     <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
       <c r="E95" s="3"/>
       <c r="F95" s="3"/>
       <c r="G95" s="3"/>
@@ -11751,9 +12599,9 @@
     </row>
     <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
       <c r="E96" s="3"/>
       <c r="F96" s="3"/>
       <c r="G96" s="3"/>
@@ -11803,9 +12651,9 @@
     </row>
     <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
+      <c r="B97" s="5"/>
+      <c r="C97" s="5"/>
+      <c r="D97" s="5"/>
       <c r="E97" s="3"/>
       <c r="F97" s="3"/>
       <c r="G97" s="3"/>
@@ -11855,9 +12703,9 @@
     </row>
     <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="5"/>
+      <c r="D98" s="5"/>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
       <c r="G98" s="3"/>
@@ -11907,9 +12755,9 @@
     </row>
     <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
+      <c r="B99" s="5"/>
+      <c r="C99" s="5"/>
+      <c r="D99" s="5"/>
       <c r="E99" s="3"/>
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
@@ -11959,9 +12807,9 @@
     </row>
     <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
+      <c r="B100" s="5"/>
+      <c r="C100" s="5"/>
+      <c r="D100" s="5"/>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
@@ -12011,9 +12859,9 @@
     </row>
     <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
+      <c r="B101" s="5"/>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
       <c r="E101" s="3"/>
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
@@ -12063,9 +12911,9 @@
     </row>
     <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="4"/>
+      <c r="B102" s="5"/>
+      <c r="C102" s="5"/>
+      <c r="D102" s="5"/>
       <c r="E102" s="3"/>
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
@@ -12115,9 +12963,9 @@
     </row>
     <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="5"/>
+      <c r="D103" s="5"/>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
@@ -12377,7 +13225,7 @@
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
+      <c r="D108" s="4"/>
       <c r="E108" s="3"/>
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
@@ -13363,7 +14211,7 @@
     </row>
     <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
-      <c r="B127" s="5"/>
+      <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
@@ -13467,7 +14315,7 @@
     </row>
     <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
-      <c r="B129" s="5"/>
+      <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
@@ -13675,7 +14523,7 @@
     </row>
     <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
+      <c r="B133" s="5"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
@@ -13779,7 +14627,7 @@
     </row>
     <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
+      <c r="B135" s="5"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
@@ -16017,7 +16865,7 @@
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
-      <c r="D178" s="4"/>
+      <c r="D178" s="3"/>
       <c r="E178" s="3"/>
       <c r="F178" s="3"/>
       <c r="G178" s="3"/>
@@ -16275,7 +17123,7 @@
     </row>
     <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
-      <c r="B183" s="5"/>
+      <c r="B183" s="3"/>
       <c r="C183" s="3"/>
       <c r="D183" s="3"/>
       <c r="E183" s="3"/>
@@ -16329,7 +17177,7 @@
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
-      <c r="D184" s="3"/>
+      <c r="D184" s="4"/>
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
       <c r="G184" s="3"/>
@@ -16587,7 +17435,7 @@
     </row>
     <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
-      <c r="B189" s="3"/>
+      <c r="B189" s="5"/>
       <c r="C189" s="3"/>
       <c r="D189" s="3"/>
       <c r="E189" s="3"/>
@@ -17419,7 +18267,7 @@
     </row>
     <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
-      <c r="B205" s="4"/>
+      <c r="B205" s="3"/>
       <c r="C205" s="3"/>
       <c r="D205" s="3"/>
       <c r="E205" s="3"/>
@@ -17679,8 +18527,8 @@
     </row>
     <row r="210" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
-      <c r="B210" s="4"/>
-      <c r="C210" s="4"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
       <c r="D210" s="3"/>
       <c r="E210" s="3"/>
       <c r="F210" s="3"/>
@@ -17731,7 +18579,7 @@
     </row>
     <row r="211" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
+      <c r="B211" s="4"/>
       <c r="C211" s="3"/>
       <c r="D211" s="3"/>
       <c r="E211" s="3"/>
@@ -17991,8 +18839,8 @@
     </row>
     <row r="216" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
+      <c r="B216" s="4"/>
+      <c r="C216" s="4"/>
       <c r="D216" s="3"/>
       <c r="E216" s="3"/>
       <c r="F216" s="3"/>
@@ -20123,9 +20971,9 @@
     </row>
     <row r="257" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
-      <c r="B257" s="4"/>
-      <c r="C257" s="4"/>
-      <c r="D257" s="4"/>
+      <c r="B257" s="3"/>
+      <c r="C257" s="3"/>
+      <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
@@ -20173,6 +21021,318 @@
       <c r="AW257" s="3"/>
       <c r="AX257" s="7"/>
     </row>
+    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A258" s="3"/>
+      <c r="B258" s="3"/>
+      <c r="C258" s="3"/>
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="H258" s="3"/>
+      <c r="I258" s="3"/>
+      <c r="J258" s="3"/>
+      <c r="K258" s="3"/>
+      <c r="L258" s="3"/>
+      <c r="M258" s="3"/>
+      <c r="N258" s="3"/>
+      <c r="O258" s="3"/>
+      <c r="P258" s="3"/>
+      <c r="Q258" s="3"/>
+      <c r="R258" s="3"/>
+      <c r="S258" s="3"/>
+      <c r="T258" s="3"/>
+      <c r="U258" s="3"/>
+      <c r="V258" s="3"/>
+      <c r="W258" s="3"/>
+      <c r="X258" s="3"/>
+      <c r="Y258" s="3"/>
+      <c r="Z258" s="3"/>
+      <c r="AA258" s="3"/>
+      <c r="AB258" s="3"/>
+      <c r="AC258" s="3"/>
+      <c r="AD258" s="3"/>
+      <c r="AE258" s="3"/>
+      <c r="AF258" s="3"/>
+      <c r="AG258" s="3"/>
+      <c r="AH258" s="3"/>
+      <c r="AI258" s="3"/>
+      <c r="AJ258" s="3"/>
+      <c r="AK258" s="3"/>
+      <c r="AL258" s="3"/>
+      <c r="AM258" s="3"/>
+      <c r="AN258" s="3"/>
+      <c r="AO258" s="3"/>
+      <c r="AP258" s="3"/>
+      <c r="AQ258" s="3"/>
+      <c r="AR258" s="3"/>
+      <c r="AS258" s="3"/>
+      <c r="AT258" s="3"/>
+      <c r="AU258" s="3"/>
+      <c r="AV258" s="3"/>
+      <c r="AW258" s="3"/>
+      <c r="AX258" s="7"/>
+    </row>
+    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A259" s="3"/>
+      <c r="B259" s="3"/>
+      <c r="C259" s="3"/>
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="H259" s="3"/>
+      <c r="I259" s="3"/>
+      <c r="J259" s="3"/>
+      <c r="K259" s="3"/>
+      <c r="L259" s="3"/>
+      <c r="M259" s="3"/>
+      <c r="N259" s="3"/>
+      <c r="O259" s="3"/>
+      <c r="P259" s="3"/>
+      <c r="Q259" s="3"/>
+      <c r="R259" s="3"/>
+      <c r="S259" s="3"/>
+      <c r="T259" s="3"/>
+      <c r="U259" s="3"/>
+      <c r="V259" s="3"/>
+      <c r="W259" s="3"/>
+      <c r="X259" s="3"/>
+      <c r="Y259" s="3"/>
+      <c r="Z259" s="3"/>
+      <c r="AA259" s="3"/>
+      <c r="AB259" s="3"/>
+      <c r="AC259" s="3"/>
+      <c r="AD259" s="3"/>
+      <c r="AE259" s="3"/>
+      <c r="AF259" s="3"/>
+      <c r="AG259" s="3"/>
+      <c r="AH259" s="3"/>
+      <c r="AI259" s="3"/>
+      <c r="AJ259" s="3"/>
+      <c r="AK259" s="3"/>
+      <c r="AL259" s="3"/>
+      <c r="AM259" s="3"/>
+      <c r="AN259" s="3"/>
+      <c r="AO259" s="3"/>
+      <c r="AP259" s="3"/>
+      <c r="AQ259" s="3"/>
+      <c r="AR259" s="3"/>
+      <c r="AS259" s="3"/>
+      <c r="AT259" s="3"/>
+      <c r="AU259" s="3"/>
+      <c r="AV259" s="3"/>
+      <c r="AW259" s="3"/>
+      <c r="AX259" s="7"/>
+    </row>
+    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A260" s="3"/>
+      <c r="B260" s="3"/>
+      <c r="C260" s="3"/>
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="H260" s="3"/>
+      <c r="I260" s="3"/>
+      <c r="J260" s="3"/>
+      <c r="K260" s="3"/>
+      <c r="L260" s="3"/>
+      <c r="M260" s="3"/>
+      <c r="N260" s="3"/>
+      <c r="O260" s="3"/>
+      <c r="P260" s="3"/>
+      <c r="Q260" s="3"/>
+      <c r="R260" s="3"/>
+      <c r="S260" s="3"/>
+      <c r="T260" s="3"/>
+      <c r="U260" s="3"/>
+      <c r="V260" s="3"/>
+      <c r="W260" s="3"/>
+      <c r="X260" s="3"/>
+      <c r="Y260" s="3"/>
+      <c r="Z260" s="3"/>
+      <c r="AA260" s="3"/>
+      <c r="AB260" s="3"/>
+      <c r="AC260" s="3"/>
+      <c r="AD260" s="3"/>
+      <c r="AE260" s="3"/>
+      <c r="AF260" s="3"/>
+      <c r="AG260" s="3"/>
+      <c r="AH260" s="3"/>
+      <c r="AI260" s="3"/>
+      <c r="AJ260" s="3"/>
+      <c r="AK260" s="3"/>
+      <c r="AL260" s="3"/>
+      <c r="AM260" s="3"/>
+      <c r="AN260" s="3"/>
+      <c r="AO260" s="3"/>
+      <c r="AP260" s="3"/>
+      <c r="AQ260" s="3"/>
+      <c r="AR260" s="3"/>
+      <c r="AS260" s="3"/>
+      <c r="AT260" s="3"/>
+      <c r="AU260" s="3"/>
+      <c r="AV260" s="3"/>
+      <c r="AW260" s="3"/>
+      <c r="AX260" s="7"/>
+    </row>
+    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A261" s="3"/>
+      <c r="B261" s="3"/>
+      <c r="C261" s="3"/>
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="H261" s="3"/>
+      <c r="I261" s="3"/>
+      <c r="J261" s="3"/>
+      <c r="K261" s="3"/>
+      <c r="L261" s="3"/>
+      <c r="M261" s="3"/>
+      <c r="N261" s="3"/>
+      <c r="O261" s="3"/>
+      <c r="P261" s="3"/>
+      <c r="Q261" s="3"/>
+      <c r="R261" s="3"/>
+      <c r="S261" s="3"/>
+      <c r="T261" s="3"/>
+      <c r="U261" s="3"/>
+      <c r="V261" s="3"/>
+      <c r="W261" s="3"/>
+      <c r="X261" s="3"/>
+      <c r="Y261" s="3"/>
+      <c r="Z261" s="3"/>
+      <c r="AA261" s="3"/>
+      <c r="AB261" s="3"/>
+      <c r="AC261" s="3"/>
+      <c r="AD261" s="3"/>
+      <c r="AE261" s="3"/>
+      <c r="AF261" s="3"/>
+      <c r="AG261" s="3"/>
+      <c r="AH261" s="3"/>
+      <c r="AI261" s="3"/>
+      <c r="AJ261" s="3"/>
+      <c r="AK261" s="3"/>
+      <c r="AL261" s="3"/>
+      <c r="AM261" s="3"/>
+      <c r="AN261" s="3"/>
+      <c r="AO261" s="3"/>
+      <c r="AP261" s="3"/>
+      <c r="AQ261" s="3"/>
+      <c r="AR261" s="3"/>
+      <c r="AS261" s="3"/>
+      <c r="AT261" s="3"/>
+      <c r="AU261" s="3"/>
+      <c r="AV261" s="3"/>
+      <c r="AW261" s="3"/>
+      <c r="AX261" s="7"/>
+    </row>
+    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A262" s="3"/>
+      <c r="B262" s="3"/>
+      <c r="C262" s="3"/>
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="H262" s="3"/>
+      <c r="I262" s="3"/>
+      <c r="J262" s="3"/>
+      <c r="K262" s="3"/>
+      <c r="L262" s="3"/>
+      <c r="M262" s="3"/>
+      <c r="N262" s="3"/>
+      <c r="O262" s="3"/>
+      <c r="P262" s="3"/>
+      <c r="Q262" s="3"/>
+      <c r="R262" s="3"/>
+      <c r="S262" s="3"/>
+      <c r="T262" s="3"/>
+      <c r="U262" s="3"/>
+      <c r="V262" s="3"/>
+      <c r="W262" s="3"/>
+      <c r="X262" s="3"/>
+      <c r="Y262" s="3"/>
+      <c r="Z262" s="3"/>
+      <c r="AA262" s="3"/>
+      <c r="AB262" s="3"/>
+      <c r="AC262" s="3"/>
+      <c r="AD262" s="3"/>
+      <c r="AE262" s="3"/>
+      <c r="AF262" s="3"/>
+      <c r="AG262" s="3"/>
+      <c r="AH262" s="3"/>
+      <c r="AI262" s="3"/>
+      <c r="AJ262" s="3"/>
+      <c r="AK262" s="3"/>
+      <c r="AL262" s="3"/>
+      <c r="AM262" s="3"/>
+      <c r="AN262" s="3"/>
+      <c r="AO262" s="3"/>
+      <c r="AP262" s="3"/>
+      <c r="AQ262" s="3"/>
+      <c r="AR262" s="3"/>
+      <c r="AS262" s="3"/>
+      <c r="AT262" s="3"/>
+      <c r="AU262" s="3"/>
+      <c r="AV262" s="3"/>
+      <c r="AW262" s="3"/>
+      <c r="AX262" s="7"/>
+    </row>
+    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A263" s="3"/>
+      <c r="B263" s="4"/>
+      <c r="C263" s="4"/>
+      <c r="D263" s="4"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="H263" s="3"/>
+      <c r="I263" s="3"/>
+      <c r="J263" s="3"/>
+      <c r="K263" s="3"/>
+      <c r="L263" s="3"/>
+      <c r="M263" s="3"/>
+      <c r="N263" s="3"/>
+      <c r="O263" s="3"/>
+      <c r="P263" s="3"/>
+      <c r="Q263" s="3"/>
+      <c r="R263" s="3"/>
+      <c r="S263" s="3"/>
+      <c r="T263" s="3"/>
+      <c r="U263" s="3"/>
+      <c r="V263" s="3"/>
+      <c r="W263" s="3"/>
+      <c r="X263" s="3"/>
+      <c r="Y263" s="3"/>
+      <c r="Z263" s="3"/>
+      <c r="AA263" s="3"/>
+      <c r="AB263" s="3"/>
+      <c r="AC263" s="3"/>
+      <c r="AD263" s="3"/>
+      <c r="AE263" s="3"/>
+      <c r="AF263" s="3"/>
+      <c r="AG263" s="3"/>
+      <c r="AH263" s="3"/>
+      <c r="AI263" s="3"/>
+      <c r="AJ263" s="3"/>
+      <c r="AK263" s="3"/>
+      <c r="AL263" s="3"/>
+      <c r="AM263" s="3"/>
+      <c r="AN263" s="3"/>
+      <c r="AO263" s="3"/>
+      <c r="AP263" s="3"/>
+      <c r="AQ263" s="3"/>
+      <c r="AR263" s="3"/>
+      <c r="AS263" s="3"/>
+      <c r="AT263" s="3"/>
+      <c r="AU263" s="3"/>
+      <c r="AV263" s="3"/>
+      <c r="AW263" s="3"/>
+      <c r="AX263" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -798,7 +798,7 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>120,3|121,6|30,9|37,12|38,15</t>
+    <t>120,8|121,6|30,9|37,9|38,5</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1248,9 +1248,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX263"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A45" sqref="A45:XFD45"/>
+    <sheetView tabSelected="1" topLeftCell="AB1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AB57" sqref="A57:XFD57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7768,7 +7768,7 @@
         <v>0</v>
       </c>
       <c r="AT45" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AU45" s="3">
         <v>-1</v>
@@ -7916,7 +7916,7 @@
         <v>0</v>
       </c>
       <c r="AT46" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="AU46" s="3">
         <v>-1</v>
@@ -9467,13 +9467,13 @@
         <v>0</v>
       </c>
       <c r="S57" s="3">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="T57" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="U57" s="3">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="V57" s="3">
         <v>0</v>
@@ -9521,10 +9521,10 @@
         <v>0</v>
       </c>
       <c r="AK57" s="3">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="AL57" s="3">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AM57" s="3">
         <v>0</v>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="16200" windowHeight="25005"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -14,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -719,19 +724,53 @@
   </si>
   <si>
     <t>无名窟神秘武学</t>
+  </si>
+  <si>
+    <t>惊鹭宝刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊珍宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -742,7 +781,7 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -757,352 +796,41 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -1110,267 +838,25 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1385,66 +871,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="5">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="普通" xfId="11"/>
-    <cellStyle name="百分比" xfId="12" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
-    <cellStyle name="普通 2" xfId="14"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="标题" xfId="19" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
-    <cellStyle name="普通 4" xfId="21"/>
-    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
-    <cellStyle name="输出" xfId="27" builtinId="21"/>
-    <cellStyle name="计算" xfId="28" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
-    <cellStyle name="汇总" xfId="33" builtinId="25"/>
-    <cellStyle name="好" xfId="34" builtinId="26"/>
-    <cellStyle name="适中" xfId="35" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
-    <cellStyle name="普通 3" xfId="52"/>
+    <cellStyle name="普通" xfId="1"/>
+    <cellStyle name="普通 2" xfId="2"/>
+    <cellStyle name="普通 3" xfId="4"/>
+    <cellStyle name="普通 4" xfId="3"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1773,33 +1217,32 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AX266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="$A15:$XFD15"/>
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="22.5044247787611" customWidth="1"/>
+    <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="48" max="48" width="9" customWidth="1"/>
-    <col min="50" max="50" width="28.3716814159292" style="1" customWidth="1"/>
+    <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1945,7 +1388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -2097,7 +1540,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -2245,7 +1688,7 @@
       </c>
       <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="1:50">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -2393,7 +1836,7 @@
       </c>
       <c r="AX5" s="6"/>
     </row>
-    <row r="6" spans="1:50">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -2541,7 +1984,7 @@
       </c>
       <c r="AX6" s="6"/>
     </row>
-    <row r="7" spans="1:50">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>11</v>
       </c>
@@ -2689,7 +2132,7 @@
       </c>
       <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:50">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -2837,7 +2280,7 @@
       </c>
       <c r="AX8" s="6"/>
     </row>
-    <row r="9" spans="1:50">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -2985,7 +2428,7 @@
       </c>
       <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:50">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -3133,7 +2576,7 @@
       </c>
       <c r="AX10" s="7"/>
     </row>
-    <row r="11" spans="1:50">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>20</v>
       </c>
@@ -3281,7 +2724,7 @@
       </c>
       <c r="AX11" s="6"/>
     </row>
-    <row r="12" spans="1:50">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>21</v>
       </c>
@@ -3429,7 +2872,7 @@
       </c>
       <c r="AX12" s="7"/>
     </row>
-    <row r="13" spans="1:50">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>22</v>
       </c>
@@ -3577,7 +3020,7 @@
       </c>
       <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:50">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>23</v>
       </c>
@@ -3725,7 +3168,7 @@
       </c>
       <c r="AX14" s="7"/>
     </row>
-    <row r="15" spans="1:50">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>24</v>
       </c>
@@ -3873,7 +3316,7 @@
       </c>
       <c r="AX15" s="7"/>
     </row>
-    <row r="16" spans="1:50">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>30</v>
       </c>
@@ -4021,7 +3464,7 @@
       </c>
       <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:50">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>31</v>
       </c>
@@ -4169,7 +3612,7 @@
       </c>
       <c r="AX17" s="7"/>
     </row>
-    <row r="18" spans="1:50">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>32</v>
       </c>
@@ -4317,7 +3760,7 @@
       </c>
       <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:50">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>33</v>
       </c>
@@ -4465,7 +3908,7 @@
       </c>
       <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="1:50">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>34</v>
       </c>
@@ -4613,7 +4056,7 @@
       </c>
       <c r="AX20" s="6"/>
     </row>
-    <row r="21" spans="1:50">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>35</v>
       </c>
@@ -4761,7 +4204,7 @@
       </c>
       <c r="AX21" s="6"/>
     </row>
-    <row r="22" spans="1:50">
+    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>36</v>
       </c>
@@ -4909,7 +4352,7 @@
       </c>
       <c r="AX22" s="6"/>
     </row>
-    <row r="23" spans="1:50">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>37</v>
       </c>
@@ -5057,7 +4500,7 @@
       </c>
       <c r="AX23" s="7"/>
     </row>
-    <row r="24" spans="1:50">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>38</v>
       </c>
@@ -5205,7 +4648,7 @@
       </c>
       <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:50">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>39</v>
       </c>
@@ -5353,7 +4796,7 @@
       </c>
       <c r="AX25" s="7"/>
     </row>
-    <row r="26" spans="1:50">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>40</v>
       </c>
@@ -5501,7 +4944,7 @@
       </c>
       <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:50">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>41</v>
       </c>
@@ -5649,7 +5092,7 @@
       </c>
       <c r="AX27" s="7"/>
     </row>
-    <row r="28" spans="1:50">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>42</v>
       </c>
@@ -5797,7 +5240,7 @@
       </c>
       <c r="AX28" s="7"/>
     </row>
-    <row r="29" spans="1:50">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>43</v>
       </c>
@@ -5945,7 +5388,7 @@
       </c>
       <c r="AX29" s="7"/>
     </row>
-    <row r="30" spans="1:50">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>44</v>
       </c>
@@ -6093,7 +5536,7 @@
       </c>
       <c r="AX30" s="7"/>
     </row>
-    <row r="31" spans="1:50">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>45</v>
       </c>
@@ -6241,7 +5684,7 @@
       </c>
       <c r="AX31" s="7"/>
     </row>
-    <row r="32" spans="1:50">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>46</v>
       </c>
@@ -6389,7 +5832,7 @@
       </c>
       <c r="AX32" s="7"/>
     </row>
-    <row r="33" spans="1:50">
+    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>47</v>
       </c>
@@ -6537,7 +5980,7 @@
       </c>
       <c r="AX33" s="7"/>
     </row>
-    <row r="34" spans="1:50">
+    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>48</v>
       </c>
@@ -6685,7 +6128,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="1:50">
+    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>49</v>
       </c>
@@ -6833,7 +6276,7 @@
       </c>
       <c r="AX35" s="6"/>
     </row>
-    <row r="36" spans="1:50">
+    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>50</v>
       </c>
@@ -6981,7 +6424,7 @@
       </c>
       <c r="AX36" s="7"/>
     </row>
-    <row r="37" spans="1:50">
+    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>60</v>
       </c>
@@ -7129,7 +6572,7 @@
       </c>
       <c r="AX37" s="7"/>
     </row>
-    <row r="38" spans="1:50">
+    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>61</v>
       </c>
@@ -7277,7 +6720,7 @@
       </c>
       <c r="AX38" s="7"/>
     </row>
-    <row r="39" spans="1:50">
+    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>62</v>
       </c>
@@ -7425,7 +6868,7 @@
       </c>
       <c r="AX39" s="7"/>
     </row>
-    <row r="40" spans="1:50">
+    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>63</v>
       </c>
@@ -7573,7 +7016,7 @@
       </c>
       <c r="AX40" s="7"/>
     </row>
-    <row r="41" spans="1:50">
+    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>70</v>
       </c>
@@ -7721,7 +7164,7 @@
       </c>
       <c r="AX41" s="7"/>
     </row>
-    <row r="42" spans="1:50">
+    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>71</v>
       </c>
@@ -7869,7 +7312,7 @@
       </c>
       <c r="AX42" s="7"/>
     </row>
-    <row r="43" spans="1:50">
+    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>72</v>
       </c>
@@ -8017,7 +7460,7 @@
       </c>
       <c r="AX43" s="7"/>
     </row>
-    <row r="44" spans="1:50">
+    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>73</v>
       </c>
@@ -8165,7 +7608,7 @@
       </c>
       <c r="AX44" s="6"/>
     </row>
-    <row r="45" spans="1:50">
+    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>74</v>
       </c>
@@ -8315,7 +7758,7 @@
       </c>
       <c r="AX45" s="7"/>
     </row>
-    <row r="46" spans="1:50">
+    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>75</v>
       </c>
@@ -8463,7 +7906,7 @@
       </c>
       <c r="AX46" s="6"/>
     </row>
-    <row r="47" spans="1:50">
+    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>76</v>
       </c>
@@ -8611,7 +8054,7 @@
       </c>
       <c r="AX47" s="6"/>
     </row>
-    <row r="48" spans="1:50">
+    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>77</v>
       </c>
@@ -8761,7 +8204,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:50">
+    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>80</v>
       </c>
@@ -8909,7 +8352,7 @@
       </c>
       <c r="AX49" s="7"/>
     </row>
-    <row r="50" spans="1:50">
+    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>81</v>
       </c>
@@ -9057,7 +8500,7 @@
       </c>
       <c r="AX50" s="7"/>
     </row>
-    <row r="51" spans="1:50">
+    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>90</v>
       </c>
@@ -9205,7 +8648,7 @@
       </c>
       <c r="AX51" s="7"/>
     </row>
-    <row r="52" spans="1:50">
+    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>91</v>
       </c>
@@ -9353,7 +8796,7 @@
       </c>
       <c r="AX52" s="6"/>
     </row>
-    <row r="53" spans="1:50">
+    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>92</v>
       </c>
@@ -9501,7 +8944,7 @@
       </c>
       <c r="AX53" s="7"/>
     </row>
-    <row r="54" spans="1:50">
+    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>93</v>
       </c>
@@ -9649,7 +9092,7 @@
       </c>
       <c r="AX54" s="6"/>
     </row>
-    <row r="55" spans="1:50">
+    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>110</v>
       </c>
@@ -9797,7 +9240,7 @@
       </c>
       <c r="AX55" s="7"/>
     </row>
-    <row r="56" spans="1:50">
+    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>120</v>
       </c>
@@ -9945,7 +9388,7 @@
       </c>
       <c r="AX56" s="7"/>
     </row>
-    <row r="57" spans="1:50">
+    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>121</v>
       </c>
@@ -10093,7 +9536,7 @@
       </c>
       <c r="AX57" s="7"/>
     </row>
-    <row r="58" spans="1:50">
+    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A58" s="3">
         <v>122</v>
       </c>
@@ -10241,7 +9684,7 @@
       </c>
       <c r="AX58" s="7"/>
     </row>
-    <row r="59" spans="1:50">
+    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A59" s="3">
         <v>123</v>
       </c>
@@ -10391,7 +9834,7 @@
       </c>
       <c r="AX59" s="7"/>
     </row>
-    <row r="60" spans="1:50">
+    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A60" s="3">
         <v>124</v>
       </c>
@@ -10541,7 +9984,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:50">
+    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A61" s="3">
         <v>140</v>
       </c>
@@ -10689,7 +10132,7 @@
       </c>
       <c r="AX61" s="7"/>
     </row>
-    <row r="62" spans="1:50">
+    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A62" s="3">
         <v>141</v>
       </c>
@@ -10837,7 +10280,7 @@
       </c>
       <c r="AX62" s="7"/>
     </row>
-    <row r="63" spans="1:50">
+    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A63" s="3">
         <v>142</v>
       </c>
@@ -10985,7 +10428,7 @@
       </c>
       <c r="AX63" s="6"/>
     </row>
-    <row r="64" spans="1:50">
+    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A64" s="3">
         <v>160</v>
       </c>
@@ -11133,7 +10576,7 @@
       </c>
       <c r="AX64" s="7"/>
     </row>
-    <row r="65" spans="1:50">
+    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A65" s="3">
         <v>161</v>
       </c>
@@ -11281,7 +10724,7 @@
       </c>
       <c r="AX65" s="7"/>
     </row>
-    <row r="66" spans="1:50">
+    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
         <v>170</v>
       </c>
@@ -11429,7 +10872,7 @@
       </c>
       <c r="AX66" s="7"/>
     </row>
-    <row r="67" spans="1:50">
+    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A67" s="3">
         <v>171</v>
       </c>
@@ -11577,7 +11020,7 @@
       </c>
       <c r="AX67" s="7"/>
     </row>
-    <row r="68" spans="1:50">
+    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A68" s="3">
         <v>174</v>
       </c>
@@ -11727,7 +11170,7 @@
       </c>
       <c r="AX68" s="7"/>
     </row>
-    <row r="69" spans="1:50">
+    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A69" s="3">
         <v>180</v>
       </c>
@@ -11875,7 +11318,7 @@
       </c>
       <c r="AX69" s="7"/>
     </row>
-    <row r="70" spans="1:50">
+    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A70" s="3">
         <v>181</v>
       </c>
@@ -12023,7 +11466,7 @@
       </c>
       <c r="AX70" s="7"/>
     </row>
-    <row r="71" spans="1:50">
+    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A71" s="3">
         <v>182</v>
       </c>
@@ -12171,267 +11614,747 @@
       </c>
       <c r="AX71" s="6"/>
     </row>
-    <row r="72" spans="1:50">
-      <c r="A72" s="3"/>
-      <c r="B72" s="5"/>
+    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
+        <v>190</v>
+      </c>
+      <c r="B72" s="8" t="s">
+        <v>235</v>
+      </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="5"/>
-      <c r="E72" s="3"/>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3"/>
-      <c r="I72" s="3"/>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="3"/>
-      <c r="O72" s="3"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3"/>
-      <c r="R72" s="3"/>
-      <c r="S72" s="3"/>
-      <c r="T72" s="3"/>
-      <c r="U72" s="3"/>
-      <c r="V72" s="3"/>
-      <c r="W72" s="3"/>
-      <c r="X72" s="3"/>
-      <c r="Y72" s="3"/>
-      <c r="Z72" s="3"/>
-      <c r="AA72" s="3"/>
-      <c r="AB72" s="3"/>
-      <c r="AC72" s="3"/>
-      <c r="AD72" s="3"/>
-      <c r="AE72" s="3"/>
-      <c r="AF72" s="3"/>
-      <c r="AG72" s="3"/>
-      <c r="AH72" s="3"/>
-      <c r="AI72" s="3"/>
-      <c r="AJ72" s="3"/>
-      <c r="AK72" s="3"/>
-      <c r="AL72" s="3"/>
-      <c r="AM72" s="3"/>
-      <c r="AN72" s="3"/>
-      <c r="AO72" s="3"/>
-      <c r="AP72" s="3"/>
-      <c r="AQ72" s="3"/>
-      <c r="AR72" s="3"/>
-      <c r="AS72" s="3"/>
-      <c r="AT72" s="3"/>
-      <c r="AU72" s="3"/>
-      <c r="AV72" s="3"/>
-      <c r="AW72" s="3"/>
+      <c r="D72" s="9" t="s">
+        <v>240</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G72" s="3">
+        <v>0</v>
+      </c>
+      <c r="H72" s="3">
+        <v>1</v>
+      </c>
+      <c r="I72" s="3">
+        <v>0</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="3">
+        <v>0</v>
+      </c>
+      <c r="L72" s="3">
+        <v>0</v>
+      </c>
+      <c r="M72" s="3">
+        <v>0</v>
+      </c>
+      <c r="N72" s="3">
+        <v>0</v>
+      </c>
+      <c r="O72" s="3">
+        <v>0</v>
+      </c>
+      <c r="P72" s="3">
+        <v>50</v>
+      </c>
+      <c r="Q72" s="3">
+        <v>0</v>
+      </c>
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>30</v>
+      </c>
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI72" s="3">
+        <v>40</v>
+      </c>
+      <c r="AJ72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP72" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU72" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW72" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX72" s="7"/>
     </row>
-    <row r="73" spans="1:50">
-      <c r="A73" s="3"/>
-      <c r="B73" s="5"/>
-      <c r="C73" s="5"/>
-      <c r="D73" s="5"/>
-      <c r="E73" s="3"/>
-      <c r="F73" s="3"/>
-      <c r="G73" s="3"/>
-      <c r="H73" s="3"/>
-      <c r="I73" s="3"/>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="3"/>
-      <c r="O73" s="3"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3"/>
-      <c r="R73" s="3"/>
-      <c r="S73" s="3"/>
-      <c r="T73" s="3"/>
-      <c r="U73" s="3"/>
-      <c r="V73" s="3"/>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
-      <c r="Y73" s="3"/>
-      <c r="Z73" s="3"/>
-      <c r="AA73" s="3"/>
-      <c r="AB73" s="3"/>
-      <c r="AC73" s="3"/>
-      <c r="AD73" s="3"/>
-      <c r="AE73" s="3"/>
-      <c r="AF73" s="3"/>
-      <c r="AG73" s="3"/>
-      <c r="AH73" s="3"/>
-      <c r="AI73" s="3"/>
-      <c r="AJ73" s="3"/>
-      <c r="AK73" s="3"/>
-      <c r="AL73" s="3"/>
-      <c r="AM73" s="3"/>
-      <c r="AN73" s="3"/>
-      <c r="AO73" s="3"/>
-      <c r="AP73" s="3"/>
-      <c r="AQ73" s="3"/>
-      <c r="AR73" s="3"/>
-      <c r="AS73" s="3"/>
-      <c r="AT73" s="3"/>
-      <c r="AU73" s="3"/>
-      <c r="AV73" s="3"/>
-      <c r="AW73" s="3"/>
+    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
+        <v>191</v>
+      </c>
+      <c r="B73" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="E73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G73" s="3">
+        <v>0</v>
+      </c>
+      <c r="H73" s="3">
+        <v>1</v>
+      </c>
+      <c r="I73" s="3">
+        <v>0</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="3">
+        <v>30</v>
+      </c>
+      <c r="AP73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX73" s="7"/>
     </row>
-    <row r="74" spans="1:50">
-      <c r="A74" s="3"/>
-      <c r="B74" s="5"/>
-      <c r="C74" s="5"/>
-      <c r="D74" s="5"/>
-      <c r="E74" s="3"/>
-      <c r="F74" s="3"/>
-      <c r="G74" s="3"/>
-      <c r="H74" s="3"/>
-      <c r="I74" s="3"/>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="3"/>
-      <c r="O74" s="3"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3"/>
-      <c r="R74" s="3"/>
-      <c r="S74" s="3"/>
-      <c r="T74" s="3"/>
-      <c r="U74" s="3"/>
-      <c r="V74" s="3"/>
-      <c r="W74" s="3"/>
-      <c r="X74" s="3"/>
-      <c r="Y74" s="3"/>
-      <c r="Z74" s="3"/>
-      <c r="AA74" s="3"/>
-      <c r="AB74" s="3"/>
-      <c r="AC74" s="3"/>
-      <c r="AD74" s="3"/>
-      <c r="AE74" s="3"/>
-      <c r="AF74" s="3"/>
-      <c r="AG74" s="3"/>
-      <c r="AH74" s="3"/>
-      <c r="AI74" s="3"/>
-      <c r="AJ74" s="3"/>
-      <c r="AK74" s="3"/>
-      <c r="AL74" s="3"/>
-      <c r="AM74" s="3"/>
-      <c r="AN74" s="3"/>
-      <c r="AO74" s="3"/>
-      <c r="AP74" s="3"/>
-      <c r="AQ74" s="3"/>
-      <c r="AR74" s="3"/>
-      <c r="AS74" s="3"/>
-      <c r="AT74" s="3"/>
-      <c r="AU74" s="3"/>
-      <c r="AV74" s="3"/>
-      <c r="AW74" s="3"/>
+    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
+        <v>192</v>
+      </c>
+      <c r="B74" s="8" t="s">
+        <v>237</v>
+      </c>
+      <c r="C74" s="4"/>
+      <c r="D74" s="8" t="s">
+        <v>242</v>
+      </c>
+      <c r="E74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G74" s="3">
+        <v>0</v>
+      </c>
+      <c r="H74" s="3">
+        <v>1</v>
+      </c>
+      <c r="I74" s="3">
+        <v>0</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI74" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP74" s="3">
+        <v>20</v>
+      </c>
+      <c r="AQ74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU74" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW74" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX74" s="7"/>
     </row>
-    <row r="75" spans="1:50">
-      <c r="A75" s="3"/>
-      <c r="B75" s="5"/>
-      <c r="C75" s="5"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="3"/>
-      <c r="F75" s="3"/>
-      <c r="G75" s="3"/>
-      <c r="H75" s="3"/>
-      <c r="I75" s="3"/>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="3"/>
-      <c r="O75" s="3"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3"/>
-      <c r="R75" s="3"/>
-      <c r="S75" s="3"/>
-      <c r="T75" s="3"/>
-      <c r="U75" s="3"/>
-      <c r="V75" s="3"/>
-      <c r="W75" s="3"/>
-      <c r="X75" s="3"/>
-      <c r="Y75" s="3"/>
-      <c r="Z75" s="3"/>
-      <c r="AA75" s="3"/>
-      <c r="AB75" s="3"/>
-      <c r="AC75" s="3"/>
-      <c r="AD75" s="3"/>
-      <c r="AE75" s="3"/>
-      <c r="AF75" s="3"/>
-      <c r="AG75" s="3"/>
-      <c r="AH75" s="3"/>
-      <c r="AI75" s="3"/>
-      <c r="AJ75" s="3"/>
-      <c r="AK75" s="3"/>
-      <c r="AL75" s="3"/>
-      <c r="AM75" s="3"/>
-      <c r="AN75" s="3"/>
-      <c r="AO75" s="3"/>
-      <c r="AP75" s="3"/>
-      <c r="AQ75" s="3"/>
-      <c r="AR75" s="3"/>
-      <c r="AS75" s="3"/>
-      <c r="AT75" s="3"/>
-      <c r="AU75" s="3"/>
-      <c r="AV75" s="3"/>
-      <c r="AW75" s="3"/>
+    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
+        <v>193</v>
+      </c>
+      <c r="B75" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C75" s="4"/>
+      <c r="D75" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="E75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G75" s="3">
+        <v>0</v>
+      </c>
+      <c r="H75" s="3">
+        <v>1</v>
+      </c>
+      <c r="I75" s="3">
+        <v>0</v>
+      </c>
+      <c r="J75" s="3">
+        <v>0</v>
+      </c>
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>10</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI75" s="3">
+        <v>20</v>
+      </c>
+      <c r="AJ75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ75" s="3">
+        <v>20</v>
+      </c>
+      <c r="AR75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU75" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW75" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX75" s="7"/>
     </row>
-    <row r="76" spans="1:50">
-      <c r="A76" s="3"/>
-      <c r="B76" s="5"/>
-      <c r="C76" s="5"/>
-      <c r="D76" s="5"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="3"/>
-      <c r="G76" s="3"/>
-      <c r="H76" s="3"/>
-      <c r="I76" s="3"/>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="3"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3"/>
-      <c r="R76" s="3"/>
-      <c r="S76" s="3"/>
-      <c r="T76" s="3"/>
-      <c r="U76" s="3"/>
-      <c r="V76" s="3"/>
-      <c r="W76" s="3"/>
-      <c r="X76" s="3"/>
-      <c r="Y76" s="3"/>
-      <c r="Z76" s="3"/>
-      <c r="AA76" s="3"/>
-      <c r="AB76" s="3"/>
-      <c r="AC76" s="3"/>
-      <c r="AD76" s="3"/>
-      <c r="AE76" s="3"/>
-      <c r="AF76" s="3"/>
-      <c r="AG76" s="3"/>
-      <c r="AH76" s="3"/>
-      <c r="AI76" s="3"/>
-      <c r="AJ76" s="3"/>
-      <c r="AK76" s="3"/>
-      <c r="AL76" s="3"/>
-      <c r="AM76" s="3"/>
-      <c r="AN76" s="3"/>
-      <c r="AO76" s="3"/>
-      <c r="AP76" s="3"/>
-      <c r="AQ76" s="3"/>
-      <c r="AR76" s="3"/>
-      <c r="AS76" s="3"/>
-      <c r="AT76" s="3"/>
-      <c r="AU76" s="3"/>
-      <c r="AV76" s="3"/>
-      <c r="AW76" s="3"/>
+    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
+        <v>194</v>
+      </c>
+      <c r="B76" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="C76" s="4"/>
+      <c r="D76" s="9" t="s">
+        <v>244</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G76" s="3">
+        <v>1</v>
+      </c>
+      <c r="H76" s="3">
+        <v>1</v>
+      </c>
+      <c r="I76" s="3">
+        <v>0</v>
+      </c>
+      <c r="J76" s="3">
+        <v>0</v>
+      </c>
+      <c r="K76" s="3">
+        <v>0</v>
+      </c>
+      <c r="L76" s="3">
+        <v>0</v>
+      </c>
+      <c r="M76" s="3">
+        <v>0</v>
+      </c>
+      <c r="N76" s="3">
+        <v>0</v>
+      </c>
+      <c r="O76" s="3">
+        <v>0</v>
+      </c>
+      <c r="P76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q76" s="3">
+        <v>0</v>
+      </c>
+      <c r="R76" s="3">
+        <v>20</v>
+      </c>
+      <c r="S76" s="3">
+        <v>0</v>
+      </c>
+      <c r="T76" s="3">
+        <v>0</v>
+      </c>
+      <c r="U76" s="3">
+        <v>0</v>
+      </c>
+      <c r="V76" s="3">
+        <v>0</v>
+      </c>
+      <c r="W76" s="3">
+        <v>0</v>
+      </c>
+      <c r="X76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y76" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU76" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV76" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW76" s="3">
+        <v>-1</v>
+      </c>
       <c r="AX76" s="7"/>
     </row>
-    <row r="77" spans="1:50">
+    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="5"/>
       <c r="C77" s="5"/>
@@ -12483,7 +12406,7 @@
       <c r="AW77" s="3"/>
       <c r="AX77" s="7"/>
     </row>
-    <row r="78" spans="1:50">
+    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="5"/>
       <c r="C78" s="5"/>
@@ -12535,7 +12458,7 @@
       <c r="AW78" s="3"/>
       <c r="AX78" s="7"/>
     </row>
-    <row r="79" spans="1:50">
+    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="5"/>
       <c r="C79" s="5"/>
@@ -12587,7 +12510,7 @@
       <c r="AW79" s="3"/>
       <c r="AX79" s="7"/>
     </row>
-    <row r="80" spans="1:50">
+    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12639,7 +12562,7 @@
       <c r="AW80" s="3"/>
       <c r="AX80" s="7"/>
     </row>
-    <row r="81" spans="1:50">
+    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12691,7 +12614,7 @@
       <c r="AW81" s="3"/>
       <c r="AX81" s="7"/>
     </row>
-    <row r="82" spans="1:50">
+    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12743,7 +12666,7 @@
       <c r="AW82" s="3"/>
       <c r="AX82" s="7"/>
     </row>
-    <row r="83" spans="1:50">
+    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12795,7 +12718,7 @@
       <c r="AW83" s="3"/>
       <c r="AX83" s="7"/>
     </row>
-    <row r="84" spans="1:50">
+    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12847,7 +12770,7 @@
       <c r="AW84" s="3"/>
       <c r="AX84" s="7"/>
     </row>
-    <row r="85" spans="1:50">
+    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12899,7 +12822,7 @@
       <c r="AW85" s="3"/>
       <c r="AX85" s="7"/>
     </row>
-    <row r="86" spans="1:50">
+    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -12951,7 +12874,7 @@
       <c r="AW86" s="3"/>
       <c r="AX86" s="7"/>
     </row>
-    <row r="87" spans="1:50">
+    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13003,7 +12926,7 @@
       <c r="AW87" s="3"/>
       <c r="AX87" s="7"/>
     </row>
-    <row r="88" spans="1:50">
+    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13055,7 +12978,7 @@
       <c r="AW88" s="3"/>
       <c r="AX88" s="7"/>
     </row>
-    <row r="89" spans="1:50">
+    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -13107,7 +13030,7 @@
       <c r="AW89" s="3"/>
       <c r="AX89" s="7"/>
     </row>
-    <row r="90" spans="1:50">
+    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13159,7 +13082,7 @@
       <c r="AW90" s="3"/>
       <c r="AX90" s="7"/>
     </row>
-    <row r="91" spans="1:50">
+    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13211,7 +13134,7 @@
       <c r="AW91" s="3"/>
       <c r="AX91" s="7"/>
     </row>
-    <row r="92" spans="1:50">
+    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13263,7 +13186,7 @@
       <c r="AW92" s="3"/>
       <c r="AX92" s="7"/>
     </row>
-    <row r="93" spans="1:50">
+    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13315,7 +13238,7 @@
       <c r="AW93" s="3"/>
       <c r="AX93" s="7"/>
     </row>
-    <row r="94" spans="1:50">
+    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13367,7 +13290,7 @@
       <c r="AW94" s="3"/>
       <c r="AX94" s="7"/>
     </row>
-    <row r="95" spans="1:50">
+    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13419,7 +13342,7 @@
       <c r="AW95" s="3"/>
       <c r="AX95" s="7"/>
     </row>
-    <row r="96" spans="1:50">
+    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A96" s="3"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13471,7 +13394,7 @@
       <c r="AW96" s="3"/>
       <c r="AX96" s="7"/>
     </row>
-    <row r="97" spans="1:50">
+    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A97" s="3"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13523,7 +13446,7 @@
       <c r="AW97" s="3"/>
       <c r="AX97" s="7"/>
     </row>
-    <row r="98" spans="1:50">
+    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A98" s="3"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13575,7 +13498,7 @@
       <c r="AW98" s="3"/>
       <c r="AX98" s="7"/>
     </row>
-    <row r="99" spans="1:50">
+    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A99" s="3"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13627,7 +13550,7 @@
       <c r="AW99" s="3"/>
       <c r="AX99" s="7"/>
     </row>
-    <row r="100" spans="1:50">
+    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13679,7 +13602,7 @@
       <c r="AW100" s="3"/>
       <c r="AX100" s="7"/>
     </row>
-    <row r="101" spans="1:50">
+    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A101" s="3"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13731,7 +13654,7 @@
       <c r="AW101" s="3"/>
       <c r="AX101" s="7"/>
     </row>
-    <row r="102" spans="1:50">
+    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13783,7 +13706,7 @@
       <c r="AW102" s="3"/>
       <c r="AX102" s="7"/>
     </row>
-    <row r="103" spans="1:50">
+    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A103" s="3"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13835,7 +13758,7 @@
       <c r="AW103" s="3"/>
       <c r="AX103" s="7"/>
     </row>
-    <row r="104" spans="1:50">
+    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A104" s="3"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13887,7 +13810,7 @@
       <c r="AW104" s="3"/>
       <c r="AX104" s="7"/>
     </row>
-    <row r="105" spans="1:50">
+    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A105" s="3"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -13939,7 +13862,7 @@
       <c r="AW105" s="3"/>
       <c r="AX105" s="7"/>
     </row>
-    <row r="106" spans="1:50">
+    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A106" s="3"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -13991,7 +13914,7 @@
       <c r="AW106" s="3"/>
       <c r="AX106" s="7"/>
     </row>
-    <row r="107" spans="1:50">
+    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -14043,7 +13966,7 @@
       <c r="AW107" s="3"/>
       <c r="AX107" s="7"/>
     </row>
-    <row r="108" spans="1:50">
+    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14095,7 +14018,7 @@
       <c r="AW108" s="3"/>
       <c r="AX108" s="7"/>
     </row>
-    <row r="109" spans="1:50">
+    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -14147,7 +14070,7 @@
       <c r="AW109" s="3"/>
       <c r="AX109" s="7"/>
     </row>
-    <row r="110" spans="1:50">
+    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -14199,7 +14122,7 @@
       <c r="AW110" s="3"/>
       <c r="AX110" s="7"/>
     </row>
-    <row r="111" spans="1:50">
+    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -14251,7 +14174,7 @@
       <c r="AW111" s="3"/>
       <c r="AX111" s="7"/>
     </row>
-    <row r="112" spans="1:50">
+    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -14303,7 +14226,7 @@
       <c r="AW112" s="3"/>
       <c r="AX112" s="7"/>
     </row>
-    <row r="113" spans="1:50">
+    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -14355,7 +14278,7 @@
       <c r="AW113" s="3"/>
       <c r="AX113" s="7"/>
     </row>
-    <row r="114" spans="1:50">
+    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -14407,7 +14330,7 @@
       <c r="AW114" s="3"/>
       <c r="AX114" s="7"/>
     </row>
-    <row r="115" spans="1:50">
+    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -14459,7 +14382,7 @@
       <c r="AW115" s="3"/>
       <c r="AX115" s="7"/>
     </row>
-    <row r="116" spans="1:50">
+    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -14511,7 +14434,7 @@
       <c r="AW116" s="3"/>
       <c r="AX116" s="7"/>
     </row>
-    <row r="117" spans="1:50">
+    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -14563,7 +14486,7 @@
       <c r="AW117" s="3"/>
       <c r="AX117" s="7"/>
     </row>
-    <row r="118" spans="1:50">
+    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -14615,7 +14538,7 @@
       <c r="AW118" s="3"/>
       <c r="AX118" s="7"/>
     </row>
-    <row r="119" spans="1:50">
+    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -14667,7 +14590,7 @@
       <c r="AW119" s="3"/>
       <c r="AX119" s="7"/>
     </row>
-    <row r="120" spans="1:50">
+    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -14719,7 +14642,7 @@
       <c r="AW120" s="3"/>
       <c r="AX120" s="7"/>
     </row>
-    <row r="121" spans="1:50">
+    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -14771,7 +14694,7 @@
       <c r="AW121" s="3"/>
       <c r="AX121" s="7"/>
     </row>
-    <row r="122" spans="1:50">
+    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -14823,7 +14746,7 @@
       <c r="AW122" s="3"/>
       <c r="AX122" s="7"/>
     </row>
-    <row r="123" spans="1:50">
+    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -14875,7 +14798,7 @@
       <c r="AW123" s="3"/>
       <c r="AX123" s="7"/>
     </row>
-    <row r="124" spans="1:50">
+    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -14927,7 +14850,7 @@
       <c r="AW124" s="3"/>
       <c r="AX124" s="7"/>
     </row>
-    <row r="125" spans="1:50">
+    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -14979,7 +14902,7 @@
       <c r="AW125" s="3"/>
       <c r="AX125" s="7"/>
     </row>
-    <row r="126" spans="1:50">
+    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -15031,7 +14954,7 @@
       <c r="AW126" s="3"/>
       <c r="AX126" s="7"/>
     </row>
-    <row r="127" spans="1:50">
+    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -15083,7 +15006,7 @@
       <c r="AW127" s="3"/>
       <c r="AX127" s="7"/>
     </row>
-    <row r="128" spans="1:50">
+    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -15135,7 +15058,7 @@
       <c r="AW128" s="3"/>
       <c r="AX128" s="7"/>
     </row>
-    <row r="129" spans="1:50">
+    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -15187,7 +15110,7 @@
       <c r="AW129" s="3"/>
       <c r="AX129" s="7"/>
     </row>
-    <row r="130" spans="1:50">
+    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -15239,7 +15162,7 @@
       <c r="AW130" s="3"/>
       <c r="AX130" s="7"/>
     </row>
-    <row r="131" spans="1:50">
+    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -15291,7 +15214,7 @@
       <c r="AW131" s="3"/>
       <c r="AX131" s="7"/>
     </row>
-    <row r="132" spans="1:50">
+    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -15343,7 +15266,7 @@
       <c r="AW132" s="3"/>
       <c r="AX132" s="7"/>
     </row>
-    <row r="133" spans="1:50">
+    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -15395,7 +15318,7 @@
       <c r="AW133" s="3"/>
       <c r="AX133" s="7"/>
     </row>
-    <row r="134" spans="1:50">
+    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -15447,7 +15370,7 @@
       <c r="AW134" s="3"/>
       <c r="AX134" s="7"/>
     </row>
-    <row r="135" spans="1:50">
+    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -15499,7 +15422,7 @@
       <c r="AW135" s="3"/>
       <c r="AX135" s="7"/>
     </row>
-    <row r="136" spans="1:50">
+    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A136" s="3"/>
       <c r="B136" s="5"/>
       <c r="C136" s="3"/>
@@ -15551,7 +15474,7 @@
       <c r="AW136" s="3"/>
       <c r="AX136" s="7"/>
     </row>
-    <row r="137" spans="1:50">
+    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -15603,7 +15526,7 @@
       <c r="AW137" s="3"/>
       <c r="AX137" s="7"/>
     </row>
-    <row r="138" spans="1:50">
+    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A138" s="3"/>
       <c r="B138" s="5"/>
       <c r="C138" s="3"/>
@@ -15655,7 +15578,7 @@
       <c r="AW138" s="3"/>
       <c r="AX138" s="7"/>
     </row>
-    <row r="139" spans="1:50">
+    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -15707,7 +15630,7 @@
       <c r="AW139" s="3"/>
       <c r="AX139" s="7"/>
     </row>
-    <row r="140" spans="1:50">
+    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -15759,7 +15682,7 @@
       <c r="AW140" s="3"/>
       <c r="AX140" s="7"/>
     </row>
-    <row r="141" spans="1:50">
+    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -15811,7 +15734,7 @@
       <c r="AW141" s="3"/>
       <c r="AX141" s="7"/>
     </row>
-    <row r="142" spans="1:50">
+    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -15863,7 +15786,7 @@
       <c r="AW142" s="3"/>
       <c r="AX142" s="7"/>
     </row>
-    <row r="143" spans="1:50">
+    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -15915,7 +15838,7 @@
       <c r="AW143" s="3"/>
       <c r="AX143" s="7"/>
     </row>
-    <row r="144" spans="1:50">
+    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -15967,7 +15890,7 @@
       <c r="AW144" s="3"/>
       <c r="AX144" s="7"/>
     </row>
-    <row r="145" spans="1:50">
+    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -16019,7 +15942,7 @@
       <c r="AW145" s="3"/>
       <c r="AX145" s="7"/>
     </row>
-    <row r="146" spans="1:50">
+    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -16071,7 +15994,7 @@
       <c r="AW146" s="3"/>
       <c r="AX146" s="7"/>
     </row>
-    <row r="147" spans="1:50">
+    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -16123,7 +16046,7 @@
       <c r="AW147" s="3"/>
       <c r="AX147" s="7"/>
     </row>
-    <row r="148" spans="1:50">
+    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -16175,7 +16098,7 @@
       <c r="AW148" s="3"/>
       <c r="AX148" s="7"/>
     </row>
-    <row r="149" spans="1:50">
+    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -16227,7 +16150,7 @@
       <c r="AW149" s="3"/>
       <c r="AX149" s="7"/>
     </row>
-    <row r="150" spans="1:50">
+    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -16279,7 +16202,7 @@
       <c r="AW150" s="3"/>
       <c r="AX150" s="7"/>
     </row>
-    <row r="151" spans="1:50">
+    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -16331,7 +16254,7 @@
       <c r="AW151" s="3"/>
       <c r="AX151" s="7"/>
     </row>
-    <row r="152" spans="1:50">
+    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -16383,7 +16306,7 @@
       <c r="AW152" s="3"/>
       <c r="AX152" s="7"/>
     </row>
-    <row r="153" spans="1:50">
+    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -16435,7 +16358,7 @@
       <c r="AW153" s="3"/>
       <c r="AX153" s="7"/>
     </row>
-    <row r="154" spans="1:50">
+    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -16487,7 +16410,7 @@
       <c r="AW154" s="3"/>
       <c r="AX154" s="7"/>
     </row>
-    <row r="155" spans="1:50">
+    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -16539,7 +16462,7 @@
       <c r="AW155" s="3"/>
       <c r="AX155" s="7"/>
     </row>
-    <row r="156" spans="1:50">
+    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -16591,7 +16514,7 @@
       <c r="AW156" s="3"/>
       <c r="AX156" s="7"/>
     </row>
-    <row r="157" spans="1:50">
+    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -16643,7 +16566,7 @@
       <c r="AW157" s="3"/>
       <c r="AX157" s="7"/>
     </row>
-    <row r="158" spans="1:50">
+    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16695,7 +16618,7 @@
       <c r="AW158" s="3"/>
       <c r="AX158" s="7"/>
     </row>
-    <row r="159" spans="1:50">
+    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16747,7 +16670,7 @@
       <c r="AW159" s="3"/>
       <c r="AX159" s="7"/>
     </row>
-    <row r="160" spans="1:50">
+    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -16799,7 +16722,7 @@
       <c r="AW160" s="3"/>
       <c r="AX160" s="7"/>
     </row>
-    <row r="161" spans="1:50">
+    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -16851,7 +16774,7 @@
       <c r="AW161" s="3"/>
       <c r="AX161" s="7"/>
     </row>
-    <row r="162" spans="1:50">
+    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -16903,7 +16826,7 @@
       <c r="AW162" s="3"/>
       <c r="AX162" s="7"/>
     </row>
-    <row r="163" spans="1:50">
+    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -16955,7 +16878,7 @@
       <c r="AW163" s="3"/>
       <c r="AX163" s="7"/>
     </row>
-    <row r="164" spans="1:50">
+    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -17007,7 +16930,7 @@
       <c r="AW164" s="3"/>
       <c r="AX164" s="7"/>
     </row>
-    <row r="165" spans="1:50">
+    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -17059,7 +16982,7 @@
       <c r="AW165" s="3"/>
       <c r="AX165" s="7"/>
     </row>
-    <row r="166" spans="1:50">
+    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -17111,7 +17034,7 @@
       <c r="AW166" s="3"/>
       <c r="AX166" s="7"/>
     </row>
-    <row r="167" spans="1:50">
+    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -17163,7 +17086,7 @@
       <c r="AW167" s="3"/>
       <c r="AX167" s="7"/>
     </row>
-    <row r="168" spans="1:50">
+    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -17215,7 +17138,7 @@
       <c r="AW168" s="3"/>
       <c r="AX168" s="7"/>
     </row>
-    <row r="169" spans="1:50">
+    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -17267,7 +17190,7 @@
       <c r="AW169" s="3"/>
       <c r="AX169" s="7"/>
     </row>
-    <row r="170" spans="1:50">
+    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -17319,7 +17242,7 @@
       <c r="AW170" s="3"/>
       <c r="AX170" s="7"/>
     </row>
-    <row r="171" spans="1:50">
+    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -17371,7 +17294,7 @@
       <c r="AW171" s="3"/>
       <c r="AX171" s="7"/>
     </row>
-    <row r="172" spans="1:50">
+    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -17423,7 +17346,7 @@
       <c r="AW172" s="3"/>
       <c r="AX172" s="7"/>
     </row>
-    <row r="173" spans="1:50">
+    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -17475,7 +17398,7 @@
       <c r="AW173" s="3"/>
       <c r="AX173" s="7"/>
     </row>
-    <row r="174" spans="1:50">
+    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -17527,7 +17450,7 @@
       <c r="AW174" s="3"/>
       <c r="AX174" s="7"/>
     </row>
-    <row r="175" spans="1:50">
+    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -17579,7 +17502,7 @@
       <c r="AW175" s="3"/>
       <c r="AX175" s="7"/>
     </row>
-    <row r="176" spans="1:50">
+    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -17631,7 +17554,7 @@
       <c r="AW176" s="3"/>
       <c r="AX176" s="7"/>
     </row>
-    <row r="177" spans="1:50">
+    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -17683,7 +17606,7 @@
       <c r="AW177" s="3"/>
       <c r="AX177" s="7"/>
     </row>
-    <row r="178" spans="1:50">
+    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -17735,7 +17658,7 @@
       <c r="AW178" s="3"/>
       <c r="AX178" s="7"/>
     </row>
-    <row r="179" spans="1:50">
+    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -17787,7 +17710,7 @@
       <c r="AW179" s="3"/>
       <c r="AX179" s="7"/>
     </row>
-    <row r="180" spans="1:50">
+    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -17839,7 +17762,7 @@
       <c r="AW180" s="3"/>
       <c r="AX180" s="7"/>
     </row>
-    <row r="181" spans="1:50">
+    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -17891,7 +17814,7 @@
       <c r="AW181" s="3"/>
       <c r="AX181" s="7"/>
     </row>
-    <row r="182" spans="1:50">
+    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -17943,7 +17866,7 @@
       <c r="AW182" s="3"/>
       <c r="AX182" s="7"/>
     </row>
-    <row r="183" spans="1:50">
+    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -17995,7 +17918,7 @@
       <c r="AW183" s="3"/>
       <c r="AX183" s="7"/>
     </row>
-    <row r="184" spans="1:50">
+    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -18047,7 +17970,7 @@
       <c r="AW184" s="3"/>
       <c r="AX184" s="7"/>
     </row>
-    <row r="185" spans="1:50">
+    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -18099,7 +18022,7 @@
       <c r="AW185" s="3"/>
       <c r="AX185" s="7"/>
     </row>
-    <row r="186" spans="1:50">
+    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -18151,7 +18074,7 @@
       <c r="AW186" s="3"/>
       <c r="AX186" s="7"/>
     </row>
-    <row r="187" spans="1:50">
+    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -18203,7 +18126,7 @@
       <c r="AW187" s="3"/>
       <c r="AX187" s="7"/>
     </row>
-    <row r="188" spans="1:50">
+    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -18255,7 +18178,7 @@
       <c r="AW188" s="3"/>
       <c r="AX188" s="7"/>
     </row>
-    <row r="189" spans="1:50">
+    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -18307,7 +18230,7 @@
       <c r="AW189" s="3"/>
       <c r="AX189" s="7"/>
     </row>
-    <row r="190" spans="1:50">
+    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -18359,7 +18282,7 @@
       <c r="AW190" s="3"/>
       <c r="AX190" s="7"/>
     </row>
-    <row r="191" spans="1:50">
+    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -18411,7 +18334,7 @@
       <c r="AW191" s="3"/>
       <c r="AX191" s="7"/>
     </row>
-    <row r="192" spans="1:50">
+    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A192" s="3"/>
       <c r="B192" s="5"/>
       <c r="C192" s="3"/>
@@ -18463,7 +18386,7 @@
       <c r="AW192" s="3"/>
       <c r="AX192" s="7"/>
     </row>
-    <row r="193" spans="1:50">
+    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -18515,7 +18438,7 @@
       <c r="AW193" s="3"/>
       <c r="AX193" s="7"/>
     </row>
-    <row r="194" spans="1:50">
+    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -18567,7 +18490,7 @@
       <c r="AW194" s="3"/>
       <c r="AX194" s="7"/>
     </row>
-    <row r="195" spans="1:50">
+    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -18619,7 +18542,7 @@
       <c r="AW195" s="3"/>
       <c r="AX195" s="7"/>
     </row>
-    <row r="196" spans="1:50">
+    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -18671,7 +18594,7 @@
       <c r="AW196" s="3"/>
       <c r="AX196" s="7"/>
     </row>
-    <row r="197" spans="1:50">
+    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -18723,7 +18646,7 @@
       <c r="AW197" s="3"/>
       <c r="AX197" s="7"/>
     </row>
-    <row r="198" spans="1:50">
+    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -18775,7 +18698,7 @@
       <c r="AW198" s="3"/>
       <c r="AX198" s="7"/>
     </row>
-    <row r="199" spans="1:50">
+    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -18827,7 +18750,7 @@
       <c r="AW199" s="3"/>
       <c r="AX199" s="7"/>
     </row>
-    <row r="200" spans="1:50">
+    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -18879,7 +18802,7 @@
       <c r="AW200" s="3"/>
       <c r="AX200" s="7"/>
     </row>
-    <row r="201" spans="1:50">
+    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -18931,7 +18854,7 @@
       <c r="AW201" s="3"/>
       <c r="AX201" s="7"/>
     </row>
-    <row r="202" spans="1:50">
+    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -18983,7 +18906,7 @@
       <c r="AW202" s="3"/>
       <c r="AX202" s="7"/>
     </row>
-    <row r="203" spans="1:50">
+    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -19035,7 +18958,7 @@
       <c r="AW203" s="3"/>
       <c r="AX203" s="7"/>
     </row>
-    <row r="204" spans="1:50">
+    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -19087,7 +19010,7 @@
       <c r="AW204" s="3"/>
       <c r="AX204" s="7"/>
     </row>
-    <row r="205" spans="1:50">
+    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -19139,7 +19062,7 @@
       <c r="AW205" s="3"/>
       <c r="AX205" s="7"/>
     </row>
-    <row r="206" spans="1:50">
+    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -19191,7 +19114,7 @@
       <c r="AW206" s="3"/>
       <c r="AX206" s="7"/>
     </row>
-    <row r="207" spans="1:50">
+    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -19243,7 +19166,7 @@
       <c r="AW207" s="3"/>
       <c r="AX207" s="7"/>
     </row>
-    <row r="208" spans="1:50">
+    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -19295,7 +19218,7 @@
       <c r="AW208" s="3"/>
       <c r="AX208" s="7"/>
     </row>
-    <row r="209" spans="1:50">
+    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -19347,7 +19270,7 @@
       <c r="AW209" s="3"/>
       <c r="AX209" s="7"/>
     </row>
-    <row r="210" spans="1:50">
+    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -19399,7 +19322,7 @@
       <c r="AW210" s="3"/>
       <c r="AX210" s="7"/>
     </row>
-    <row r="211" spans="1:50">
+    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -19451,7 +19374,7 @@
       <c r="AW211" s="3"/>
       <c r="AX211" s="7"/>
     </row>
-    <row r="212" spans="1:50">
+    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -19503,7 +19426,7 @@
       <c r="AW212" s="3"/>
       <c r="AX212" s="7"/>
     </row>
-    <row r="213" spans="1:50">
+    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -19555,7 +19478,7 @@
       <c r="AW213" s="3"/>
       <c r="AX213" s="7"/>
     </row>
-    <row r="214" spans="1:50">
+    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="3"/>
@@ -19607,7 +19530,7 @@
       <c r="AW214" s="3"/>
       <c r="AX214" s="7"/>
     </row>
-    <row r="215" spans="1:50">
+    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -19659,7 +19582,7 @@
       <c r="AW215" s="3"/>
       <c r="AX215" s="7"/>
     </row>
-    <row r="216" spans="1:50">
+    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -19711,7 +19634,7 @@
       <c r="AW216" s="3"/>
       <c r="AX216" s="7"/>
     </row>
-    <row r="217" spans="1:50">
+    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -19763,7 +19686,7 @@
       <c r="AW217" s="3"/>
       <c r="AX217" s="7"/>
     </row>
-    <row r="218" spans="1:50">
+    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -19815,7 +19738,7 @@
       <c r="AW218" s="3"/>
       <c r="AX218" s="7"/>
     </row>
-    <row r="219" spans="1:50">
+    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -19867,7 +19790,7 @@
       <c r="AW219" s="3"/>
       <c r="AX219" s="7"/>
     </row>
-    <row r="220" spans="1:50">
+    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -19919,7 +19842,7 @@
       <c r="AW220" s="3"/>
       <c r="AX220" s="7"/>
     </row>
-    <row r="221" spans="1:50">
+    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -19971,7 +19894,7 @@
       <c r="AW221" s="3"/>
       <c r="AX221" s="7"/>
     </row>
-    <row r="222" spans="1:50">
+    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -20023,7 +19946,7 @@
       <c r="AW222" s="3"/>
       <c r="AX222" s="7"/>
     </row>
-    <row r="223" spans="1:50">
+    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -20075,7 +19998,7 @@
       <c r="AW223" s="3"/>
       <c r="AX223" s="7"/>
     </row>
-    <row r="224" spans="1:50">
+    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -20127,7 +20050,7 @@
       <c r="AW224" s="3"/>
       <c r="AX224" s="7"/>
     </row>
-    <row r="225" spans="1:50">
+    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -20179,7 +20102,7 @@
       <c r="AW225" s="3"/>
       <c r="AX225" s="7"/>
     </row>
-    <row r="226" spans="1:50">
+    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -20231,7 +20154,7 @@
       <c r="AW226" s="3"/>
       <c r="AX226" s="7"/>
     </row>
-    <row r="227" spans="1:50">
+    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -20283,7 +20206,7 @@
       <c r="AW227" s="3"/>
       <c r="AX227" s="7"/>
     </row>
-    <row r="228" spans="1:50">
+    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -20335,7 +20258,7 @@
       <c r="AW228" s="3"/>
       <c r="AX228" s="7"/>
     </row>
-    <row r="229" spans="1:50">
+    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -20387,7 +20310,7 @@
       <c r="AW229" s="3"/>
       <c r="AX229" s="7"/>
     </row>
-    <row r="230" spans="1:50">
+    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -20439,7 +20362,7 @@
       <c r="AW230" s="3"/>
       <c r="AX230" s="7"/>
     </row>
-    <row r="231" spans="1:50">
+    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -20491,7 +20414,7 @@
       <c r="AW231" s="3"/>
       <c r="AX231" s="7"/>
     </row>
-    <row r="232" spans="1:50">
+    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -20543,7 +20466,7 @@
       <c r="AW232" s="3"/>
       <c r="AX232" s="7"/>
     </row>
-    <row r="233" spans="1:50">
+    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -20595,7 +20518,7 @@
       <c r="AW233" s="3"/>
       <c r="AX233" s="7"/>
     </row>
-    <row r="234" spans="1:50">
+    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -20647,7 +20570,7 @@
       <c r="AW234" s="3"/>
       <c r="AX234" s="7"/>
     </row>
-    <row r="235" spans="1:50">
+    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -20699,7 +20622,7 @@
       <c r="AW235" s="3"/>
       <c r="AX235" s="7"/>
     </row>
-    <row r="236" spans="1:50">
+    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -20751,7 +20674,7 @@
       <c r="AW236" s="3"/>
       <c r="AX236" s="7"/>
     </row>
-    <row r="237" spans="1:50">
+    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -20803,7 +20726,7 @@
       <c r="AW237" s="3"/>
       <c r="AX237" s="7"/>
     </row>
-    <row r="238" spans="1:50">
+    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -20855,7 +20778,7 @@
       <c r="AW238" s="3"/>
       <c r="AX238" s="7"/>
     </row>
-    <row r="239" spans="1:50">
+    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -20907,7 +20830,7 @@
       <c r="AW239" s="3"/>
       <c r="AX239" s="7"/>
     </row>
-    <row r="240" spans="1:50">
+    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -20959,7 +20882,7 @@
       <c r="AW240" s="3"/>
       <c r="AX240" s="7"/>
     </row>
-    <row r="241" spans="1:50">
+    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -21011,7 +20934,7 @@
       <c r="AW241" s="3"/>
       <c r="AX241" s="7"/>
     </row>
-    <row r="242" spans="1:50">
+    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -21063,7 +20986,7 @@
       <c r="AW242" s="3"/>
       <c r="AX242" s="7"/>
     </row>
-    <row r="243" spans="1:50">
+    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -21115,7 +21038,7 @@
       <c r="AW243" s="3"/>
       <c r="AX243" s="7"/>
     </row>
-    <row r="244" spans="1:50">
+    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -21167,7 +21090,7 @@
       <c r="AW244" s="3"/>
       <c r="AX244" s="7"/>
     </row>
-    <row r="245" spans="1:50">
+    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -21219,7 +21142,7 @@
       <c r="AW245" s="3"/>
       <c r="AX245" s="7"/>
     </row>
-    <row r="246" spans="1:50">
+    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -21271,7 +21194,7 @@
       <c r="AW246" s="3"/>
       <c r="AX246" s="7"/>
     </row>
-    <row r="247" spans="1:50">
+    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -21323,7 +21246,7 @@
       <c r="AW247" s="3"/>
       <c r="AX247" s="7"/>
     </row>
-    <row r="248" spans="1:50">
+    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -21375,7 +21298,7 @@
       <c r="AW248" s="3"/>
       <c r="AX248" s="7"/>
     </row>
-    <row r="249" spans="1:50">
+    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -21427,7 +21350,7 @@
       <c r="AW249" s="3"/>
       <c r="AX249" s="7"/>
     </row>
-    <row r="250" spans="1:50">
+    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -21479,7 +21402,7 @@
       <c r="AW250" s="3"/>
       <c r="AX250" s="7"/>
     </row>
-    <row r="251" spans="1:50">
+    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -21531,7 +21454,7 @@
       <c r="AW251" s="3"/>
       <c r="AX251" s="7"/>
     </row>
-    <row r="252" spans="1:50">
+    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -21583,7 +21506,7 @@
       <c r="AW252" s="3"/>
       <c r="AX252" s="7"/>
     </row>
-    <row r="253" spans="1:50">
+    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -21635,7 +21558,7 @@
       <c r="AW253" s="3"/>
       <c r="AX253" s="7"/>
     </row>
-    <row r="254" spans="1:50">
+    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -21687,7 +21610,7 @@
       <c r="AW254" s="3"/>
       <c r="AX254" s="7"/>
     </row>
-    <row r="255" spans="1:50">
+    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -21739,7 +21662,7 @@
       <c r="AW255" s="3"/>
       <c r="AX255" s="7"/>
     </row>
-    <row r="256" spans="1:50">
+    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -21791,7 +21714,7 @@
       <c r="AW256" s="3"/>
       <c r="AX256" s="7"/>
     </row>
-    <row r="257" spans="1:50">
+    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -21843,7 +21766,7 @@
       <c r="AW257" s="3"/>
       <c r="AX257" s="7"/>
     </row>
-    <row r="258" spans="1:50">
+    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -21895,7 +21818,7 @@
       <c r="AW258" s="3"/>
       <c r="AX258" s="7"/>
     </row>
-    <row r="259" spans="1:50">
+    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -21947,7 +21870,7 @@
       <c r="AW259" s="3"/>
       <c r="AX259" s="7"/>
     </row>
-    <row r="260" spans="1:50">
+    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -21999,7 +21922,7 @@
       <c r="AW260" s="3"/>
       <c r="AX260" s="7"/>
     </row>
-    <row r="261" spans="1:50">
+    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -22051,7 +21974,7 @@
       <c r="AW261" s="3"/>
       <c r="AX261" s="7"/>
     </row>
-    <row r="262" spans="1:50">
+    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -22103,7 +22026,7 @@
       <c r="AW262" s="3"/>
       <c r="AX262" s="7"/>
     </row>
-    <row r="263" spans="1:50">
+    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -22155,7 +22078,7 @@
       <c r="AW263" s="3"/>
       <c r="AX263" s="7"/>
     </row>
-    <row r="264" spans="1:50">
+    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -22207,7 +22130,7 @@
       <c r="AW264" s="3"/>
       <c r="AX264" s="7"/>
     </row>
-    <row r="265" spans="1:50">
+    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -22259,7 +22182,7 @@
       <c r="AW265" s="3"/>
       <c r="AX265" s="7"/>
     </row>
-    <row r="266" spans="1:50">
+    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A266" s="3"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -22312,8 +22235,8 @@
       <c r="AX266" s="7"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -763,6 +763,14 @@
   </si>
   <si>
     <t>无际坊盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于无际坊比武招亲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比武招亲帖</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1226,8 +1234,8 @@
   <dimension ref="A1:AX266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B45" sqref="B45"/>
+      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11807,7 +11815,7 @@
         <v>0</v>
       </c>
       <c r="P73" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q73" s="3">
         <v>0</v>
@@ -11955,7 +11963,7 @@
         <v>0</v>
       </c>
       <c r="P74" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q74" s="3">
         <v>0</v>
@@ -12103,7 +12111,7 @@
         <v>0</v>
       </c>
       <c r="P75" s="3">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="Q75" s="3">
         <v>0</v>
@@ -12257,7 +12265,7 @@
         <v>0</v>
       </c>
       <c r="R76" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="S76" s="3">
         <v>0</v>
@@ -12355,56 +12363,152 @@
       <c r="AX76" s="7"/>
     </row>
     <row r="77" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A77" s="3"/>
-      <c r="B77" s="5"/>
-      <c r="C77" s="5"/>
-      <c r="D77" s="5"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="3"/>
-      <c r="G77" s="3"/>
-      <c r="H77" s="3"/>
-      <c r="I77" s="3"/>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="3"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3"/>
-      <c r="R77" s="3"/>
-      <c r="S77" s="3"/>
-      <c r="T77" s="3"/>
-      <c r="U77" s="3"/>
-      <c r="V77" s="3"/>
-      <c r="W77" s="3"/>
-      <c r="X77" s="3"/>
-      <c r="Y77" s="3"/>
-      <c r="Z77" s="3"/>
-      <c r="AA77" s="3"/>
-      <c r="AB77" s="3"/>
-      <c r="AC77" s="3"/>
-      <c r="AD77" s="3"/>
-      <c r="AE77" s="3"/>
-      <c r="AF77" s="3"/>
-      <c r="AG77" s="3"/>
-      <c r="AH77" s="3"/>
-      <c r="AI77" s="3"/>
-      <c r="AJ77" s="3"/>
-      <c r="AK77" s="3"/>
-      <c r="AL77" s="3"/>
-      <c r="AM77" s="3"/>
-      <c r="AN77" s="3"/>
-      <c r="AO77" s="3"/>
-      <c r="AP77" s="3"/>
-      <c r="AQ77" s="3"/>
-      <c r="AR77" s="3"/>
-      <c r="AS77" s="3"/>
-      <c r="AT77" s="3"/>
-      <c r="AU77" s="3"/>
-      <c r="AV77" s="3"/>
-      <c r="AW77" s="3"/>
-      <c r="AX77" s="7"/>
+      <c r="A77" s="3">
+        <v>195</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="C77" s="4"/>
+      <c r="D77" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="E77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="F77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H77" s="3">
+        <v>0</v>
+      </c>
+      <c r="I77" s="3">
+        <v>0</v>
+      </c>
+      <c r="J77" s="3">
+        <v>0</v>
+      </c>
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AG77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AH77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AQ77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AU77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW77" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX77" s="6"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="249">
   <si>
     <t>Jyx2Configs.Jyx2ConfigItem</t>
   </si>
@@ -724,53 +724,61 @@
   </si>
   <si>
     <t>无名窟神秘武学</t>
+  </si>
+  <si>
+    <t>无际剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊珍宝</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊剑</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊刀</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊棍</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊盔甲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>用于无际坊比武招亲</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比武招亲帖</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>惊鹭宝刀</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>无际剑</t>
+    <t>惊鹭刀法</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>无际刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际棍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊珍宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊棍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊盔甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用于无际坊比武招亲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比武招亲帖</t>
+    <t>无际坊绝学</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -795,18 +803,21 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1234,8 +1245,8 @@
   <dimension ref="A1:AX266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C79" sqref="C79"/>
+      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -11626,12 +11637,12 @@
       <c r="A72" s="3">
         <v>190</v>
       </c>
-      <c r="B72" s="8" t="s">
-        <v>235</v>
+      <c r="B72" s="5" t="s">
+        <v>246</v>
       </c>
       <c r="C72" s="4"/>
       <c r="D72" s="9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E72" s="3">
         <v>-1</v>
@@ -11775,11 +11786,11 @@
         <v>191</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C73" s="4"/>
       <c r="D73" s="8" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E73" s="3">
         <v>-1</v>
@@ -11923,11 +11934,11 @@
         <v>192</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C74" s="4"/>
       <c r="D74" s="8" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E74" s="3">
         <v>-1</v>
@@ -12071,11 +12082,11 @@
         <v>193</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C75" s="4"/>
       <c r="D75" s="8" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E75" s="3">
         <v>-1</v>
@@ -12219,11 +12230,11 @@
         <v>194</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C76" s="4"/>
       <c r="D76" s="9" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E76" s="3">
         <v>-1</v>
@@ -12367,11 +12378,11 @@
         <v>195</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C77" s="4"/>
       <c r="D77" s="9" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E77" s="3">
         <v>-1</v>
@@ -12511,108 +12522,152 @@
       <c r="AX77" s="6"/>
     </row>
     <row r="78" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A78" s="3"/>
-      <c r="B78" s="5"/>
-      <c r="C78" s="5"/>
-      <c r="D78" s="5"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="3"/>
-      <c r="G78" s="3"/>
-      <c r="H78" s="3"/>
-      <c r="I78" s="3"/>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="3"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3"/>
-      <c r="R78" s="3"/>
-      <c r="S78" s="3"/>
-      <c r="T78" s="3"/>
-      <c r="U78" s="3"/>
-      <c r="V78" s="3"/>
-      <c r="W78" s="3"/>
-      <c r="X78" s="3"/>
-      <c r="Y78" s="3"/>
-      <c r="Z78" s="3"/>
-      <c r="AA78" s="3"/>
-      <c r="AB78" s="3"/>
-      <c r="AC78" s="3"/>
-      <c r="AD78" s="3"/>
-      <c r="AE78" s="3"/>
-      <c r="AF78" s="3"/>
-      <c r="AG78" s="3"/>
-      <c r="AH78" s="3"/>
-      <c r="AI78" s="3"/>
-      <c r="AJ78" s="3"/>
-      <c r="AK78" s="3"/>
-      <c r="AL78" s="3"/>
-      <c r="AM78" s="3"/>
-      <c r="AN78" s="3"/>
-      <c r="AO78" s="3"/>
-      <c r="AP78" s="3"/>
-      <c r="AQ78" s="3"/>
-      <c r="AR78" s="3"/>
-      <c r="AS78" s="3"/>
-      <c r="AT78" s="3"/>
-      <c r="AU78" s="3"/>
-      <c r="AV78" s="3"/>
-      <c r="AW78" s="3"/>
-      <c r="AX78" s="7"/>
-    </row>
-    <row r="79" spans="1:50" x14ac:dyDescent="0.2">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="5"/>
-      <c r="D79" s="5"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="3"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3"/>
-      <c r="R79" s="3"/>
-      <c r="S79" s="3"/>
-      <c r="T79" s="3"/>
-      <c r="U79" s="3"/>
-      <c r="V79" s="3"/>
-      <c r="W79" s="3"/>
-      <c r="X79" s="3"/>
-      <c r="Y79" s="3"/>
-      <c r="Z79" s="3"/>
-      <c r="AA79" s="3"/>
-      <c r="AB79" s="3"/>
-      <c r="AC79" s="3"/>
-      <c r="AD79" s="3"/>
-      <c r="AE79" s="3"/>
-      <c r="AF79" s="3"/>
-      <c r="AG79" s="3"/>
-      <c r="AH79" s="3"/>
-      <c r="AI79" s="3"/>
-      <c r="AJ79" s="3"/>
-      <c r="AK79" s="3"/>
-      <c r="AL79" s="3"/>
-      <c r="AM79" s="3"/>
-      <c r="AN79" s="3"/>
-      <c r="AO79" s="3"/>
-      <c r="AP79" s="3"/>
-      <c r="AQ79" s="3"/>
-      <c r="AR79" s="3"/>
-      <c r="AS79" s="3"/>
-      <c r="AT79" s="3"/>
-      <c r="AU79" s="3"/>
-      <c r="AV79" s="3"/>
-      <c r="AW79" s="3"/>
-      <c r="AX79" s="7"/>
+      <c r="A78" s="3">
+        <v>196</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="E78" s="3">
+        <v>190</v>
+      </c>
+      <c r="F78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="G78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="H78" s="3">
+        <v>2</v>
+      </c>
+      <c r="I78" s="3">
+        <v>0</v>
+      </c>
+      <c r="J78" s="3">
+        <v>0</v>
+      </c>
+      <c r="K78" s="3">
+        <v>0</v>
+      </c>
+      <c r="L78" s="3">
+        <v>0</v>
+      </c>
+      <c r="M78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="N78" s="3">
+        <v>0</v>
+      </c>
+      <c r="O78" s="3">
+        <v>0</v>
+      </c>
+      <c r="P78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q78" s="3">
+        <v>0</v>
+      </c>
+      <c r="R78" s="3">
+        <v>0</v>
+      </c>
+      <c r="S78" s="3">
+        <v>0</v>
+      </c>
+      <c r="T78" s="3">
+        <v>0</v>
+      </c>
+      <c r="U78" s="3">
+        <v>0</v>
+      </c>
+      <c r="V78" s="3">
+        <v>0</v>
+      </c>
+      <c r="W78" s="3">
+        <v>0</v>
+      </c>
+      <c r="X78" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y78" s="3">
+        <v>4</v>
+      </c>
+      <c r="Z78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AF78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AG78" s="3">
+        <v>2</v>
+      </c>
+      <c r="AH78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AI78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AJ78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AK78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AL78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AM78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AN78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AO78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AP78" s="3">
+        <v>40</v>
+      </c>
+      <c r="AQ78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AR78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AS78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AT78" s="3">
+        <v>500</v>
+      </c>
+      <c r="AU78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AV78" s="3">
+        <v>0</v>
+      </c>
+      <c r="AW78" s="3">
+        <v>-1</v>
+      </c>
+      <c r="AX78" s="6"/>
     </row>
     <row r="80" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>

--- a/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
+++ b/jyx2/Assets/Mods/SAMPLE/Configs/物品.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\jynew\jyx2\Assets\Mods\SAMPLE\Configs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16200" windowHeight="25005"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="3" r:id="rId1"/>
@@ -546,13 +541,13 @@
     <t>紫罂锥</t>
   </si>
   <si>
-    <t>罂粟谷暗器，含剧毒</t>
+    <t>曼陀谷暗器，含剧毒</t>
   </si>
   <si>
     <t>奇香解毒丸</t>
   </si>
   <si>
-    <t>罂粟谷所制之解毒丸</t>
+    <t>曼陀谷所制之解毒丸</t>
   </si>
   <si>
     <t>摩柯观音泪</t>
@@ -573,19 +568,19 @@
     <t>紫罂毒术</t>
   </si>
   <si>
-    <t>罂粟谷入门武学</t>
+    <t>曼陀谷入门武学</t>
   </si>
   <si>
     <t>落红剑法</t>
   </si>
   <si>
-    <t>罂粟谷入门剑法</t>
+    <t>曼陀谷入门剑法</t>
   </si>
   <si>
     <t>紫粟秘籍</t>
   </si>
   <si>
-    <t>罂粟谷之暗器总诀</t>
+    <t>曼陀谷之暗器总诀</t>
   </si>
   <si>
     <t>71,10</t>
@@ -726,67 +721,59 @@
     <t>无名窟神秘武学</t>
   </si>
   <si>
+    <t>惊鹭宝刀</t>
+  </si>
+  <si>
+    <t>无际坊珍宝</t>
+  </si>
+  <si>
     <t>无际剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊剑</t>
   </si>
   <si>
     <t>无际刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊刀</t>
   </si>
   <si>
     <t>无际棍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>无际坊棍</t>
   </si>
   <si>
     <t>无际甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊珍宝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊剑</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>无际坊棍</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无际坊盔甲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>比武招亲帖</t>
   </si>
   <si>
     <t>用于无际坊比武招亲</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>比武招亲帖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>惊鹭宝刀</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>惊鹭刀法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>无际坊绝学</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -797,59 +784,373 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color indexed="8"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -857,25 +1158,267 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -890,24 +1433,66 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="53">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="普通" xfId="1"/>
-    <cellStyle name="普通 2" xfId="2"/>
-    <cellStyle name="普通 3" xfId="4"/>
-    <cellStyle name="普通 4" xfId="3"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="普通" xfId="11"/>
+    <cellStyle name="百分比" xfId="12" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="13" builtinId="9"/>
+    <cellStyle name="普通 2" xfId="14"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="16" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="17" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="标题" xfId="19" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="20" builtinId="53"/>
+    <cellStyle name="普通 4" xfId="21"/>
+    <cellStyle name="标题 1" xfId="22" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="23" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="24" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="25" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="26" builtinId="44"/>
+    <cellStyle name="输出" xfId="27" builtinId="21"/>
+    <cellStyle name="计算" xfId="28" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="29" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="30" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="31" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="32" builtinId="24"/>
+    <cellStyle name="汇总" xfId="33" builtinId="25"/>
+    <cellStyle name="好" xfId="34" builtinId="26"/>
+    <cellStyle name="适中" xfId="35" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="36" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="37" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="38" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="39" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="40" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="41" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="42" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="43" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="44" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="45" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="46" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="47" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="48" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="49" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="50" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="51" builtinId="52"/>
+    <cellStyle name="普通 3" xfId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1236,32 +1821,33 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AX266"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A78" sqref="A78"/>
+      <pane ySplit="3" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="4" max="4" width="22.5" customWidth="1"/>
     <col min="48" max="48" width="9" customWidth="1"/>
     <col min="50" max="50" width="28.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1407,7 +1993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:50">
       <c r="A3" s="3" t="s">
         <v>49</v>
       </c>
@@ -1559,7 +2145,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50">
       <c r="A4" s="3">
         <v>0</v>
       </c>
@@ -1707,7 +2293,7 @@
       </c>
       <c r="AX4" s="7"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50">
       <c r="A5" s="3">
         <v>1</v>
       </c>
@@ -1855,7 +2441,7 @@
       </c>
       <c r="AX5" s="6"/>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:50">
       <c r="A6" s="3">
         <v>10</v>
       </c>
@@ -2003,7 +2589,7 @@
       </c>
       <c r="AX6" s="6"/>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:50">
       <c r="A7" s="3">
         <v>11</v>
       </c>
@@ -2151,7 +2737,7 @@
       </c>
       <c r="AX7" s="7"/>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:50">
       <c r="A8" s="3">
         <v>12</v>
       </c>
@@ -2299,7 +2885,7 @@
       </c>
       <c r="AX8" s="6"/>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:50">
       <c r="A9" s="3">
         <v>13</v>
       </c>
@@ -2447,7 +3033,7 @@
       </c>
       <c r="AX9" s="7"/>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:50">
       <c r="A10" s="3">
         <v>14</v>
       </c>
@@ -2595,7 +3181,7 @@
       </c>
       <c r="AX10" s="7"/>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:50">
       <c r="A11" s="3">
         <v>20</v>
       </c>
@@ -2743,7 +3329,7 @@
       </c>
       <c r="AX11" s="6"/>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:50">
       <c r="A12" s="3">
         <v>21</v>
       </c>
@@ -2891,7 +3477,7 @@
       </c>
       <c r="AX12" s="7"/>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:50">
       <c r="A13" s="3">
         <v>22</v>
       </c>
@@ -3039,7 +3625,7 @@
       </c>
       <c r="AX13" s="7"/>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:50">
       <c r="A14" s="3">
         <v>23</v>
       </c>
@@ -3187,7 +3773,7 @@
       </c>
       <c r="AX14" s="7"/>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:50">
       <c r="A15" s="3">
         <v>24</v>
       </c>
@@ -3335,7 +3921,7 @@
       </c>
       <c r="AX15" s="7"/>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:50">
       <c r="A16" s="3">
         <v>30</v>
       </c>
@@ -3483,7 +4069,7 @@
       </c>
       <c r="AX16" s="7"/>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:50">
       <c r="A17" s="3">
         <v>31</v>
       </c>
@@ -3631,7 +4217,7 @@
       </c>
       <c r="AX17" s="7"/>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:50">
       <c r="A18" s="3">
         <v>32</v>
       </c>
@@ -3779,7 +4365,7 @@
       </c>
       <c r="AX18" s="7"/>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:50">
       <c r="A19" s="3">
         <v>33</v>
       </c>
@@ -3927,7 +4513,7 @@
       </c>
       <c r="AX19" s="7"/>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:50">
       <c r="A20" s="3">
         <v>34</v>
       </c>
@@ -4075,7 +4661,7 @@
       </c>
       <c r="AX20" s="6"/>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:50">
       <c r="A21" s="3">
         <v>35</v>
       </c>
@@ -4223,7 +4809,7 @@
       </c>
       <c r="AX21" s="6"/>
     </row>
-    <row r="22" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:50">
       <c r="A22" s="3">
         <v>36</v>
       </c>
@@ -4371,7 +4957,7 @@
       </c>
       <c r="AX22" s="6"/>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:50">
       <c r="A23" s="3">
         <v>37</v>
       </c>
@@ -4519,7 +5105,7 @@
       </c>
       <c r="AX23" s="7"/>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:50">
       <c r="A24" s="3">
         <v>38</v>
       </c>
@@ -4667,7 +5253,7 @@
       </c>
       <c r="AX24" s="7"/>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:50">
       <c r="A25" s="3">
         <v>39</v>
       </c>
@@ -4815,7 +5401,7 @@
       </c>
       <c r="AX25" s="7"/>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:50">
       <c r="A26" s="3">
         <v>40</v>
       </c>
@@ -4963,7 +5549,7 @@
       </c>
       <c r="AX26" s="7"/>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:50">
       <c r="A27" s="3">
         <v>41</v>
       </c>
@@ -5111,7 +5697,7 @@
       </c>
       <c r="AX27" s="7"/>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:50">
       <c r="A28" s="3">
         <v>42</v>
       </c>
@@ -5259,7 +5845,7 @@
       </c>
       <c r="AX28" s="7"/>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:50">
       <c r="A29" s="3">
         <v>43</v>
       </c>
@@ -5407,7 +5993,7 @@
       </c>
       <c r="AX29" s="7"/>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:50">
       <c r="A30" s="3">
         <v>44</v>
       </c>
@@ -5555,7 +6141,7 @@
       </c>
       <c r="AX30" s="7"/>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:50">
       <c r="A31" s="3">
         <v>45</v>
       </c>
@@ -5703,7 +6289,7 @@
       </c>
       <c r="AX31" s="7"/>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:50">
       <c r="A32" s="3">
         <v>46</v>
       </c>
@@ -5851,7 +6437,7 @@
       </c>
       <c r="AX32" s="7"/>
     </row>
-    <row r="33" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:50">
       <c r="A33" s="3">
         <v>47</v>
       </c>
@@ -5999,7 +6585,7 @@
       </c>
       <c r="AX33" s="7"/>
     </row>
-    <row r="34" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:50">
       <c r="A34" s="3">
         <v>48</v>
       </c>
@@ -6147,7 +6733,7 @@
       </c>
       <c r="AX34" s="7"/>
     </row>
-    <row r="35" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:50">
       <c r="A35" s="3">
         <v>49</v>
       </c>
@@ -6295,7 +6881,7 @@
       </c>
       <c r="AX35" s="6"/>
     </row>
-    <row r="36" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:50">
       <c r="A36" s="3">
         <v>50</v>
       </c>
@@ -6443,7 +7029,7 @@
       </c>
       <c r="AX36" s="7"/>
     </row>
-    <row r="37" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:50">
       <c r="A37" s="3">
         <v>60</v>
       </c>
@@ -6591,7 +7177,7 @@
       </c>
       <c r="AX37" s="7"/>
     </row>
-    <row r="38" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:50">
       <c r="A38" s="3">
         <v>61</v>
       </c>
@@ -6739,7 +7325,7 @@
       </c>
       <c r="AX38" s="7"/>
     </row>
-    <row r="39" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:50">
       <c r="A39" s="3">
         <v>62</v>
       </c>
@@ -6887,7 +7473,7 @@
       </c>
       <c r="AX39" s="7"/>
     </row>
-    <row r="40" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:50">
       <c r="A40" s="3">
         <v>63</v>
       </c>
@@ -7035,7 +7621,7 @@
       </c>
       <c r="AX40" s="7"/>
     </row>
-    <row r="41" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:50">
       <c r="A41" s="3">
         <v>70</v>
       </c>
@@ -7183,7 +7769,7 @@
       </c>
       <c r="AX41" s="7"/>
     </row>
-    <row r="42" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:50">
       <c r="A42" s="3">
         <v>71</v>
       </c>
@@ -7331,7 +7917,7 @@
       </c>
       <c r="AX42" s="7"/>
     </row>
-    <row r="43" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:50">
       <c r="A43" s="3">
         <v>72</v>
       </c>
@@ -7479,7 +8065,7 @@
       </c>
       <c r="AX43" s="7"/>
     </row>
-    <row r="44" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:50">
       <c r="A44" s="3">
         <v>73</v>
       </c>
@@ -7627,7 +8213,7 @@
       </c>
       <c r="AX44" s="6"/>
     </row>
-    <row r="45" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:50">
       <c r="A45" s="3">
         <v>74</v>
       </c>
@@ -7777,7 +8363,7 @@
       </c>
       <c r="AX45" s="7"/>
     </row>
-    <row r="46" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:50">
       <c r="A46" s="3">
         <v>75</v>
       </c>
@@ -7925,7 +8511,7 @@
       </c>
       <c r="AX46" s="6"/>
     </row>
-    <row r="47" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:50">
       <c r="A47" s="3">
         <v>76</v>
       </c>
@@ -8073,7 +8659,7 @@
       </c>
       <c r="AX47" s="6"/>
     </row>
-    <row r="48" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:50">
       <c r="A48" s="3">
         <v>77</v>
       </c>
@@ -8223,7 +8809,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="49" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:50">
       <c r="A49" s="3">
         <v>80</v>
       </c>
@@ -8371,7 +8957,7 @@
       </c>
       <c r="AX49" s="7"/>
     </row>
-    <row r="50" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:50">
       <c r="A50" s="3">
         <v>81</v>
       </c>
@@ -8519,7 +9105,7 @@
       </c>
       <c r="AX50" s="7"/>
     </row>
-    <row r="51" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:50">
       <c r="A51" s="3">
         <v>90</v>
       </c>
@@ -8667,7 +9253,7 @@
       </c>
       <c r="AX51" s="7"/>
     </row>
-    <row r="52" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:50">
       <c r="A52" s="3">
         <v>91</v>
       </c>
@@ -8815,7 +9401,7 @@
       </c>
       <c r="AX52" s="6"/>
     </row>
-    <row r="53" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:50">
       <c r="A53" s="3">
         <v>92</v>
       </c>
@@ -8963,7 +9549,7 @@
       </c>
       <c r="AX53" s="7"/>
     </row>
-    <row r="54" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:50">
       <c r="A54" s="3">
         <v>93</v>
       </c>
@@ -9111,7 +9697,7 @@
       </c>
       <c r="AX54" s="6"/>
     </row>
-    <row r="55" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:50">
       <c r="A55" s="3">
         <v>110</v>
       </c>
@@ -9259,7 +9845,7 @@
       </c>
       <c r="AX55" s="7"/>
     </row>
-    <row r="56" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:50">
       <c r="A56" s="3">
         <v>120</v>
       </c>
@@ -9407,7 +9993,7 @@
       </c>
       <c r="AX56" s="7"/>
     </row>
-    <row r="57" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:50">
       <c r="A57" s="3">
         <v>121</v>
       </c>
@@ -9555,7 +10141,7 @@
       </c>
       <c r="AX57" s="7"/>
     </row>
-    <row r="58" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:50">
       <c r="A58" s="3">
         <v>122</v>
       </c>
@@ -9703,7 +10289,7 @@
       </c>
       <c r="AX58" s="7"/>
     </row>
-    <row r="59" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:50">
       <c r="A59" s="3">
         <v>123</v>
       </c>
@@ -9853,7 +10439,7 @@
       </c>
       <c r="AX59" s="7"/>
     </row>
-    <row r="60" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:50">
       <c r="A60" s="3">
         <v>124</v>
       </c>
@@ -10003,7 +10589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="61" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:50">
       <c r="A61" s="3">
         <v>140</v>
       </c>
@@ -10151,7 +10737,7 @@
       </c>
       <c r="AX61" s="7"/>
     </row>
-    <row r="62" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:50">
       <c r="A62" s="3">
         <v>141</v>
       </c>
@@ -10299,7 +10885,7 @@
       </c>
       <c r="AX62" s="7"/>
     </row>
-    <row r="63" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:50">
       <c r="A63" s="3">
         <v>142</v>
       </c>
@@ -10447,7 +11033,7 @@
       </c>
       <c r="AX63" s="6"/>
     </row>
-    <row r="64" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:50">
       <c r="A64" s="3">
         <v>160</v>
       </c>
@@ -10595,7 +11181,7 @@
       </c>
       <c r="AX64" s="7"/>
     </row>
-    <row r="65" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:50">
       <c r="A65" s="3">
         <v>161</v>
       </c>
@@ -10743,7 +11329,7 @@
       </c>
       <c r="AX65" s="7"/>
     </row>
-    <row r="66" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:50">
       <c r="A66" s="3">
         <v>170</v>
       </c>
@@ -10891,7 +11477,7 @@
       </c>
       <c r="AX66" s="7"/>
     </row>
-    <row r="67" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:50">
       <c r="A67" s="3">
         <v>171</v>
       </c>
@@ -11039,7 +11625,7 @@
       </c>
       <c r="AX67" s="7"/>
     </row>
-    <row r="68" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:50">
       <c r="A68" s="3">
         <v>174</v>
       </c>
@@ -11189,7 +11775,7 @@
       </c>
       <c r="AX68" s="7"/>
     </row>
-    <row r="69" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:50">
       <c r="A69" s="3">
         <v>180</v>
       </c>
@@ -11337,7 +11923,7 @@
       </c>
       <c r="AX69" s="7"/>
     </row>
-    <row r="70" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:50">
       <c r="A70" s="3">
         <v>181</v>
       </c>
@@ -11485,7 +12071,7 @@
       </c>
       <c r="AX70" s="7"/>
     </row>
-    <row r="71" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:50">
       <c r="A71" s="3">
         <v>182</v>
       </c>
@@ -11633,16 +12219,16 @@
       </c>
       <c r="AX71" s="6"/>
     </row>
-    <row r="72" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:50">
       <c r="A72" s="3">
         <v>190</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="C72" s="4"/>
-      <c r="D72" s="9" t="s">
-        <v>239</v>
+      <c r="D72" s="4" t="s">
+        <v>236</v>
       </c>
       <c r="E72" s="3">
         <v>-1</v>
@@ -11781,16 +12367,16 @@
       </c>
       <c r="AX72" s="7"/>
     </row>
-    <row r="73" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:50">
       <c r="A73" s="3">
         <v>191</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>235</v>
+      <c r="B73" s="5" t="s">
+        <v>237</v>
       </c>
       <c r="C73" s="4"/>
-      <c r="D73" s="8" t="s">
-        <v>240</v>
+      <c r="D73" s="5" t="s">
+        <v>238</v>
       </c>
       <c r="E73" s="3">
         <v>-1</v>
@@ -11929,16 +12515,16 @@
       </c>
       <c r="AX73" s="7"/>
     </row>
-    <row r="74" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:50">
       <c r="A74" s="3">
         <v>192</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>236</v>
+      <c r="B74" s="5" t="s">
+        <v>239</v>
       </c>
       <c r="C74" s="4"/>
-      <c r="D74" s="8" t="s">
-        <v>241</v>
+      <c r="D74" s="5" t="s">
+        <v>240</v>
       </c>
       <c r="E74" s="3">
         <v>-1</v>
@@ -12077,15 +12663,15 @@
       </c>
       <c r="AX74" s="7"/>
     </row>
-    <row r="75" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:50">
       <c r="A75" s="3">
         <v>193</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>237</v>
+      <c r="B75" s="5" t="s">
+        <v>241</v>
       </c>
       <c r="C75" s="4"/>
-      <c r="D75" s="8" t="s">
+      <c r="D75" s="5" t="s">
         <v>242</v>
       </c>
       <c r="E75" s="3">
@@ -12225,16 +12811,16 @@
       </c>
       <c r="AX75" s="7"/>
     </row>
-    <row r="76" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:50">
       <c r="A76" s="3">
         <v>194</v>
       </c>
-      <c r="B76" s="8" t="s">
-        <v>238</v>
+      <c r="B76" s="5" t="s">
+        <v>243</v>
       </c>
       <c r="C76" s="4"/>
-      <c r="D76" s="9" t="s">
-        <v>243</v>
+      <c r="D76" s="4" t="s">
+        <v>244</v>
       </c>
       <c r="E76" s="3">
         <v>-1</v>
@@ -12373,16 +12959,16 @@
       </c>
       <c r="AX76" s="7"/>
     </row>
-    <row r="77" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:50">
       <c r="A77" s="3">
         <v>195</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="4" t="s">
         <v>245</v>
       </c>
       <c r="C77" s="4"/>
-      <c r="D77" s="9" t="s">
-        <v>244</v>
+      <c r="D77" s="4" t="s">
+        <v>246</v>
       </c>
       <c r="E77" s="3">
         <v>-1</v>
@@ -12521,7 +13107,7 @@
       </c>
       <c r="AX77" s="6"/>
     </row>
-    <row r="78" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:50">
       <c r="A78" s="3">
         <v>196</v>
       </c>
@@ -12669,7 +13255,7 @@
       </c>
       <c r="AX78" s="6"/>
     </row>
-    <row r="80" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:50">
       <c r="A80" s="3"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
@@ -12721,7 +13307,7 @@
       <c r="AW80" s="3"/>
       <c r="AX80" s="7"/>
     </row>
-    <row r="81" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:50">
       <c r="A81" s="3"/>
       <c r="B81" s="5"/>
       <c r="C81" s="5"/>
@@ -12773,7 +13359,7 @@
       <c r="AW81" s="3"/>
       <c r="AX81" s="7"/>
     </row>
-    <row r="82" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:50">
       <c r="A82" s="3"/>
       <c r="B82" s="5"/>
       <c r="C82" s="5"/>
@@ -12825,7 +13411,7 @@
       <c r="AW82" s="3"/>
       <c r="AX82" s="7"/>
     </row>
-    <row r="83" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:50">
       <c r="A83" s="3"/>
       <c r="B83" s="5"/>
       <c r="C83" s="5"/>
@@ -12877,7 +13463,7 @@
       <c r="AW83" s="3"/>
       <c r="AX83" s="7"/>
     </row>
-    <row r="84" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:50">
       <c r="A84" s="3"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
@@ -12929,7 +13515,7 @@
       <c r="AW84" s="3"/>
       <c r="AX84" s="7"/>
     </row>
-    <row r="85" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:50">
       <c r="A85" s="3"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
@@ -12981,7 +13567,7 @@
       <c r="AW85" s="3"/>
       <c r="AX85" s="7"/>
     </row>
-    <row r="86" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:50">
       <c r="A86" s="3"/>
       <c r="B86" s="5"/>
       <c r="C86" s="5"/>
@@ -13033,7 +13619,7 @@
       <c r="AW86" s="3"/>
       <c r="AX86" s="7"/>
     </row>
-    <row r="87" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:50">
       <c r="A87" s="3"/>
       <c r="B87" s="5"/>
       <c r="C87" s="5"/>
@@ -13085,7 +13671,7 @@
       <c r="AW87" s="3"/>
       <c r="AX87" s="7"/>
     </row>
-    <row r="88" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:50">
       <c r="A88" s="3"/>
       <c r="B88" s="5"/>
       <c r="C88" s="5"/>
@@ -13137,7 +13723,7 @@
       <c r="AW88" s="3"/>
       <c r="AX88" s="7"/>
     </row>
-    <row r="89" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:50">
       <c r="A89" s="3"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
@@ -13189,7 +13775,7 @@
       <c r="AW89" s="3"/>
       <c r="AX89" s="7"/>
     </row>
-    <row r="90" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:50">
       <c r="A90" s="3"/>
       <c r="B90" s="5"/>
       <c r="C90" s="5"/>
@@ -13241,7 +13827,7 @@
       <c r="AW90" s="3"/>
       <c r="AX90" s="7"/>
     </row>
-    <row r="91" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:50">
       <c r="A91" s="3"/>
       <c r="B91" s="5"/>
       <c r="C91" s="5"/>
@@ -13293,7 +13879,7 @@
       <c r="AW91" s="3"/>
       <c r="AX91" s="7"/>
     </row>
-    <row r="92" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:50">
       <c r="A92" s="3"/>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
@@ -13345,7 +13931,7 @@
       <c r="AW92" s="3"/>
       <c r="AX92" s="7"/>
     </row>
-    <row r="93" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:50">
       <c r="A93" s="3"/>
       <c r="B93" s="5"/>
       <c r="C93" s="5"/>
@@ -13397,7 +13983,7 @@
       <c r="AW93" s="3"/>
       <c r="AX93" s="7"/>
     </row>
-    <row r="94" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:50">
       <c r="A94" s="3"/>
       <c r="B94" s="5"/>
       <c r="C94" s="5"/>
@@ -13449,7 +14035,7 @@
       <c r="AW94" s="3"/>
       <c r="AX94" s="7"/>
     </row>
-    <row r="95" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:50">
       <c r="A95" s="3"/>
       <c r="B95" s="5"/>
       <c r="C95" s="5"/>
@@ -13501,7 +14087,7 @@
       <c r="AW95" s="3"/>
       <c r="AX95" s="7"/>
     </row>
-    <row r="96" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:50">
       <c r="A96" s="3"/>
       <c r="B96" s="5"/>
       <c r="C96" s="5"/>
@@ -13553,7 +14139,7 @@
       <c r="AW96" s="3"/>
       <c r="AX96" s="7"/>
     </row>
-    <row r="97" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:50">
       <c r="A97" s="3"/>
       <c r="B97" s="5"/>
       <c r="C97" s="5"/>
@@ -13605,7 +14191,7 @@
       <c r="AW97" s="3"/>
       <c r="AX97" s="7"/>
     </row>
-    <row r="98" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:50">
       <c r="A98" s="3"/>
       <c r="B98" s="5"/>
       <c r="C98" s="5"/>
@@ -13657,7 +14243,7 @@
       <c r="AW98" s="3"/>
       <c r="AX98" s="7"/>
     </row>
-    <row r="99" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:50">
       <c r="A99" s="3"/>
       <c r="B99" s="5"/>
       <c r="C99" s="5"/>
@@ -13709,7 +14295,7 @@
       <c r="AW99" s="3"/>
       <c r="AX99" s="7"/>
     </row>
-    <row r="100" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:50">
       <c r="A100" s="3"/>
       <c r="B100" s="5"/>
       <c r="C100" s="5"/>
@@ -13761,7 +14347,7 @@
       <c r="AW100" s="3"/>
       <c r="AX100" s="7"/>
     </row>
-    <row r="101" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:50">
       <c r="A101" s="3"/>
       <c r="B101" s="5"/>
       <c r="C101" s="5"/>
@@ -13813,7 +14399,7 @@
       <c r="AW101" s="3"/>
       <c r="AX101" s="7"/>
     </row>
-    <row r="102" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:50">
       <c r="A102" s="3"/>
       <c r="B102" s="5"/>
       <c r="C102" s="5"/>
@@ -13865,7 +14451,7 @@
       <c r="AW102" s="3"/>
       <c r="AX102" s="7"/>
     </row>
-    <row r="103" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:50">
       <c r="A103" s="3"/>
       <c r="B103" s="5"/>
       <c r="C103" s="5"/>
@@ -13917,7 +14503,7 @@
       <c r="AW103" s="3"/>
       <c r="AX103" s="7"/>
     </row>
-    <row r="104" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:50">
       <c r="A104" s="3"/>
       <c r="B104" s="5"/>
       <c r="C104" s="5"/>
@@ -13969,7 +14555,7 @@
       <c r="AW104" s="3"/>
       <c r="AX104" s="7"/>
     </row>
-    <row r="105" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:50">
       <c r="A105" s="3"/>
       <c r="B105" s="5"/>
       <c r="C105" s="5"/>
@@ -14021,7 +14607,7 @@
       <c r="AW105" s="3"/>
       <c r="AX105" s="7"/>
     </row>
-    <row r="106" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:50">
       <c r="A106" s="3"/>
       <c r="B106" s="5"/>
       <c r="C106" s="5"/>
@@ -14073,7 +14659,7 @@
       <c r="AW106" s="3"/>
       <c r="AX106" s="7"/>
     </row>
-    <row r="107" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:50">
       <c r="A107" s="3"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
@@ -14125,7 +14711,7 @@
       <c r="AW107" s="3"/>
       <c r="AX107" s="7"/>
     </row>
-    <row r="108" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:50">
       <c r="A108" s="3"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
@@ -14177,7 +14763,7 @@
       <c r="AW108" s="3"/>
       <c r="AX108" s="7"/>
     </row>
-    <row r="109" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:50">
       <c r="A109" s="3"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
@@ -14229,7 +14815,7 @@
       <c r="AW109" s="3"/>
       <c r="AX109" s="7"/>
     </row>
-    <row r="110" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:50">
       <c r="A110" s="3"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
@@ -14281,7 +14867,7 @@
       <c r="AW110" s="3"/>
       <c r="AX110" s="7"/>
     </row>
-    <row r="111" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:50">
       <c r="A111" s="3"/>
       <c r="B111" s="3"/>
       <c r="C111" s="3"/>
@@ -14333,7 +14919,7 @@
       <c r="AW111" s="3"/>
       <c r="AX111" s="7"/>
     </row>
-    <row r="112" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:50">
       <c r="A112" s="3"/>
       <c r="B112" s="3"/>
       <c r="C112" s="3"/>
@@ -14385,7 +14971,7 @@
       <c r="AW112" s="3"/>
       <c r="AX112" s="7"/>
     </row>
-    <row r="113" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:50">
       <c r="A113" s="3"/>
       <c r="B113" s="3"/>
       <c r="C113" s="3"/>
@@ -14437,7 +15023,7 @@
       <c r="AW113" s="3"/>
       <c r="AX113" s="7"/>
     </row>
-    <row r="114" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:50">
       <c r="A114" s="3"/>
       <c r="B114" s="3"/>
       <c r="C114" s="3"/>
@@ -14489,7 +15075,7 @@
       <c r="AW114" s="3"/>
       <c r="AX114" s="7"/>
     </row>
-    <row r="115" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:50">
       <c r="A115" s="3"/>
       <c r="B115" s="3"/>
       <c r="C115" s="3"/>
@@ -14541,7 +15127,7 @@
       <c r="AW115" s="3"/>
       <c r="AX115" s="7"/>
     </row>
-    <row r="116" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:50">
       <c r="A116" s="3"/>
       <c r="B116" s="3"/>
       <c r="C116" s="3"/>
@@ -14593,7 +15179,7 @@
       <c r="AW116" s="3"/>
       <c r="AX116" s="7"/>
     </row>
-    <row r="117" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:50">
       <c r="A117" s="3"/>
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
@@ -14645,7 +15231,7 @@
       <c r="AW117" s="3"/>
       <c r="AX117" s="7"/>
     </row>
-    <row r="118" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:50">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
@@ -14697,7 +15283,7 @@
       <c r="AW118" s="3"/>
       <c r="AX118" s="7"/>
     </row>
-    <row r="119" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:50">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
@@ -14749,7 +15335,7 @@
       <c r="AW119" s="3"/>
       <c r="AX119" s="7"/>
     </row>
-    <row r="120" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:50">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
@@ -14801,7 +15387,7 @@
       <c r="AW120" s="3"/>
       <c r="AX120" s="7"/>
     </row>
-    <row r="121" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:50">
       <c r="A121" s="3"/>
       <c r="B121" s="3"/>
       <c r="C121" s="3"/>
@@ -14853,7 +15439,7 @@
       <c r="AW121" s="3"/>
       <c r="AX121" s="7"/>
     </row>
-    <row r="122" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:50">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
@@ -14905,7 +15491,7 @@
       <c r="AW122" s="3"/>
       <c r="AX122" s="7"/>
     </row>
-    <row r="123" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:50">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
@@ -14957,7 +15543,7 @@
       <c r="AW123" s="3"/>
       <c r="AX123" s="7"/>
     </row>
-    <row r="124" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:50">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
@@ -15009,7 +15595,7 @@
       <c r="AW124" s="3"/>
       <c r="AX124" s="7"/>
     </row>
-    <row r="125" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:50">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
@@ -15061,7 +15647,7 @@
       <c r="AW125" s="3"/>
       <c r="AX125" s="7"/>
     </row>
-    <row r="126" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:50">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
@@ -15113,7 +15699,7 @@
       <c r="AW126" s="3"/>
       <c r="AX126" s="7"/>
     </row>
-    <row r="127" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:50">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
@@ -15165,7 +15751,7 @@
       <c r="AW127" s="3"/>
       <c r="AX127" s="7"/>
     </row>
-    <row r="128" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:50">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
@@ -15217,7 +15803,7 @@
       <c r="AW128" s="3"/>
       <c r="AX128" s="7"/>
     </row>
-    <row r="129" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:50">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
@@ -15269,7 +15855,7 @@
       <c r="AW129" s="3"/>
       <c r="AX129" s="7"/>
     </row>
-    <row r="130" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:50">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
@@ -15321,7 +15907,7 @@
       <c r="AW130" s="3"/>
       <c r="AX130" s="7"/>
     </row>
-    <row r="131" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:50">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
@@ -15373,7 +15959,7 @@
       <c r="AW131" s="3"/>
       <c r="AX131" s="7"/>
     </row>
-    <row r="132" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:50">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
@@ -15425,7 +16011,7 @@
       <c r="AW132" s="3"/>
       <c r="AX132" s="7"/>
     </row>
-    <row r="133" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:50">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
@@ -15477,7 +16063,7 @@
       <c r="AW133" s="3"/>
       <c r="AX133" s="7"/>
     </row>
-    <row r="134" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:50">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
@@ -15529,7 +16115,7 @@
       <c r="AW134" s="3"/>
       <c r="AX134" s="7"/>
     </row>
-    <row r="135" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:50">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
@@ -15581,7 +16167,7 @@
       <c r="AW135" s="3"/>
       <c r="AX135" s="7"/>
     </row>
-    <row r="136" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:50">
       <c r="A136" s="3"/>
       <c r="B136" s="5"/>
       <c r="C136" s="3"/>
@@ -15633,7 +16219,7 @@
       <c r="AW136" s="3"/>
       <c r="AX136" s="7"/>
     </row>
-    <row r="137" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:50">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
@@ -15685,7 +16271,7 @@
       <c r="AW137" s="3"/>
       <c r="AX137" s="7"/>
     </row>
-    <row r="138" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:50">
       <c r="A138" s="3"/>
       <c r="B138" s="5"/>
       <c r="C138" s="3"/>
@@ -15737,7 +16323,7 @@
       <c r="AW138" s="3"/>
       <c r="AX138" s="7"/>
     </row>
-    <row r="139" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:50">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
@@ -15789,7 +16375,7 @@
       <c r="AW139" s="3"/>
       <c r="AX139" s="7"/>
     </row>
-    <row r="140" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:50">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
@@ -15841,7 +16427,7 @@
       <c r="AW140" s="3"/>
       <c r="AX140" s="7"/>
     </row>
-    <row r="141" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:50">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
@@ -15893,7 +16479,7 @@
       <c r="AW141" s="3"/>
       <c r="AX141" s="7"/>
     </row>
-    <row r="142" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:50">
       <c r="A142" s="3"/>
       <c r="B142" s="3"/>
       <c r="C142" s="3"/>
@@ -15945,7 +16531,7 @@
       <c r="AW142" s="3"/>
       <c r="AX142" s="7"/>
     </row>
-    <row r="143" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:50">
       <c r="A143" s="3"/>
       <c r="B143" s="3"/>
       <c r="C143" s="3"/>
@@ -15997,7 +16583,7 @@
       <c r="AW143" s="3"/>
       <c r="AX143" s="7"/>
     </row>
-    <row r="144" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:50">
       <c r="A144" s="3"/>
       <c r="B144" s="3"/>
       <c r="C144" s="3"/>
@@ -16049,7 +16635,7 @@
       <c r="AW144" s="3"/>
       <c r="AX144" s="7"/>
     </row>
-    <row r="145" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:50">
       <c r="A145" s="3"/>
       <c r="B145" s="3"/>
       <c r="C145" s="3"/>
@@ -16101,7 +16687,7 @@
       <c r="AW145" s="3"/>
       <c r="AX145" s="7"/>
     </row>
-    <row r="146" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:50">
       <c r="A146" s="3"/>
       <c r="B146" s="3"/>
       <c r="C146" s="3"/>
@@ -16153,7 +16739,7 @@
       <c r="AW146" s="3"/>
       <c r="AX146" s="7"/>
     </row>
-    <row r="147" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:50">
       <c r="A147" s="3"/>
       <c r="B147" s="3"/>
       <c r="C147" s="3"/>
@@ -16205,7 +16791,7 @@
       <c r="AW147" s="3"/>
       <c r="AX147" s="7"/>
     </row>
-    <row r="148" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:50">
       <c r="A148" s="3"/>
       <c r="B148" s="3"/>
       <c r="C148" s="3"/>
@@ -16257,7 +16843,7 @@
       <c r="AW148" s="3"/>
       <c r="AX148" s="7"/>
     </row>
-    <row r="149" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:50">
       <c r="A149" s="3"/>
       <c r="B149" s="3"/>
       <c r="C149" s="3"/>
@@ -16309,7 +16895,7 @@
       <c r="AW149" s="3"/>
       <c r="AX149" s="7"/>
     </row>
-    <row r="150" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:50">
       <c r="A150" s="3"/>
       <c r="B150" s="3"/>
       <c r="C150" s="3"/>
@@ -16361,7 +16947,7 @@
       <c r="AW150" s="3"/>
       <c r="AX150" s="7"/>
     </row>
-    <row r="151" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:50">
       <c r="A151" s="3"/>
       <c r="B151" s="3"/>
       <c r="C151" s="3"/>
@@ -16413,7 +16999,7 @@
       <c r="AW151" s="3"/>
       <c r="AX151" s="7"/>
     </row>
-    <row r="152" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:50">
       <c r="A152" s="3"/>
       <c r="B152" s="3"/>
       <c r="C152" s="3"/>
@@ -16465,7 +17051,7 @@
       <c r="AW152" s="3"/>
       <c r="AX152" s="7"/>
     </row>
-    <row r="153" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:50">
       <c r="A153" s="3"/>
       <c r="B153" s="3"/>
       <c r="C153" s="3"/>
@@ -16517,7 +17103,7 @@
       <c r="AW153" s="3"/>
       <c r="AX153" s="7"/>
     </row>
-    <row r="154" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:50">
       <c r="A154" s="3"/>
       <c r="B154" s="3"/>
       <c r="C154" s="3"/>
@@ -16569,7 +17155,7 @@
       <c r="AW154" s="3"/>
       <c r="AX154" s="7"/>
     </row>
-    <row r="155" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:50">
       <c r="A155" s="3"/>
       <c r="B155" s="3"/>
       <c r="C155" s="3"/>
@@ -16621,7 +17207,7 @@
       <c r="AW155" s="3"/>
       <c r="AX155" s="7"/>
     </row>
-    <row r="156" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:50">
       <c r="A156" s="3"/>
       <c r="B156" s="3"/>
       <c r="C156" s="3"/>
@@ -16673,7 +17259,7 @@
       <c r="AW156" s="3"/>
       <c r="AX156" s="7"/>
     </row>
-    <row r="157" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:50">
       <c r="A157" s="3"/>
       <c r="B157" s="3"/>
       <c r="C157" s="3"/>
@@ -16725,7 +17311,7 @@
       <c r="AW157" s="3"/>
       <c r="AX157" s="7"/>
     </row>
-    <row r="158" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:50">
       <c r="A158" s="3"/>
       <c r="B158" s="3"/>
       <c r="C158" s="3"/>
@@ -16777,7 +17363,7 @@
       <c r="AW158" s="3"/>
       <c r="AX158" s="7"/>
     </row>
-    <row r="159" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:50">
       <c r="A159" s="3"/>
       <c r="B159" s="3"/>
       <c r="C159" s="3"/>
@@ -16829,7 +17415,7 @@
       <c r="AW159" s="3"/>
       <c r="AX159" s="7"/>
     </row>
-    <row r="160" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:50">
       <c r="A160" s="3"/>
       <c r="B160" s="3"/>
       <c r="C160" s="3"/>
@@ -16881,7 +17467,7 @@
       <c r="AW160" s="3"/>
       <c r="AX160" s="7"/>
     </row>
-    <row r="161" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:50">
       <c r="A161" s="3"/>
       <c r="B161" s="3"/>
       <c r="C161" s="3"/>
@@ -16933,7 +17519,7 @@
       <c r="AW161" s="3"/>
       <c r="AX161" s="7"/>
     </row>
-    <row r="162" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:50">
       <c r="A162" s="3"/>
       <c r="B162" s="3"/>
       <c r="C162" s="3"/>
@@ -16985,7 +17571,7 @@
       <c r="AW162" s="3"/>
       <c r="AX162" s="7"/>
     </row>
-    <row r="163" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:50">
       <c r="A163" s="3"/>
       <c r="B163" s="3"/>
       <c r="C163" s="3"/>
@@ -17037,7 +17623,7 @@
       <c r="AW163" s="3"/>
       <c r="AX163" s="7"/>
     </row>
-    <row r="164" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:50">
       <c r="A164" s="3"/>
       <c r="B164" s="3"/>
       <c r="C164" s="3"/>
@@ -17089,7 +17675,7 @@
       <c r="AW164" s="3"/>
       <c r="AX164" s="7"/>
     </row>
-    <row r="165" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:50">
       <c r="A165" s="3"/>
       <c r="B165" s="3"/>
       <c r="C165" s="3"/>
@@ -17141,7 +17727,7 @@
       <c r="AW165" s="3"/>
       <c r="AX165" s="7"/>
     </row>
-    <row r="166" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:50">
       <c r="A166" s="3"/>
       <c r="B166" s="3"/>
       <c r="C166" s="3"/>
@@ -17193,7 +17779,7 @@
       <c r="AW166" s="3"/>
       <c r="AX166" s="7"/>
     </row>
-    <row r="167" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:50">
       <c r="A167" s="3"/>
       <c r="B167" s="3"/>
       <c r="C167" s="3"/>
@@ -17245,7 +17831,7 @@
       <c r="AW167" s="3"/>
       <c r="AX167" s="7"/>
     </row>
-    <row r="168" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:50">
       <c r="A168" s="3"/>
       <c r="B168" s="3"/>
       <c r="C168" s="3"/>
@@ -17297,7 +17883,7 @@
       <c r="AW168" s="3"/>
       <c r="AX168" s="7"/>
     </row>
-    <row r="169" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:50">
       <c r="A169" s="3"/>
       <c r="B169" s="3"/>
       <c r="C169" s="3"/>
@@ -17349,7 +17935,7 @@
       <c r="AW169" s="3"/>
       <c r="AX169" s="7"/>
     </row>
-    <row r="170" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:50">
       <c r="A170" s="3"/>
       <c r="B170" s="3"/>
       <c r="C170" s="3"/>
@@ -17401,7 +17987,7 @@
       <c r="AW170" s="3"/>
       <c r="AX170" s="7"/>
     </row>
-    <row r="171" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:50">
       <c r="A171" s="3"/>
       <c r="B171" s="3"/>
       <c r="C171" s="3"/>
@@ -17453,7 +18039,7 @@
       <c r="AW171" s="3"/>
       <c r="AX171" s="7"/>
     </row>
-    <row r="172" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:50">
       <c r="A172" s="3"/>
       <c r="B172" s="3"/>
       <c r="C172" s="3"/>
@@ -17505,7 +18091,7 @@
       <c r="AW172" s="3"/>
       <c r="AX172" s="7"/>
     </row>
-    <row r="173" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:50">
       <c r="A173" s="3"/>
       <c r="B173" s="3"/>
       <c r="C173" s="3"/>
@@ -17557,7 +18143,7 @@
       <c r="AW173" s="3"/>
       <c r="AX173" s="7"/>
     </row>
-    <row r="174" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:50">
       <c r="A174" s="3"/>
       <c r="B174" s="3"/>
       <c r="C174" s="3"/>
@@ -17609,7 +18195,7 @@
       <c r="AW174" s="3"/>
       <c r="AX174" s="7"/>
     </row>
-    <row r="175" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:50">
       <c r="A175" s="3"/>
       <c r="B175" s="3"/>
       <c r="C175" s="3"/>
@@ -17661,7 +18247,7 @@
       <c r="AW175" s="3"/>
       <c r="AX175" s="7"/>
     </row>
-    <row r="176" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:50">
       <c r="A176" s="3"/>
       <c r="B176" s="3"/>
       <c r="C176" s="3"/>
@@ -17713,7 +18299,7 @@
       <c r="AW176" s="3"/>
       <c r="AX176" s="7"/>
     </row>
-    <row r="177" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:50">
       <c r="A177" s="3"/>
       <c r="B177" s="3"/>
       <c r="C177" s="3"/>
@@ -17765,7 +18351,7 @@
       <c r="AW177" s="3"/>
       <c r="AX177" s="7"/>
     </row>
-    <row r="178" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:50">
       <c r="A178" s="3"/>
       <c r="B178" s="3"/>
       <c r="C178" s="3"/>
@@ -17817,7 +18403,7 @@
       <c r="AW178" s="3"/>
       <c r="AX178" s="7"/>
     </row>
-    <row r="179" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:50">
       <c r="A179" s="3"/>
       <c r="B179" s="3"/>
       <c r="C179" s="3"/>
@@ -17869,7 +18455,7 @@
       <c r="AW179" s="3"/>
       <c r="AX179" s="7"/>
     </row>
-    <row r="180" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:50">
       <c r="A180" s="3"/>
       <c r="B180" s="3"/>
       <c r="C180" s="3"/>
@@ -17921,7 +18507,7 @@
       <c r="AW180" s="3"/>
       <c r="AX180" s="7"/>
     </row>
-    <row r="181" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:50">
       <c r="A181" s="3"/>
       <c r="B181" s="3"/>
       <c r="C181" s="3"/>
@@ -17973,7 +18559,7 @@
       <c r="AW181" s="3"/>
       <c r="AX181" s="7"/>
     </row>
-    <row r="182" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:50">
       <c r="A182" s="3"/>
       <c r="B182" s="3"/>
       <c r="C182" s="3"/>
@@ -18025,7 +18611,7 @@
       <c r="AW182" s="3"/>
       <c r="AX182" s="7"/>
     </row>
-    <row r="183" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:50">
       <c r="A183" s="3"/>
       <c r="B183" s="3"/>
       <c r="C183" s="3"/>
@@ -18077,7 +18663,7 @@
       <c r="AW183" s="3"/>
       <c r="AX183" s="7"/>
     </row>
-    <row r="184" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:50">
       <c r="A184" s="3"/>
       <c r="B184" s="3"/>
       <c r="C184" s="3"/>
@@ -18129,7 +18715,7 @@
       <c r="AW184" s="3"/>
       <c r="AX184" s="7"/>
     </row>
-    <row r="185" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:50">
       <c r="A185" s="3"/>
       <c r="B185" s="3"/>
       <c r="C185" s="3"/>
@@ -18181,7 +18767,7 @@
       <c r="AW185" s="3"/>
       <c r="AX185" s="7"/>
     </row>
-    <row r="186" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:50">
       <c r="A186" s="3"/>
       <c r="B186" s="3"/>
       <c r="C186" s="3"/>
@@ -18233,7 +18819,7 @@
       <c r="AW186" s="3"/>
       <c r="AX186" s="7"/>
     </row>
-    <row r="187" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:50">
       <c r="A187" s="3"/>
       <c r="B187" s="3"/>
       <c r="C187" s="3"/>
@@ -18285,7 +18871,7 @@
       <c r="AW187" s="3"/>
       <c r="AX187" s="7"/>
     </row>
-    <row r="188" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:50">
       <c r="A188" s="3"/>
       <c r="B188" s="3"/>
       <c r="C188" s="3"/>
@@ -18337,7 +18923,7 @@
       <c r="AW188" s="3"/>
       <c r="AX188" s="7"/>
     </row>
-    <row r="189" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:50">
       <c r="A189" s="3"/>
       <c r="B189" s="3"/>
       <c r="C189" s="3"/>
@@ -18389,7 +18975,7 @@
       <c r="AW189" s="3"/>
       <c r="AX189" s="7"/>
     </row>
-    <row r="190" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:50">
       <c r="A190" s="3"/>
       <c r="B190" s="3"/>
       <c r="C190" s="3"/>
@@ -18441,7 +19027,7 @@
       <c r="AW190" s="3"/>
       <c r="AX190" s="7"/>
     </row>
-    <row r="191" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:50">
       <c r="A191" s="3"/>
       <c r="B191" s="3"/>
       <c r="C191" s="3"/>
@@ -18493,7 +19079,7 @@
       <c r="AW191" s="3"/>
       <c r="AX191" s="7"/>
     </row>
-    <row r="192" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:50">
       <c r="A192" s="3"/>
       <c r="B192" s="5"/>
       <c r="C192" s="3"/>
@@ -18545,7 +19131,7 @@
       <c r="AW192" s="3"/>
       <c r="AX192" s="7"/>
     </row>
-    <row r="193" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:50">
       <c r="A193" s="3"/>
       <c r="B193" s="3"/>
       <c r="C193" s="3"/>
@@ -18597,7 +19183,7 @@
       <c r="AW193" s="3"/>
       <c r="AX193" s="7"/>
     </row>
-    <row r="194" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:50">
       <c r="A194" s="3"/>
       <c r="B194" s="3"/>
       <c r="C194" s="3"/>
@@ -18649,7 +19235,7 @@
       <c r="AW194" s="3"/>
       <c r="AX194" s="7"/>
     </row>
-    <row r="195" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:50">
       <c r="A195" s="3"/>
       <c r="B195" s="3"/>
       <c r="C195" s="3"/>
@@ -18701,7 +19287,7 @@
       <c r="AW195" s="3"/>
       <c r="AX195" s="7"/>
     </row>
-    <row r="196" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:50">
       <c r="A196" s="3"/>
       <c r="B196" s="3"/>
       <c r="C196" s="3"/>
@@ -18753,7 +19339,7 @@
       <c r="AW196" s="3"/>
       <c r="AX196" s="7"/>
     </row>
-    <row r="197" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:50">
       <c r="A197" s="3"/>
       <c r="B197" s="3"/>
       <c r="C197" s="3"/>
@@ -18805,7 +19391,7 @@
       <c r="AW197" s="3"/>
       <c r="AX197" s="7"/>
     </row>
-    <row r="198" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:50">
       <c r="A198" s="3"/>
       <c r="B198" s="3"/>
       <c r="C198" s="3"/>
@@ -18857,7 +19443,7 @@
       <c r="AW198" s="3"/>
       <c r="AX198" s="7"/>
     </row>
-    <row r="199" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:50">
       <c r="A199" s="3"/>
       <c r="B199" s="3"/>
       <c r="C199" s="3"/>
@@ -18909,7 +19495,7 @@
       <c r="AW199" s="3"/>
       <c r="AX199" s="7"/>
     </row>
-    <row r="200" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:50">
       <c r="A200" s="3"/>
       <c r="B200" s="3"/>
       <c r="C200" s="3"/>
@@ -18961,7 +19547,7 @@
       <c r="AW200" s="3"/>
       <c r="AX200" s="7"/>
     </row>
-    <row r="201" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:50">
       <c r="A201" s="3"/>
       <c r="B201" s="3"/>
       <c r="C201" s="3"/>
@@ -19013,7 +19599,7 @@
       <c r="AW201" s="3"/>
       <c r="AX201" s="7"/>
     </row>
-    <row r="202" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:50">
       <c r="A202" s="3"/>
       <c r="B202" s="3"/>
       <c r="C202" s="3"/>
@@ -19065,7 +19651,7 @@
       <c r="AW202" s="3"/>
       <c r="AX202" s="7"/>
     </row>
-    <row r="203" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:50">
       <c r="A203" s="3"/>
       <c r="B203" s="3"/>
       <c r="C203" s="3"/>
@@ -19117,7 +19703,7 @@
       <c r="AW203" s="3"/>
       <c r="AX203" s="7"/>
     </row>
-    <row r="204" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:50">
       <c r="A204" s="3"/>
       <c r="B204" s="3"/>
       <c r="C204" s="3"/>
@@ -19169,7 +19755,7 @@
       <c r="AW204" s="3"/>
       <c r="AX204" s="7"/>
     </row>
-    <row r="205" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:50">
       <c r="A205" s="3"/>
       <c r="B205" s="3"/>
       <c r="C205" s="3"/>
@@ -19221,7 +19807,7 @@
       <c r="AW205" s="3"/>
       <c r="AX205" s="7"/>
     </row>
-    <row r="206" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:50">
       <c r="A206" s="3"/>
       <c r="B206" s="3"/>
       <c r="C206" s="3"/>
@@ -19273,7 +19859,7 @@
       <c r="AW206" s="3"/>
       <c r="AX206" s="7"/>
     </row>
-    <row r="207" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:50">
       <c r="A207" s="3"/>
       <c r="B207" s="3"/>
       <c r="C207" s="3"/>
@@ -19325,7 +19911,7 @@
       <c r="AW207" s="3"/>
       <c r="AX207" s="7"/>
     </row>
-    <row r="208" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:50">
       <c r="A208" s="3"/>
       <c r="B208" s="3"/>
       <c r="C208" s="3"/>
@@ -19377,7 +19963,7 @@
       <c r="AW208" s="3"/>
       <c r="AX208" s="7"/>
     </row>
-    <row r="209" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:50">
       <c r="A209" s="3"/>
       <c r="B209" s="3"/>
       <c r="C209" s="3"/>
@@ -19429,7 +20015,7 @@
       <c r="AW209" s="3"/>
       <c r="AX209" s="7"/>
     </row>
-    <row r="210" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:50">
       <c r="A210" s="3"/>
       <c r="B210" s="3"/>
       <c r="C210" s="3"/>
@@ -19481,7 +20067,7 @@
       <c r="AW210" s="3"/>
       <c r="AX210" s="7"/>
     </row>
-    <row r="211" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:50">
       <c r="A211" s="3"/>
       <c r="B211" s="3"/>
       <c r="C211" s="3"/>
@@ -19533,7 +20119,7 @@
       <c r="AW211" s="3"/>
       <c r="AX211" s="7"/>
     </row>
-    <row r="212" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:50">
       <c r="A212" s="3"/>
       <c r="B212" s="3"/>
       <c r="C212" s="3"/>
@@ -19585,7 +20171,7 @@
       <c r="AW212" s="3"/>
       <c r="AX212" s="7"/>
     </row>
-    <row r="213" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:50">
       <c r="A213" s="3"/>
       <c r="B213" s="3"/>
       <c r="C213" s="3"/>
@@ -19637,7 +20223,7 @@
       <c r="AW213" s="3"/>
       <c r="AX213" s="7"/>
     </row>
-    <row r="214" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:50">
       <c r="A214" s="3"/>
       <c r="B214" s="4"/>
       <c r="C214" s="3"/>
@@ -19689,7 +20275,7 @@
       <c r="AW214" s="3"/>
       <c r="AX214" s="7"/>
     </row>
-    <row r="215" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:50">
       <c r="A215" s="3"/>
       <c r="B215" s="3"/>
       <c r="C215" s="3"/>
@@ -19741,7 +20327,7 @@
       <c r="AW215" s="3"/>
       <c r="AX215" s="7"/>
     </row>
-    <row r="216" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:50">
       <c r="A216" s="3"/>
       <c r="B216" s="3"/>
       <c r="C216" s="3"/>
@@ -19793,7 +20379,7 @@
       <c r="AW216" s="3"/>
       <c r="AX216" s="7"/>
     </row>
-    <row r="217" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:50">
       <c r="A217" s="3"/>
       <c r="B217" s="3"/>
       <c r="C217" s="3"/>
@@ -19845,7 +20431,7 @@
       <c r="AW217" s="3"/>
       <c r="AX217" s="7"/>
     </row>
-    <row r="218" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:50">
       <c r="A218" s="3"/>
       <c r="B218" s="3"/>
       <c r="C218" s="3"/>
@@ -19897,7 +20483,7 @@
       <c r="AW218" s="3"/>
       <c r="AX218" s="7"/>
     </row>
-    <row r="219" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:50">
       <c r="A219" s="3"/>
       <c r="B219" s="4"/>
       <c r="C219" s="4"/>
@@ -19949,7 +20535,7 @@
       <c r="AW219" s="3"/>
       <c r="AX219" s="7"/>
     </row>
-    <row r="220" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:50">
       <c r="A220" s="3"/>
       <c r="B220" s="3"/>
       <c r="C220" s="3"/>
@@ -20001,7 +20587,7 @@
       <c r="AW220" s="3"/>
       <c r="AX220" s="7"/>
     </row>
-    <row r="221" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:50">
       <c r="A221" s="3"/>
       <c r="B221" s="3"/>
       <c r="C221" s="3"/>
@@ -20053,7 +20639,7 @@
       <c r="AW221" s="3"/>
       <c r="AX221" s="7"/>
     </row>
-    <row r="222" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:50">
       <c r="A222" s="3"/>
       <c r="B222" s="3"/>
       <c r="C222" s="3"/>
@@ -20105,7 +20691,7 @@
       <c r="AW222" s="3"/>
       <c r="AX222" s="7"/>
     </row>
-    <row r="223" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:50">
       <c r="A223" s="3"/>
       <c r="B223" s="3"/>
       <c r="C223" s="3"/>
@@ -20157,7 +20743,7 @@
       <c r="AW223" s="3"/>
       <c r="AX223" s="7"/>
     </row>
-    <row r="224" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:50">
       <c r="A224" s="3"/>
       <c r="B224" s="3"/>
       <c r="C224" s="3"/>
@@ -20209,7 +20795,7 @@
       <c r="AW224" s="3"/>
       <c r="AX224" s="7"/>
     </row>
-    <row r="225" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:50">
       <c r="A225" s="3"/>
       <c r="B225" s="3"/>
       <c r="C225" s="3"/>
@@ -20261,7 +20847,7 @@
       <c r="AW225" s="3"/>
       <c r="AX225" s="7"/>
     </row>
-    <row r="226" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:50">
       <c r="A226" s="3"/>
       <c r="B226" s="3"/>
       <c r="C226" s="3"/>
@@ -20313,7 +20899,7 @@
       <c r="AW226" s="3"/>
       <c r="AX226" s="7"/>
     </row>
-    <row r="227" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:50">
       <c r="A227" s="3"/>
       <c r="B227" s="3"/>
       <c r="C227" s="3"/>
@@ -20365,7 +20951,7 @@
       <c r="AW227" s="3"/>
       <c r="AX227" s="7"/>
     </row>
-    <row r="228" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:50">
       <c r="A228" s="3"/>
       <c r="B228" s="3"/>
       <c r="C228" s="3"/>
@@ -20417,7 +21003,7 @@
       <c r="AW228" s="3"/>
       <c r="AX228" s="7"/>
     </row>
-    <row r="229" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:50">
       <c r="A229" s="3"/>
       <c r="B229" s="3"/>
       <c r="C229" s="3"/>
@@ -20469,7 +21055,7 @@
       <c r="AW229" s="3"/>
       <c r="AX229" s="7"/>
     </row>
-    <row r="230" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:50">
       <c r="A230" s="3"/>
       <c r="B230" s="3"/>
       <c r="C230" s="3"/>
@@ -20521,7 +21107,7 @@
       <c r="AW230" s="3"/>
       <c r="AX230" s="7"/>
     </row>
-    <row r="231" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:50">
       <c r="A231" s="3"/>
       <c r="B231" s="3"/>
       <c r="C231" s="3"/>
@@ -20573,7 +21159,7 @@
       <c r="AW231" s="3"/>
       <c r="AX231" s="7"/>
     </row>
-    <row r="232" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:50">
       <c r="A232" s="3"/>
       <c r="B232" s="3"/>
       <c r="C232" s="3"/>
@@ -20625,7 +21211,7 @@
       <c r="AW232" s="3"/>
       <c r="AX232" s="7"/>
     </row>
-    <row r="233" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:50">
       <c r="A233" s="3"/>
       <c r="B233" s="3"/>
       <c r="C233" s="3"/>
@@ -20677,7 +21263,7 @@
       <c r="AW233" s="3"/>
       <c r="AX233" s="7"/>
     </row>
-    <row r="234" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:50">
       <c r="A234" s="3"/>
       <c r="B234" s="3"/>
       <c r="C234" s="3"/>
@@ -20729,7 +21315,7 @@
       <c r="AW234" s="3"/>
       <c r="AX234" s="7"/>
     </row>
-    <row r="235" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:50">
       <c r="A235" s="3"/>
       <c r="B235" s="3"/>
       <c r="C235" s="3"/>
@@ -20781,7 +21367,7 @@
       <c r="AW235" s="3"/>
       <c r="AX235" s="7"/>
     </row>
-    <row r="236" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:50">
       <c r="A236" s="3"/>
       <c r="B236" s="3"/>
       <c r="C236" s="3"/>
@@ -20833,7 +21419,7 @@
       <c r="AW236" s="3"/>
       <c r="AX236" s="7"/>
     </row>
-    <row r="237" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:50">
       <c r="A237" s="3"/>
       <c r="B237" s="3"/>
       <c r="C237" s="3"/>
@@ -20885,7 +21471,7 @@
       <c r="AW237" s="3"/>
       <c r="AX237" s="7"/>
     </row>
-    <row r="238" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:50">
       <c r="A238" s="3"/>
       <c r="B238" s="3"/>
       <c r="C238" s="3"/>
@@ -20937,7 +21523,7 @@
       <c r="AW238" s="3"/>
       <c r="AX238" s="7"/>
     </row>
-    <row r="239" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:50">
       <c r="A239" s="3"/>
       <c r="B239" s="3"/>
       <c r="C239" s="3"/>
@@ -20989,7 +21575,7 @@
       <c r="AW239" s="3"/>
       <c r="AX239" s="7"/>
     </row>
-    <row r="240" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:50">
       <c r="A240" s="3"/>
       <c r="B240" s="3"/>
       <c r="C240" s="3"/>
@@ -21041,7 +21627,7 @@
       <c r="AW240" s="3"/>
       <c r="AX240" s="7"/>
     </row>
-    <row r="241" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:50">
       <c r="A241" s="3"/>
       <c r="B241" s="3"/>
       <c r="C241" s="3"/>
@@ -21093,7 +21679,7 @@
       <c r="AW241" s="3"/>
       <c r="AX241" s="7"/>
     </row>
-    <row r="242" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:50">
       <c r="A242" s="3"/>
       <c r="B242" s="3"/>
       <c r="C242" s="3"/>
@@ -21145,7 +21731,7 @@
       <c r="AW242" s="3"/>
       <c r="AX242" s="7"/>
     </row>
-    <row r="243" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:50">
       <c r="A243" s="3"/>
       <c r="B243" s="3"/>
       <c r="C243" s="3"/>
@@ -21197,7 +21783,7 @@
       <c r="AW243" s="3"/>
       <c r="AX243" s="7"/>
     </row>
-    <row r="244" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:50">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -21249,7 +21835,7 @@
       <c r="AW244" s="3"/>
       <c r="AX244" s="7"/>
     </row>
-    <row r="245" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:50">
       <c r="A245" s="3"/>
       <c r="B245" s="3"/>
       <c r="C245" s="3"/>
@@ -21301,7 +21887,7 @@
       <c r="AW245" s="3"/>
       <c r="AX245" s="7"/>
     </row>
-    <row r="246" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:50">
       <c r="A246" s="3"/>
       <c r="B246" s="3"/>
       <c r="C246" s="3"/>
@@ -21353,7 +21939,7 @@
       <c r="AW246" s="3"/>
       <c r="AX246" s="7"/>
     </row>
-    <row r="247" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:50">
       <c r="A247" s="3"/>
       <c r="B247" s="3"/>
       <c r="C247" s="3"/>
@@ -21405,7 +21991,7 @@
       <c r="AW247" s="3"/>
       <c r="AX247" s="7"/>
     </row>
-    <row r="248" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:50">
       <c r="A248" s="3"/>
       <c r="B248" s="3"/>
       <c r="C248" s="3"/>
@@ -21457,7 +22043,7 @@
       <c r="AW248" s="3"/>
       <c r="AX248" s="7"/>
     </row>
-    <row r="249" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:50">
       <c r="A249" s="3"/>
       <c r="B249" s="3"/>
       <c r="C249" s="3"/>
@@ -21509,7 +22095,7 @@
       <c r="AW249" s="3"/>
       <c r="AX249" s="7"/>
     </row>
-    <row r="250" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:50">
       <c r="A250" s="3"/>
       <c r="B250" s="3"/>
       <c r="C250" s="3"/>
@@ -21561,7 +22147,7 @@
       <c r="AW250" s="3"/>
       <c r="AX250" s="7"/>
     </row>
-    <row r="251" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:50">
       <c r="A251" s="3"/>
       <c r="B251" s="3"/>
       <c r="C251" s="3"/>
@@ -21613,7 +22199,7 @@
       <c r="AW251" s="3"/>
       <c r="AX251" s="7"/>
     </row>
-    <row r="252" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:50">
       <c r="A252" s="3"/>
       <c r="B252" s="3"/>
       <c r="C252" s="3"/>
@@ -21665,7 +22251,7 @@
       <c r="AW252" s="3"/>
       <c r="AX252" s="7"/>
     </row>
-    <row r="253" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:50">
       <c r="A253" s="3"/>
       <c r="B253" s="3"/>
       <c r="C253" s="3"/>
@@ -21717,7 +22303,7 @@
       <c r="AW253" s="3"/>
       <c r="AX253" s="7"/>
     </row>
-    <row r="254" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:50">
       <c r="A254" s="3"/>
       <c r="B254" s="3"/>
       <c r="C254" s="3"/>
@@ -21769,7 +22355,7 @@
       <c r="AW254" s="3"/>
       <c r="AX254" s="7"/>
     </row>
-    <row r="255" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:50">
       <c r="A255" s="3"/>
       <c r="B255" s="3"/>
       <c r="C255" s="3"/>
@@ -21821,7 +22407,7 @@
       <c r="AW255" s="3"/>
       <c r="AX255" s="7"/>
     </row>
-    <row r="256" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:50">
       <c r="A256" s="3"/>
       <c r="B256" s="3"/>
       <c r="C256" s="3"/>
@@ -21873,7 +22459,7 @@
       <c r="AW256" s="3"/>
       <c r="AX256" s="7"/>
     </row>
-    <row r="257" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:50">
       <c r="A257" s="3"/>
       <c r="B257" s="3"/>
       <c r="C257" s="3"/>
@@ -21925,7 +22511,7 @@
       <c r="AW257" s="3"/>
       <c r="AX257" s="7"/>
     </row>
-    <row r="258" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:50">
       <c r="A258" s="3"/>
       <c r="B258" s="3"/>
       <c r="C258" s="3"/>
@@ -21977,7 +22563,7 @@
       <c r="AW258" s="3"/>
       <c r="AX258" s="7"/>
     </row>
-    <row r="259" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:50">
       <c r="A259" s="3"/>
       <c r="B259" s="3"/>
       <c r="C259" s="3"/>
@@ -22029,7 +22615,7 @@
       <c r="AW259" s="3"/>
       <c r="AX259" s="7"/>
     </row>
-    <row r="260" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:50">
       <c r="A260" s="3"/>
       <c r="B260" s="3"/>
       <c r="C260" s="3"/>
@@ -22081,7 +22667,7 @@
       <c r="AW260" s="3"/>
       <c r="AX260" s="7"/>
     </row>
-    <row r="261" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:50">
       <c r="A261" s="3"/>
       <c r="B261" s="3"/>
       <c r="C261" s="3"/>
@@ -22133,7 +22719,7 @@
       <c r="AW261" s="3"/>
       <c r="AX261" s="7"/>
     </row>
-    <row r="262" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:50">
       <c r="A262" s="3"/>
       <c r="B262" s="3"/>
       <c r="C262" s="3"/>
@@ -22185,7 +22771,7 @@
       <c r="AW262" s="3"/>
       <c r="AX262" s="7"/>
     </row>
-    <row r="263" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:50">
       <c r="A263" s="3"/>
       <c r="B263" s="3"/>
       <c r="C263" s="3"/>
@@ -22237,7 +22823,7 @@
       <c r="AW263" s="3"/>
       <c r="AX263" s="7"/>
     </row>
-    <row r="264" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:50">
       <c r="A264" s="3"/>
       <c r="B264" s="3"/>
       <c r="C264" s="3"/>
@@ -22289,7 +22875,7 @@
       <c r="AW264" s="3"/>
       <c r="AX264" s="7"/>
     </row>
-    <row r="265" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:50">
       <c r="A265" s="3"/>
       <c r="B265" s="3"/>
       <c r="C265" s="3"/>
@@ -22341,7 +22927,7 @@
       <c r="AW265" s="3"/>
       <c r="AX265" s="7"/>
     </row>
-    <row r="266" spans="1:50" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:50">
       <c r="A266" s="3"/>
       <c r="B266" s="4"/>
       <c r="C266" s="4"/>
@@ -22394,8 +22980,8 @@
       <c r="AX266" s="7"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>